--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3265,155 +3265,6 @@
   </si>
   <si>
     <r>
-      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-All fields are mandatory for each VCN except "DNS Label" and "Defined Tag".
-Tags apply to the VCNs only and not to its components like IGW,NGW,SGW,DRG,LPG.
-"VCN name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -  VCN names should be unique and are case-sensitie across sheets.
-"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>DNS Label"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> -  Default value is "VCN Name" truncated to 15 chars (when left empty).If specified as </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'n'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, DNS will not be enabled for the VCN.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Valid Values for columns E,F,G,H,I - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>y|n|&lt;component_name&gt; i.e. specify 'n' when a component(like IGW) is 
-                                                                    not required to be configured(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PHXHub-VCN in sample data), 
-                                                                 - specify name of the component- component will be configured with the
-                                                                    mentioned name(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PHX-DRG for the DRG in PHXHub-VCN) ,
-                                                                 - specify 'y' if component needs to be configured with default name i.e. 
-                                                                    &lt;vcnname&gt;_ngw(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>eg:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> PHXNonProd-VCN_ngw)
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <rPr>
         <b/>
         <u/>
@@ -7150,6 +7001,177 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+All fields are mandatory for each VCN except "DNS Label" and "Defined Tag".
+Tags apply to the VCNs only and not to its components like IGW,NGW,SGW,DRG,LPG.
+"VCN name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  VCN names should be unique and are case-sensitie across sheets.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"CIDR Blocks"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Enter comma seperated CIDRs to have multiple CIDR blocks attached to VCN.
+"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>DNS Label"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -  Default value is "VCN Name" truncated to 15 chars (when left empty).If specified as </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'n'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, DNS will not be enabled for the VCN.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Valid Values for columns E,F,G,H,I - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>y|n|&lt;component_name&gt; i.e. specify 'n' when a component(like IGW) is 
+                                                                    not required to be configured(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PHXHub-VCN in sample data), 
+                                                                 - specify name of the component- component will be configured with the
+                                                                    mentioned name(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PHX-DRG for the DRG in PHXHub-VCN) ,
+                                                                 - specify 'y' if component needs to be configured with default name i.e. 
+                                                                    &lt;vcnname&gt;_ngw(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>eg:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> PHXNonProd-VCN_ngw)
 </t>
     </r>
   </si>
@@ -11150,70 +11172,12 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVolumes"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DBSystems-VM-BM"/>
-      <sheetName val="EXA-Infra"/>
-      <sheetName val="EXA-VMClusters"/>
-      <sheetName val="Database_Dropdown"/>
       <sheetName val="drop_down_rule_set"/>
-      <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11596,7 +11560,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="70" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
   </sheetData>
@@ -11629,7 +11593,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -11637,7 +11601,7 @@
       <c r="E1" s="113"/>
       <c r="F1" s="114"/>
       <c r="G1" s="117" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H1" s="118"/>
       <c r="I1" s="118"/>
@@ -11683,16 +11647,16 @@
         <v>418</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E3" s="37" t="s">
+        <v>816</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>817</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>818</v>
       </c>
       <c r="G3" s="37" t="b">
         <v>1</v>
@@ -11702,7 +11666,7 @@
         <v>418</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="38" customFormat="1" ht="29">
@@ -11713,16 +11677,16 @@
         <v>418</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E4" s="37" t="s">
+        <v>819</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>820</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>821</v>
       </c>
       <c r="G4" s="37" t="b">
         <v>0</v>
@@ -11732,7 +11696,7 @@
         <v>418</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12049,7 +12013,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
       <c r="A1" s="111" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -12069,25 +12033,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>830</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>831</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>832</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>444</v>
@@ -12102,23 +12066,23 @@
         <v>366</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="J3" s="37"/>
       <c r="K3" s="39"/>
@@ -14015,13 +13979,13 @@
         <v>366</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D3" s="37" t="s">
+        <v>777</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>778</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>779</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>401</v>
@@ -14035,7 +13999,7 @@
         <v>402</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="37"/>
@@ -14048,7 +14012,7 @@
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="S3" s="37"/>
       <c r="T3" s="37"/>
@@ -14061,13 +14025,13 @@
         <v>366</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>401</v>
@@ -14076,7 +14040,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I4" s="37" t="s">
         <v>29</v>
@@ -14094,7 +14058,7 @@
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
@@ -14107,13 +14071,13 @@
         <v>366</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>401</v>
@@ -14122,10 +14086,10 @@
         <v>80</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
@@ -14140,7 +14104,7 @@
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
       <c r="R5" s="37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
@@ -14153,13 +14117,13 @@
         <v>366</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>401</v>
@@ -14173,7 +14137,7 @@
         <v>402</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
@@ -14186,7 +14150,7 @@
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="37"/>
@@ -14199,13 +14163,13 @@
         <v>366</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>401</v>
@@ -14214,10 +14178,10 @@
         <v>80</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
@@ -14232,7 +14196,7 @@
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S7" s="37"/>
       <c r="T7" s="37"/>
@@ -14245,13 +14209,13 @@
         <v>366</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>401</v>
@@ -14260,10 +14224,10 @@
         <v>80</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
@@ -14278,7 +14242,7 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
@@ -14291,13 +14255,13 @@
         <v>366</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>401</v>
@@ -14311,7 +14275,7 @@
         <v>402</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
@@ -14324,7 +14288,7 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="37" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -14337,13 +14301,13 @@
         <v>366</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>401</v>
@@ -14354,10 +14318,10 @@
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37" t="s">
+        <v>793</v>
+      </c>
+      <c r="K10" s="37" t="s">
         <v>794</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>795</v>
       </c>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
@@ -14370,7 +14334,7 @@
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
       <c r="R10" s="37" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
@@ -14383,13 +14347,13 @@
         <v>366</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>401</v>
@@ -14398,10 +14362,10 @@
         <v>80</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -14416,7 +14380,7 @@
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="37" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
@@ -14429,13 +14393,13 @@
         <v>366</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>401</v>
@@ -14444,10 +14408,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
@@ -14462,7 +14426,7 @@
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
@@ -14475,13 +14439,13 @@
         <v>366</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>401</v>
@@ -14495,7 +14459,7 @@
         <v>402</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
@@ -14508,7 +14472,7 @@
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
@@ -14521,13 +14485,13 @@
         <v>366</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>401</v>
@@ -14538,10 +14502,10 @@
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
       <c r="J14" s="37" t="s">
+        <v>793</v>
+      </c>
+      <c r="K14" s="37" t="s">
         <v>794</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>795</v>
       </c>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
@@ -14554,7 +14518,7 @@
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="37" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
@@ -14567,13 +14531,13 @@
         <v>366</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>401</v>
@@ -14582,10 +14546,10 @@
         <v>80</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
@@ -14600,7 +14564,7 @@
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="37" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
@@ -14613,13 +14577,13 @@
         <v>366</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F16" s="37" t="s">
         <v>401</v>
@@ -14628,10 +14592,10 @@
         <v>80</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
@@ -14646,7 +14610,7 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
@@ -15097,7 +15061,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
       <c r="A1" s="119" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B1" s="120"/>
       <c r="C1" s="120"/>
@@ -15107,7 +15071,7 @@
       <c r="G1" s="120"/>
       <c r="H1" s="121"/>
       <c r="I1" s="112" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="J1" s="113"/>
       <c r="K1" s="113"/>
@@ -15155,7 +15119,7 @@
         <v>97</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>98</v>
@@ -15202,7 +15166,7 @@
         <v>104</v>
       </c>
       <c r="L3" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M3" s="48" t="s">
         <v>380</v>
@@ -15505,7 +15469,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -15543,7 +15507,7 @@
         <v>97</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="J2" s="11" t="s">
         <v>444</v>
@@ -15586,7 +15550,7 @@
         <v>111</v>
       </c>
       <c r="H4" s="48" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I4" s="48" t="s">
         <v>380</v>
@@ -15710,7 +15674,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
       <c r="A1" s="122" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B1" s="123"/>
       <c r="C1" s="123"/>
@@ -15792,7 +15756,7 @@
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="37" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -15831,7 +15795,7 @@
         <v>126</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -15856,7 +15820,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J5" s="29" t="s">
         <v>127</v>
@@ -15880,7 +15844,7 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>129</v>
@@ -15917,7 +15881,7 @@
         <v>131</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -15950,7 +15914,7 @@
         <v>133</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>134</v>
@@ -15989,7 +15953,7 @@
         <v>133</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>136</v>
@@ -16026,7 +15990,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -16133,13 +16097,13 @@
         <v>139</v>
       </c>
       <c r="D2" s="20" t="s">
+        <v>874</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>875</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>876</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>877</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>140</v>
@@ -16411,10 +16375,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>601</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>602</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>418</v>
@@ -16426,10 +16390,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>602</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>603</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>604</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>418</v>
@@ -16444,7 +16408,7 @@
         <v>366</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>418</v>
@@ -16456,10 +16420,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>606</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>607</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>418</v>
@@ -16648,7 +16612,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -16703,7 +16667,7 @@
         <v>163</v>
       </c>
       <c r="K2" s="40" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="L2" s="40" t="s">
         <v>164</v>
@@ -16730,10 +16694,10 @@
         <v>420</v>
       </c>
       <c r="T2" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="U2" s="32" t="s">
         <v>481</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -17003,7 +16967,7 @@
       <c r="H1" s="113"/>
       <c r="I1" s="113"/>
       <c r="J1" s="117" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K1" s="126"/>
       <c r="L1" s="126"/>
@@ -17059,7 +17023,7 @@
         <v>191</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="P2" s="11" t="s">
         <v>192</v>
@@ -17847,7 +17811,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1">
       <c r="A1" s="111" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -17909,10 +17873,10 @@
         <v>420</v>
       </c>
       <c r="O2" s="32" t="s">
+        <v>480</v>
+      </c>
+      <c r="P2" s="32" t="s">
         <v>481</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -18092,7 +18056,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
       <c r="A1" s="131" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B1" s="131"/>
       <c r="C1" s="131"/>
@@ -18265,7 +18229,7 @@
   <sheetData>
     <row r="1" spans="1:26" s="54" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -18307,31 +18271,31 @@
         <v>40</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="68" t="s">
+        <v>945</v>
+      </c>
+      <c r="H2" s="68" t="s">
         <v>946</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="I2" s="68" t="s">
         <v>947</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="J2" s="68" t="s">
         <v>948</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="K2" s="94" t="s">
         <v>949</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="L2" s="68" t="s">
         <v>950</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="M2" s="69" t="s">
         <v>951</v>
-      </c>
-      <c r="M2" s="69" t="s">
-        <v>952</v>
       </c>
       <c r="N2" s="68" t="s">
         <v>425</v>
@@ -18349,10 +18313,10 @@
         <v>428</v>
       </c>
       <c r="S2" s="68" t="s">
+        <v>952</v>
+      </c>
+      <c r="T2" s="68" t="s">
         <v>953</v>
-      </c>
-      <c r="T2" s="68" t="s">
-        <v>954</v>
       </c>
       <c r="U2" s="68" t="s">
         <v>96</v>
@@ -18364,10 +18328,10 @@
         <v>332</v>
       </c>
       <c r="X2" s="68" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="Y2" s="68" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="Z2" s="68" t="s">
         <v>444</v>
@@ -18408,16 +18372,16 @@
         <v>325</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="105" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="37" t="s">
+        <v>988</v>
+      </c>
+      <c r="E4" s="106" t="s">
         <v>989</v>
-      </c>
-      <c r="E4" s="106" t="s">
-        <v>990</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>349</v>
@@ -18440,7 +18404,7 @@
         <v>338</v>
       </c>
       <c r="N4" s="55" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="O4" s="55" t="s">
         <v>339</v>
@@ -18473,7 +18437,7 @@
         <v>15</v>
       </c>
       <c r="Y4" s="39" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Z4" s="39"/>
     </row>
@@ -18482,16 +18446,16 @@
         <v>325</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C5" s="105" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F5" s="55" t="s">
         <v>352</v>
@@ -18516,7 +18480,7 @@
         <v>338</v>
       </c>
       <c r="N5" s="55" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="O5" s="55" t="s">
         <v>354</v>
@@ -18537,7 +18501,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="55" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="V5" s="39" t="s">
         <v>344</v>
@@ -18549,7 +18513,7 @@
         <v>15</v>
       </c>
       <c r="Y5" s="39" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Z5" s="39"/>
     </row>
@@ -24699,7 +24663,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -24717,7 +24681,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D2" s="94" t="s">
         <v>85</v>
@@ -24726,10 +24690,10 @@
         <v>86</v>
       </c>
       <c r="F2" s="94" t="s">
+        <v>965</v>
+      </c>
+      <c r="G2" s="94" t="s">
         <v>966</v>
-      </c>
-      <c r="G2" s="94" t="s">
-        <v>967</v>
       </c>
       <c r="H2" s="97" t="s">
         <v>444</v>
@@ -24752,7 +24716,7 @@
         <v>325</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>432</v>
@@ -24761,7 +24725,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F4" s="37">
         <v>2</v>
@@ -30812,7 +30776,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="54" customFormat="1" ht="195" customHeight="1">
       <c r="A1" s="111" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B1" s="111"/>
       <c r="C1" s="111"/>
@@ -30846,40 +30810,40 @@
         <v>6</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D2" s="69" t="s">
+        <v>969</v>
+      </c>
+      <c r="E2" s="94" t="s">
         <v>970</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>971</v>
       </c>
       <c r="F2" s="94" t="s">
         <v>356</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="I2" s="94" t="s">
         <v>425</v>
       </c>
       <c r="J2" s="94" t="s">
+        <v>971</v>
+      </c>
+      <c r="K2" s="94" t="s">
         <v>972</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="L2" s="94" t="s">
         <v>973</v>
-      </c>
-      <c r="L2" s="94" t="s">
-        <v>974</v>
       </c>
       <c r="M2" s="94" t="s">
         <v>96</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="O2" s="101" t="s">
         <v>444</v>
@@ -30917,19 +30881,19 @@
         <v>325</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>432</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="G4" s="109">
         <v>4</v>
@@ -30938,7 +30902,7 @@
         <v>338</v>
       </c>
       <c r="I4" s="103" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="J4" s="103" t="s">
         <v>437</v>
@@ -30953,7 +30917,7 @@
         <v>104</v>
       </c>
       <c r="N4" s="72" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="O4" s="75" t="s">
         <v>464</v>
@@ -37805,22 +37769,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5">
       <c r="A1" s="51" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C1" s="60" t="s">
         <v>433</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="E1" s="51" t="s">
         <v>358</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="G1" s="61" t="s">
         <v>332</v>
@@ -37829,13 +37793,13 @@
         <v>331</v>
       </c>
       <c r="I1" s="96" t="s">
+        <v>949</v>
+      </c>
+      <c r="J1" s="96" t="s">
         <v>950</v>
       </c>
-      <c r="J1" s="96" t="s">
-        <v>951</v>
-      </c>
       <c r="K1" s="61" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -37867,7 +37831,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="K2" s="39">
         <v>1</v>
@@ -37875,7 +37839,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="95" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>435</v>
@@ -37893,16 +37857,16 @@
         <v>429</v>
       </c>
       <c r="G3" s="71" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H3" s="39" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I3" s="37">
         <v>40</v>
       </c>
       <c r="J3" s="67" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="K3" s="39">
         <v>2</v>
@@ -37910,7 +37874,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="95" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>353</v>
@@ -37924,7 +37888,7 @@
       </c>
       <c r="F4" s="39"/>
       <c r="H4" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -37932,7 +37896,7 @@
         <v>349</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>436</v>
@@ -37943,7 +37907,7 @@
       </c>
       <c r="F5" s="39"/>
       <c r="H5" s="39" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -37952,7 +37916,7 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39" t="s">
@@ -37960,16 +37924,16 @@
       </c>
       <c r="F6" s="39"/>
       <c r="H6" s="39" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="95" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
@@ -37977,16 +37941,16 @@
       </c>
       <c r="F7" s="39"/>
       <c r="H7" s="39" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="95" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
@@ -37994,7 +37958,7 @@
       </c>
       <c r="F8" s="39"/>
       <c r="H8" s="39" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -38007,11 +37971,11 @@
       </c>
       <c r="D9" s="39"/>
       <c r="E9" s="39" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F9" s="39"/>
       <c r="H9" s="39" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -38020,32 +37984,32 @@
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F10" s="39"/>
       <c r="H10" s="39" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="95" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F11" s="39"/>
       <c r="H11" s="39" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -38054,15 +38018,15 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F12" s="39"/>
       <c r="H12" s="39" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -38071,13 +38035,13 @@
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="39" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
       <c r="F13" s="39"/>
       <c r="H13" s="39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -38086,483 +38050,483 @@
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
       <c r="F14" s="39"/>
       <c r="H14" s="39" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="H15" s="39" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="H16" s="39" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="17" spans="8:8">
       <c r="H17" s="39" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="18" spans="8:8">
       <c r="H18" s="39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="8:8">
       <c r="H19" s="39" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="20" spans="8:8">
       <c r="H20" s="39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="21" spans="8:8">
       <c r="H21" s="39" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="22" spans="8:8">
       <c r="H22" s="39" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="23" spans="8:8">
       <c r="H23" s="39" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="8:8">
       <c r="H24" s="39" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="8:8">
       <c r="H25" s="39" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="26" spans="8:8">
       <c r="H26" s="39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="8:8">
       <c r="H27" s="39" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="28" spans="8:8">
       <c r="H28" s="39" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="29" spans="8:8">
       <c r="H29" s="39" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="30" spans="8:8">
       <c r="H30" s="39" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="31" spans="8:8">
       <c r="H31" s="39" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="32" spans="8:8">
       <c r="H32" s="39" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="33" spans="8:8">
       <c r="H33" s="39" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="34" spans="8:8">
       <c r="H34" s="39" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="35" spans="8:8">
       <c r="H35" s="39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="36" spans="8:8">
       <c r="H36" s="39" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="8:8">
       <c r="H37" s="39" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="38" spans="8:8">
       <c r="H38" s="39" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="39" spans="8:8">
       <c r="H39" s="39" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="40" spans="8:8">
       <c r="H40" s="39" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="41" spans="8:8">
       <c r="H41" s="39" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="42" spans="8:8">
       <c r="H42" s="39" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="43" spans="8:8">
       <c r="H43" s="39" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="44" spans="8:8">
       <c r="H44" s="39" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="45" spans="8:8">
       <c r="H45" s="39" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="46" spans="8:8">
       <c r="H46" s="39" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="47" spans="8:8">
       <c r="H47" s="39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="8:8">
       <c r="H48" s="39" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="49" spans="8:8">
       <c r="H49" s="39" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="50" spans="8:8">
       <c r="H50" s="39" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="51" spans="8:8">
       <c r="H51" s="39" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="52" spans="8:8">
       <c r="H52" s="39" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="53" spans="8:8">
       <c r="H53" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="54" spans="8:8">
       <c r="H54" s="39" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" spans="8:8">
       <c r="H55" s="39" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="56" spans="8:8">
       <c r="H56" s="39" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="57" spans="8:8">
       <c r="H57" s="39" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="58" spans="8:8">
       <c r="H58" s="39" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="59" spans="8:8">
       <c r="H59" s="39" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="60" spans="8:8">
       <c r="H60" s="39" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61" spans="8:8">
       <c r="H61" s="39" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="62" spans="8:8">
       <c r="H62" s="39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="63" spans="8:8">
       <c r="H63" s="39" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="64" spans="8:8">
       <c r="H64" s="39" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="65" spans="8:8">
       <c r="H65" s="39" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="66" spans="8:8">
       <c r="H66" s="39" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="8:8">
       <c r="H67" s="39" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="8:8">
       <c r="H68" s="39" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="69" spans="8:8">
       <c r="H69" s="39" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="70" spans="8:8">
       <c r="H70" s="39" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="71" spans="8:8">
       <c r="H71" s="39" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="72" spans="8:8">
       <c r="H72" s="39" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="73" spans="8:8">
       <c r="H73" s="39" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="74" spans="8:8">
       <c r="H74" s="39" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="75" spans="8:8">
       <c r="H75" s="39" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="76" spans="8:8">
       <c r="H76" s="39" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="77" spans="8:8">
       <c r="H77" s="39" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="78" spans="8:8">
       <c r="H78" s="39" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="79" spans="8:8">
       <c r="H79" s="39" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="80" spans="8:8">
       <c r="H80" s="39" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="81" spans="8:8">
       <c r="H81" s="39" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="8:8">
       <c r="H82" s="39" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="83" spans="8:8">
       <c r="H83" s="39" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="84" spans="8:8">
       <c r="H84" s="39" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="85" spans="8:8">
       <c r="H85" s="39" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="86" spans="8:8">
       <c r="H86" s="39" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="87" spans="8:8">
       <c r="H87" s="39" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="88" spans="8:8">
       <c r="H88" s="39" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="89" spans="8:8">
       <c r="H89" s="39" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="8:8">
       <c r="H90" s="39" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="91" spans="8:8">
       <c r="H91" s="39" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="92" spans="8:8">
       <c r="H92" s="39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="93" spans="8:8">
       <c r="H93" s="39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="94" spans="8:8">
       <c r="H94" s="39" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="95" spans="8:8">
       <c r="H95" s="39" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="96" spans="8:8">
       <c r="H96" s="39" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="97" spans="8:8">
       <c r="H97" s="39" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="8:8">
       <c r="H98" s="39" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="8:8">
       <c r="H99" s="39" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="100" spans="8:8">
       <c r="H100" s="39" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="101" spans="8:8">
       <c r="H101" s="39" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="102" spans="8:8">
       <c r="H102" s="39" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="103" spans="8:8">
       <c r="H103" s="39" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="104" spans="8:8">
       <c r="H104" s="39" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="105" spans="8:8">
       <c r="H105" s="39" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="106" spans="8:8">
       <c r="H106" s="39" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="107" spans="8:8">
       <c r="H107" s="39" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="108" spans="8:8">
       <c r="H108" s="39" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -38620,91 +38584,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="84" customFormat="1" ht="148" customHeight="1">
       <c r="A1" s="92" t="s">
+        <v>877</v>
+      </c>
+      <c r="B1" s="92" t="s">
         <v>878</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="C1" s="92" t="s">
         <v>879</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="D1" s="92" t="s">
         <v>880</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="E1" s="92" t="s">
         <v>881</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="F1" s="92" t="s">
         <v>882</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>883</v>
       </c>
       <c r="G1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="92" t="s">
+        <v>883</v>
+      </c>
+      <c r="I1" s="92" t="s">
         <v>884</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="J1" s="92" t="s">
         <v>885</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="K1" s="92" t="s">
         <v>886</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="L1" s="92" t="s">
         <v>887</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="M1" s="92" t="s">
+        <v>939</v>
+      </c>
+      <c r="N1" s="92" t="s">
         <v>888</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="O1" s="92" t="s">
+        <v>889</v>
+      </c>
+      <c r="P1" s="92" t="s">
+        <v>890</v>
+      </c>
+      <c r="Q1" s="92" t="s">
+        <v>891</v>
+      </c>
+      <c r="R1" s="92" t="s">
+        <v>892</v>
+      </c>
+      <c r="S1" s="92" t="s">
+        <v>893</v>
+      </c>
+      <c r="T1" s="92" t="s">
+        <v>941</v>
+      </c>
+      <c r="U1" s="92" t="s">
+        <v>894</v>
+      </c>
+      <c r="V1" s="83" t="s">
+        <v>895</v>
+      </c>
+      <c r="W1" s="83" t="s">
+        <v>896</v>
+      </c>
+      <c r="X1" s="83" t="s">
+        <v>897</v>
+      </c>
+      <c r="Y1" s="92" t="s">
         <v>940</v>
-      </c>
-      <c r="N1" s="92" t="s">
-        <v>889</v>
-      </c>
-      <c r="O1" s="92" t="s">
-        <v>890</v>
-      </c>
-      <c r="P1" s="92" t="s">
-        <v>891</v>
-      </c>
-      <c r="Q1" s="92" t="s">
-        <v>892</v>
-      </c>
-      <c r="R1" s="92" t="s">
-        <v>893</v>
-      </c>
-      <c r="S1" s="92" t="s">
-        <v>894</v>
-      </c>
-      <c r="T1" s="92" t="s">
-        <v>942</v>
-      </c>
-      <c r="U1" s="92" t="s">
-        <v>895</v>
-      </c>
-      <c r="V1" s="83" t="s">
-        <v>896</v>
-      </c>
-      <c r="W1" s="83" t="s">
-        <v>897</v>
-      </c>
-      <c r="X1" s="83" t="s">
-        <v>898</v>
-      </c>
-      <c r="Y1" s="92" t="s">
-        <v>941</v>
       </c>
       <c r="Z1" s="83" t="s">
         <v>86</v>
       </c>
       <c r="AA1" s="83" t="s">
+        <v>898</v>
+      </c>
+      <c r="AB1" s="83" t="s">
         <v>899</v>
       </c>
-      <c r="AB1" s="83" t="s">
+      <c r="AC1" s="83" t="s">
         <v>900</v>
-      </c>
-      <c r="AC1" s="83" t="s">
-        <v>901</v>
       </c>
       <c r="AD1" s="83" t="s">
         <v>254</v>
@@ -38725,7 +38689,7 @@
         <v>259</v>
       </c>
       <c r="AJ1" s="83" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="AK1" s="83" t="s">
         <v>324</v>
@@ -38757,7 +38721,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H2" s="86" t="s">
         <v>39</v>
@@ -38780,13 +38744,13 @@
         <v>DRG</v>
       </c>
       <c r="N2" s="86" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="O2" s="86" t="s">
         <v>79</v>
       </c>
       <c r="P2" s="87" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="Q2" s="86" t="s">
         <v>365</v>
@@ -38806,13 +38770,13 @@
         <v>DNS-Server1-PhxHub</v>
       </c>
       <c r="V2" s="86" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="W2" s="86" t="s">
         <v>130</v>
       </c>
       <c r="X2" s="86" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Y2" s="86" t="b">
         <v>1</v>
@@ -38821,7 +38785,7 @@
         <v>148</v>
       </c>
       <c r="AA2" s="86" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AB2" s="86" t="s">
         <v>172</v>
@@ -38887,7 +38851,7 @@
         <v>57</v>
       </c>
       <c r="J3" s="86" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="K3" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -38901,7 +38865,7 @@
         <v/>
       </c>
       <c r="N3" s="86" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="O3" s="86" t="s">
         <v>401</v>
@@ -38916,7 +38880,7 @@
         <v>91</v>
       </c>
       <c r="S3" s="86" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="T3" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -38933,7 +38897,7 @@
         <v>128</v>
       </c>
       <c r="X3" s="86" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="Y3" s="86" t="b">
         <v>0</v>
@@ -38945,7 +38909,7 @@
         <v>171</v>
       </c>
       <c r="AB3" s="86" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AC3" s="86" t="s">
         <v>174</v>
@@ -38969,7 +38933,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="86" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="AK3" s="85" t="s">
         <v>330</v>
@@ -38997,7 +38961,7 @@
       </c>
       <c r="F4" s="86"/>
       <c r="G4" s="86" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="86" t="s">
@@ -39027,7 +38991,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="86" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="T4" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -39040,14 +39004,14 @@
       <c r="V4" s="86"/>
       <c r="W4" s="86"/>
       <c r="X4" s="86" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="Y4" s="86"/>
       <c r="Z4" s="86" t="s">
+        <v>913</v>
+      </c>
+      <c r="AA4" s="86" t="s">
         <v>914</v>
-      </c>
-      <c r="AA4" s="86" t="s">
-        <v>915</v>
       </c>
       <c r="AB4" s="86"/>
       <c r="AC4" s="86" t="s">
@@ -39094,7 +39058,7 @@
       </c>
       <c r="F5" s="86"/>
       <c r="G5" s="86" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="H5" s="86"/>
       <c r="I5" s="86" t="s">
@@ -39112,7 +39076,7 @@
       </c>
       <c r="N5" s="86"/>
       <c r="O5" s="86" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="P5" s="87"/>
       <c r="Q5" s="86"/>
@@ -39129,7 +39093,7 @@
       <c r="X5" s="86"/>
       <c r="Y5" s="86"/>
       <c r="Z5" s="86" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="AA5" s="86"/>
       <c r="AB5" s="86"/>
@@ -39173,7 +39137,7 @@
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H6" s="86"/>
       <c r="I6" s="86"/>
@@ -39189,7 +39153,7 @@
       </c>
       <c r="N6" s="86"/>
       <c r="O6" s="86" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="P6" s="87"/>
       <c r="Q6" s="86"/>
@@ -39246,7 +39210,7 @@
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="86" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H7" s="86"/>
       <c r="I7" s="86"/>
@@ -39262,7 +39226,7 @@
       </c>
       <c r="N7" s="86"/>
       <c r="O7" s="86" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="P7" s="87"/>
       <c r="Q7" s="86"/>
@@ -39317,7 +39281,7 @@
       </c>
       <c r="F8" s="86"/>
       <c r="G8" s="86" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H8" s="86"/>
       <c r="I8" s="86"/>
@@ -39386,7 +39350,7 @@
       </c>
       <c r="F9" s="86"/>
       <c r="G9" s="86" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H9" s="86"/>
       <c r="I9" s="86"/>
@@ -39455,7 +39419,7 @@
       </c>
       <c r="F10" s="86"/>
       <c r="G10" s="86" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
@@ -39524,7 +39488,7 @@
       </c>
       <c r="F11" s="86"/>
       <c r="G11" s="86" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="86"/>
@@ -39593,7 +39557,7 @@
       </c>
       <c r="F12" s="86"/>
       <c r="G12" s="86" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H12" s="86"/>
       <c r="I12" s="86"/>
@@ -39660,7 +39624,7 @@
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H13" s="86"/>
       <c r="I13" s="86"/>
@@ -39727,7 +39691,7 @@
       </c>
       <c r="F14" s="86"/>
       <c r="G14" s="86" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H14" s="86"/>
       <c r="I14" s="86"/>
@@ -39861,7 +39825,7 @@
       </c>
       <c r="F16" s="86"/>
       <c r="G16" s="86" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
@@ -39928,7 +39892,7 @@
       </c>
       <c r="F17" s="86"/>
       <c r="G17" s="86" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H17" s="86"/>
       <c r="I17" s="86"/>
@@ -39995,7 +39959,7 @@
       </c>
       <c r="F18" s="86"/>
       <c r="G18" s="86" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H18" s="86"/>
       <c r="I18" s="86"/>
@@ -40062,7 +40026,7 @@
       </c>
       <c r="F19" s="86"/>
       <c r="G19" s="86" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H19" s="86"/>
       <c r="I19" s="86"/>
@@ -40129,7 +40093,7 @@
       </c>
       <c r="F20" s="86"/>
       <c r="G20" s="86" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H20" s="86"/>
       <c r="I20" s="86"/>
@@ -40196,7 +40160,7 @@
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="86" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H21" s="86"/>
       <c r="I21" s="86"/>
@@ -40263,7 +40227,7 @@
       </c>
       <c r="F22" s="86"/>
       <c r="G22" s="86" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H22" s="86"/>
       <c r="I22" s="86"/>
@@ -40330,7 +40294,7 @@
       </c>
       <c r="F23" s="86"/>
       <c r="G23" s="86" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="H23" s="86"/>
       <c r="I23" s="86"/>
@@ -40397,7 +40361,7 @@
       </c>
       <c r="F24" s="86"/>
       <c r="G24" s="86" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="H24" s="86"/>
       <c r="I24" s="86"/>
@@ -41876,10 +41840,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>608</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>609</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="39"/>
@@ -41889,10 +41853,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>610</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>611</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="39"/>
@@ -41902,10 +41866,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>612</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>613</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="39"/>
@@ -41915,10 +41879,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>614</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>615</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="39"/>
@@ -41928,10 +41892,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>616</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>617</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -41941,10 +41905,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>617</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>618</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>619</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -41954,10 +41918,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="37" t="s">
+        <v>801</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>802</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>803</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -41967,10 +41931,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="37" t="s">
+        <v>838</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>839</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>840</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -41980,10 +41944,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>985</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>986</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>987</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -42362,10 +42326,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="42">
       <c r="A1" s="83" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -42878,16 +42842,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D3" s="37" t="s">
+        <v>804</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>805</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>806</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -42899,7 +42863,7 @@
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
@@ -42910,16 +42874,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>621</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>622</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
@@ -42931,7 +42895,7 @@
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -42943,7 +42907,7 @@
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -42955,7 +42919,7 @@
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -42967,7 +42931,7 @@
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -42979,7 +42943,7 @@
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -42991,7 +42955,7 @@
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -43003,7 +42967,7 @@
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -43015,7 +42979,7 @@
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -43027,7 +42991,7 @@
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -43039,7 +43003,7 @@
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -43051,7 +43015,7 @@
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -43063,7 +43027,7 @@
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -43075,7 +43039,7 @@
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -43087,7 +43051,7 @@
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -43099,7 +43063,7 @@
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -43111,7 +43075,7 @@
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -43123,7 +43087,7 @@
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -43135,7 +43099,7 @@
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -43147,7 +43111,7 @@
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -43159,7 +43123,7 @@
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -43171,7 +43135,7 @@
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -43183,7 +43147,7 @@
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -43195,7 +43159,7 @@
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -43207,7 +43171,7 @@
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -43219,7 +43183,7 @@
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -43231,7 +43195,7 @@
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -43243,7 +43207,7 @@
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -43255,7 +43219,7 @@
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -43267,7 +43231,7 @@
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -43279,7 +43243,7 @@
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -43291,7 +43255,7 @@
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
       <c r="E36" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -43303,7 +43267,7 @@
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
       <c r="E37" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -43315,7 +43279,7 @@
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -43327,7 +43291,7 @@
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -43339,7 +43303,7 @@
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
       <c r="E40" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -43351,7 +43315,7 @@
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
       <c r="E41" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -43363,7 +43327,7 @@
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
       <c r="E42" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -43375,7 +43339,7 @@
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
       <c r="E43" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -43387,7 +43351,7 @@
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -43399,7 +43363,7 @@
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -43411,7 +43375,7 @@
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -43422,16 +43386,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="110" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D47" s="37" t="s">
+        <v>646</v>
+      </c>
+      <c r="E47" s="37" t="s">
         <v>647</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>648</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -43443,7 +43407,7 @@
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
       <c r="E48" s="37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -43455,7 +43419,7 @@
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -43467,7 +43431,7 @@
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -43479,7 +43443,7 @@
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -43491,7 +43455,7 @@
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -43503,7 +43467,7 @@
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -43515,7 +43479,7 @@
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -43527,7 +43491,7 @@
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
       <c r="E55" s="37" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -43539,7 +43503,7 @@
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -43551,7 +43515,7 @@
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -43563,7 +43527,7 @@
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -43575,7 +43539,7 @@
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -43587,7 +43551,7 @@
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -43599,7 +43563,7 @@
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
       <c r="E61" s="37" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -43611,7 +43575,7 @@
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -43622,16 +43586,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D63" s="37" t="s">
+        <v>849</v>
+      </c>
+      <c r="E63" s="37" t="s">
         <v>850</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>851</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -43643,7 +43607,7 @@
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
       <c r="E64" s="37" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -43655,7 +43619,7 @@
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
       <c r="E65" s="37" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
@@ -43667,7 +43631,7 @@
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
       <c r="E66" s="37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -43678,16 +43642,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D67" s="37" t="s">
+        <v>659</v>
+      </c>
+      <c r="E67" s="37" t="s">
         <v>660</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>661</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -43699,7 +43663,7 @@
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
       <c r="E68" s="37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -43711,7 +43675,7 @@
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
       <c r="E69" s="37" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -43723,7 +43687,7 @@
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
       <c r="E70" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -43735,7 +43699,7 @@
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
       <c r="E71" s="37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -43747,7 +43711,7 @@
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
       <c r="E72" s="37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -43759,7 +43723,7 @@
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
       <c r="E73" s="37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -43771,7 +43735,7 @@
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
       <c r="E74" s="37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -43783,7 +43747,7 @@
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
       <c r="E75" s="37" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -43795,7 +43759,7 @@
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
       <c r="E76" s="37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -43807,7 +43771,7 @@
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
       <c r="E77" s="37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -43819,7 +43783,7 @@
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
       <c r="E78" s="37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -43831,7 +43795,7 @@
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
       <c r="E79" s="37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -43843,7 +43807,7 @@
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
       <c r="E80" s="37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -43855,7 +43819,7 @@
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
       <c r="E81" s="37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -43867,7 +43831,7 @@
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
       <c r="E82" s="37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -43879,7 +43843,7 @@
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
       <c r="E83" s="37" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -43891,7 +43855,7 @@
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
       <c r="E84" s="37" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -43903,7 +43867,7 @@
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -43915,7 +43879,7 @@
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
       <c r="E86" s="37" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -43926,16 +43890,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="110" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D87" s="37" t="s">
+        <v>678</v>
+      </c>
+      <c r="E87" s="37" t="s">
         <v>679</v>
-      </c>
-      <c r="E87" s="37" t="s">
-        <v>680</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -43947,7 +43911,7 @@
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -43959,7 +43923,7 @@
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
       <c r="E89" s="37" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -43971,7 +43935,7 @@
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
       <c r="E90" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -43983,7 +43947,7 @@
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
       <c r="E91" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -43995,7 +43959,7 @@
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
       <c r="E92" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -44007,7 +43971,7 @@
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -44019,7 +43983,7 @@
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
       <c r="E94" s="37" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -44031,7 +43995,7 @@
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
       <c r="E95" s="37" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -44043,7 +44007,7 @@
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
       <c r="E96" s="37" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -44055,7 +44019,7 @@
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
       <c r="E97" s="37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -44067,7 +44031,7 @@
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
       <c r="E98" s="37" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -44079,7 +44043,7 @@
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
       <c r="E99" s="37" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -44091,7 +44055,7 @@
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
       <c r="E100" s="37" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -44103,7 +44067,7 @@
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
       <c r="E101" s="37" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -44115,7 +44079,7 @@
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
       <c r="E102" s="37" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -44127,7 +44091,7 @@
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
       <c r="E103" s="37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -44139,7 +44103,7 @@
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
       <c r="E104" s="37" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -44151,7 +44115,7 @@
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
       <c r="E105" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -44163,7 +44127,7 @@
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
       <c r="E106" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -44175,7 +44139,7 @@
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
       <c r="E107" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -44187,7 +44151,7 @@
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
       <c r="E108" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -44199,7 +44163,7 @@
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
       <c r="E109" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -44211,7 +44175,7 @@
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
       <c r="E110" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -44223,7 +44187,7 @@
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
       <c r="E111" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -44235,7 +44199,7 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -44247,7 +44211,7 @@
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
       <c r="E113" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -44259,7 +44223,7 @@
       <c r="C114" s="37"/>
       <c r="D114" s="37"/>
       <c r="E114" s="37" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -44271,7 +44235,7 @@
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
       <c r="E115" s="37" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -44283,7 +44247,7 @@
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
       <c r="E116" s="37" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -44294,16 +44258,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="110" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C117" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D117" s="37" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="E117" s="110" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -44315,7 +44279,7 @@
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
       <c r="E118" s="110" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
@@ -44327,7 +44291,7 @@
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
       <c r="E119" s="110" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
@@ -44339,7 +44303,7 @@
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
       <c r="E120" s="110" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
@@ -44351,7 +44315,7 @@
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
       <c r="E121" s="110" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -44363,7 +44327,7 @@
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
       <c r="E122" s="110" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -44375,7 +44339,7 @@
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
       <c r="E123" s="110" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -44387,7 +44351,7 @@
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
       <c r="E124" s="110" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -44399,7 +44363,7 @@
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
       <c r="E125" s="110" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
@@ -44411,7 +44375,7 @@
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
       <c r="E126" s="110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -44423,7 +44387,7 @@
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
       <c r="E127" s="110" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
@@ -44435,7 +44399,7 @@
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
       <c r="E128" s="110" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
@@ -44447,7 +44411,7 @@
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
       <c r="E129" s="110" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
@@ -44459,7 +44423,7 @@
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
       <c r="E130" s="37" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
@@ -44471,7 +44435,7 @@
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
       <c r="E131" s="37" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
@@ -44483,7 +44447,7 @@
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
       <c r="E132" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
@@ -44495,7 +44459,7 @@
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
       <c r="E133" s="37" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
@@ -44507,7 +44471,7 @@
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
       <c r="E134" s="37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -44518,16 +44482,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="110" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C135" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D135" s="37" t="s">
+        <v>707</v>
+      </c>
+      <c r="E135" s="37" t="s">
         <v>708</v>
-      </c>
-      <c r="E135" s="37" t="s">
-        <v>709</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -44539,7 +44503,7 @@
       <c r="C136" s="37"/>
       <c r="D136" s="37"/>
       <c r="E136" s="37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -44551,7 +44515,7 @@
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
       <c r="E137" s="37" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -44563,7 +44527,7 @@
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
       <c r="E138" s="37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -44575,7 +44539,7 @@
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
       <c r="E139" s="37" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -44587,7 +44551,7 @@
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
       <c r="E140" s="37" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -44599,7 +44563,7 @@
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
       <c r="E141" s="37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -44611,7 +44575,7 @@
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
       <c r="E142" s="37" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -44623,7 +44587,7 @@
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
       <c r="E143" s="37" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -44635,7 +44599,7 @@
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
       <c r="E144" s="37" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -44647,7 +44611,7 @@
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
       <c r="E145" s="37" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -44659,7 +44623,7 @@
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
       <c r="E146" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -44671,7 +44635,7 @@
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
       <c r="E147" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -44683,7 +44647,7 @@
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
       <c r="E148" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -44695,7 +44659,7 @@
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
       <c r="E149" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -44707,7 +44671,7 @@
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
       <c r="E150" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -44719,7 +44683,7 @@
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
       <c r="E151" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -44731,7 +44695,7 @@
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
       <c r="E152" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -44743,7 +44707,7 @@
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
       <c r="E153" s="37" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -44755,7 +44719,7 @@
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
       <c r="E154" s="37" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -44767,7 +44731,7 @@
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
       <c r="E155" s="37" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -44778,16 +44742,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C156" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D156" s="37" t="s">
+        <v>814</v>
+      </c>
+      <c r="E156" s="37" t="s">
         <v>815</v>
-      </c>
-      <c r="E156" s="37" t="s">
-        <v>816</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -44798,16 +44762,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="102" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="C157" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D157" s="37" t="s">
+        <v>982</v>
+      </c>
+      <c r="E157" s="37" t="s">
         <v>983</v>
-      </c>
-      <c r="E157" s="37" t="s">
-        <v>984</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -44819,7 +44783,7 @@
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
       <c r="E158" s="37" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -44830,16 +44794,16 @@
         <v>5</v>
       </c>
       <c r="B159" s="110" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C159" s="37" t="s">
         <v>418</v>
       </c>
       <c r="D159" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="E159" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -44851,7 +44815,7 @@
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
       <c r="E160" s="37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -44863,7 +44827,7 @@
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
       <c r="E161" s="37" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -44875,7 +44839,7 @@
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
       <c r="E162" s="37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -44887,7 +44851,7 @@
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
       <c r="E163" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -44899,7 +44863,7 @@
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
       <c r="E164" s="37" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -44911,7 +44875,7 @@
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
       <c r="E165" s="37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -44923,7 +44887,7 @@
       <c r="C166" s="37"/>
       <c r="D166" s="37"/>
       <c r="E166" s="37" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -44935,7 +44899,7 @@
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
       <c r="E167" s="37" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -44947,7 +44911,7 @@
       <c r="C168" s="37"/>
       <c r="D168" s="37"/>
       <c r="E168" s="37" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -44959,7 +44923,7 @@
       <c r="C169" s="37"/>
       <c r="D169" s="37"/>
       <c r="E169" s="37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F169" s="37"/>
       <c r="G169" s="37"/>
@@ -44971,7 +44935,7 @@
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
       <c r="E170" s="37" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="37"/>
@@ -44983,7 +44947,7 @@
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
       <c r="E171" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -44995,7 +44959,7 @@
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
       <c r="E172" s="37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -45007,7 +44971,7 @@
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
       <c r="E173" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -45019,7 +44983,7 @@
       <c r="C174" s="37"/>
       <c r="D174" s="37"/>
       <c r="E174" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -45031,7 +44995,7 @@
       <c r="C175" s="37"/>
       <c r="D175" s="37"/>
       <c r="E175" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -45043,7 +45007,7 @@
       <c r="C176" s="37"/>
       <c r="D176" s="37"/>
       <c r="E176" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -45055,7 +45019,7 @@
       <c r="C177" s="37"/>
       <c r="D177" s="37"/>
       <c r="E177" s="37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -45067,7 +45031,7 @@
       <c r="C178" s="37"/>
       <c r="D178" s="37"/>
       <c r="E178" s="37" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -45079,7 +45043,7 @@
       <c r="C179" s="37"/>
       <c r="D179" s="37"/>
       <c r="E179" s="37" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -45091,7 +45055,7 @@
       <c r="C180" s="37"/>
       <c r="D180" s="37"/>
       <c r="E180" s="37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -45103,7 +45067,7 @@
       <c r="C181" s="37"/>
       <c r="D181" s="37"/>
       <c r="E181" s="37" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F181" s="37"/>
       <c r="G181" s="37"/>
@@ -45115,7 +45079,7 @@
       <c r="C182" s="37"/>
       <c r="D182" s="37"/>
       <c r="E182" s="37" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F182" s="37"/>
       <c r="G182" s="37"/>
@@ -45127,7 +45091,7 @@
       <c r="C183" s="37"/>
       <c r="D183" s="37"/>
       <c r="E183" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F183" s="37"/>
       <c r="G183" s="37"/>
@@ -45139,7 +45103,7 @@
       <c r="C184" s="37"/>
       <c r="D184" s="37"/>
       <c r="E184" s="37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F184" s="37"/>
       <c r="G184" s="37"/>
@@ -45151,7 +45115,7 @@
       <c r="C185" s="37"/>
       <c r="D185" s="37"/>
       <c r="E185" s="37" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F185" s="37"/>
       <c r="G185" s="37"/>
@@ -45163,7 +45127,7 @@
       <c r="C186" s="37"/>
       <c r="D186" s="37"/>
       <c r="E186" s="37" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F186" s="37"/>
       <c r="G186" s="37"/>
@@ -45175,7 +45139,7 @@
       <c r="C187" s="37"/>
       <c r="D187" s="37"/>
       <c r="E187" s="37" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F187" s="37"/>
       <c r="G187" s="37"/>
@@ -45187,7 +45151,7 @@
       <c r="C188" s="37"/>
       <c r="D188" s="37"/>
       <c r="E188" s="37" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F188" s="37"/>
       <c r="G188" s="37"/>
@@ -45199,7 +45163,7 @@
       <c r="C189" s="37"/>
       <c r="D189" s="37"/>
       <c r="E189" s="37" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F189" s="37"/>
       <c r="G189" s="37"/>
@@ -45211,7 +45175,7 @@
       <c r="C190" s="37"/>
       <c r="D190" s="37"/>
       <c r="E190" s="37" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
@@ -45223,7 +45187,7 @@
       <c r="C191" s="37"/>
       <c r="D191" s="37"/>
       <c r="E191" s="37" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
@@ -45235,7 +45199,7 @@
       <c r="C192" s="37"/>
       <c r="D192" s="37"/>
       <c r="E192" s="37" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
@@ -45247,7 +45211,7 @@
       <c r="C193" s="37"/>
       <c r="D193" s="37"/>
       <c r="E193" s="37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F193" s="37"/>
       <c r="G193" s="37"/>
@@ -45259,7 +45223,7 @@
       <c r="C194" s="37"/>
       <c r="D194" s="37"/>
       <c r="E194" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F194" s="37"/>
       <c r="G194" s="37"/>
@@ -45271,7 +45235,7 @@
       <c r="C195" s="37"/>
       <c r="D195" s="37"/>
       <c r="E195" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F195" s="37"/>
       <c r="G195" s="37"/>
@@ -45283,7 +45247,7 @@
       <c r="C196" s="37"/>
       <c r="D196" s="37"/>
       <c r="E196" s="37" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F196" s="37"/>
       <c r="G196" s="37"/>
@@ -45295,7 +45259,7 @@
       <c r="C197" s="75"/>
       <c r="D197" s="75"/>
       <c r="E197" s="75" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F197" s="75"/>
       <c r="G197" s="75"/>
@@ -45303,7 +45267,7 @@
     </row>
     <row r="198" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="E198" s="37" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
   </sheetData>
@@ -45450,8 +45414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -45472,7 +45436,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>472</v>
+        <v>1068</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
@@ -45480,7 +45444,7 @@
       <c r="E1" s="113"/>
       <c r="F1" s="114"/>
       <c r="G1" s="112" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H1" s="113"/>
       <c r="I1" s="113"/>
@@ -45499,7 +45463,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -45534,13 +45498,13 @@
         <v>366</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>21</v>
@@ -45552,10 +45516,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="37"/>
@@ -45568,7 +45532,7 @@
         <v>366</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>22</v>
@@ -45586,10 +45550,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K4" s="39"/>
       <c r="L4" s="33"/>
@@ -45602,7 +45566,7 @@
         <v>366</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>24</v>
@@ -45620,10 +45584,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="K5" s="39"/>
       <c r="L5" s="33"/>
@@ -45658,7 +45622,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>23</v>
@@ -45670,13 +45634,13 @@
         <v>21</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="K7" s="73" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>464</v>
@@ -45708,10 +45672,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
@@ -45742,10 +45706,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K9" s="73"/>
       <c r="L9" s="73"/>
@@ -45756,7 +45720,7 @@
     <mergeCell ref="G1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -45783,14 +45747,14 @@
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
       <c r="A1" s="112" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B1" s="113"/>
       <c r="C1" s="113"/>
       <c r="D1" s="113"/>
       <c r="E1" s="113"/>
       <c r="F1" s="112" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G1" s="113"/>
     </row>
@@ -45802,19 +45766,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="79" t="s">
+        <v>828</v>
+      </c>
+      <c r="D2" s="79" t="s">
         <v>829</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="E2" s="79" t="s">
         <v>830</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="F2" s="80" t="s">
         <v>831</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="G2" s="81" t="s">
         <v>832</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="29" customHeight="1">
@@ -45825,19 +45789,19 @@
         <v>366</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -46130,7 +46094,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -46231,7 +46195,7 @@
         <v>366</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>36</v>
@@ -46240,7 +46204,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="37"/>
@@ -46253,7 +46217,7 @@
         <v>366</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>36</v>
@@ -46262,7 +46226,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
@@ -46275,7 +46239,7 @@
         <v>366</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>36</v>
@@ -46284,7 +46248,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
@@ -46498,10 +46462,10 @@
         <v>366</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>51</v>
@@ -46516,10 +46480,10 @@
         <v>36</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="K3" s="34" t="s">
         <v>23</v>
@@ -46550,28 +46514,28 @@
         <v>366</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H4" s="39" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>23</v>
@@ -46602,10 +46566,10 @@
         <v>366</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>391</v>
@@ -46614,16 +46578,16 @@
         <v>52</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="K5" s="39" t="s">
         <v>23</v>
@@ -46654,10 +46618,10 @@
         <v>366</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>56</v>
@@ -46672,10 +46636,10 @@
         <v>36</v>
       </c>
       <c r="I6" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>755</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>756</v>
       </c>
       <c r="K6" s="39" t="s">
         <v>23</v>
@@ -46706,13 +46670,13 @@
         <v>366</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D7" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>757</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>758</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>52</v>
@@ -46724,10 +46688,10 @@
         <v>36</v>
       </c>
       <c r="I7" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>759</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>760</v>
       </c>
       <c r="K7" s="39" t="s">
         <v>23</v>
@@ -46758,13 +46722,13 @@
         <v>366</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D8" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>761</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>762</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>52</v>
@@ -46776,10 +46740,10 @@
         <v>36</v>
       </c>
       <c r="I8" s="39" t="s">
+        <v>762</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>763</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>764</v>
       </c>
       <c r="K8" s="39" t="s">
         <v>23</v>
@@ -46810,10 +46774,10 @@
         <v>366</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>393</v>
@@ -46822,16 +46786,16 @@
         <v>52</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="39" t="s">
+        <v>765</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>766</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>767</v>
       </c>
       <c r="K9" s="39" t="s">
         <v>23</v>
@@ -46862,10 +46826,10 @@
         <v>366</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>394</v>
@@ -46880,10 +46844,10 @@
         <v>36</v>
       </c>
       <c r="I10" s="39" t="s">
+        <v>768</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>769</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>770</v>
       </c>
       <c r="K10" s="39" t="s">
         <v>23</v>
@@ -46914,10 +46878,10 @@
         <v>366</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>397</v>
@@ -46932,10 +46896,10 @@
         <v>36</v>
       </c>
       <c r="I11" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>772</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>773</v>
       </c>
       <c r="K11" s="39" t="s">
         <v>23</v>
@@ -46966,13 +46930,13 @@
         <v>366</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="D12" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>774</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>775</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>52</v>
@@ -46984,10 +46948,10 @@
         <v>36</v>
       </c>
       <c r="I12" s="39" t="s">
+        <v>775</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>776</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>777</v>
       </c>
       <c r="K12" s="39" t="s">
         <v>23</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop_new\oci_tools\cd3_automation_toolkit\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tools\cd3_automation_toolkit\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2061" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1070">
   <si>
     <t>Region</t>
   </si>
@@ -7174,6 +7174,9 @@
       <t xml:space="preserve"> PHXNonProd-VCN_ngw)
 </t>
     </r>
+  </si>
+  <si>
+    <t>Backup Network NSGs</t>
   </si>
 </sst>
 </file>
@@ -7720,7 +7723,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8039,6 +8042,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -30741,7 +30751,7 @@
   <dimension ref="A1:X1000"/>
   <sheetViews>
     <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -30775,25 +30785,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="54" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="119" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="100"/>
-      <c r="Q1" s="100"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
+      <c r="N1" s="120"/>
+      <c r="O1" s="120"/>
+      <c r="P1" s="120"/>
+      <c r="Q1" s="120"/>
       <c r="R1" s="100"/>
       <c r="S1" s="100"/>
       <c r="T1" s="100"/>
@@ -30845,11 +30855,15 @@
       <c r="N2" s="94" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="101" t="s">
+      <c r="O2" s="132" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="132" t="s">
+        <v>1069</v>
+      </c>
+      <c r="Q2" s="101" t="s">
         <v>444</v>
       </c>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
       <c r="R2" s="50"/>
       <c r="S2" s="50"/>
       <c r="T2" s="50"/>
@@ -30873,8 +30887,10 @@
       <c r="K3" s="55"/>
       <c r="L3" s="72"/>
       <c r="M3" s="55"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="37"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="133"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1">
       <c r="A4" s="105" t="s">
@@ -30916,10 +30932,11 @@
       <c r="M4" s="103" t="s">
         <v>104</v>
       </c>
-      <c r="N4" s="72" t="s">
+      <c r="N4" s="63" t="s">
         <v>597</v>
       </c>
-      <c r="O4" s="75" t="s">
+      <c r="P4" s="39"/>
+      <c r="Q4" s="37" t="s">
         <v>464</v>
       </c>
     </row>
@@ -30936,7 +30953,8 @@
       <c r="L5" s="63"/>
       <c r="M5" s="55"/>
       <c r="N5" s="63"/>
-      <c r="O5" s="37"/>
+      <c r="O5" s="133"/>
+      <c r="R5" s="108"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="50"/>
@@ -37681,7 +37699,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:Q1"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1048576">
@@ -37708,11 +37726,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>A3:A1000</xm:sqref>
+          <xm:sqref>C6:C501</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>E3:F1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
@@ -37720,23 +37750,11 @@
           </x14:formula1>
           <xm:sqref>D6:D501</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>C6:C501</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B500,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>B3:B1000</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!C$2:$D501,"*?")+1,4,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:F1000</xm:sqref>
+          <xm:sqref>A3:A1000</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1069">
   <si>
     <t>Region</t>
   </si>
@@ -6710,9 +6710,6 @@
   </si>
   <si>
     <t>bmdb</t>
-  </si>
-  <si>
-    <t>ssh-rsa AAAAB3NzaC1yc2EAAAABJQAAAQEAxQXVLKYOfEPNY6/psWxXWNIN23SFRkaHO2vlUQ3b3vv9k5OO5Di5qmzJ+hZoTifYw+4oyYs0vsPgccy8uz7eJTso2gyk4g7eKMEbmQdDbdPb1K8v1EdF11LfjnImepDDGRNgabhjfS4R/FAA0BTj8xAOjnRsBRD2FrYcVyoxvunKce1V5o3CtgqNlcLrSf+PJb++AW/K5BeLFpJMFCJXSC3QuL0ltYVUp/weA7L/yGOGCSJsv8JzaEekXgGHtuGvpibphYBKtk4sqc6AOWcWGT/6kx7Ntvpg+exdkqGQSDz1krcRyZyQpkQTSaq0Xcld1YZ4u8g5gAl/zDs+7ABRVw== rsa-key-20211111</t>
   </si>
   <si>
     <t xml:space="preserve">18.12.0.0 </t>
@@ -7980,6 +7977,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8042,13 +8046,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11570,7 +11567,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="70" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
   </sheetData>
@@ -11602,20 +11599,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>938</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="117" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="119" t="s">
         <v>485</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="115"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="117"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="43" t="s">
@@ -12022,18 +12019,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>835</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -13646,17 +13643,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="10" t="s">
@@ -13747,25 +13744,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="10" t="s">
@@ -13896,28 +13893,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="13" t="s">
@@ -14882,15 +14879,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" s="46" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -15070,26 +15067,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="117" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="121" t="s">
         <v>827</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="112" t="s">
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="114" t="s">
         <v>594</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="114"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="116"/>
     </row>
     <row r="2" spans="1:16" s="46" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -15478,18 +15475,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>595</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="116"/>
     </row>
     <row r="2" spans="1:10" s="46" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -15683,27 +15680,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="110.5" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>476</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="125" t="s">
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="127" t="s">
         <v>471</v>
       </c>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="125"/>
-      <c r="M1" s="125"/>
-      <c r="N1" s="125"/>
-      <c r="O1" s="125"/>
-      <c r="P1" s="125"/>
-      <c r="Q1" s="125"/>
+      <c r="J1" s="127"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
+      <c r="M1" s="127"/>
+      <c r="N1" s="127"/>
+      <c r="O1" s="127"/>
+      <c r="P1" s="127"/>
+      <c r="Q1" s="127"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -16075,26 +16072,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="122.5" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
     </row>
     <row r="2" spans="1:18" ht="43" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -16355,13 +16352,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="46" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="31" t="s">
@@ -16621,29 +16618,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="87.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="116"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="40" t="s">
@@ -16965,29 +16962,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="117" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="119" t="s">
         <v>479</v>
       </c>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
-      <c r="R1" s="126"/>
-      <c r="S1" s="127"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
+      <c r="R1" s="128"/>
+      <c r="S1" s="129"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -17664,14 +17661,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="46" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="130" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
+      <c r="F1" s="132"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -17820,24 +17817,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="88.25" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>482</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -18065,17 +18062,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="133" t="s">
         <v>477</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="133"/>
+      <c r="G1" s="133"/>
+      <c r="H1" s="133"/>
+      <c r="I1" s="133"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
@@ -18208,8 +18205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
@@ -18238,34 +18235,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="54" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>598</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="116"/>
     </row>
     <row r="2" spans="1:26" s="65" customFormat="1" ht="43.5">
       <c r="A2" s="68" t="s">
@@ -18462,7 +18459,7 @@
         <v>91</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="E5" s="106" t="s">
         <v>991</v>
@@ -18511,7 +18508,7 @@
         <v>1</v>
       </c>
       <c r="U5" s="55" t="s">
-        <v>993</v>
+        <v>104</v>
       </c>
       <c r="V5" s="39" t="s">
         <v>344</v>
@@ -24672,16 +24669,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>968</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="94" t="s">
@@ -30785,25 +30782,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="54" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="121" t="s">
         <v>599</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
       <c r="R1" s="100"/>
       <c r="S1" s="100"/>
       <c r="T1" s="100"/>
@@ -30855,11 +30852,11 @@
       <c r="N2" s="94" t="s">
         <v>596</v>
       </c>
-      <c r="O2" s="132" t="s">
+      <c r="O2" s="111" t="s">
         <v>98</v>
       </c>
-      <c r="P2" s="132" t="s">
-        <v>1069</v>
+      <c r="P2" s="111" t="s">
+        <v>1068</v>
       </c>
       <c r="Q2" s="101" t="s">
         <v>444</v>
@@ -30888,7 +30885,7 @@
       <c r="L3" s="72"/>
       <c r="M3" s="55"/>
       <c r="N3" s="63"/>
-      <c r="O3" s="133"/>
+      <c r="O3" s="112"/>
       <c r="P3" s="39"/>
       <c r="Q3" s="39"/>
     </row>
@@ -30903,7 +30900,7 @@
         <v>432</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="E4" s="37" t="s">
         <v>988</v>
@@ -30918,7 +30915,7 @@
         <v>338</v>
       </c>
       <c r="I4" s="103" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="J4" s="103" t="s">
         <v>437</v>
@@ -30953,7 +30950,7 @@
       <c r="L5" s="63"/>
       <c r="M5" s="55"/>
       <c r="N5" s="63"/>
-      <c r="O5" s="133"/>
+      <c r="O5" s="112"/>
       <c r="R5" s="108"/>
     </row>
     <row r="6" spans="1:24">
@@ -37734,13 +37731,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>E3:F1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1000</xm:sqref>
         </x14:dataValidation>
@@ -37752,7 +37749,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1000</xm:sqref>
         </x14:dataValidation>
@@ -37914,7 +37911,7 @@
         <v>349</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>436</v>
@@ -37934,7 +37931,7 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39" t="s">
@@ -37951,7 +37948,7 @@
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
@@ -37968,7 +37965,7 @@
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
@@ -38002,7 +37999,7 @@
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
@@ -38019,7 +38016,7 @@
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
@@ -38036,7 +38033,7 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
@@ -38053,7 +38050,7 @@
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="39" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -38068,7 +38065,7 @@
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
@@ -41828,13 +41825,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="46" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="5" t="s">
@@ -42818,16 +42815,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="46" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" s="46" customFormat="1">
       <c r="A2" s="6" t="s">
@@ -43273,7 +43270,7 @@
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
       <c r="E36" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -43285,7 +43282,7 @@
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
       <c r="E37" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -43297,7 +43294,7 @@
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -43309,7 +43306,7 @@
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -43321,7 +43318,7 @@
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
       <c r="E40" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -43357,7 +43354,7 @@
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
       <c r="E43" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -43873,7 +43870,7 @@
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
       <c r="E84" s="37" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -43885,7 +43882,7 @@
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -43897,7 +43894,7 @@
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
       <c r="E86" s="37" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -44133,7 +44130,7 @@
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
       <c r="E105" s="1" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -44145,7 +44142,7 @@
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
       <c r="E106" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -44157,7 +44154,7 @@
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
       <c r="E107" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -44169,7 +44166,7 @@
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
       <c r="E108" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -44181,7 +44178,7 @@
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
       <c r="E109" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -44193,7 +44190,7 @@
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
       <c r="E110" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -44205,7 +44202,7 @@
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
       <c r="E111" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -44217,7 +44214,7 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -44229,7 +44226,7 @@
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
       <c r="E113" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -44641,7 +44638,7 @@
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
       <c r="E146" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -44653,7 +44650,7 @@
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
       <c r="E147" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -44665,7 +44662,7 @@
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
       <c r="E148" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -44677,7 +44674,7 @@
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
       <c r="E149" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -44689,7 +44686,7 @@
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
       <c r="E150" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -44701,7 +44698,7 @@
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
       <c r="E151" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -44713,7 +44710,7 @@
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
       <c r="E152" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -44749,7 +44746,7 @@
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
       <c r="E155" s="37" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -45145,7 +45142,7 @@
       <c r="C186" s="37"/>
       <c r="D186" s="37"/>
       <c r="E186" s="37" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F186" s="37"/>
       <c r="G186" s="37"/>
@@ -45157,7 +45154,7 @@
       <c r="C187" s="37"/>
       <c r="D187" s="37"/>
       <c r="E187" s="37" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F187" s="37"/>
       <c r="G187" s="37"/>
@@ -45169,7 +45166,7 @@
       <c r="C188" s="37"/>
       <c r="D188" s="37"/>
       <c r="E188" s="37" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F188" s="37"/>
       <c r="G188" s="37"/>
@@ -45181,7 +45178,7 @@
       <c r="C189" s="37"/>
       <c r="D189" s="37"/>
       <c r="E189" s="37" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F189" s="37"/>
       <c r="G189" s="37"/>
@@ -45193,7 +45190,7 @@
       <c r="C190" s="37"/>
       <c r="D190" s="37"/>
       <c r="E190" s="37" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
@@ -45205,7 +45202,7 @@
       <c r="C191" s="37"/>
       <c r="D191" s="37"/>
       <c r="E191" s="37" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
@@ -45277,7 +45274,7 @@
       <c r="C197" s="75"/>
       <c r="D197" s="75"/>
       <c r="E197" s="75" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F197" s="75"/>
       <c r="G197" s="75"/>
@@ -45285,7 +45282,7 @@
     </row>
     <row r="198" spans="1:8" s="39" customFormat="1" ht="29">
       <c r="E198" s="37" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
   </sheetData>
@@ -45453,22 +45450,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1">
-      <c r="A1" s="112" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="112" t="s">
+      <c r="A1" s="114" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="114" t="s">
         <v>472</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="114"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" s="46" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -45481,7 +45478,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -45534,10 +45531,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="37"/>
@@ -45568,10 +45565,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K4" s="39"/>
       <c r="L4" s="33"/>
@@ -45602,10 +45599,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="K5" s="39"/>
       <c r="L5" s="33"/>
@@ -45640,7 +45637,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>23</v>
@@ -45652,13 +45649,13 @@
         <v>21</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K7" s="73" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>464</v>
@@ -45690,10 +45687,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
@@ -45724,10 +45721,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="K9" s="73"/>
       <c r="L9" s="73"/>
@@ -45764,17 +45761,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="222" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>836</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="112" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="114" t="s">
         <v>837</v>
       </c>
-      <c r="G1" s="113"/>
+      <c r="G1" s="115"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="79" t="s">
@@ -45810,13 +45807,13 @@
         <v>748</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="G3" s="37" t="s">
         <v>872</v>
@@ -46094,10 +46091,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="46" customFormat="1" ht="121.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="115"/>
+      <c r="B1" s="117"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
@@ -46112,7 +46109,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -46168,16 +46165,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" s="46" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -46222,7 +46219,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="37"/>
@@ -46244,7 +46241,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
@@ -46266,7 +46263,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
@@ -46393,28 +46390,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="116" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="118" t="s">
         <v>460</v>
       </c>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
+      <c r="J1" s="118"/>
+      <c r="K1" s="118"/>
+      <c r="L1" s="118"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="118"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="118"/>
     </row>
     <row r="2" spans="1:18" s="46" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="31" t="s">
@@ -46483,7 +46480,7 @@
         <v>747</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>51</v>
@@ -46498,10 +46495,10 @@
         <v>36</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="K3" s="34" t="s">
         <v>23</v>
@@ -46535,7 +46532,7 @@
         <v>747</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E4" s="39" t="s">
         <v>751</v>
@@ -46550,10 +46547,10 @@
         <v>36</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>23</v>
@@ -46587,7 +46584,7 @@
         <v>749</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>391</v>
@@ -46602,10 +46599,10 @@
         <v>36</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K5" s="39" t="s">
         <v>23</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\oci_develop\oci_tools\cd3_automation_toolkit\example\"/>
@@ -18205,8 +18205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView topLeftCell="I3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
@@ -24573,7 +24573,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1000">
       <formula1>workload_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P3:P1000">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="P3:P1000">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1000">
@@ -30747,8 +30747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A3" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -37698,11 +37698,11 @@
   <mergeCells count="1">
     <mergeCell ref="A1:Q1"/>
   </mergeCells>
-  <dataValidations count="6">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G6:G1048576">
       <formula1>exa_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J5 N6:N1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q6:Q1048576">
@@ -37716,6 +37716,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U6:U1048576">
       <formula1>nchar_set</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="J3:J1000">
+      <formula1>db_sersion_drop</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -6932,77 +6932,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">v9
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
-</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 All fields are mandatory for each VCN except "DNS Label" and "Defined Tag".
 Tags apply to the VCNs only and not to its components like IGW,NGW,SGW,DRG,LPG.
@@ -7174,6 +7103,77 @@
   </si>
   <si>
     <t>Backup Network NSGs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>release version-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">v9.0
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Modified VCNs tab, DedicatedVMHosts tab, Added/Modified DB tabs, Added DropDowns for excel sheets
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11556,7 +11556,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11567,7 +11567,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="70" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -30856,7 +30856,7 @@
         <v>98</v>
       </c>
       <c r="P2" s="111" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="Q2" s="101" t="s">
         <v>444</v>
@@ -45454,7 +45454,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1">
       <c r="A1" s="114" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B1" s="115"/>
       <c r="C1" s="115"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -7118,7 +7118,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Automation Toolkit</t>
+      <t>CD3 Automation Toolkit</t>
     </r>
     <r>
       <rPr>
@@ -7139,17 +7139,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>release version-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
+      <t>Release - v9.0</t>
     </r>
     <r>
       <rPr>
@@ -7160,7 +7150,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">v9.0
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -11556,7 +11546,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -11572,7 +11562,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -117,7 +117,7 @@
     <definedName name="VM_Shapes" localSheetId="27">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes" localSheetId="10">#REF!</definedName>
     <definedName name="VM_Shapes" localSheetId="5">#REF!</definedName>
-    <definedName name="VM_Shapes">'DBSystems-VM-BM'!$AA$397:$AA$407</definedName>
+    <definedName name="VM_Shapes">'DBSystems-VM-BM'!$AB$397:$AB$407</definedName>
     <definedName name="VM_shapes_drop" localSheetId="10">[1]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="5">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="30">[3]Database_Dropdown!$A$2:$A$7</definedName>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1069">
   <si>
     <t>Region</t>
   </si>
@@ -18193,10 +18193,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:AA1000"/>
   <sheetViews>
-    <sheetView topLeftCell="I3" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.453125" defaultRowHeight="14.5"/>
@@ -18219,12 +18219,13 @@
     <col min="21" max="23" width="20.453125" style="38"/>
     <col min="24" max="24" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="23.1796875" style="38" customWidth="1"/>
-    <col min="26" max="26" width="20.453125" style="38"/>
-    <col min="27" max="27" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="20.453125" style="38"/>
+    <col min="26" max="26" width="15.453125" style="38" customWidth="1"/>
+    <col min="27" max="27" width="20.453125" style="38"/>
+    <col min="28" max="28" width="23.1796875" style="38" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="20.453125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="54" customFormat="1" ht="135.75" customHeight="1">
+    <row r="1" spans="1:27" s="54" customFormat="1" ht="135.75" customHeight="1">
       <c r="A1" s="114" t="s">
         <v>598</v>
       </c>
@@ -18252,9 +18253,10 @@
       <c r="W1" s="115"/>
       <c r="X1" s="115"/>
       <c r="Y1" s="115"/>
-      <c r="Z1" s="116"/>
-    </row>
-    <row r="2" spans="1:26" s="65" customFormat="1" ht="43.5">
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="116"/>
+    </row>
+    <row r="2" spans="1:27" s="65" customFormat="1" ht="43.5">
       <c r="A2" s="68" t="s">
         <v>0</v>
       </c>
@@ -18331,10 +18333,13 @@
         <v>596</v>
       </c>
       <c r="Z2" s="68" t="s">
+        <v>98</v>
+      </c>
+      <c r="AA2" s="68" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:27">
       <c r="A3" s="39" t="s">
         <v>4</v>
       </c>
@@ -18363,8 +18368,9 @@
       <c r="X3" s="39"/>
       <c r="Y3" s="39"/>
       <c r="Z3" s="39"/>
-    </row>
-    <row r="4" spans="1:26" ht="29">
+      <c r="AA3" s="39"/>
+    </row>
+    <row r="4" spans="1:27" ht="29">
       <c r="A4" s="105" t="s">
         <v>325</v>
       </c>
@@ -18437,8 +18443,9 @@
         <v>597</v>
       </c>
       <c r="Z4" s="39"/>
-    </row>
-    <row r="5" spans="1:26" ht="29">
+      <c r="AA4" s="39"/>
+    </row>
+    <row r="5" spans="1:27" ht="29">
       <c r="A5" s="107" t="s">
         <v>325</v>
       </c>
@@ -18513,8 +18520,9 @@
         <v>597</v>
       </c>
       <c r="Z5" s="39"/>
-    </row>
-    <row r="6" spans="1:26">
+      <c r="AA5" s="39"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="105"/>
       <c r="B6" s="105"/>
       <c r="C6" s="105"/>
@@ -18541,8 +18549,9 @@
       <c r="X6" s="39"/>
       <c r="Y6" s="39"/>
       <c r="Z6" s="39"/>
-    </row>
-    <row r="7" spans="1:26">
+      <c r="AA6" s="39"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="105"/>
       <c r="B7" s="105"/>
       <c r="C7" s="105"/>
@@ -18569,56 +18578,57 @@
       <c r="X7" s="39"/>
       <c r="Y7" s="39"/>
       <c r="Z7" s="39"/>
-    </row>
-    <row r="8" spans="1:26">
+      <c r="AA7" s="39"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="50"/>
       <c r="B8" s="50"/>
       <c r="C8" s="50"/>
       <c r="D8" s="59"/>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:27">
       <c r="A9" s="50"/>
       <c r="B9" s="50"/>
       <c r="C9" s="50"/>
       <c r="D9" s="59"/>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:27">
       <c r="A10" s="50"/>
       <c r="B10" s="50"/>
       <c r="C10" s="50"/>
       <c r="D10" s="59"/>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:27">
       <c r="A11" s="50"/>
       <c r="B11" s="50"/>
       <c r="C11" s="50"/>
       <c r="D11" s="59"/>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:27">
       <c r="A12" s="50"/>
       <c r="B12" s="50"/>
       <c r="C12" s="50"/>
       <c r="D12" s="59"/>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:27">
       <c r="A13" s="50"/>
       <c r="B13" s="50"/>
       <c r="C13" s="50"/>
       <c r="D13" s="59"/>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:27">
       <c r="A14" s="50"/>
       <c r="B14" s="50"/>
       <c r="C14" s="50"/>
       <c r="D14" s="59"/>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:27">
       <c r="A15" s="50"/>
       <c r="B15" s="50"/>
       <c r="C15" s="50"/>
       <c r="D15" s="59"/>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:27">
       <c r="A16" s="50"/>
       <c r="B16" s="50"/>
       <c r="C16" s="50"/>
@@ -24530,47 +24540,32 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Z1"/>
+    <mergeCell ref="A1:AA1"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1001:S1048576">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1048576">
       <formula1>workload_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1001:F1048576">
       <formula1>VM_shapes_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1001:I1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1048576">
       <formula1>software_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1001:P1048576">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1001:M1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1048576">
       <formula1>license_type_drop</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V1001:V1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1048576">
       <formula1>char_set</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1001:W1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1048576">
       <formula1>nchar_set</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3:W1000">
-      <formula1>nchar_set</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V3:V1000">
-      <formula1>char_set</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3:S1000">
-      <formula1>workload_drop</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="P3:P1000">
       <formula1>db_sersion_drop</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M1000">
-      <formula1>license_type_drop</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1000">
-      <formula1>software_drop</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -45291,7 +45286,25 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="30">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
+          <x14:formula1>
+            <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
+          </x14:formula1>
+          <xm:sqref>A3:A83 A87:A533</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
+          <x14:formula1>
+            <xm:f>'D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>A84:A86</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C84:C86</xm:sqref>
+        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C656,"*?")+1,2,1,4))</xm:f>
@@ -45318,15 +45331,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C187</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C591,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C187 C114:C145</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
-          <x14:formula1>
-            <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
-          </x14:formula1>
-          <xm:sqref>A3:A83 A87:A533</xm:sqref>
+          <xm:sqref>C114:C145</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -45336,33 +45349,87 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C598,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C109:C110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C637,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C148:C149</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
+          <xm:sqref>C44:C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C112 C151</xm:sqref>
+          <xm:sqref>C112</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C151</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C601,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C113</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C150</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C640,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C152</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C150 C152 C111</xm:sqref>
+          <xm:sqref>C111</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C107</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C146</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C146 C41:C43</xm:sqref>
+          <xm:sqref>C41:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C108 C147</xm:sqref>
+          <xm:sqref>C108</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C147</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -45399,18 +45466,6 @@
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
-          <x14:formula1>
-            <xm:f>'D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>A84:A86</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C84:C86</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1069">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1069">
   <si>
     <t>Region</t>
   </si>
@@ -7710,7 +7710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8037,6 +8037,13 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -45789,10 +45796,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6328125" defaultRowHeight="14.5"/>
@@ -45804,11 +45811,12 @@
     <col min="5" max="5" width="23.36328125" style="38" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.81640625" style="38" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.1796875" style="38" customWidth="1"/>
-    <col min="8" max="18" width="8.6328125" style="38" customWidth="1"/>
+    <col min="8" max="8" width="11.54296875" style="38" bestFit="1" customWidth="1"/>
+    <col min="9" max="18" width="8.6328125" style="38" customWidth="1"/>
     <col min="19" max="16384" width="8.6328125" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="222" customHeight="1">
+    <row r="1" spans="1:8" ht="222" customHeight="1">
       <c r="A1" s="114" t="s">
         <v>836</v>
       </c>
@@ -45816,12 +45824,13 @@
       <c r="C1" s="115"/>
       <c r="D1" s="115"/>
       <c r="E1" s="115"/>
-      <c r="F1" s="114" t="s">
+      <c r="F1" s="134" t="s">
         <v>837</v>
       </c>
-      <c r="G1" s="115"/>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="79" t="s">
         <v>0</v>
       </c>
@@ -45843,8 +45852,11 @@
       <c r="G2" s="81" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="29" customHeight="1">
+      <c r="H2" s="136" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="29" customHeight="1">
       <c r="A3" s="37" t="s">
         <v>325</v>
       </c>
@@ -45866,8 +45878,9 @@
       <c r="G3" s="37" t="s">
         <v>872</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="39"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="37" t="s">
         <v>4</v>
       </c>
@@ -45877,8 +45890,9 @@
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="39"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="37"/>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -45886,8 +45900,9 @@
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
-    </row>
-    <row r="6" spans="1:7" s="82" customFormat="1">
+      <c r="H5" s="39"/>
+    </row>
+    <row r="6" spans="1:8" s="82" customFormat="1">
       <c r="A6" s="67"/>
       <c r="B6" s="67"/>
       <c r="C6" s="67"/>
@@ -45895,8 +45910,9 @@
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
       <c r="G6" s="67"/>
-    </row>
-    <row r="7" spans="1:7" s="82" customFormat="1">
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="1:8" s="82" customFormat="1">
       <c r="A7" s="67"/>
       <c r="B7" s="67"/>
       <c r="C7" s="67"/>
@@ -45904,8 +45920,9 @@
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
       <c r="G7" s="67"/>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="48"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="37"/>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -45913,8 +45930,9 @@
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="39"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="37"/>
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
@@ -45922,8 +45940,9 @@
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="39"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="37"/>
       <c r="B10" s="37"/>
       <c r="C10" s="37"/>
@@ -45931,8 +45950,9 @@
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="39"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -45940,8 +45960,9 @@
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="39"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="37"/>
       <c r="B12" s="37"/>
       <c r="C12" s="37"/>
@@ -45949,8 +45970,9 @@
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="39"/>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -45958,8 +45980,9 @@
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="39"/>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="37"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
@@ -45967,8 +45990,9 @@
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="39"/>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="37"/>
       <c r="B15" s="37"/>
       <c r="C15" s="37"/>
@@ -45976,8 +46000,9 @@
       <c r="E15" s="37"/>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="39"/>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="37"/>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
@@ -45985,8 +46010,9 @@
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="39"/>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -45994,8 +46020,9 @@
       <c r="E17" s="37"/>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="39"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="37"/>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
@@ -46003,8 +46030,9 @@
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="39"/>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="37"/>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
@@ -46012,8 +46040,9 @@
       <c r="E19" s="37"/>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="39"/>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="37"/>
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
@@ -46021,8 +46050,9 @@
       <c r="E20" s="37"/>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="39"/>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="37"/>
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
@@ -46030,8 +46060,9 @@
       <c r="E21" s="37"/>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="39"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="37"/>
       <c r="B22" s="37"/>
       <c r="C22" s="37"/>
@@ -46039,8 +46070,9 @@
       <c r="E22" s="37"/>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="39"/>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="37"/>
       <c r="B23" s="37"/>
       <c r="C23" s="37"/>
@@ -46048,8 +46080,9 @@
       <c r="E23" s="37"/>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="39"/>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="37"/>
       <c r="B24" s="37"/>
       <c r="C24" s="37"/>
@@ -46057,8 +46090,9 @@
       <c r="E24" s="37"/>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="39"/>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="37"/>
       <c r="B25" s="37"/>
       <c r="C25" s="37"/>
@@ -46066,8 +46100,9 @@
       <c r="E25" s="37"/>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="39"/>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="37"/>
       <c r="B26" s="37"/>
       <c r="C26" s="37"/>
@@ -46075,8 +46110,9 @@
       <c r="E26" s="37"/>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="39"/>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="37"/>
       <c r="B27" s="37"/>
       <c r="C27" s="37"/>
@@ -46084,8 +46120,9 @@
       <c r="E27" s="37"/>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="39"/>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="37"/>
       <c r="B28" s="37"/>
       <c r="C28" s="37"/>
@@ -46093,8 +46130,9 @@
       <c r="E28" s="37"/>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="39"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="37"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
@@ -46102,8 +46140,9 @@
       <c r="E29" s="37"/>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="39"/>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="37"/>
       <c r="B30" s="37"/>
       <c r="C30" s="37"/>
@@ -46111,11 +46150,12 @@
       <c r="E30" s="37"/>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
+      <c r="H30" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30D730A-E052-9440-A791-816455C7736C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1092A26E-3647-7E46-A918-94CB76929DC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2066" uniqueCount="1070">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1073">
   <si>
     <t>Region</t>
   </si>
@@ -4817,77 +4817,6 @@
   </si>
   <si>
     <r>
-      <t>Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
-If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
-"Defined Tags" -</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
-                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
-                               </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">"Backup Policy" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
-                                   Values can be either of the following: Gold | Silver | Bronze
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Custom Policy Compartment Name"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
 "Attached To Instance"  - </t>
     </r>
@@ -7170,6 +7099,192 @@
   </si>
   <si>
     <t>Reserved IPs (Y|N|OCID)</t>
+  </si>
+  <si>
+    <t>Memory In GBs</t>
+  </si>
+  <si>
+    <t>Boot Volume Size In GBs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is PV Encryption In Transit Enabled </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;
+If the shape is VM.Standard.E3.Flex then specify it as VM.Standard.E3.Flex::&lt;ocpus&gt;
+Is PV Encryption In Transit Enabled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Specify </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>true</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> or </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>false</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.Defaults to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">false </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>when left empty.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+"Defined Tags" -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt;  else leave it empty.
+                                 Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. 
+                               </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  Example: Operations.CostCenter=01;Users.Name=user01
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">"Backup Policy" - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leave it empty to not attach any backup policy to the boot volume.
+                                   Values can be either of the following: Gold | Silver | Bronze
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Custom Policy Compartment Name"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the name of the compartment where the custom policy is created.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -11545,7 +11660,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -11578,7 +11693,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -11632,16 +11747,16 @@
         <v>417</v>
       </c>
       <c r="C3" s="78" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E3" s="37" t="s">
+        <v>814</v>
+      </c>
+      <c r="F3" s="37" t="s">
         <v>815</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>816</v>
       </c>
       <c r="G3" s="37" t="b">
         <v>1</v>
@@ -11651,7 +11766,7 @@
         <v>417</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="38" customFormat="1" ht="32" x14ac:dyDescent="0.2">
@@ -11662,16 +11777,16 @@
         <v>417</v>
       </c>
       <c r="C4" s="78" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E4" s="37" t="s">
+        <v>817</v>
+      </c>
+      <c r="F4" s="37" t="s">
         <v>818</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>819</v>
       </c>
       <c r="G4" s="37" t="b">
         <v>0</v>
@@ -11681,7 +11796,7 @@
         <v>417</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -11992,7 +12107,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -12012,25 +12127,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D2" s="31" t="s">
+        <v>828</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>829</v>
-      </c>
-      <c r="E2" s="32" t="s">
-        <v>830</v>
       </c>
       <c r="F2" s="31" t="s">
         <v>59</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H2" s="31" t="s">
         <v>61</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>443</v>
@@ -12045,23 +12160,23 @@
         <v>365</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E3" s="37"/>
       <c r="F3" s="67" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H3" s="67" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I3" s="37" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J3" s="37"/>
       <c r="K3" s="39"/>
@@ -13958,13 +14073,13 @@
         <v>365</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D3" s="37" t="s">
+        <v>775</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>776</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>777</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>400</v>
@@ -13978,7 +14093,7 @@
         <v>401</v>
       </c>
       <c r="K3" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L3" s="37"/>
       <c r="M3" s="37"/>
@@ -13991,7 +14106,7 @@
       <c r="P3" s="37"/>
       <c r="Q3" s="37"/>
       <c r="R3" s="37" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="S3" s="37"/>
       <c r="T3" s="37"/>
@@ -14004,13 +14119,13 @@
         <v>365</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>400</v>
@@ -14019,7 +14134,7 @@
         <v>80</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I4" s="37" t="s">
         <v>29</v>
@@ -14037,7 +14152,7 @@
       <c r="P4" s="37"/>
       <c r="Q4" s="37"/>
       <c r="R4" s="37" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="S4" s="37"/>
       <c r="T4" s="37"/>
@@ -14050,13 +14165,13 @@
         <v>365</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>400</v>
@@ -14065,10 +14180,10 @@
         <v>80</v>
       </c>
       <c r="H5" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I5" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J5" s="37"/>
       <c r="K5" s="37"/>
@@ -14083,7 +14198,7 @@
       <c r="P5" s="37"/>
       <c r="Q5" s="37"/>
       <c r="R5" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="S5" s="37"/>
       <c r="T5" s="37"/>
@@ -14096,13 +14211,13 @@
         <v>365</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>400</v>
@@ -14116,7 +14231,7 @@
         <v>401</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="L6" s="37"/>
       <c r="M6" s="37"/>
@@ -14129,7 +14244,7 @@
       <c r="P6" s="37"/>
       <c r="Q6" s="37"/>
       <c r="R6" s="37" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="S6" s="37"/>
       <c r="T6" s="37"/>
@@ -14142,13 +14257,13 @@
         <v>365</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F7" s="37" t="s">
         <v>400</v>
@@ -14157,10 +14272,10 @@
         <v>80</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
@@ -14175,7 +14290,7 @@
       <c r="P7" s="37"/>
       <c r="Q7" s="37"/>
       <c r="R7" s="37" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="S7" s="37"/>
       <c r="T7" s="37"/>
@@ -14188,13 +14303,13 @@
         <v>365</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F8" s="37" t="s">
         <v>400</v>
@@ -14203,10 +14318,10 @@
         <v>80</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J8" s="37"/>
       <c r="K8" s="37"/>
@@ -14221,7 +14336,7 @@
       <c r="P8" s="37"/>
       <c r="Q8" s="37"/>
       <c r="R8" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
@@ -14234,13 +14349,13 @@
         <v>365</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F9" s="37" t="s">
         <v>400</v>
@@ -14254,7 +14369,7 @@
         <v>401</v>
       </c>
       <c r="K9" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L9" s="37"/>
       <c r="M9" s="37"/>
@@ -14267,7 +14382,7 @@
       <c r="P9" s="37"/>
       <c r="Q9" s="37"/>
       <c r="R9" s="37" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="S9" s="37"/>
       <c r="T9" s="37"/>
@@ -14280,13 +14395,13 @@
         <v>365</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F10" s="37" t="s">
         <v>400</v>
@@ -14297,10 +14412,10 @@
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
       <c r="J10" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="K10" s="37" t="s">
         <v>792</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>793</v>
       </c>
       <c r="L10" s="37"/>
       <c r="M10" s="37"/>
@@ -14313,7 +14428,7 @@
       <c r="P10" s="37"/>
       <c r="Q10" s="37"/>
       <c r="R10" s="37" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="S10" s="37"/>
       <c r="T10" s="37"/>
@@ -14326,13 +14441,13 @@
         <v>365</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>400</v>
@@ -14341,10 +14456,10 @@
         <v>80</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
@@ -14359,7 +14474,7 @@
       <c r="P11" s="37"/>
       <c r="Q11" s="37"/>
       <c r="R11" s="37" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="S11" s="37"/>
       <c r="T11" s="37"/>
@@ -14372,13 +14487,13 @@
         <v>365</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F12" s="37" t="s">
         <v>400</v>
@@ -14387,10 +14502,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J12" s="37"/>
       <c r="K12" s="37"/>
@@ -14405,7 +14520,7 @@
       <c r="P12" s="37"/>
       <c r="Q12" s="37"/>
       <c r="R12" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="S12" s="37"/>
       <c r="T12" s="37"/>
@@ -14418,13 +14533,13 @@
         <v>365</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F13" s="37" t="s">
         <v>400</v>
@@ -14438,7 +14553,7 @@
         <v>401</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L13" s="37"/>
       <c r="M13" s="37"/>
@@ -14451,7 +14566,7 @@
       <c r="P13" s="37"/>
       <c r="Q13" s="37"/>
       <c r="R13" s="37" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="S13" s="37"/>
       <c r="T13" s="37"/>
@@ -14464,13 +14579,13 @@
         <v>365</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F14" s="37" t="s">
         <v>400</v>
@@ -14481,10 +14596,10 @@
       <c r="H14" s="37"/>
       <c r="I14" s="37"/>
       <c r="J14" s="37" t="s">
+        <v>791</v>
+      </c>
+      <c r="K14" s="37" t="s">
         <v>792</v>
-      </c>
-      <c r="K14" s="37" t="s">
-        <v>793</v>
       </c>
       <c r="L14" s="37"/>
       <c r="M14" s="37"/>
@@ -14497,7 +14612,7 @@
       <c r="P14" s="37"/>
       <c r="Q14" s="37"/>
       <c r="R14" s="37" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="S14" s="37"/>
       <c r="T14" s="37"/>
@@ -14510,13 +14625,13 @@
         <v>365</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F15" s="37" t="s">
         <v>400</v>
@@ -14525,10 +14640,10 @@
         <v>80</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I15" s="37" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
@@ -14543,7 +14658,7 @@
       <c r="P15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="R15" s="37" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="S15" s="37"/>
       <c r="T15" s="37"/>
@@ -14556,13 +14671,13 @@
         <v>365</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F16" s="37" t="s">
         <v>400</v>
@@ -14571,10 +14686,10 @@
         <v>80</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I16" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J16" s="37"/>
       <c r="K16" s="37"/>
@@ -14589,7 +14704,7 @@
       <c r="P16" s="37"/>
       <c r="Q16" s="37"/>
       <c r="R16" s="37" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="S16" s="37"/>
       <c r="T16" s="37"/>
@@ -15006,10 +15121,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView zoomScale="102" zoomScaleNormal="102" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15023,18 +15138,18 @@
     <col min="7" max="7" width="18.1640625" style="38" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.83203125" style="38" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.83203125" style="38" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="38" customWidth="1"/>
-    <col min="11" max="11" width="26.83203125" style="38" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19" style="38" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="38" customWidth="1"/>
-    <col min="14" max="14" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" style="38" customWidth="1"/>
-    <col min="16" max="16" width="12.83203125" customWidth="1"/>
+    <col min="10" max="13" width="22.1640625" style="38" customWidth="1"/>
+    <col min="14" max="14" width="26.83203125" style="38" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" style="38" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19" style="38" customWidth="1"/>
+    <col min="17" max="17" width="19.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.33203125" style="38" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -15044,7 +15159,7 @@
       <c r="G1" s="125"/>
       <c r="H1" s="126"/>
       <c r="I1" s="115" t="s">
-        <v>593</v>
+        <v>1072</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
@@ -15052,9 +15167,12 @@
       <c r="M1" s="116"/>
       <c r="N1" s="116"/>
       <c r="O1" s="116"/>
-      <c r="P1" s="117"/>
-    </row>
-    <row r="2" spans="1:16" s="46" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="117"/>
+    </row>
+    <row r="2" spans="1:19" s="46" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
@@ -15086,25 +15204,34 @@
         <v>86</v>
       </c>
       <c r="K2" s="31" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>1070</v>
+      </c>
+      <c r="M2" s="32" t="s">
+        <v>1071</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="O2" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="P2" s="11" t="s">
         <v>591</v>
       </c>
-      <c r="N2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="31" t="s">
+      <c r="R2" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="S2" s="31" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>5</v>
       </c>
@@ -15132,27 +15259,34 @@
       <c r="I3" s="39" t="s">
         <v>465</v>
       </c>
-      <c r="J3" s="39" t="s">
-        <v>348</v>
-      </c>
-      <c r="K3" s="39" t="s">
+      <c r="J3" s="49" t="s">
+        <v>106</v>
+      </c>
+      <c r="K3" s="39">
+        <v>16</v>
+      </c>
+      <c r="L3" s="39">
+        <v>55</v>
+      </c>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="L3" s="48" t="s">
+      <c r="O3" s="48" t="s">
         <v>592</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="P3" s="48" t="s">
         <v>379</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39" t="s">
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="S3" s="37" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
@@ -15170,9 +15304,12 @@
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
-      <c r="P4" s="39"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="39"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>5</v>
       </c>
@@ -15201,20 +15338,23 @@
       <c r="J5" s="39" t="s">
         <v>348</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="O5" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39" t="s">
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="39"/>
-    </row>
-    <row r="6" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="S5" s="39"/>
+    </row>
+    <row r="6" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
@@ -15243,20 +15383,23 @@
       <c r="J6" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="O6" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="M6" s="39"/>
-      <c r="N6" s="39" t="s">
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="O6" s="39"/>
-      <c r="P6" s="39"/>
-    </row>
-    <row r="7" spans="1:16" ht="16" x14ac:dyDescent="0.2">
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+    </row>
+    <row r="7" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>5</v>
       </c>
@@ -15285,26 +15428,29 @@
       <c r="J7" s="49" t="s">
         <v>106</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="O7" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39" t="s">
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="L10" s="93"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="O10" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="I1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15339,25 +15485,43 @@
           <x14:formula1>
             <xm:f>drop_down_rule_set!$S$2:$S$4</xm:f>
           </x14:formula1>
-          <xm:sqref>L3:L500</xm:sqref>
+          <xm:sqref>O3:O500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000005000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B501,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B3 M3</xm:sqref>
+          <xm:sqref>P3 B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000007000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 M4</xm:sqref>
+          <xm:sqref>P4 B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0F00-000009000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B502,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B5:B500 M5:M500</xm:sqref>
+          <xm:sqref>P5:P500 B5:B500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000E000000}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:W501,"*?")+1,20,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>R3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000F000000}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:W500,"*?")+1,20,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>R4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-000010000000}">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:W502,"*?")+1,20,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>R5:R500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;" xr:uid="{00000000-0002-0000-0F00-00000B000000}">
           <x14:formula1>
@@ -15376,24 +15540,6 @@
             <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$D$2:D502,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000E000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:T501,"*?")+1,20,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>O3</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-00000F000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:T500,"*?")+1,20,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>O4</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-0F00-000010000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_set!$T$2:T502,"*?")+1,20,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>O5:O500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -15424,7 +15570,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -15705,7 +15851,7 @@
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
       <c r="E3" s="37" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -15744,7 +15890,7 @@
         <v>126</v>
       </c>
       <c r="I4" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
@@ -15769,7 +15915,7 @@
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
       <c r="I5" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J5" s="29" t="s">
         <v>127</v>
@@ -15793,7 +15939,7 @@
       <c r="G6" s="29"/>
       <c r="H6" s="29"/>
       <c r="I6" s="29" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J6" s="29" t="s">
         <v>129</v>
@@ -15830,7 +15976,7 @@
         <v>131</v>
       </c>
       <c r="I7" s="29" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J7" s="29"/>
       <c r="K7" s="29"/>
@@ -15863,7 +16009,7 @@
         <v>133</v>
       </c>
       <c r="I8" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J8" s="29" t="s">
         <v>134</v>
@@ -15902,7 +16048,7 @@
         <v>133</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J9" s="29" t="s">
         <v>136</v>
@@ -15939,7 +16085,7 @@
         <v>138</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="29"/>
@@ -16048,13 +16194,13 @@
         <v>139</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E2" s="20" t="s">
+        <v>872</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>873</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>874</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>140</v>
@@ -16066,7 +16212,7 @@
         <v>98</v>
       </c>
       <c r="J2" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="K2" s="20" t="s">
         <v>142</v>
@@ -16333,10 +16479,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>598</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>599</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>600</v>
       </c>
       <c r="D3" s="37" t="s">
         <v>417</v>
@@ -16348,10 +16494,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>600</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>601</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>602</v>
       </c>
       <c r="D4" s="37" t="s">
         <v>417</v>
@@ -16366,7 +16512,7 @@
         <v>365</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D5" s="37" t="s">
         <v>417</v>
@@ -16378,10 +16524,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
+        <v>603</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>604</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>605</v>
       </c>
       <c r="D6" s="37" t="s">
         <v>417</v>
@@ -16610,7 +16756,7 @@
         <v>158</v>
       </c>
       <c r="F2" s="40" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>159</v>
@@ -18188,7 +18334,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="54" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -18231,31 +18377,31 @@
         <v>40</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F2" s="68" t="s">
         <v>86</v>
       </c>
       <c r="G2" s="68" t="s">
+        <v>942</v>
+      </c>
+      <c r="H2" s="68" t="s">
         <v>943</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="I2" s="68" t="s">
         <v>944</v>
       </c>
-      <c r="I2" s="68" t="s">
+      <c r="J2" s="68" t="s">
         <v>945</v>
       </c>
-      <c r="J2" s="68" t="s">
+      <c r="K2" s="94" t="s">
         <v>946</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="L2" s="68" t="s">
         <v>947</v>
       </c>
-      <c r="L2" s="68" t="s">
+      <c r="M2" s="69" t="s">
         <v>948</v>
-      </c>
-      <c r="M2" s="69" t="s">
-        <v>949</v>
       </c>
       <c r="N2" s="68" t="s">
         <v>424</v>
@@ -18273,10 +18419,10 @@
         <v>427</v>
       </c>
       <c r="S2" s="68" t="s">
+        <v>949</v>
+      </c>
+      <c r="T2" s="68" t="s">
         <v>950</v>
-      </c>
-      <c r="T2" s="68" t="s">
-        <v>951</v>
       </c>
       <c r="U2" s="68" t="s">
         <v>96</v>
@@ -18288,10 +18434,10 @@
         <v>331</v>
       </c>
       <c r="X2" s="68" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="Y2" s="68" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="Z2" s="68" t="s">
         <v>98</v>
@@ -18336,16 +18482,16 @@
         <v>324</v>
       </c>
       <c r="B4" s="105" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="105" t="s">
         <v>57</v>
       </c>
       <c r="D4" s="37" t="s">
+        <v>985</v>
+      </c>
+      <c r="E4" s="106" t="s">
         <v>986</v>
-      </c>
-      <c r="E4" s="106" t="s">
-        <v>987</v>
       </c>
       <c r="F4" s="55" t="s">
         <v>348</v>
@@ -18368,7 +18514,7 @@
         <v>337</v>
       </c>
       <c r="N4" s="55" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O4" s="55" t="s">
         <v>338</v>
@@ -18401,7 +18547,7 @@
         <v>15</v>
       </c>
       <c r="Y4" s="39" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Z4" s="39"/>
       <c r="AA4" s="39"/>
@@ -18411,16 +18557,16 @@
         <v>324</v>
       </c>
       <c r="B5" s="105" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C5" s="105" t="s">
         <v>91</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="106" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F5" s="55" t="s">
         <v>351</v>
@@ -18445,7 +18591,7 @@
         <v>337</v>
       </c>
       <c r="N5" s="55" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O5" s="55" t="s">
         <v>353</v>
@@ -18478,7 +18624,7 @@
         <v>15</v>
       </c>
       <c r="Y5" s="39" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Z5" s="39"/>
       <c r="AA5" s="39"/>
@@ -24616,7 +24762,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -24634,7 +24780,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D2" s="94" t="s">
         <v>85</v>
@@ -24643,10 +24789,10 @@
         <v>86</v>
       </c>
       <c r="F2" s="94" t="s">
+        <v>962</v>
+      </c>
+      <c r="G2" s="94" t="s">
         <v>963</v>
-      </c>
-      <c r="G2" s="94" t="s">
-        <v>964</v>
       </c>
       <c r="H2" s="97" t="s">
         <v>443</v>
@@ -24669,7 +24815,7 @@
         <v>324</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>431</v>
@@ -24678,7 +24824,7 @@
         <v>57</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F4" s="37">
         <v>2</v>
@@ -30729,7 +30875,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="54" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -30763,46 +30909,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D2" s="69" t="s">
+        <v>966</v>
+      </c>
+      <c r="E2" s="94" t="s">
         <v>967</v>
-      </c>
-      <c r="E2" s="94" t="s">
-        <v>968</v>
       </c>
       <c r="F2" s="94" t="s">
         <v>355</v>
       </c>
       <c r="G2" s="94" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H2" s="69" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="I2" s="94" t="s">
         <v>424</v>
       </c>
       <c r="J2" s="94" t="s">
+        <v>968</v>
+      </c>
+      <c r="K2" s="94" t="s">
         <v>969</v>
       </c>
-      <c r="K2" s="94" t="s">
+      <c r="L2" s="94" t="s">
         <v>970</v>
-      </c>
-      <c r="L2" s="94" t="s">
-        <v>971</v>
       </c>
       <c r="M2" s="94" t="s">
         <v>96</v>
       </c>
       <c r="N2" s="94" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O2" s="111" t="s">
         <v>98</v>
       </c>
       <c r="P2" s="111" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="Q2" s="101" t="s">
         <v>443</v>
@@ -30840,19 +30986,19 @@
         <v>324</v>
       </c>
       <c r="B4" s="39" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C4" s="55" t="s">
         <v>431</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="G4" s="109">
         <v>4</v>
@@ -30861,7 +31007,7 @@
         <v>337</v>
       </c>
       <c r="I4" s="103" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="J4" s="103" t="s">
         <v>436</v>
@@ -30876,7 +31022,7 @@
         <v>104</v>
       </c>
       <c r="N4" s="63" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="P4" s="39"/>
       <c r="Q4" s="37" t="s">
@@ -37733,22 +37879,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="51" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C1" s="60" t="s">
         <v>432</v>
       </c>
       <c r="D1" s="60" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E1" s="51" t="s">
         <v>357</v>
       </c>
       <c r="F1" s="61" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="G1" s="61" t="s">
         <v>331</v>
@@ -37757,13 +37903,13 @@
         <v>330</v>
       </c>
       <c r="I1" s="96" t="s">
+        <v>946</v>
+      </c>
+      <c r="J1" s="96" t="s">
         <v>947</v>
       </c>
-      <c r="J1" s="96" t="s">
-        <v>948</v>
-      </c>
       <c r="K1" s="61" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -37795,7 +37941,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="67" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="K2" s="39">
         <v>1</v>
@@ -37803,7 +37949,7 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="95" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="B3" s="58" t="s">
         <v>434</v>
@@ -37830,7 +37976,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="67" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="K3" s="39">
         <v>2</v>
@@ -37838,7 +37984,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B4" s="39" t="s">
         <v>352</v>
@@ -37860,7 +38006,7 @@
         <v>348</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C5" s="39" t="s">
         <v>435</v>
@@ -37880,7 +38026,7 @@
       </c>
       <c r="B6" s="39"/>
       <c r="C6" s="39" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="D6" s="39"/>
       <c r="E6" s="39" t="s">
@@ -37893,11 +38039,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="95" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B7" s="39"/>
       <c r="C7" s="39" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="D7" s="39"/>
       <c r="E7" s="39" t="s">
@@ -37910,11 +38056,11 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="95" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B8" s="39"/>
       <c r="C8" s="39" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="D8" s="39"/>
       <c r="E8" s="39" t="s">
@@ -37948,7 +38094,7 @@
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="39" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="D10" s="39"/>
       <c r="E10" s="39" t="s">
@@ -37961,11 +38107,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="95" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="39" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="D11" s="39"/>
       <c r="E11" s="39" t="s">
@@ -37982,11 +38128,11 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="39" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="D12" s="39"/>
       <c r="E12" s="39" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F12" s="39"/>
       <c r="H12" s="39" t="s">
@@ -37999,7 +38145,7 @@
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="39" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="D13" s="39"/>
       <c r="E13" s="39"/>
@@ -38014,7 +38160,7 @@
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="39" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="D14" s="39"/>
       <c r="E14" s="39"/>
@@ -38548,91 +38694,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="84" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
+        <v>874</v>
+      </c>
+      <c r="B1" s="92" t="s">
         <v>875</v>
       </c>
-      <c r="B1" s="92" t="s">
+      <c r="C1" s="92" t="s">
         <v>876</v>
       </c>
-      <c r="C1" s="92" t="s">
+      <c r="D1" s="92" t="s">
         <v>877</v>
       </c>
-      <c r="D1" s="92" t="s">
+      <c r="E1" s="92" t="s">
         <v>878</v>
       </c>
-      <c r="E1" s="92" t="s">
+      <c r="F1" s="92" t="s">
         <v>879</v>
-      </c>
-      <c r="F1" s="92" t="s">
-        <v>880</v>
       </c>
       <c r="G1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="92" t="s">
+        <v>880</v>
+      </c>
+      <c r="I1" s="92" t="s">
         <v>881</v>
       </c>
-      <c r="I1" s="92" t="s">
+      <c r="J1" s="92" t="s">
         <v>882</v>
       </c>
-      <c r="J1" s="92" t="s">
+      <c r="K1" s="92" t="s">
         <v>883</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="L1" s="92" t="s">
         <v>884</v>
       </c>
-      <c r="L1" s="92" t="s">
+      <c r="M1" s="92" t="s">
+        <v>936</v>
+      </c>
+      <c r="N1" s="92" t="s">
         <v>885</v>
       </c>
-      <c r="M1" s="92" t="s">
+      <c r="O1" s="92" t="s">
+        <v>886</v>
+      </c>
+      <c r="P1" s="92" t="s">
+        <v>887</v>
+      </c>
+      <c r="Q1" s="92" t="s">
+        <v>888</v>
+      </c>
+      <c r="R1" s="92" t="s">
+        <v>889</v>
+      </c>
+      <c r="S1" s="92" t="s">
+        <v>890</v>
+      </c>
+      <c r="T1" s="92" t="s">
+        <v>938</v>
+      </c>
+      <c r="U1" s="92" t="s">
+        <v>891</v>
+      </c>
+      <c r="V1" s="83" t="s">
+        <v>892</v>
+      </c>
+      <c r="W1" s="83" t="s">
+        <v>893</v>
+      </c>
+      <c r="X1" s="83" t="s">
+        <v>894</v>
+      </c>
+      <c r="Y1" s="92" t="s">
         <v>937</v>
-      </c>
-      <c r="N1" s="92" t="s">
-        <v>886</v>
-      </c>
-      <c r="O1" s="92" t="s">
-        <v>887</v>
-      </c>
-      <c r="P1" s="92" t="s">
-        <v>888</v>
-      </c>
-      <c r="Q1" s="92" t="s">
-        <v>889</v>
-      </c>
-      <c r="R1" s="92" t="s">
-        <v>890</v>
-      </c>
-      <c r="S1" s="92" t="s">
-        <v>891</v>
-      </c>
-      <c r="T1" s="92" t="s">
-        <v>939</v>
-      </c>
-      <c r="U1" s="92" t="s">
-        <v>892</v>
-      </c>
-      <c r="V1" s="83" t="s">
-        <v>893</v>
-      </c>
-      <c r="W1" s="83" t="s">
-        <v>894</v>
-      </c>
-      <c r="X1" s="83" t="s">
-        <v>895</v>
-      </c>
-      <c r="Y1" s="92" t="s">
-        <v>938</v>
       </c>
       <c r="Z1" s="83" t="s">
         <v>86</v>
       </c>
       <c r="AA1" s="83" t="s">
+        <v>895</v>
+      </c>
+      <c r="AB1" s="83" t="s">
         <v>896</v>
       </c>
-      <c r="AB1" s="83" t="s">
+      <c r="AC1" s="83" t="s">
         <v>897</v>
-      </c>
-      <c r="AC1" s="83" t="s">
-        <v>898</v>
       </c>
       <c r="AD1" s="83" t="s">
         <v>253</v>
@@ -38653,7 +38799,7 @@
         <v>258</v>
       </c>
       <c r="AJ1" s="83" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="AK1" s="83" t="s">
         <v>323</v>
@@ -38685,7 +38831,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="86" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H2" s="86" t="s">
         <v>39</v>
@@ -38708,13 +38854,13 @@
         <v>DRG</v>
       </c>
       <c r="N2" s="86" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="O2" s="86" t="s">
         <v>79</v>
       </c>
       <c r="P2" s="87" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="Q2" s="86" t="s">
         <v>364</v>
@@ -38734,13 +38880,13 @@
         <v>DNS-Server1-PhxHub</v>
       </c>
       <c r="V2" s="86" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="W2" s="86" t="s">
         <v>130</v>
       </c>
       <c r="X2" s="86" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="Y2" s="86" t="b">
         <v>1</v>
@@ -38749,7 +38895,7 @@
         <v>148</v>
       </c>
       <c r="AA2" s="86" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="AB2" s="86" t="s">
         <v>171</v>
@@ -38815,7 +38961,7 @@
         <v>57</v>
       </c>
       <c r="J3" s="86" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="K3" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -38829,7 +38975,7 @@
         <v/>
       </c>
       <c r="N3" s="86" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O3" s="86" t="s">
         <v>400</v>
@@ -38844,7 +38990,7 @@
         <v>91</v>
       </c>
       <c r="S3" s="86" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="T3" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -38861,7 +39007,7 @@
         <v>128</v>
       </c>
       <c r="X3" s="86" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="Y3" s="86" t="b">
         <v>0</v>
@@ -38873,7 +39019,7 @@
         <v>170</v>
       </c>
       <c r="AB3" s="86" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AC3" s="86" t="s">
         <v>173</v>
@@ -38897,7 +39043,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="86" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="AK3" s="85" t="s">
         <v>329</v>
@@ -38925,7 +39071,7 @@
       </c>
       <c r="F4" s="86"/>
       <c r="G4" s="86" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="H4" s="86"/>
       <c r="I4" s="86" t="s">
@@ -38955,7 +39101,7 @@
         <v>100</v>
       </c>
       <c r="S4" s="86" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="T4" s="86" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -38968,14 +39114,14 @@
       <c r="V4" s="86"/>
       <c r="W4" s="86"/>
       <c r="X4" s="86" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="Y4" s="86"/>
       <c r="Z4" s="86" t="s">
+        <v>910</v>
+      </c>
+      <c r="AA4" s="86" t="s">
         <v>911</v>
-      </c>
-      <c r="AA4" s="86" t="s">
-        <v>912</v>
       </c>
       <c r="AB4" s="86"/>
       <c r="AC4" s="86" t="s">
@@ -39022,7 +39168,7 @@
       </c>
       <c r="F5" s="86"/>
       <c r="G5" s="86" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="H5" s="86"/>
       <c r="I5" s="86" t="s">
@@ -39040,7 +39186,7 @@
       </c>
       <c r="N5" s="86"/>
       <c r="O5" s="86" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="P5" s="87"/>
       <c r="Q5" s="86"/>
@@ -39057,7 +39203,7 @@
       <c r="X5" s="86"/>
       <c r="Y5" s="86"/>
       <c r="Z5" s="86" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="AA5" s="86"/>
       <c r="AB5" s="86"/>
@@ -39101,7 +39247,7 @@
       </c>
       <c r="F6" s="86"/>
       <c r="G6" s="86" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H6" s="86"/>
       <c r="I6" s="86"/>
@@ -39117,7 +39263,7 @@
       </c>
       <c r="N6" s="86"/>
       <c r="O6" s="86" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="P6" s="87"/>
       <c r="Q6" s="86"/>
@@ -39174,7 +39320,7 @@
       </c>
       <c r="F7" s="86"/>
       <c r="G7" s="86" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="H7" s="86"/>
       <c r="I7" s="86"/>
@@ -39190,7 +39336,7 @@
       </c>
       <c r="N7" s="86"/>
       <c r="O7" s="86" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="P7" s="87"/>
       <c r="Q7" s="86"/>
@@ -39245,7 +39391,7 @@
       </c>
       <c r="F8" s="86"/>
       <c r="G8" s="86" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="H8" s="86"/>
       <c r="I8" s="86"/>
@@ -39314,7 +39460,7 @@
       </c>
       <c r="F9" s="86"/>
       <c r="G9" s="86" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="H9" s="86"/>
       <c r="I9" s="86"/>
@@ -39383,7 +39529,7 @@
       </c>
       <c r="F10" s="86"/>
       <c r="G10" s="86" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="H10" s="86"/>
       <c r="I10" s="86"/>
@@ -39452,7 +39598,7 @@
       </c>
       <c r="F11" s="86"/>
       <c r="G11" s="86" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H11" s="86"/>
       <c r="I11" s="86"/>
@@ -39521,7 +39667,7 @@
       </c>
       <c r="F12" s="86"/>
       <c r="G12" s="86" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H12" s="86"/>
       <c r="I12" s="86"/>
@@ -39588,7 +39734,7 @@
       </c>
       <c r="F13" s="86"/>
       <c r="G13" s="86" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H13" s="86"/>
       <c r="I13" s="86"/>
@@ -39655,7 +39801,7 @@
       </c>
       <c r="F14" s="86"/>
       <c r="G14" s="86" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H14" s="86"/>
       <c r="I14" s="86"/>
@@ -39789,7 +39935,7 @@
       </c>
       <c r="F16" s="86"/>
       <c r="G16" s="86" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
@@ -39856,7 +40002,7 @@
       </c>
       <c r="F17" s="86"/>
       <c r="G17" s="86" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="H17" s="86"/>
       <c r="I17" s="86"/>
@@ -39923,7 +40069,7 @@
       </c>
       <c r="F18" s="86"/>
       <c r="G18" s="86" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H18" s="86"/>
       <c r="I18" s="86"/>
@@ -39990,7 +40136,7 @@
       </c>
       <c r="F19" s="86"/>
       <c r="G19" s="86" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H19" s="86"/>
       <c r="I19" s="86"/>
@@ -40057,7 +40203,7 @@
       </c>
       <c r="F20" s="86"/>
       <c r="G20" s="86" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H20" s="86"/>
       <c r="I20" s="86"/>
@@ -40124,7 +40270,7 @@
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="86" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="H21" s="86"/>
       <c r="I21" s="86"/>
@@ -40191,7 +40337,7 @@
       </c>
       <c r="F22" s="86"/>
       <c r="G22" s="86" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H22" s="86"/>
       <c r="I22" s="86"/>
@@ -40258,7 +40404,7 @@
       </c>
       <c r="F23" s="86"/>
       <c r="G23" s="86" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H23" s="86"/>
       <c r="I23" s="86"/>
@@ -40325,7 +40471,7 @@
       </c>
       <c r="F24" s="86"/>
       <c r="G24" s="86" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="H24" s="86"/>
       <c r="I24" s="86"/>
@@ -41804,10 +41950,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="37" t="s">
         <v>606</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>607</v>
       </c>
       <c r="D3" s="37"/>
       <c r="E3" s="39"/>
@@ -41817,10 +41963,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>607</v>
+      </c>
+      <c r="C4" s="37" t="s">
         <v>608</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>609</v>
       </c>
       <c r="D4" s="37"/>
       <c r="E4" s="39"/>
@@ -41830,10 +41976,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="37" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>610</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>611</v>
       </c>
       <c r="D5" s="37"/>
       <c r="E5" s="39"/>
@@ -41843,10 +41989,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
+        <v>611</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>612</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>613</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="39"/>
@@ -41856,10 +42002,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="75" t="s">
+        <v>613</v>
+      </c>
+      <c r="C7" s="75" t="s">
         <v>614</v>
-      </c>
-      <c r="C7" s="75" t="s">
-        <v>615</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
@@ -41869,10 +42015,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>615</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>616</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>617</v>
       </c>
       <c r="D8" s="37"/>
       <c r="E8" s="37"/>
@@ -41882,10 +42028,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="37" t="s">
+        <v>799</v>
+      </c>
+      <c r="C9" s="37" t="s">
         <v>800</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>801</v>
       </c>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -41895,10 +42041,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="37" t="s">
+        <v>836</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>837</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>838</v>
       </c>
       <c r="D10" s="37"/>
       <c r="E10" s="37"/>
@@ -41908,10 +42054,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="37" t="s">
+        <v>982</v>
+      </c>
+      <c r="C11" s="37" t="s">
         <v>983</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>984</v>
       </c>
       <c r="D11" s="37"/>
       <c r="E11" s="37"/>
@@ -42290,10 +42436,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="83" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -42806,16 +42952,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C3" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D3" s="37" t="s">
+        <v>802</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>803</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>804</v>
       </c>
       <c r="F3" s="37"/>
       <c r="G3" s="37"/>
@@ -42827,7 +42973,7 @@
       <c r="C4" s="37"/>
       <c r="D4" s="37"/>
       <c r="E4" s="37" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
@@ -42838,16 +42984,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="110" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C5" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="E5" s="37" t="s">
         <v>619</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>620</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
@@ -42859,7 +43005,7 @@
       <c r="C6" s="37"/>
       <c r="D6" s="37"/>
       <c r="E6" s="37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
@@ -42871,7 +43017,7 @@
       <c r="C7" s="37"/>
       <c r="D7" s="37"/>
       <c r="E7" s="37" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -42883,7 +43029,7 @@
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
       <c r="E8" s="37" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
@@ -42895,7 +43041,7 @@
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
@@ -42907,7 +43053,7 @@
       <c r="C10" s="37"/>
       <c r="D10" s="37"/>
       <c r="E10" s="37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
@@ -42919,7 +43065,7 @@
       <c r="C11" s="37"/>
       <c r="D11" s="37"/>
       <c r="E11" s="37" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
@@ -42931,7 +43077,7 @@
       <c r="C12" s="37"/>
       <c r="D12" s="37"/>
       <c r="E12" s="37" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
@@ -42943,7 +43089,7 @@
       <c r="C13" s="37"/>
       <c r="D13" s="37"/>
       <c r="E13" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
@@ -42955,7 +43101,7 @@
       <c r="C14" s="37"/>
       <c r="D14" s="37"/>
       <c r="E14" s="37" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -42967,7 +43113,7 @@
       <c r="C15" s="37"/>
       <c r="D15" s="37"/>
       <c r="E15" s="37" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
@@ -42979,7 +43125,7 @@
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
       <c r="E16" s="37" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
@@ -42991,7 +43137,7 @@
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
       <c r="E17" s="37" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
@@ -43003,7 +43149,7 @@
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
       <c r="E18" s="37" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
@@ -43015,7 +43161,7 @@
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
       <c r="E19" s="37" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37"/>
@@ -43027,7 +43173,7 @@
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
       <c r="E20" s="37" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F20" s="37"/>
       <c r="G20" s="37"/>
@@ -43039,7 +43185,7 @@
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
       <c r="E21" s="37" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F21" s="37"/>
       <c r="G21" s="37"/>
@@ -43051,7 +43197,7 @@
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="F22" s="37"/>
       <c r="G22" s="37"/>
@@ -43063,7 +43209,7 @@
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="F23" s="37"/>
       <c r="G23" s="37"/>
@@ -43075,7 +43221,7 @@
       <c r="C24" s="37"/>
       <c r="D24" s="37"/>
       <c r="E24" s="37" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F24" s="37"/>
       <c r="G24" s="37"/>
@@ -43087,7 +43233,7 @@
       <c r="C25" s="37"/>
       <c r="D25" s="37"/>
       <c r="E25" s="37" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F25" s="37"/>
       <c r="G25" s="37"/>
@@ -43099,7 +43245,7 @@
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
       <c r="E26" s="37" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F26" s="37"/>
       <c r="G26" s="37"/>
@@ -43111,7 +43257,7 @@
       <c r="C27" s="37"/>
       <c r="D27" s="37"/>
       <c r="E27" s="37" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F27" s="37"/>
       <c r="G27" s="37"/>
@@ -43123,7 +43269,7 @@
       <c r="C28" s="37"/>
       <c r="D28" s="37"/>
       <c r="E28" s="37" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F28" s="37"/>
       <c r="G28" s="37"/>
@@ -43135,7 +43281,7 @@
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
       <c r="E29" s="37" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="F29" s="37"/>
       <c r="G29" s="37"/>
@@ -43147,7 +43293,7 @@
       <c r="C30" s="37"/>
       <c r="D30" s="37"/>
       <c r="E30" s="37" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="F30" s="37"/>
       <c r="G30" s="37"/>
@@ -43159,7 +43305,7 @@
       <c r="C31" s="37"/>
       <c r="D31" s="37"/>
       <c r="E31" s="37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F31" s="37"/>
       <c r="G31" s="37"/>
@@ -43171,7 +43317,7 @@
       <c r="C32" s="37"/>
       <c r="D32" s="37"/>
       <c r="E32" s="37" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F32" s="37"/>
       <c r="G32" s="37"/>
@@ -43183,7 +43329,7 @@
       <c r="C33" s="37"/>
       <c r="D33" s="37"/>
       <c r="E33" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F33" s="37"/>
       <c r="G33" s="37"/>
@@ -43195,7 +43341,7 @@
       <c r="C34" s="37"/>
       <c r="D34" s="37"/>
       <c r="E34" s="37" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F34" s="37"/>
       <c r="G34" s="37"/>
@@ -43207,7 +43353,7 @@
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
       <c r="E35" s="37" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="F35" s="37"/>
       <c r="G35" s="37"/>
@@ -43219,7 +43365,7 @@
       <c r="C36" s="37"/>
       <c r="D36" s="37"/>
       <c r="E36" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F36" s="37"/>
       <c r="G36" s="37"/>
@@ -43231,7 +43377,7 @@
       <c r="C37" s="37"/>
       <c r="D37" s="37"/>
       <c r="E37" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F37" s="37"/>
       <c r="G37" s="37"/>
@@ -43243,7 +43389,7 @@
       <c r="C38" s="37"/>
       <c r="D38" s="37"/>
       <c r="E38" s="1" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F38" s="37"/>
       <c r="G38" s="37"/>
@@ -43255,7 +43401,7 @@
       <c r="C39" s="37"/>
       <c r="D39" s="37"/>
       <c r="E39" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F39" s="37"/>
       <c r="G39" s="37"/>
@@ -43267,7 +43413,7 @@
       <c r="C40" s="37"/>
       <c r="D40" s="37"/>
       <c r="E40" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F40" s="37"/>
       <c r="G40" s="37"/>
@@ -43279,7 +43425,7 @@
       <c r="C41" s="37"/>
       <c r="D41" s="37"/>
       <c r="E41" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F41" s="37"/>
       <c r="G41" s="37"/>
@@ -43291,7 +43437,7 @@
       <c r="C42" s="37"/>
       <c r="D42" s="37"/>
       <c r="E42" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F42" s="37"/>
       <c r="G42" s="37"/>
@@ -43303,7 +43449,7 @@
       <c r="C43" s="37"/>
       <c r="D43" s="37"/>
       <c r="E43" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F43" s="37"/>
       <c r="G43" s="37"/>
@@ -43315,7 +43461,7 @@
       <c r="C44" s="37"/>
       <c r="D44" s="37"/>
       <c r="E44" s="37" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F44" s="37"/>
       <c r="G44" s="37"/>
@@ -43327,7 +43473,7 @@
       <c r="C45" s="37"/>
       <c r="D45" s="37"/>
       <c r="E45" s="37" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F45" s="37"/>
       <c r="G45" s="37"/>
@@ -43339,7 +43485,7 @@
       <c r="C46" s="37"/>
       <c r="D46" s="37"/>
       <c r="E46" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F46" s="37"/>
       <c r="G46" s="37"/>
@@ -43350,16 +43496,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="110" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C47" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D47" s="37" t="s">
+        <v>644</v>
+      </c>
+      <c r="E47" s="37" t="s">
         <v>645</v>
-      </c>
-      <c r="E47" s="37" t="s">
-        <v>646</v>
       </c>
       <c r="F47" s="37"/>
       <c r="G47" s="37"/>
@@ -43371,7 +43517,7 @@
       <c r="C48" s="37"/>
       <c r="D48" s="37"/>
       <c r="E48" s="37" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F48" s="37"/>
       <c r="G48" s="37"/>
@@ -43383,7 +43529,7 @@
       <c r="C49" s="37"/>
       <c r="D49" s="37"/>
       <c r="E49" s="37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="37"/>
@@ -43395,7 +43541,7 @@
       <c r="C50" s="37"/>
       <c r="D50" s="37"/>
       <c r="E50" s="37" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F50" s="37"/>
       <c r="G50" s="37"/>
@@ -43407,7 +43553,7 @@
       <c r="C51" s="37"/>
       <c r="D51" s="37"/>
       <c r="E51" s="37" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F51" s="37"/>
       <c r="G51" s="37"/>
@@ -43419,7 +43565,7 @@
       <c r="C52" s="37"/>
       <c r="D52" s="37"/>
       <c r="E52" s="37" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F52" s="37"/>
       <c r="G52" s="37"/>
@@ -43431,7 +43577,7 @@
       <c r="C53" s="37"/>
       <c r="D53" s="37"/>
       <c r="E53" s="37" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F53" s="37"/>
       <c r="G53" s="37"/>
@@ -43443,7 +43589,7 @@
       <c r="C54" s="37"/>
       <c r="D54" s="37"/>
       <c r="E54" s="37" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F54" s="37"/>
       <c r="G54" s="37"/>
@@ -43455,7 +43601,7 @@
       <c r="C55" s="37"/>
       <c r="D55" s="37"/>
       <c r="E55" s="37" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F55" s="37"/>
       <c r="G55" s="37"/>
@@ -43467,7 +43613,7 @@
       <c r="C56" s="37"/>
       <c r="D56" s="37"/>
       <c r="E56" s="37" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F56" s="37"/>
       <c r="G56" s="37"/>
@@ -43479,7 +43625,7 @@
       <c r="C57" s="37"/>
       <c r="D57" s="37"/>
       <c r="E57" s="37" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F57" s="37"/>
       <c r="G57" s="37"/>
@@ -43491,7 +43637,7 @@
       <c r="C58" s="37"/>
       <c r="D58" s="37"/>
       <c r="E58" s="37" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="F58" s="37"/>
       <c r="G58" s="37"/>
@@ -43503,7 +43649,7 @@
       <c r="C59" s="37"/>
       <c r="D59" s="37"/>
       <c r="E59" s="37" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F59" s="37"/>
       <c r="G59" s="37"/>
@@ -43515,7 +43661,7 @@
       <c r="C60" s="37"/>
       <c r="D60" s="37"/>
       <c r="E60" s="37" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="F60" s="37"/>
       <c r="G60" s="37"/>
@@ -43527,7 +43673,7 @@
       <c r="C61" s="37"/>
       <c r="D61" s="37"/>
       <c r="E61" s="37" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F61" s="37"/>
       <c r="G61" s="37"/>
@@ -43539,7 +43685,7 @@
       <c r="C62" s="37"/>
       <c r="D62" s="37"/>
       <c r="E62" s="37" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F62" s="37"/>
       <c r="G62" s="37"/>
@@ -43550,16 +43696,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C63" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D63" s="37" t="s">
+        <v>847</v>
+      </c>
+      <c r="E63" s="37" t="s">
         <v>848</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>849</v>
       </c>
       <c r="F63" s="37"/>
       <c r="G63" s="37"/>
@@ -43571,7 +43717,7 @@
       <c r="C64" s="37"/>
       <c r="D64" s="37"/>
       <c r="E64" s="37" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F64" s="37"/>
       <c r="G64" s="37"/>
@@ -43583,7 +43729,7 @@
       <c r="C65" s="37"/>
       <c r="D65" s="37"/>
       <c r="E65" s="37" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F65" s="37"/>
       <c r="G65" s="37"/>
@@ -43595,7 +43741,7 @@
       <c r="C66" s="37"/>
       <c r="D66" s="37"/>
       <c r="E66" s="37" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F66" s="37"/>
       <c r="G66" s="37"/>
@@ -43606,16 +43752,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D67" s="37" t="s">
+        <v>657</v>
+      </c>
+      <c r="E67" s="37" t="s">
         <v>658</v>
-      </c>
-      <c r="E67" s="37" t="s">
-        <v>659</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="37"/>
@@ -43627,7 +43773,7 @@
       <c r="C68" s="37"/>
       <c r="D68" s="37"/>
       <c r="E68" s="37" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="37"/>
@@ -43639,7 +43785,7 @@
       <c r="C69" s="37"/>
       <c r="D69" s="37"/>
       <c r="E69" s="37" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F69" s="37"/>
       <c r="G69" s="37"/>
@@ -43651,7 +43797,7 @@
       <c r="C70" s="37"/>
       <c r="D70" s="37"/>
       <c r="E70" s="37" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F70" s="37"/>
       <c r="G70" s="37"/>
@@ -43663,7 +43809,7 @@
       <c r="C71" s="37"/>
       <c r="D71" s="37"/>
       <c r="E71" s="37" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="37"/>
@@ -43675,7 +43821,7 @@
       <c r="C72" s="37"/>
       <c r="D72" s="37"/>
       <c r="E72" s="37" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="37"/>
@@ -43687,7 +43833,7 @@
       <c r="C73" s="37"/>
       <c r="D73" s="37"/>
       <c r="E73" s="37" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F73" s="37"/>
       <c r="G73" s="37"/>
@@ -43699,7 +43845,7 @@
       <c r="C74" s="37"/>
       <c r="D74" s="37"/>
       <c r="E74" s="37" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F74" s="37"/>
       <c r="G74" s="37"/>
@@ -43711,7 +43857,7 @@
       <c r="C75" s="37"/>
       <c r="D75" s="37"/>
       <c r="E75" s="37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="37"/>
@@ -43723,7 +43869,7 @@
       <c r="C76" s="37"/>
       <c r="D76" s="37"/>
       <c r="E76" s="37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F76" s="37"/>
       <c r="G76" s="37"/>
@@ -43735,7 +43881,7 @@
       <c r="C77" s="37"/>
       <c r="D77" s="37"/>
       <c r="E77" s="37" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F77" s="37"/>
       <c r="G77" s="37"/>
@@ -43747,7 +43893,7 @@
       <c r="C78" s="37"/>
       <c r="D78" s="37"/>
       <c r="E78" s="37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="37"/>
@@ -43759,7 +43905,7 @@
       <c r="C79" s="37"/>
       <c r="D79" s="37"/>
       <c r="E79" s="37" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="37"/>
@@ -43771,7 +43917,7 @@
       <c r="C80" s="37"/>
       <c r="D80" s="37"/>
       <c r="E80" s="37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="37"/>
@@ -43783,7 +43929,7 @@
       <c r="C81" s="37"/>
       <c r="D81" s="37"/>
       <c r="E81" s="37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="37"/>
@@ -43795,7 +43941,7 @@
       <c r="C82" s="37"/>
       <c r="D82" s="37"/>
       <c r="E82" s="37" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="37"/>
@@ -43807,7 +43953,7 @@
       <c r="C83" s="37"/>
       <c r="D83" s="37"/>
       <c r="E83" s="37" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="37"/>
@@ -43819,7 +43965,7 @@
       <c r="C84" s="37"/>
       <c r="D84" s="37"/>
       <c r="E84" s="37" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="37"/>
@@ -43831,7 +43977,7 @@
       <c r="C85" s="37"/>
       <c r="D85" s="37"/>
       <c r="E85" s="37" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="37"/>
@@ -43843,7 +43989,7 @@
       <c r="C86" s="37"/>
       <c r="D86" s="37"/>
       <c r="E86" s="37" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="37"/>
@@ -43854,16 +44000,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="110" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C87" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D87" s="37" t="s">
+        <v>676</v>
+      </c>
+      <c r="E87" s="37" t="s">
         <v>677</v>
-      </c>
-      <c r="E87" s="37" t="s">
-        <v>678</v>
       </c>
       <c r="F87" s="37"/>
       <c r="G87" s="37"/>
@@ -43875,7 +44021,7 @@
       <c r="C88" s="37"/>
       <c r="D88" s="37"/>
       <c r="E88" s="37" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F88" s="37"/>
       <c r="G88" s="37"/>
@@ -43887,7 +44033,7 @@
       <c r="C89" s="37"/>
       <c r="D89" s="37"/>
       <c r="E89" s="37" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="37"/>
@@ -43899,7 +44045,7 @@
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
       <c r="E90" s="37" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="37"/>
@@ -43911,7 +44057,7 @@
       <c r="C91" s="37"/>
       <c r="D91" s="37"/>
       <c r="E91" s="37" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="37"/>
@@ -43923,7 +44069,7 @@
       <c r="C92" s="37"/>
       <c r="D92" s="37"/>
       <c r="E92" s="37" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="37"/>
@@ -43935,7 +44081,7 @@
       <c r="C93" s="37"/>
       <c r="D93" s="37"/>
       <c r="E93" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="37"/>
@@ -43947,7 +44093,7 @@
       <c r="C94" s="37"/>
       <c r="D94" s="37"/>
       <c r="E94" s="37" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="37"/>
@@ -43959,7 +44105,7 @@
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
       <c r="E95" s="37" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="37"/>
@@ -43971,7 +44117,7 @@
       <c r="C96" s="37"/>
       <c r="D96" s="37"/>
       <c r="E96" s="37" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="37"/>
@@ -43983,7 +44129,7 @@
       <c r="C97" s="37"/>
       <c r="D97" s="37"/>
       <c r="E97" s="37" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="37"/>
@@ -43995,7 +44141,7 @@
       <c r="C98" s="37"/>
       <c r="D98" s="37"/>
       <c r="E98" s="37" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="37"/>
@@ -44007,7 +44153,7 @@
       <c r="C99" s="37"/>
       <c r="D99" s="37"/>
       <c r="E99" s="37" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="37"/>
@@ -44019,7 +44165,7 @@
       <c r="C100" s="37"/>
       <c r="D100" s="37"/>
       <c r="E100" s="37" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="37"/>
@@ -44031,7 +44177,7 @@
       <c r="C101" s="37"/>
       <c r="D101" s="37"/>
       <c r="E101" s="37" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="37"/>
@@ -44043,7 +44189,7 @@
       <c r="C102" s="37"/>
       <c r="D102" s="37"/>
       <c r="E102" s="37" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="37"/>
@@ -44055,7 +44201,7 @@
       <c r="C103" s="37"/>
       <c r="D103" s="37"/>
       <c r="E103" s="37" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="37"/>
@@ -44067,7 +44213,7 @@
       <c r="C104" s="37"/>
       <c r="D104" s="37"/>
       <c r="E104" s="37" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="37"/>
@@ -44079,7 +44225,7 @@
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
       <c r="E105" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="37"/>
@@ -44091,7 +44237,7 @@
       <c r="C106" s="37"/>
       <c r="D106" s="37"/>
       <c r="E106" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="37"/>
@@ -44103,7 +44249,7 @@
       <c r="C107" s="37"/>
       <c r="D107" s="37"/>
       <c r="E107" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="37"/>
@@ -44115,7 +44261,7 @@
       <c r="C108" s="37"/>
       <c r="D108" s="37"/>
       <c r="E108" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="37"/>
@@ -44127,7 +44273,7 @@
       <c r="C109" s="37"/>
       <c r="D109" s="37"/>
       <c r="E109" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="37"/>
@@ -44139,7 +44285,7 @@
       <c r="C110" s="37"/>
       <c r="D110" s="37"/>
       <c r="E110" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="37"/>
@@ -44151,7 +44297,7 @@
       <c r="C111" s="37"/>
       <c r="D111" s="37"/>
       <c r="E111" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="37"/>
@@ -44163,7 +44309,7 @@
       <c r="C112" s="37"/>
       <c r="D112" s="37"/>
       <c r="E112" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="37"/>
@@ -44175,7 +44321,7 @@
       <c r="C113" s="37"/>
       <c r="D113" s="37"/>
       <c r="E113" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="37"/>
@@ -44187,7 +44333,7 @@
       <c r="C114" s="37"/>
       <c r="D114" s="37"/>
       <c r="E114" s="37" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F114" s="37"/>
       <c r="G114" s="37"/>
@@ -44199,7 +44345,7 @@
       <c r="C115" s="37"/>
       <c r="D115" s="37"/>
       <c r="E115" s="37" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="37"/>
@@ -44211,7 +44357,7 @@
       <c r="C116" s="37"/>
       <c r="D116" s="37"/>
       <c r="E116" s="37" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="37"/>
@@ -44222,16 +44368,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="110" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C117" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D117" s="37" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E117" s="110" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="37"/>
@@ -44243,7 +44389,7 @@
       <c r="C118" s="37"/>
       <c r="D118" s="37"/>
       <c r="E118" s="110" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="37"/>
@@ -44255,7 +44401,7 @@
       <c r="C119" s="37"/>
       <c r="D119" s="37"/>
       <c r="E119" s="110" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="37"/>
@@ -44267,7 +44413,7 @@
       <c r="C120" s="37"/>
       <c r="D120" s="37"/>
       <c r="E120" s="110" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="37"/>
@@ -44279,7 +44425,7 @@
       <c r="C121" s="37"/>
       <c r="D121" s="37"/>
       <c r="E121" s="110" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="37"/>
@@ -44291,7 +44437,7 @@
       <c r="C122" s="37"/>
       <c r="D122" s="37"/>
       <c r="E122" s="110" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="37"/>
@@ -44303,7 +44449,7 @@
       <c r="C123" s="37"/>
       <c r="D123" s="37"/>
       <c r="E123" s="110" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="37"/>
@@ -44315,7 +44461,7 @@
       <c r="C124" s="37"/>
       <c r="D124" s="37"/>
       <c r="E124" s="110" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="37"/>
@@ -44327,7 +44473,7 @@
       <c r="C125" s="37"/>
       <c r="D125" s="37"/>
       <c r="E125" s="110" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="37"/>
@@ -44339,7 +44485,7 @@
       <c r="C126" s="37"/>
       <c r="D126" s="37"/>
       <c r="E126" s="110" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="37"/>
@@ -44351,7 +44497,7 @@
       <c r="C127" s="37"/>
       <c r="D127" s="37"/>
       <c r="E127" s="110" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="37"/>
@@ -44363,7 +44509,7 @@
       <c r="C128" s="37"/>
       <c r="D128" s="37"/>
       <c r="E128" s="110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="37"/>
@@ -44375,7 +44521,7 @@
       <c r="C129" s="37"/>
       <c r="D129" s="37"/>
       <c r="E129" s="110" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F129" s="37"/>
       <c r="G129" s="37"/>
@@ -44387,7 +44533,7 @@
       <c r="C130" s="37"/>
       <c r="D130" s="37"/>
       <c r="E130" s="37" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F130" s="37"/>
       <c r="G130" s="37"/>
@@ -44399,7 +44545,7 @@
       <c r="C131" s="37"/>
       <c r="D131" s="37"/>
       <c r="E131" s="37" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F131" s="37"/>
       <c r="G131" s="37"/>
@@ -44411,7 +44557,7 @@
       <c r="C132" s="37"/>
       <c r="D132" s="37"/>
       <c r="E132" s="37" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F132" s="37"/>
       <c r="G132" s="37"/>
@@ -44423,7 +44569,7 @@
       <c r="C133" s="37"/>
       <c r="D133" s="37"/>
       <c r="E133" s="37" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F133" s="37"/>
       <c r="G133" s="37"/>
@@ -44435,7 +44581,7 @@
       <c r="C134" s="37"/>
       <c r="D134" s="37"/>
       <c r="E134" s="37" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F134" s="37"/>
       <c r="G134" s="37"/>
@@ -44446,16 +44592,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="110" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C135" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D135" s="37" t="s">
+        <v>705</v>
+      </c>
+      <c r="E135" s="37" t="s">
         <v>706</v>
-      </c>
-      <c r="E135" s="37" t="s">
-        <v>707</v>
       </c>
       <c r="F135" s="37"/>
       <c r="G135" s="37"/>
@@ -44467,7 +44613,7 @@
       <c r="C136" s="37"/>
       <c r="D136" s="37"/>
       <c r="E136" s="37" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F136" s="37"/>
       <c r="G136" s="37"/>
@@ -44479,7 +44625,7 @@
       <c r="C137" s="37"/>
       <c r="D137" s="37"/>
       <c r="E137" s="37" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F137" s="37"/>
       <c r="G137" s="37"/>
@@ -44491,7 +44637,7 @@
       <c r="C138" s="37"/>
       <c r="D138" s="37"/>
       <c r="E138" s="37" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F138" s="37"/>
       <c r="G138" s="37"/>
@@ -44503,7 +44649,7 @@
       <c r="C139" s="37"/>
       <c r="D139" s="37"/>
       <c r="E139" s="37" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F139" s="37"/>
       <c r="G139" s="37"/>
@@ -44515,7 +44661,7 @@
       <c r="C140" s="37"/>
       <c r="D140" s="37"/>
       <c r="E140" s="37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
@@ -44527,7 +44673,7 @@
       <c r="C141" s="37"/>
       <c r="D141" s="37"/>
       <c r="E141" s="37" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="F141" s="37"/>
       <c r="G141" s="37"/>
@@ -44539,7 +44685,7 @@
       <c r="C142" s="37"/>
       <c r="D142" s="37"/>
       <c r="E142" s="37" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F142" s="37"/>
       <c r="G142" s="37"/>
@@ -44551,7 +44697,7 @@
       <c r="C143" s="37"/>
       <c r="D143" s="37"/>
       <c r="E143" s="37" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F143" s="37"/>
       <c r="G143" s="37"/>
@@ -44563,7 +44709,7 @@
       <c r="C144" s="37"/>
       <c r="D144" s="37"/>
       <c r="E144" s="37" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="F144" s="37"/>
       <c r="G144" s="37"/>
@@ -44575,7 +44721,7 @@
       <c r="C145" s="37"/>
       <c r="D145" s="37"/>
       <c r="E145" s="37" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F145" s="37"/>
       <c r="G145" s="37"/>
@@ -44587,7 +44733,7 @@
       <c r="C146" s="37"/>
       <c r="D146" s="37"/>
       <c r="E146" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F146" s="37"/>
       <c r="G146" s="37"/>
@@ -44599,7 +44745,7 @@
       <c r="C147" s="37"/>
       <c r="D147" s="37"/>
       <c r="E147" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F147" s="37"/>
       <c r="G147" s="37"/>
@@ -44611,7 +44757,7 @@
       <c r="C148" s="37"/>
       <c r="D148" s="37"/>
       <c r="E148" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F148" s="37"/>
       <c r="G148" s="37"/>
@@ -44623,7 +44769,7 @@
       <c r="C149" s="37"/>
       <c r="D149" s="37"/>
       <c r="E149" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F149" s="37"/>
       <c r="G149" s="37"/>
@@ -44635,7 +44781,7 @@
       <c r="C150" s="37"/>
       <c r="D150" s="37"/>
       <c r="E150" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F150" s="37"/>
       <c r="G150" s="37"/>
@@ -44647,7 +44793,7 @@
       <c r="C151" s="37"/>
       <c r="D151" s="37"/>
       <c r="E151" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F151" s="37"/>
       <c r="G151" s="37"/>
@@ -44659,7 +44805,7 @@
       <c r="C152" s="37"/>
       <c r="D152" s="37"/>
       <c r="E152" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F152" s="37"/>
       <c r="G152" s="37"/>
@@ -44671,7 +44817,7 @@
       <c r="C153" s="37"/>
       <c r="D153" s="37"/>
       <c r="E153" s="37" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F153" s="37"/>
       <c r="G153" s="37"/>
@@ -44683,7 +44829,7 @@
       <c r="C154" s="37"/>
       <c r="D154" s="37"/>
       <c r="E154" s="37" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F154" s="37"/>
       <c r="G154" s="37"/>
@@ -44695,7 +44841,7 @@
       <c r="C155" s="37"/>
       <c r="D155" s="37"/>
       <c r="E155" s="37" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F155" s="37"/>
       <c r="G155" s="37"/>
@@ -44706,16 +44852,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="37" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C156" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D156" s="37" t="s">
+        <v>812</v>
+      </c>
+      <c r="E156" s="37" t="s">
         <v>813</v>
-      </c>
-      <c r="E156" s="37" t="s">
-        <v>814</v>
       </c>
       <c r="F156" s="37"/>
       <c r="G156" s="37"/>
@@ -44726,16 +44872,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="102" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C157" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D157" s="37" t="s">
+        <v>979</v>
+      </c>
+      <c r="E157" s="37" t="s">
         <v>980</v>
-      </c>
-      <c r="E157" s="37" t="s">
-        <v>981</v>
       </c>
       <c r="F157" s="37"/>
       <c r="G157" s="37"/>
@@ -44747,7 +44893,7 @@
       <c r="C158" s="37"/>
       <c r="D158" s="37"/>
       <c r="E158" s="37" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F158" s="37"/>
       <c r="G158" s="37"/>
@@ -44758,16 +44904,16 @@
         <v>5</v>
       </c>
       <c r="B159" s="110" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C159" s="37" t="s">
         <v>417</v>
       </c>
       <c r="D159" s="37" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="E159" s="37" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F159" s="37"/>
       <c r="G159" s="37"/>
@@ -44779,7 +44925,7 @@
       <c r="C160" s="37"/>
       <c r="D160" s="37"/>
       <c r="E160" s="37" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F160" s="37"/>
       <c r="G160" s="37"/>
@@ -44791,7 +44937,7 @@
       <c r="C161" s="37"/>
       <c r="D161" s="37"/>
       <c r="E161" s="37" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F161" s="37"/>
       <c r="G161" s="37"/>
@@ -44803,7 +44949,7 @@
       <c r="C162" s="37"/>
       <c r="D162" s="37"/>
       <c r="E162" s="37" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F162" s="37"/>
       <c r="G162" s="37"/>
@@ -44815,7 +44961,7 @@
       <c r="C163" s="37"/>
       <c r="D163" s="37"/>
       <c r="E163" s="37" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="F163" s="37"/>
       <c r="G163" s="37"/>
@@ -44827,7 +44973,7 @@
       <c r="C164" s="37"/>
       <c r="D164" s="37"/>
       <c r="E164" s="37" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F164" s="37"/>
       <c r="G164" s="37"/>
@@ -44839,7 +44985,7 @@
       <c r="C165" s="37"/>
       <c r="D165" s="37"/>
       <c r="E165" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F165" s="37"/>
       <c r="G165" s="37"/>
@@ -44851,7 +44997,7 @@
       <c r="C166" s="37"/>
       <c r="D166" s="37"/>
       <c r="E166" s="37" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F166" s="37"/>
       <c r="G166" s="37"/>
@@ -44863,7 +45009,7 @@
       <c r="C167" s="37"/>
       <c r="D167" s="37"/>
       <c r="E167" s="37" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F167" s="37"/>
       <c r="G167" s="37"/>
@@ -44875,7 +45021,7 @@
       <c r="C168" s="37"/>
       <c r="D168" s="37"/>
       <c r="E168" s="37" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F168" s="37"/>
       <c r="G168" s="37"/>
@@ -44887,7 +45033,7 @@
       <c r="C169" s="37"/>
       <c r="D169" s="37"/>
       <c r="E169" s="37" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F169" s="37"/>
       <c r="G169" s="37"/>
@@ -44899,7 +45045,7 @@
       <c r="C170" s="37"/>
       <c r="D170" s="37"/>
       <c r="E170" s="37" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F170" s="37"/>
       <c r="G170" s="37"/>
@@ -44911,7 +45057,7 @@
       <c r="C171" s="37"/>
       <c r="D171" s="37"/>
       <c r="E171" s="37" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F171" s="37"/>
       <c r="G171" s="37"/>
@@ -44923,7 +45069,7 @@
       <c r="C172" s="37"/>
       <c r="D172" s="37"/>
       <c r="E172" s="37" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F172" s="37"/>
       <c r="G172" s="37"/>
@@ -44935,7 +45081,7 @@
       <c r="C173" s="37"/>
       <c r="D173" s="37"/>
       <c r="E173" s="37" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F173" s="37"/>
       <c r="G173" s="37"/>
@@ -44947,7 +45093,7 @@
       <c r="C174" s="37"/>
       <c r="D174" s="37"/>
       <c r="E174" s="37" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F174" s="37"/>
       <c r="G174" s="37"/>
@@ -44959,7 +45105,7 @@
       <c r="C175" s="37"/>
       <c r="D175" s="37"/>
       <c r="E175" s="37" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F175" s="37"/>
       <c r="G175" s="37"/>
@@ -44971,7 +45117,7 @@
       <c r="C176" s="37"/>
       <c r="D176" s="37"/>
       <c r="E176" s="37" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F176" s="37"/>
       <c r="G176" s="37"/>
@@ -44983,7 +45129,7 @@
       <c r="C177" s="37"/>
       <c r="D177" s="37"/>
       <c r="E177" s="37" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F177" s="37"/>
       <c r="G177" s="37"/>
@@ -44995,7 +45141,7 @@
       <c r="C178" s="37"/>
       <c r="D178" s="37"/>
       <c r="E178" s="37" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F178" s="37"/>
       <c r="G178" s="37"/>
@@ -45007,7 +45153,7 @@
       <c r="C179" s="37"/>
       <c r="D179" s="37"/>
       <c r="E179" s="37" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F179" s="37"/>
       <c r="G179" s="37"/>
@@ -45019,7 +45165,7 @@
       <c r="C180" s="37"/>
       <c r="D180" s="37"/>
       <c r="E180" s="37" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F180" s="37"/>
       <c r="G180" s="37"/>
@@ -45031,7 +45177,7 @@
       <c r="C181" s="37"/>
       <c r="D181" s="37"/>
       <c r="E181" s="37" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F181" s="37"/>
       <c r="G181" s="37"/>
@@ -45043,7 +45189,7 @@
       <c r="C182" s="37"/>
       <c r="D182" s="37"/>
       <c r="E182" s="37" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F182" s="37"/>
       <c r="G182" s="37"/>
@@ -45055,7 +45201,7 @@
       <c r="C183" s="37"/>
       <c r="D183" s="37"/>
       <c r="E183" s="37" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F183" s="37"/>
       <c r="G183" s="37"/>
@@ -45067,7 +45213,7 @@
       <c r="C184" s="37"/>
       <c r="D184" s="37"/>
       <c r="E184" s="37" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F184" s="37"/>
       <c r="G184" s="37"/>
@@ -45079,7 +45225,7 @@
       <c r="C185" s="37"/>
       <c r="D185" s="37"/>
       <c r="E185" s="37" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F185" s="37"/>
       <c r="G185" s="37"/>
@@ -45091,7 +45237,7 @@
       <c r="C186" s="37"/>
       <c r="D186" s="37"/>
       <c r="E186" s="37" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F186" s="37"/>
       <c r="G186" s="37"/>
@@ -45103,7 +45249,7 @@
       <c r="C187" s="37"/>
       <c r="D187" s="37"/>
       <c r="E187" s="37" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F187" s="37"/>
       <c r="G187" s="37"/>
@@ -45115,7 +45261,7 @@
       <c r="C188" s="37"/>
       <c r="D188" s="37"/>
       <c r="E188" s="37" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F188" s="37"/>
       <c r="G188" s="37"/>
@@ -45127,7 +45273,7 @@
       <c r="C189" s="37"/>
       <c r="D189" s="37"/>
       <c r="E189" s="37" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F189" s="37"/>
       <c r="G189" s="37"/>
@@ -45139,7 +45285,7 @@
       <c r="C190" s="37"/>
       <c r="D190" s="37"/>
       <c r="E190" s="37" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F190" s="37"/>
       <c r="G190" s="37"/>
@@ -45151,7 +45297,7 @@
       <c r="C191" s="37"/>
       <c r="D191" s="37"/>
       <c r="E191" s="37" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F191" s="37"/>
       <c r="G191" s="37"/>
@@ -45163,7 +45309,7 @@
       <c r="C192" s="37"/>
       <c r="D192" s="37"/>
       <c r="E192" s="37" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F192" s="37"/>
       <c r="G192" s="37"/>
@@ -45175,7 +45321,7 @@
       <c r="C193" s="37"/>
       <c r="D193" s="37"/>
       <c r="E193" s="37" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F193" s="37"/>
       <c r="G193" s="37"/>
@@ -45187,7 +45333,7 @@
       <c r="C194" s="37"/>
       <c r="D194" s="37"/>
       <c r="E194" s="37" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="F194" s="37"/>
       <c r="G194" s="37"/>
@@ -45199,7 +45345,7 @@
       <c r="C195" s="37"/>
       <c r="D195" s="37"/>
       <c r="E195" s="37" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="F195" s="37"/>
       <c r="G195" s="37"/>
@@ -45211,7 +45357,7 @@
       <c r="C196" s="37"/>
       <c r="D196" s="37"/>
       <c r="E196" s="37" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F196" s="37"/>
       <c r="G196" s="37"/>
@@ -45223,7 +45369,7 @@
       <c r="C197" s="75"/>
       <c r="D197" s="75"/>
       <c r="E197" s="75" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F197" s="75"/>
       <c r="G197" s="75"/>
@@ -45231,7 +45377,7 @@
     </row>
     <row r="198" spans="1:8" s="39" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E198" s="37" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
   </sheetData>
@@ -45306,7 +45452,7 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
+          <xm:sqref>C109:C110 C44:C83 C148:C149</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000010000000}">
           <x14:formula1>
@@ -45318,13 +45464,13 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C150 C152 C111</xm:sqref>
+          <xm:sqref>C113 C111 C152 C150</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000016000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C146 C41:C43</xm:sqref>
+          <xm:sqref>C107 C41:C43 C146</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000019000000}">
           <x14:formula1>
@@ -45400,7 +45546,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -45427,7 +45573,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>12</v>
@@ -45462,13 +45608,13 @@
         <v>365</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F3" s="39" t="s">
         <v>21</v>
@@ -45480,10 +45626,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J3" s="39" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K3" s="39"/>
       <c r="L3" s="37"/>
@@ -45496,7 +45642,7 @@
         <v>365</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>22</v>
@@ -45514,10 +45660,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K4" s="39"/>
       <c r="L4" s="33"/>
@@ -45530,7 +45676,7 @@
         <v>365</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>24</v>
@@ -45548,10 +45694,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="K5" s="39"/>
       <c r="L5" s="33"/>
@@ -45586,7 +45732,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="73" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F7" s="73" t="s">
         <v>23</v>
@@ -45598,13 +45744,13 @@
         <v>21</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="J7" s="73" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K7" s="73" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="L7" s="74" t="s">
         <v>463</v>
@@ -45636,10 +45782,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J8" s="73" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K8" s="73"/>
       <c r="L8" s="73"/>
@@ -45670,10 +45816,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K9" s="73"/>
       <c r="L9" s="73"/>
@@ -45712,14 +45858,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
       <c r="D1" s="116"/>
       <c r="E1" s="116"/>
       <c r="F1" s="118" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G1" s="119"/>
       <c r="H1" s="119"/>
@@ -45732,19 +45878,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="79" t="s">
+        <v>826</v>
+      </c>
+      <c r="D2" s="79" t="s">
         <v>827</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="E2" s="79" t="s">
         <v>828</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="F2" s="80" t="s">
         <v>829</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="G2" s="81" t="s">
         <v>830</v>
-      </c>
-      <c r="G2" s="81" t="s">
-        <v>831</v>
       </c>
       <c r="H2" s="113" t="s">
         <v>443</v>
@@ -45758,19 +45904,19 @@
         <v>365</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D3" s="37" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="E3" s="37" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F3" s="37" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="G3" s="37" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="H3" s="39"/>
     </row>
@@ -46091,7 +46237,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="39" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -46192,7 +46338,7 @@
         <v>365</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D3" s="39" t="s">
         <v>36</v>
@@ -46201,7 +46347,7 @@
         <v>39</v>
       </c>
       <c r="F3" s="39" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="G3" s="39"/>
       <c r="H3" s="37"/>
@@ -46214,7 +46360,7 @@
         <v>365</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D4" s="39" t="s">
         <v>36</v>
@@ -46223,7 +46369,7 @@
         <v>39</v>
       </c>
       <c r="F4" s="39" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
@@ -46236,7 +46382,7 @@
         <v>365</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D5" s="39" t="s">
         <v>36</v>
@@ -46245,7 +46391,7 @@
         <v>39</v>
       </c>
       <c r="F5" s="39" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="G5" s="39"/>
       <c r="H5" s="39"/>
@@ -46459,10 +46605,10 @@
         <v>365</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>51</v>
@@ -46477,10 +46623,10 @@
         <v>36</v>
       </c>
       <c r="I3" s="39" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="J3" s="37" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="K3" s="34" t="s">
         <v>23</v>
@@ -46511,28 +46657,28 @@
         <v>365</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E4" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>52</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H4" s="39" t="s">
         <v>36</v>
       </c>
       <c r="I4" s="39" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="K4" s="34" t="s">
         <v>23</v>
@@ -46563,10 +46709,10 @@
         <v>365</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E5" s="39" t="s">
         <v>390</v>
@@ -46575,16 +46721,16 @@
         <v>52</v>
       </c>
       <c r="G5" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>36</v>
       </c>
       <c r="I5" s="39" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="K5" s="39" t="s">
         <v>23</v>
@@ -46615,10 +46761,10 @@
         <v>365</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E6" s="39" t="s">
         <v>56</v>
@@ -46633,10 +46779,10 @@
         <v>36</v>
       </c>
       <c r="I6" s="39" t="s">
+        <v>752</v>
+      </c>
+      <c r="J6" s="37" t="s">
         <v>753</v>
-      </c>
-      <c r="J6" s="37" t="s">
-        <v>754</v>
       </c>
       <c r="K6" s="39" t="s">
         <v>23</v>
@@ -46667,13 +46813,13 @@
         <v>365</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D7" s="39" t="s">
+        <v>754</v>
+      </c>
+      <c r="E7" s="39" t="s">
         <v>755</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>756</v>
       </c>
       <c r="F7" s="39" t="s">
         <v>52</v>
@@ -46685,10 +46831,10 @@
         <v>36</v>
       </c>
       <c r="I7" s="39" t="s">
+        <v>756</v>
+      </c>
+      <c r="J7" s="37" t="s">
         <v>757</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>758</v>
       </c>
       <c r="K7" s="39" t="s">
         <v>23</v>
@@ -46719,13 +46865,13 @@
         <v>365</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="D8" s="39" t="s">
+        <v>758</v>
+      </c>
+      <c r="E8" s="39" t="s">
         <v>759</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>760</v>
       </c>
       <c r="F8" s="39" t="s">
         <v>52</v>
@@ -46737,10 +46883,10 @@
         <v>36</v>
       </c>
       <c r="I8" s="39" t="s">
+        <v>760</v>
+      </c>
+      <c r="J8" s="37" t="s">
         <v>761</v>
-      </c>
-      <c r="J8" s="37" t="s">
-        <v>762</v>
       </c>
       <c r="K8" s="39" t="s">
         <v>23</v>
@@ -46771,10 +46917,10 @@
         <v>365</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E9" s="39" t="s">
         <v>392</v>
@@ -46783,16 +46929,16 @@
         <v>52</v>
       </c>
       <c r="G9" s="39" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H9" s="39" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="39" t="s">
+        <v>763</v>
+      </c>
+      <c r="J9" s="37" t="s">
         <v>764</v>
-      </c>
-      <c r="J9" s="37" t="s">
-        <v>765</v>
       </c>
       <c r="K9" s="39" t="s">
         <v>23</v>
@@ -46823,10 +46969,10 @@
         <v>365</v>
       </c>
       <c r="C10" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D10" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E10" s="39" t="s">
         <v>393</v>
@@ -46841,10 +46987,10 @@
         <v>36</v>
       </c>
       <c r="I10" s="39" t="s">
+        <v>766</v>
+      </c>
+      <c r="J10" s="37" t="s">
         <v>767</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>768</v>
       </c>
       <c r="K10" s="39" t="s">
         <v>23</v>
@@ -46875,10 +47021,10 @@
         <v>365</v>
       </c>
       <c r="C11" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D11" s="39" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>396</v>
@@ -46893,10 +47039,10 @@
         <v>36</v>
       </c>
       <c r="I11" s="39" t="s">
+        <v>769</v>
+      </c>
+      <c r="J11" s="37" t="s">
         <v>770</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>771</v>
       </c>
       <c r="K11" s="39" t="s">
         <v>23</v>
@@ -46927,13 +47073,13 @@
         <v>365</v>
       </c>
       <c r="C12" s="39" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="D12" s="39" t="s">
+        <v>771</v>
+      </c>
+      <c r="E12" s="39" t="s">
         <v>772</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>773</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>52</v>
@@ -46945,10 +47091,10 @@
         <v>36</v>
       </c>
       <c r="I12" s="39" t="s">
+        <v>773</v>
+      </c>
+      <c r="J12" s="37" t="s">
         <v>774</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>775</v>
       </c>
       <c r="K12" s="39" t="s">
         <v>23</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="1075">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1073">
   <si>
     <t>Region</t>
   </si>
@@ -5784,13 +5784,7 @@
     <t>Frankfurt</t>
   </si>
   <si>
-    <t>ssh</t>
-  </si>
-  <si>
     <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>rdp</t>
   </si>
   <si>
     <t>Jeddah</t>
@@ -8114,6 +8108,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8126,23 +8128,23 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -8183,14 +8185,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -11339,9 +11333,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11351,70 +11347,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVolumes"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DBSystems-VM-BM"/>
-      <sheetName val="EXA-Infra"/>
-      <sheetName val="EXA-VMClusters"/>
-      <sheetName val="Database_Dropdown"/>
       <sheetName val="drop_down_rule_set"/>
-      <sheetName val="LB Rule Set Dropdown"/>
-      <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -11724,7 +11660,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="66" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
   </sheetData>
@@ -11764,28 +11700,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="117" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="123" t="s">
         <v>457</v>
       </c>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="117"/>
-      <c r="P1" s="117"/>
-      <c r="Q1" s="117"/>
-      <c r="R1" s="117"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
+      <c r="R1" s="123"/>
     </row>
     <row r="2" spans="1:18" s="43" customFormat="1" ht="59.5" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -11854,7 +11790,7 @@
         <v>741</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>50</v>
@@ -11869,10 +11805,10 @@
         <v>35</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>23</v>
@@ -11906,7 +11842,7 @@
         <v>741</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="E4" s="36" t="s">
         <v>745</v>
@@ -11921,10 +11857,10 @@
         <v>35</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>23</v>
@@ -11958,7 +11894,7 @@
         <v>743</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>389</v>
@@ -11973,10 +11909,10 @@
         <v>35</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>23</v>
@@ -12717,18 +12653,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>829</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -12781,7 +12717,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>776</v>
@@ -14341,17 +14277,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>458</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="9" t="s">
@@ -14426,7 +14362,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -14442,25 +14378,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="9" t="s">
@@ -14594,34 +14530,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>466</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
-      <c r="T1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="110" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="60" t="s">
@@ -14642,7 +14578,7 @@
       <c r="H2" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="134" t="s">
+      <c r="I2" s="111" t="s">
         <v>66</v>
       </c>
       <c r="J2" s="60" t="s">
@@ -15521,37 +15457,37 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your VCN">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$C$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,3,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$C$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,3,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -15580,15 +15516,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>467</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -15766,30 +15702,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="136" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="124" t="s">
         <v>821</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="111" t="s">
-        <v>1070</v>
-      </c>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="113"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="126"/>
+      <c r="I1" s="115" t="s">
+        <v>1068</v>
+      </c>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="117"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="52.25" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -15823,16 +15759,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>95</v>
@@ -15881,7 +15817,7 @@
       <c r="I3" s="36" t="s">
         <v>463</v>
       </c>
-      <c r="J3" s="135" t="s">
+      <c r="J3" s="112" t="s">
         <v>105</v>
       </c>
       <c r="K3" s="36">
@@ -16007,13 +15943,13 @@
       <c r="I6" s="36" t="s">
         <v>465</v>
       </c>
-      <c r="J6" s="135" t="s">
+      <c r="J6" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="135"/>
-      <c r="L6" s="135"/>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
+      <c r="K6" s="112"/>
+      <c r="L6" s="112"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
       <c r="O6" s="36" t="s">
         <v>103</v>
       </c>
@@ -16053,13 +15989,13 @@
       <c r="I7" s="36" t="s">
         <v>464</v>
       </c>
-      <c r="J7" s="135" t="s">
+      <c r="J7" s="112" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="135"/>
-      <c r="L7" s="135"/>
-      <c r="M7" s="135"/>
-      <c r="N7" s="135"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="112"/>
+      <c r="N7" s="112"/>
       <c r="O7" s="36" t="s">
         <v>103</v>
       </c>
@@ -16088,103 +16024,103 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="17">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F5:F500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B5:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>S5:S500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>S4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$T$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,20,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>S3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>Q5:Q500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>Q4</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>Q3</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>P3:P500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="Invalid option selected">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -16219,19 +16155,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="114.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>589</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="117"/>
     </row>
     <row r="2" spans="1:11" s="43" customFormat="1" ht="43.5">
       <c r="A2" s="28" t="s">
@@ -16256,7 +16192,7 @@
         <v>109</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>96</v>
@@ -16340,7 +16276,7 @@
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="136"/>
+      <c r="J5" s="113"/>
       <c r="K5" s="36"/>
     </row>
     <row r="6" spans="1:11">
@@ -16466,43 +16402,43 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$U$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,21,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$U$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,21,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>F3:F500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>J3:J500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>I34:I500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G500 H34:H500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -16543,27 +16479,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="119" customHeight="1">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="127" t="s">
         <v>473</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="126" t="s">
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="130" t="s">
         <v>468</v>
       </c>
-      <c r="J1" s="126"/>
-      <c r="K1" s="126"/>
-      <c r="L1" s="126"/>
-      <c r="M1" s="126"/>
-      <c r="N1" s="126"/>
-      <c r="O1" s="126"/>
-      <c r="P1" s="126"/>
-      <c r="Q1" s="126"/>
+      <c r="J1" s="130"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1">
       <c r="A2" s="29" t="s">
@@ -16626,7 +16562,7 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="34" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -16883,25 +16819,25 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
@@ -16941,27 +16877,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>460</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -16974,7 +16910,7 @@
         <v>138</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>867</v>
@@ -16992,7 +16928,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>141</v>
@@ -17177,31 +17113,31 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D3:D500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H3:H500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>G3:G500</xm:sqref>
         </x14:dataValidation>
@@ -17229,13 +17165,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="28" t="s">
@@ -17495,29 +17431,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="103" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1066</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="113"/>
+      <c r="A1" s="115" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="117"/>
     </row>
     <row r="2" spans="1:21" ht="58.25" customHeight="1">
       <c r="A2" s="37" t="s">
@@ -17530,13 +17466,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>157</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="G2" s="37" t="s">
         <v>158</v>
@@ -17839,29 +17775,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
       <c r="J1" s="118" t="s">
         <v>476</v>
       </c>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
-      <c r="R1" s="127"/>
-      <c r="S1" s="128"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
+      <c r="N1" s="131"/>
+      <c r="O1" s="131"/>
+      <c r="P1" s="131"/>
+      <c r="Q1" s="131"/>
+      <c r="R1" s="131"/>
+      <c r="S1" s="132"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -18538,14 +18474,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="133" t="s">
         <v>452</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="131"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1">
       <c r="A2" s="17" t="s">
@@ -18694,24 +18630,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="108" customHeight="1">
-      <c r="A1" s="110" t="s">
-        <v>1065</v>
-      </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
+      <c r="A1" s="114" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
     </row>
     <row r="2" spans="1:16" ht="46.25" customHeight="1">
       <c r="A2" s="10" t="s">
@@ -18736,7 +18672,7 @@
         <v>244</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>245</v>
@@ -18939,17 +18875,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="136" t="s">
         <v>474</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="6" t="s">
@@ -19113,35 +19049,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="50" customFormat="1" ht="135.75" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>592</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
-      <c r="T1" s="112"/>
-      <c r="U1" s="112"/>
-      <c r="V1" s="112"/>
-      <c r="W1" s="112"/>
-      <c r="X1" s="112"/>
-      <c r="Y1" s="112"/>
-      <c r="Z1" s="112"/>
-      <c r="AA1" s="113"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
+      <c r="S1" s="116"/>
+      <c r="T1" s="116"/>
+      <c r="U1" s="116"/>
+      <c r="V1" s="116"/>
+      <c r="W1" s="116"/>
+      <c r="X1" s="116"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="117"/>
     </row>
     <row r="2" spans="1:27" s="61" customFormat="1" ht="43.5">
       <c r="A2" s="64" t="s">
@@ -19157,31 +19093,31 @@
         <v>39</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="64" t="s">
+        <v>935</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>936</v>
+      </c>
+      <c r="I2" s="64" t="s">
         <v>937</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="J2" s="64" t="s">
         <v>938</v>
       </c>
-      <c r="I2" s="64" t="s">
+      <c r="K2" s="90" t="s">
         <v>939</v>
       </c>
-      <c r="J2" s="64" t="s">
+      <c r="L2" s="64" t="s">
         <v>940</v>
       </c>
-      <c r="K2" s="90" t="s">
+      <c r="M2" s="65" t="s">
         <v>941</v>
-      </c>
-      <c r="L2" s="64" t="s">
-        <v>942</v>
-      </c>
-      <c r="M2" s="65" t="s">
-        <v>943</v>
       </c>
       <c r="N2" s="64" t="s">
         <v>423</v>
@@ -19199,10 +19135,10 @@
         <v>426</v>
       </c>
       <c r="S2" s="64" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="T2" s="64" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="U2" s="64" t="s">
         <v>95</v>
@@ -19214,7 +19150,7 @@
         <v>330</v>
       </c>
       <c r="X2" s="64" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="Y2" s="64" t="s">
         <v>590</v>
@@ -19268,10 +19204,10 @@
         <v>56</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F4" s="51" t="s">
         <v>347</v>
@@ -19294,7 +19230,7 @@
         <v>336</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="O4" s="51" t="s">
         <v>337</v>
@@ -19343,10 +19279,10 @@
         <v>90</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F5" s="51" t="s">
         <v>350</v>
@@ -19371,7 +19307,7 @@
         <v>336</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="O5" s="51" t="s">
         <v>352</v>
@@ -25541,16 +25477,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>960</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
+      <c r="A1" s="115" t="s">
+        <v>958</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" ht="43.5">
       <c r="A2" s="90" t="s">
@@ -25560,7 +25496,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D2" s="90" t="s">
         <v>84</v>
@@ -25569,10 +25505,10 @@
         <v>85</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="H2" s="93" t="s">
         <v>442</v>
@@ -25604,7 +25540,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F4" s="34">
         <v>2</v>
@@ -31654,25 +31590,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="50" customFormat="1" ht="195" customHeight="1">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="124" t="s">
         <v>593</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
+      <c r="G1" s="125"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="125"/>
+      <c r="M1" s="125"/>
+      <c r="N1" s="125"/>
+      <c r="O1" s="125"/>
+      <c r="P1" s="125"/>
+      <c r="Q1" s="125"/>
       <c r="R1" s="96"/>
       <c r="S1" s="96"/>
       <c r="T1" s="96"/>
@@ -31689,34 +31625,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="E2" s="90" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F2" s="90" t="s">
         <v>354</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="I2" s="90" t="s">
         <v>423</v>
       </c>
       <c r="J2" s="90" t="s">
+        <v>961</v>
+      </c>
+      <c r="K2" s="90" t="s">
+        <v>962</v>
+      </c>
+      <c r="L2" s="90" t="s">
         <v>963</v>
-      </c>
-      <c r="K2" s="90" t="s">
-        <v>964</v>
-      </c>
-      <c r="L2" s="90" t="s">
-        <v>965</v>
       </c>
       <c r="M2" s="90" t="s">
         <v>95</v>
@@ -31728,7 +31664,7 @@
         <v>97</v>
       </c>
       <c r="P2" s="107" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="Q2" s="97" t="s">
         <v>442</v>
@@ -31772,13 +31708,13 @@
         <v>430</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G4" s="105">
         <v>4</v>
@@ -31787,7 +31723,7 @@
         <v>336</v>
       </c>
       <c r="I4" s="99" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="J4" s="99" t="s">
         <v>435</v>
@@ -38659,22 +38595,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5">
       <c r="A1" s="47" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>431</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>356</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>330</v>
@@ -38683,13 +38619,13 @@
         <v>329</v>
       </c>
       <c r="I1" s="92" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J1" s="92" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16">
@@ -38721,7 +38657,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="K2" s="36">
         <v>1</v>
@@ -38729,7 +38665,7 @@
     </row>
     <row r="3" spans="1:11" ht="16">
       <c r="A3" s="91" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>433</v>
@@ -38756,7 +38692,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="K3" s="36">
         <v>2</v>
@@ -38764,7 +38700,7 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="91" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>351</v>
@@ -38786,7 +38722,7 @@
         <v>347</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>434</v>
@@ -38806,7 +38742,7 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="36" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36" t="s">
@@ -38819,11 +38755,11 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="91" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36" t="s">
@@ -38836,11 +38772,11 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="91" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="36" t="s">
@@ -38874,7 +38810,7 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36" t="s">
@@ -38887,11 +38823,11 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="91" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36" t="s">
@@ -38908,11 +38844,11 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F12" s="36"/>
       <c r="H12" s="36" t="s">
@@ -38925,7 +38861,7 @@
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -38940,7 +38876,7 @@
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -39429,8 +39365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM50"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="28.36328125" defaultRowHeight="14.5"/>
@@ -39510,7 +39446,7 @@
         <v>879</v>
       </c>
       <c r="M1" s="88" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="N1" s="88" t="s">
         <v>880</v>
@@ -39531,7 +39467,7 @@
         <v>885</v>
       </c>
       <c r="T1" s="88" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="U1" s="88" t="s">
         <v>886</v>
@@ -39546,7 +39482,7 @@
         <v>889</v>
       </c>
       <c r="Y1" s="88" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="Z1" s="79" t="s">
         <v>85</v>
@@ -39983,7 +39919,7 @@
       <c r="X5" s="82"/>
       <c r="Y5" s="82"/>
       <c r="Z5" s="82" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AA5" s="82"/>
       <c r="AB5" s="82"/>
@@ -40042,9 +39978,7 @@
         <v/>
       </c>
       <c r="N6" s="82"/>
-      <c r="O6" s="82" t="s">
-        <v>910</v>
-      </c>
+      <c r="O6" s="82"/>
       <c r="P6" s="83"/>
       <c r="Q6" s="82"/>
       <c r="R6" s="82"/>
@@ -40100,7 +40034,7 @@
       </c>
       <c r="F7" s="82"/>
       <c r="G7" s="82" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="82"/>
@@ -40115,9 +40049,7 @@
         <v/>
       </c>
       <c r="N7" s="82"/>
-      <c r="O7" s="82" t="s">
-        <v>912</v>
-      </c>
+      <c r="O7" s="82"/>
       <c r="P7" s="83"/>
       <c r="Q7" s="82"/>
       <c r="R7" s="82"/>
@@ -40171,7 +40103,7 @@
       </c>
       <c r="F8" s="82"/>
       <c r="G8" s="82" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="82"/>
@@ -40240,7 +40172,7 @@
       </c>
       <c r="F9" s="82"/>
       <c r="G9" s="82" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="H9" s="82"/>
       <c r="I9" s="82"/>
@@ -40309,7 +40241,7 @@
       </c>
       <c r="F10" s="82"/>
       <c r="G10" s="82" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="H10" s="82"/>
       <c r="I10" s="82"/>
@@ -40378,7 +40310,7 @@
       </c>
       <c r="F11" s="82"/>
       <c r="G11" s="82" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="H11" s="82"/>
       <c r="I11" s="82"/>
@@ -40447,7 +40379,7 @@
       </c>
       <c r="F12" s="82"/>
       <c r="G12" s="82" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="82"/>
@@ -40514,7 +40446,7 @@
       </c>
       <c r="F13" s="82"/>
       <c r="G13" s="82" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="H13" s="82"/>
       <c r="I13" s="82"/>
@@ -40581,7 +40513,7 @@
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="82" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="H14" s="82"/>
       <c r="I14" s="82"/>
@@ -40715,7 +40647,7 @@
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="82" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="H16" s="82"/>
       <c r="I16" s="82"/>
@@ -40782,7 +40714,7 @@
       </c>
       <c r="F17" s="82"/>
       <c r="G17" s="82" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="H17" s="82"/>
       <c r="I17" s="82"/>
@@ -40849,7 +40781,7 @@
       </c>
       <c r="F18" s="82"/>
       <c r="G18" s="82" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="H18" s="82"/>
       <c r="I18" s="82"/>
@@ -40916,7 +40848,7 @@
       </c>
       <c r="F19" s="82"/>
       <c r="G19" s="82" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="H19" s="82"/>
       <c r="I19" s="82"/>
@@ -40983,7 +40915,7 @@
       </c>
       <c r="F20" s="82"/>
       <c r="G20" s="82" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="H20" s="82"/>
       <c r="I20" s="82"/>
@@ -41050,7 +40982,7 @@
       </c>
       <c r="F21" s="82"/>
       <c r="G21" s="82" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="H21" s="82"/>
       <c r="I21" s="82"/>
@@ -41117,7 +41049,7 @@
       </c>
       <c r="F22" s="82"/>
       <c r="G22" s="82" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="H22" s="82"/>
       <c r="I22" s="82"/>
@@ -41184,7 +41116,7 @@
       </c>
       <c r="F23" s="82"/>
       <c r="G23" s="82" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="H23" s="82"/>
       <c r="I23" s="82"/>
@@ -41251,7 +41183,7 @@
       </c>
       <c r="F24" s="82"/>
       <c r="G24" s="82" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="H24" s="82"/>
       <c r="I24" s="82"/>
@@ -42700,13 +42632,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="105.75" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
@@ -42834,10 +42766,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -43219,7 +43151,7 @@
         <v>869</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -43690,16 +43622,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="102.75" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1">
       <c r="A2" s="5" t="s">
@@ -44145,7 +44077,7 @@
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="1" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -44157,7 +44089,7 @@
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="1" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
@@ -44169,7 +44101,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
       <c r="E38" s="1" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -44181,7 +44113,7 @@
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
       <c r="E39" s="1" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
@@ -44193,7 +44125,7 @@
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="1" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
@@ -44229,7 +44161,7 @@
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
       <c r="E43" s="1" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -44253,7 +44185,7 @@
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
@@ -44265,7 +44197,7 @@
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
       <c r="E46" s="34" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
@@ -44453,7 +44385,7 @@
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
@@ -44465,7 +44397,7 @@
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
@@ -44745,7 +44677,7 @@
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
@@ -44757,7 +44689,7 @@
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="E85" s="34" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -44769,7 +44701,7 @@
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="34" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
@@ -45005,7 +44937,7 @@
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
       <c r="E105" s="1" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
@@ -45017,7 +44949,7 @@
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
       <c r="E106" s="1" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
@@ -45029,7 +44961,7 @@
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
       <c r="E107" s="1" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="34"/>
@@ -45041,7 +44973,7 @@
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
       <c r="E108" s="1" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="34"/>
@@ -45053,7 +44985,7 @@
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
       <c r="E109" s="1" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
@@ -45065,7 +44997,7 @@
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
       <c r="E110" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="34"/>
@@ -45077,7 +45009,7 @@
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
       <c r="E111" s="1" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
@@ -45089,7 +45021,7 @@
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="1" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
@@ -45101,7 +45033,7 @@
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
       <c r="E113" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
@@ -45125,7 +45057,7 @@
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
       <c r="E115" s="34" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
@@ -45137,7 +45069,7 @@
       <c r="C116" s="34"/>
       <c r="D116" s="34"/>
       <c r="E116" s="34" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
@@ -45513,7 +45445,7 @@
       <c r="C146" s="34"/>
       <c r="D146" s="34"/>
       <c r="E146" s="1" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="F146" s="34"/>
       <c r="G146" s="34"/>
@@ -45525,7 +45457,7 @@
       <c r="C147" s="34"/>
       <c r="D147" s="34"/>
       <c r="E147" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="34"/>
@@ -45537,7 +45469,7 @@
       <c r="C148" s="34"/>
       <c r="D148" s="34"/>
       <c r="E148" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="F148" s="34"/>
       <c r="G148" s="34"/>
@@ -45549,7 +45481,7 @@
       <c r="C149" s="34"/>
       <c r="D149" s="34"/>
       <c r="E149" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F149" s="34"/>
       <c r="G149" s="34"/>
@@ -45561,7 +45493,7 @@
       <c r="C150" s="34"/>
       <c r="D150" s="34"/>
       <c r="E150" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="F150" s="34"/>
       <c r="G150" s="34"/>
@@ -45573,7 +45505,7 @@
       <c r="C151" s="34"/>
       <c r="D151" s="34"/>
       <c r="E151" s="1" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F151" s="34"/>
       <c r="G151" s="34"/>
@@ -45585,7 +45517,7 @@
       <c r="C152" s="34"/>
       <c r="D152" s="34"/>
       <c r="E152" s="1" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F152" s="34"/>
       <c r="G152" s="34"/>
@@ -45609,7 +45541,7 @@
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
       <c r="E154" s="34" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F154" s="34"/>
       <c r="G154" s="34"/>
@@ -45621,7 +45553,7 @@
       <c r="C155" s="34"/>
       <c r="D155" s="34"/>
       <c r="E155" s="34" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="F155" s="34"/>
       <c r="G155" s="34"/>
@@ -45652,16 +45584,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="98" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C157" s="34" t="s">
         <v>416</v>
       </c>
       <c r="D157" s="34" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="E157" s="34" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F157" s="34"/>
       <c r="G157" s="34"/>
@@ -45673,7 +45605,7 @@
       <c r="C158" s="34"/>
       <c r="D158" s="34"/>
       <c r="E158" s="34" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F158" s="34"/>
       <c r="G158" s="34"/>
@@ -46017,7 +45949,7 @@
       <c r="C186" s="34"/>
       <c r="D186" s="34"/>
       <c r="E186" s="34" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
@@ -46029,7 +45961,7 @@
       <c r="C187" s="34"/>
       <c r="D187" s="34"/>
       <c r="E187" s="34" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F187" s="34"/>
       <c r="G187" s="34"/>
@@ -46041,7 +45973,7 @@
       <c r="C188" s="34"/>
       <c r="D188" s="34"/>
       <c r="E188" s="34" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F188" s="34"/>
       <c r="G188" s="34"/>
@@ -46053,7 +45985,7 @@
       <c r="C189" s="34"/>
       <c r="D189" s="34"/>
       <c r="E189" s="34" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F189" s="34"/>
       <c r="G189" s="34"/>
@@ -46065,7 +45997,7 @@
       <c r="C190" s="34"/>
       <c r="D190" s="34"/>
       <c r="E190" s="34" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F190" s="34"/>
       <c r="G190" s="34"/>
@@ -46077,7 +46009,7 @@
       <c r="C191" s="34"/>
       <c r="D191" s="34"/>
       <c r="E191" s="34" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F191" s="34"/>
       <c r="G191" s="34"/>
@@ -46149,7 +46081,7 @@
       <c r="C197" s="71"/>
       <c r="D197" s="71"/>
       <c r="E197" s="71" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F197" s="71"/>
       <c r="G197" s="71"/>
@@ -46157,7 +46089,7 @@
     </row>
     <row r="198" spans="1:8" s="36" customFormat="1" ht="29">
       <c r="E198" s="34" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
   </sheetData>
@@ -46323,20 +46255,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="131.5" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>930</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
+      <c r="A1" s="115" t="s">
+        <v>928</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
       <c r="G1" s="118" t="s">
         <v>480</v>
       </c>
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
-      <c r="J1" s="116"/>
+      <c r="J1" s="120"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="40" t="s">
@@ -46381,7 +46313,7 @@
         <v>816</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E3" s="34" t="s">
         <v>810</v>
@@ -46411,7 +46343,7 @@
         <v>816</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="E4" s="34" t="s">
         <v>813</v>
@@ -46737,22 +46669,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1">
-      <c r="A1" s="111" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="111" t="s">
+      <c r="A1" s="115" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="115" t="s">
         <v>469</v>
       </c>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="113"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="117"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -46765,7 +46697,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -46818,10 +46750,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="34"/>
@@ -46852,10 +46784,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="30"/>
@@ -46886,10 +46818,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="30"/>
@@ -46924,7 +46856,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F7" s="69" t="s">
         <v>23</v>
@@ -46936,13 +46868,13 @@
         <v>21</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="K7" s="69" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="L7" s="70" t="s">
         <v>461</v>
@@ -46974,10 +46906,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
@@ -47008,10 +46940,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
@@ -47049,18 +46981,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>830</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="114" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="121" t="s">
         <v>831</v>
       </c>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="75" t="s">
@@ -47099,13 +47031,13 @@
         <v>742</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>865</v>
@@ -47411,10 +47343,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95" customHeight="1">
-      <c r="A1" s="110" t="s">
-        <v>1068</v>
-      </c>
-      <c r="B1" s="116"/>
+      <c r="A1" s="114" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B1" s="120"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="28" t="s">
@@ -47429,7 +47361,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -47477,16 +47409,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="114" t="s">
         <v>456</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="110"/>
-      <c r="H1" s="110"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.25" customHeight="1">
       <c r="A2" s="28" t="s">
@@ -47531,7 +47463,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="34"/>
@@ -47553,7 +47485,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -47575,7 +47507,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2065" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2067" uniqueCount="1075">
   <si>
     <t>Region</t>
   </si>
@@ -7306,6 +7306,12 @@
       <t xml:space="preserve">Modified Instances Tab, BlockVolumes Tab, LB Tabs
 </t>
     </r>
+  </si>
+  <si>
+    <t>Device</t>
+  </si>
+  <si>
+    <t>/dev/oracleoci/oraclevdb</t>
   </si>
 </sst>
 </file>
@@ -15632,7 +15638,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
@@ -15655,7 +15661,13 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B501,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B5 B7:B499</xm:sqref>
+          <xm:sqref>B3:B5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B505,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>B7:B499</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -16132,10 +16144,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16146,15 +16158,15 @@
     <col min="4" max="4" width="10.6328125" style="35" customWidth="1"/>
     <col min="5" max="5" width="15.81640625" style="35" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" style="35" customWidth="1"/>
-    <col min="7" max="7" width="17.6328125" style="35" customWidth="1"/>
-    <col min="8" max="8" width="17.08984375" style="35" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" style="35"/>
-    <col min="10" max="10" width="18.453125" style="35" customWidth="1"/>
-    <col min="11" max="11" width="14.453125" style="35" customWidth="1"/>
-    <col min="12" max="16384" width="8.81640625" style="35"/>
+    <col min="7" max="8" width="17.6328125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="17.08984375" style="35" customWidth="1"/>
+    <col min="10" max="10" width="8.81640625" style="35"/>
+    <col min="11" max="11" width="18.453125" style="35" customWidth="1"/>
+    <col min="12" max="12" width="14.453125" style="35" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="114.75" customHeight="1">
+    <row r="1" spans="1:12" ht="114.75" customHeight="1">
       <c r="A1" s="115" t="s">
         <v>589</v>
       </c>
@@ -16167,9 +16179,10 @@
       <c r="H1" s="116"/>
       <c r="I1" s="116"/>
       <c r="J1" s="116"/>
-      <c r="K1" s="117"/>
-    </row>
-    <row r="2" spans="1:11" s="43" customFormat="1" ht="43.5">
+      <c r="K1" s="116"/>
+      <c r="L1" s="117"/>
+    </row>
+    <row r="2" spans="1:12" s="43" customFormat="1" ht="43.5">
       <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
@@ -16192,19 +16205,22 @@
         <v>109</v>
       </c>
       <c r="H2" s="29" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I2" s="29" t="s">
         <v>1071</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="J2" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="K2" s="29" t="s">
         <v>587</v>
       </c>
-      <c r="K2" s="29" t="s">
+      <c r="L2" s="29" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.75" customHeight="1">
+    <row r="3" spans="1:12" ht="31.75" customHeight="1">
       <c r="A3" s="36" t="s">
         <v>4</v>
       </c>
@@ -16218,8 +16234,9 @@
       <c r="I3" s="36"/>
       <c r="J3" s="36"/>
       <c r="K3" s="36"/>
-    </row>
-    <row r="4" spans="1:11" ht="31.75" customHeight="1">
+      <c r="L3" s="36"/>
+    </row>
+    <row r="4" spans="1:12" ht="31.75" customHeight="1">
       <c r="A4" s="36" t="s">
         <v>5</v>
       </c>
@@ -16241,18 +16258,21 @@
       <c r="G4" s="36" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="21" t="b">
+      <c r="H4" s="34" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I4" s="21" t="b">
         <v>1</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="45" t="s">
+      <c r="J4" s="21"/>
+      <c r="K4" s="45" t="s">
         <v>378</v>
       </c>
-      <c r="K4" s="34" t="s">
+      <c r="L4" s="34" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="28.75" customHeight="1">
+    <row r="5" spans="1:12" ht="28.75" customHeight="1">
       <c r="A5" s="36" t="s">
         <v>5</v>
       </c>
@@ -16274,132 +16294,133 @@
       <c r="G5" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="36"/>
+      <c r="H5" s="101"/>
       <c r="I5" s="36"/>
-      <c r="J5" s="113"/>
-      <c r="K5" s="36"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="H6" s="46"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="113"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="I6" s="46"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="H7" s="46"/>
+      <c r="J6" s="46"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="I7" s="46"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="H8" s="46"/>
+      <c r="J7" s="46"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="I8" s="46"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="H9" s="46"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="I9" s="46"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="H10" s="46"/>
+      <c r="J9" s="46"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="I10" s="46"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="H11" s="46"/>
+      <c r="J10" s="46"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="I11" s="46"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="H12" s="46"/>
+      <c r="J11" s="46"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="I12" s="46"/>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="H13" s="46"/>
+      <c r="J12" s="46"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="I13" s="46"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="H14" s="46"/>
+      <c r="J13" s="46"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="I14" s="46"/>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="H15" s="46"/>
+      <c r="J14" s="46"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="I15" s="46"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="H16" s="46"/>
+      <c r="J15" s="46"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="I16" s="46"/>
-    </row>
-    <row r="17" spans="8:9">
-      <c r="H17" s="46"/>
+      <c r="J16" s="46"/>
+    </row>
+    <row r="17" spans="9:10">
       <c r="I17" s="46"/>
-    </row>
-    <row r="18" spans="8:9">
-      <c r="H18" s="46"/>
+      <c r="J17" s="46"/>
+    </row>
+    <row r="18" spans="9:10">
       <c r="I18" s="46"/>
-    </row>
-    <row r="19" spans="8:9">
-      <c r="H19" s="46"/>
+      <c r="J18" s="46"/>
+    </row>
+    <row r="19" spans="9:10">
       <c r="I19" s="46"/>
-    </row>
-    <row r="20" spans="8:9">
-      <c r="H20" s="46"/>
+      <c r="J19" s="46"/>
+    </row>
+    <row r="20" spans="9:10">
       <c r="I20" s="46"/>
-    </row>
-    <row r="21" spans="8:9">
-      <c r="H21" s="46"/>
+      <c r="J20" s="46"/>
+    </row>
+    <row r="21" spans="9:10">
       <c r="I21" s="46"/>
-    </row>
-    <row r="22" spans="8:9">
-      <c r="H22" s="46"/>
+      <c r="J21" s="46"/>
+    </row>
+    <row r="22" spans="9:10">
       <c r="I22" s="46"/>
-    </row>
-    <row r="23" spans="8:9">
-      <c r="H23" s="46"/>
+      <c r="J22" s="46"/>
+    </row>
+    <row r="23" spans="9:10">
       <c r="I23" s="46"/>
-    </row>
-    <row r="24" spans="8:9">
-      <c r="H24" s="46"/>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="9:10">
       <c r="I24" s="46"/>
-    </row>
-    <row r="25" spans="8:9">
-      <c r="H25" s="46"/>
+      <c r="J24" s="46"/>
+    </row>
+    <row r="25" spans="9:10">
       <c r="I25" s="46"/>
-    </row>
-    <row r="26" spans="8:9">
-      <c r="H26" s="46"/>
+      <c r="J25" s="46"/>
+    </row>
+    <row r="26" spans="9:10">
       <c r="I26" s="46"/>
-    </row>
-    <row r="27" spans="8:9">
-      <c r="H27" s="46"/>
+      <c r="J26" s="46"/>
+    </row>
+    <row r="27" spans="9:10">
       <c r="I27" s="46"/>
-    </row>
-    <row r="28" spans="8:9">
-      <c r="H28" s="46"/>
+      <c r="J27" s="46"/>
+    </row>
+    <row r="28" spans="9:10">
       <c r="I28" s="46"/>
-    </row>
-    <row r="29" spans="8:9">
-      <c r="H29" s="46"/>
+      <c r="J28" s="46"/>
+    </row>
+    <row r="29" spans="9:10">
       <c r="I29" s="46"/>
-    </row>
-    <row r="30" spans="8:9">
-      <c r="H30" s="46"/>
+      <c r="J29" s="46"/>
+    </row>
+    <row r="30" spans="9:10">
       <c r="I30" s="46"/>
-    </row>
-    <row r="31" spans="8:9">
-      <c r="H31" s="46"/>
+      <c r="J30" s="46"/>
+    </row>
+    <row r="31" spans="9:10">
       <c r="I31" s="46"/>
-    </row>
-    <row r="32" spans="8:9">
-      <c r="H32" s="46"/>
+      <c r="J31" s="46"/>
+    </row>
+    <row r="32" spans="9:10">
       <c r="I32" s="46"/>
-    </row>
-    <row r="33" spans="8:9">
-      <c r="H33" s="46"/>
+      <c r="J32" s="46"/>
+    </row>
+    <row r="33" spans="9:10">
       <c r="I33" s="46"/>
+      <c r="J33" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_set!$U$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,21,1,4))</xm:f>
@@ -16410,37 +16431,31 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>J3:J500</xm:sqref>
+          <xm:sqref>B3:B500 K3:K500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
           <x14:formula1>
             <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>I34:I500</xm:sqref>
+          <xm:sqref>J34:J500 E3:E500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
           <x14:formula1>
             <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G3:G500 H34:H500</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1">
-          <x14:formula1>
-            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E500</xm:sqref>
+          <xm:sqref>I34:I500 G3:G500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region">
           <x14:formula1>
             <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
+          <x14:formula1>
+            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>H3 H5:H500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -46105,7 +46120,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="20">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="30">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies.">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
@@ -46150,9 +46165,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C187</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C591,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C187 C114:C145</xm:sqref>
+          <xm:sqref>C114:C145</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -46162,33 +46183,87 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C598,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C109:C110</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C637,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C148:C149</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
+          <xm:sqref>C44:C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C112 C151</xm:sqref>
+          <xm:sqref>C112</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C151</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C601,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C113</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C150</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C640,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C152</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C150 C152 C111</xm:sqref>
+          <xm:sqref>C111</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C107</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C146</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C146 C41:C43</xm:sqref>
+          <xm:sqref>C41:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C108 C147</xm:sqref>
+          <xm:sqref>C108</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C638,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>C147</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
@@ -46613,7 +46688,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating Tags.">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
@@ -46628,9 +46703,15 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B500,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:I500,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>I3:I500 B4:B500</xm:sqref>
+          <xm:sqref>I3:I500</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name.">
+          <x14:formula1>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:B501,"*?")+1,2,1,4))</xm:f>
+          </x14:formula1>
+          <xm:sqref>B4:B500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name. Specify 'root' to create in root compartment.">
           <x14:formula1>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -6489,9 +6489,6 @@
     <t>Backend ServerComp&amp;ServerName:Port</t>
   </si>
   <si>
-    <t>Reserved IPs (Y|N|OCID)</t>
-  </si>
-  <si>
     <t>Memory In GBs</t>
   </si>
   <si>
@@ -7312,6 +7309,9 @@
   </si>
   <si>
     <t>/dev/oracleoci/oraclevdb</t>
+  </si>
+  <si>
+    <t>Reserved IP (Y|N|OCID)</t>
   </si>
 </sst>
 </file>
@@ -11666,7 +11666,7 @@
     <row r="1" spans="1:1" ht="15" thickBot="1"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1">
       <c r="A2" s="66" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -12723,7 +12723,7 @@
         <v>29</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="H3" s="63" t="s">
         <v>776</v>
@@ -15725,7 +15725,7 @@
       <c r="G1" s="125"/>
       <c r="H1" s="126"/>
       <c r="I1" s="115" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
@@ -15771,16 +15771,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="28" t="s">
+        <v>1060</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>1061</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>1062</v>
-      </c>
       <c r="M2" s="29" t="s">
+        <v>1068</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>1069</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>1070</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>95</v>
@@ -16205,10 +16205,10 @@
         <v>109</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>96</v>
@@ -16259,7 +16259,7 @@
         <v>110</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I4" s="21" t="b">
         <v>1</v>
@@ -16453,7 +16453,7 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid Option">
           <x14:formula1>
-            <xm:f>'[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'D:\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>H3 H5:H500</xm:sqref>
         </x14:dataValidation>
@@ -16867,7 +16867,7 @@
   <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -16943,7 +16943,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>1060</v>
+        <v>1074</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>141</v>
@@ -17447,7 +17447,7 @@
   <sheetData>
     <row r="1" spans="1:21" ht="103" customHeight="1">
       <c r="A1" s="115" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -17481,7 +17481,7 @@
         <v>138</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>157</v>
@@ -18646,7 +18646,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="108" customHeight="1">
       <c r="A1" s="114" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -18687,7 +18687,7 @@
         <v>244</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="I2" s="10" t="s">
         <v>245</v>
@@ -47425,7 +47425,7 @@
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95" customHeight="1">
       <c r="A1" s="114" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B1" s="120"/>
     </row>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D02A3A-D9D7-2948-9081-293D10CE9B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DCED82-3CDB-6846-ABB8-38A8E9A09266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -17165,7 +17165,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38565,31 +38565,31 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;" xr:uid="{00000000-0002-0000-1A00-000007000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C6:C501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Enter subnet name as : &lt;vcn-name&gt;_&lt;subnet-name&gt;" xr:uid="{00000000-0002-0000-1A00-000008000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_set!$D$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!,"*?")+1,4,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>E3:F1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-1A00-000009000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>B3:B1000</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-1A00-00000A000000}">
           <x14:formula1>
-            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\indir\[CD3-gc35008.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D6:D501</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region" xr:uid="{00000000-0002-0000-1A00-00000B000000}">
           <x14:formula1>
-            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A3:A1000</xm:sqref>
         </x14:dataValidation>
@@ -42648,7 +42648,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -43635,7 +43635,7 @@
   <dimension ref="A1:H198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46125,7 +46125,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E3:E35 E192:E533 E153:E185 E114:E145 E44:E83 E87:E104" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B3:B533" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="H3:H533" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
@@ -46134,7 +46134,7 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="20">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies." xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
@@ -46143,13 +46143,13 @@
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies." xr:uid="{00000000-0002-0000-0300-000004000000}">
           <x14:formula1>
-            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
+            <xm:f>'/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_set'!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>A84:A86</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000005000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/\Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
           <xm:sqref>C84:C86</xm:sqref>
         </x14:dataValidation>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47DCED82-3CDB-6846-ABB8-38A8E9A09266}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65389361-9B04-4D4A-8B85-0050C7AC18D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2069" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2063" uniqueCount="1075">
   <si>
     <t>Region</t>
   </si>
@@ -1069,9 +1069,6 @@
     <t>Validator</t>
   </si>
   <si>
-    <t>Default Tag Value</t>
-  </si>
-  <si>
     <t>Application</t>
   </si>
   <si>
@@ -1084,9 +1081,6 @@
     <t>ENUM::"application-team","ocs"</t>
   </si>
   <si>
-    <t>ocs</t>
-  </si>
-  <si>
     <t>internal</t>
   </si>
   <si>
@@ -1111,9 +1105,6 @@
     <t>Development Environment</t>
   </si>
   <si>
-    <t>ocs-development</t>
-  </si>
-  <si>
     <t>qa</t>
   </si>
   <si>
@@ -1505,9 +1496,6 @@
   </si>
   <si>
     <t>10.117.0.0/16</t>
-  </si>
-  <si>
-    <t>Default Tag Compartment</t>
   </si>
   <si>
     <t>ENUM::"internal-team","ocs-internal"</t>
@@ -3880,80 +3868,6 @@
     <t>Backend HealthCheck Interval In Millis</t>
   </si>
   <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Default Tag Compartment" - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Specify the compartment to which the tag should be assigned as default.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"Default Tag Value"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - To use 'User-Assigned Value':
-                                                    - Leave this field empty .
-                                         To use 'Default Values':
-                                                    - (if the Validator is set) mention one of the values in Validator.
-                                                    - (If the Validator is empty) the user can enter any value.
-Specify Tag Keys in different rows as shown in the example below.(</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Example:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Tag key - 'internal' of row 5, the entries to columns till 'Namespace Description' will be automatically copied over from the row above it by the Tool Kit .</t>
-    </r>
-  </si>
-  <si>
     <t>AR8ADOS710</t>
   </si>
   <si>
@@ -5260,16 +5174,10 @@
     <t>Identifies who created the resource.</t>
   </si>
   <si>
-    <t>${iam.principal.name}</t>
-  </si>
-  <si>
     <t>CreatedOn</t>
   </si>
   <si>
     <t>Identifies when the resource was created.</t>
-  </si>
-  <si>
-    <t>${oci.datetime}</t>
   </si>
   <si>
     <t>OracleTags</t>
@@ -7361,6 +7269,129 @@
       <t>- Enter the OCID of Trusted Certificate Authority</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Default Tag Compartment = Default Tag Value "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Specify the compartment to which the tag should be assigned as default. Use Semi Colon as the delimeter between two values.
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:OMCDev::OMCDev-VM=${iam.principal.name};OMCDev::OMCDev-VM::demo-Application=) 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Directives to specify Default Tag Value :</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - To use 'User-Assigned Value':  Leave this field empty . (</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: OMCDev::OMCDev-VM::demo-Application=)
+ - To use 'Default Values':
+     - (if the Validator is set) mention one of the values from Validator.
+     - (If the Validator is empty)  user can enter any value.
+Specify Tag Keys in different rows as shown in the example below.(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Example</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tag key - 'internal' of row 5, the entries to columns till 'Namespace Description' will be automatically copied over from the row above it by the Tool Kit .</t>
+    </r>
+  </si>
+  <si>
+    <t>root=${iam.principal.name}</t>
+  </si>
+  <si>
+    <t>root=${oci.datetime}</t>
+  </si>
+  <si>
+    <t>Network=ocs</t>
+  </si>
+  <si>
+    <t>Network::TCC=ocs-development</t>
+  </si>
+  <si>
+    <t>Default Tag Compartment = Default Tag Value</t>
+  </si>
 </sst>
 </file>
 
@@ -7369,7 +7400,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7602,6 +7633,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="11">
@@ -8188,14 +8225,14 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -11748,7 +11785,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="66" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
     </row>
   </sheetData>
@@ -11789,7 +11826,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -11799,7 +11836,7 @@
       <c r="G1" s="116"/>
       <c r="H1" s="117"/>
       <c r="I1" s="123" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="J1" s="123"/>
       <c r="K1" s="123"/>
@@ -11864,21 +11901,21 @@
         <v>18</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="32" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>50</v>
@@ -11893,10 +11930,10 @@
         <v>35</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>23</v>
@@ -11921,34 +11958,34 @@
     </row>
     <row r="4" spans="1:18" s="32" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>23</v>
@@ -11973,34 +12010,34 @@
     </row>
     <row r="5" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>1045</v>
+        <v>1038</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>1044</v>
+        <v>1037</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>1043</v>
+        <v>1036</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>23</v>
@@ -12025,16 +12062,16 @@
     </row>
     <row r="6" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>55</v>
@@ -12049,16 +12086,16 @@
         <v>35</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>21</v>
@@ -12077,19 +12114,19 @@
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>51</v>
@@ -12101,16 +12138,16 @@
         <v>35</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="K7" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M7" s="36" t="s">
         <v>21</v>
@@ -12129,19 +12166,19 @@
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>51</v>
@@ -12153,16 +12190,16 @@
         <v>35</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
       <c r="K8" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M8" s="36" t="s">
         <v>21</v>
@@ -12181,34 +12218,34 @@
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="K9" s="36" t="s">
         <v>23</v>
@@ -12233,19 +12270,19 @@
     </row>
     <row r="10" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>51</v>
@@ -12257,16 +12294,16 @@
         <v>35</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
       <c r="K10" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M10" s="36" t="s">
         <v>21</v>
@@ -12285,19 +12322,19 @@
     </row>
     <row r="11" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>51</v>
@@ -12309,16 +12346,16 @@
         <v>35</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="K11" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>21</v>
@@ -12337,19 +12374,19 @@
     </row>
     <row r="12" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>51</v>
@@ -12361,16 +12398,16 @@
         <v>35</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="K12" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M12" s="36" t="s">
         <v>21</v>
@@ -12413,13 +12450,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C14" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E14" s="69" t="s">
         <v>50</v>
@@ -12441,7 +12478,7 @@
         <v>21</v>
       </c>
       <c r="L14" s="72" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M14" s="72" t="s">
         <v>21</v>
@@ -12457,7 +12494,7 @@
       </c>
       <c r="Q14" s="72"/>
       <c r="R14" s="70" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -12465,16 +12502,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E15" s="69" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F15" s="69" t="s">
         <v>51</v>
@@ -12513,13 +12550,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C16" s="69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D16" s="69" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E16" s="69" t="s">
         <v>55</v>
@@ -12561,16 +12598,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C17" s="69" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D17" s="69" t="s">
+        <v>385</v>
+      </c>
+      <c r="E17" s="69" t="s">
         <v>388</v>
-      </c>
-      <c r="E17" s="69" t="s">
-        <v>391</v>
       </c>
       <c r="F17" s="69" t="s">
         <v>51</v>
@@ -12579,7 +12616,7 @@
         <v>57</v>
       </c>
       <c r="H17" s="69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I17" s="69"/>
       <c r="J17" s="69" t="s">
@@ -12611,16 +12648,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C18" s="69" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E18" s="69" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F18" s="69" t="s">
         <v>51</v>
@@ -12629,11 +12666,11 @@
         <v>57</v>
       </c>
       <c r="H18" s="69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I18" s="69"/>
       <c r="J18" s="69" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="K18" s="69" t="s">
         <v>23</v>
@@ -12661,16 +12698,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C19" s="69" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E19" s="69" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F19" s="69" t="s">
         <v>51</v>
@@ -12679,17 +12716,17 @@
         <v>57</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I19" s="69"/>
       <c r="J19" s="69" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K19" s="69" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="72" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M19" s="72" t="s">
         <v>23</v>
@@ -12742,7 +12779,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -12762,56 +12799,56 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="K2" s="61"/>
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="63" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="36"/>
@@ -14366,7 +14403,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -14403,7 +14440,7 @@
         <v>61</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -14467,7 +14504,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -14536,7 +14573,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -14619,7 +14656,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -14697,30 +14734,30 @@
         <v>61</v>
       </c>
       <c r="S2" s="60" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="T2" s="60" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>79</v>
@@ -14728,10 +14765,10 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
@@ -14744,35 +14781,35 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
     </row>
     <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>29</v>
@@ -14790,38 +14827,38 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
       <c r="R4" s="34" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
     </row>
     <row r="5" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
@@ -14836,29 +14873,29 @@
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
     </row>
     <row r="6" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>79</v>
@@ -14866,10 +14903,10 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
@@ -14882,38 +14919,38 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
     </row>
     <row r="7" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
@@ -14928,38 +14965,38 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="34" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
@@ -14974,29 +15011,29 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
     </row>
     <row r="9" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>79</v>
@@ -15004,10 +15041,10 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
@@ -15020,29 +15057,29 @@
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>79</v>
@@ -15050,10 +15087,10 @@
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
@@ -15066,38 +15103,38 @@
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
     </row>
     <row r="11" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
@@ -15112,38 +15149,38 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
     </row>
     <row r="12" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
@@ -15158,29 +15195,29 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
     </row>
     <row r="13" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>79</v>
@@ -15188,10 +15225,10 @@
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -15204,29 +15241,29 @@
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
     </row>
     <row r="14" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>79</v>
@@ -15234,10 +15271,10 @@
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
@@ -15250,38 +15287,38 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="34" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
@@ -15296,38 +15333,38 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
     </row>
     <row r="16" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
@@ -15342,7 +15379,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="34" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
@@ -15376,13 +15413,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C18" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="69" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E18" s="69" t="s">
         <v>77</v>
@@ -15409,7 +15446,7 @@
       <c r="Q18" s="72"/>
       <c r="R18" s="70"/>
       <c r="T18" s="35" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15417,28 +15454,28 @@
         <v>5</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C19" s="69" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="69" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E19" s="69" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="69" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="G19" s="69" t="s">
         <v>79</v>
       </c>
       <c r="H19" s="69" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="I19" s="69" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J19" s="69"/>
       <c r="K19" s="69"/>
@@ -15459,13 +15496,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C20" s="69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D20" s="69" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E20" s="69" t="s">
         <v>77</v>
@@ -15497,13 +15534,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C21" s="69" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D21" s="69" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E21" s="69" t="s">
         <v>82</v>
@@ -15518,7 +15555,7 @@
         <v>80</v>
       </c>
       <c r="I21" s="69" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="J21" s="69"/>
       <c r="K21" s="69"/>
@@ -15593,7 +15630,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -15610,7 +15647,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>84</v>
@@ -15622,7 +15659,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15630,7 +15667,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>87</v>
@@ -15645,7 +15682,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15653,7 +15690,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>89</v>
@@ -15674,7 +15711,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>91</v>
@@ -15686,7 +15723,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="G5" s="36"/>
     </row>
@@ -15779,7 +15816,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="136" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -15789,7 +15826,7 @@
       <c r="G1" s="125"/>
       <c r="H1" s="126"/>
       <c r="I1" s="115" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="J1" s="116"/>
       <c r="K1" s="116"/>
@@ -15814,7 +15851,7 @@
         <v>84</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>86</v>
@@ -15829,22 +15866,22 @@
         <v>93</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>85</v>
       </c>
       <c r="K2" s="28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L2" s="28" t="s">
+        <v>1054</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>1059</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>1060</v>
-      </c>
-      <c r="L2" s="28" t="s">
-        <v>1061</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>1066</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>1067</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>95</v>
@@ -15853,7 +15890,7 @@
         <v>96</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>97</v>
@@ -15862,7 +15899,7 @@
         <v>98</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -15870,28 +15907,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="J3" s="112" t="s">
         <v>105</v>
@@ -15908,17 +15945,17 @@
         <v>103</v>
       </c>
       <c r="P3" s="45" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="Q3" s="45" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="R3" s="36"/>
       <c r="S3" s="36" t="s">
         <v>91</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15950,29 +15987,29 @@
         <v>5</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>104</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="G5" s="36" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="36"/>
       <c r="I5" s="36" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
@@ -15984,7 +16021,7 @@
         <v>103</v>
       </c>
       <c r="P5" s="36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q5" s="36"/>
       <c r="R5" s="36"/>
@@ -15998,26 +16035,26 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G6" s="36" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="36" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="J6" s="112" t="s">
         <v>105</v>
@@ -16030,11 +16067,11 @@
         <v>103</v>
       </c>
       <c r="P6" s="36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q6" s="36"/>
       <c r="R6" s="36" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="S6" s="36"/>
       <c r="T6" s="36"/>
@@ -16044,26 +16081,26 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E7" s="36" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="G7" s="36" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="36" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="J7" s="112" t="s">
         <v>105</v>
@@ -16076,11 +16113,11 @@
         <v>103</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="Q7" s="36"/>
       <c r="R7" s="36" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="S7" s="36"/>
       <c r="T7" s="36"/>
@@ -16178,7 +16215,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -16215,19 +16252,19 @@
         <v>109</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>96</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16251,10 +16288,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D4" s="36">
         <v>150</v>
@@ -16263,23 +16300,23 @@
         <v>56</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="G4" s="36" t="s">
         <v>110</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="I4" s="21" t="b">
         <v>1</v>
       </c>
       <c r="J4" s="21"/>
       <c r="K4" s="45" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16287,10 +16324,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="D5" s="36">
         <v>150</v>
@@ -16299,7 +16336,7 @@
         <v>56</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="G5" s="101" t="s">
         <v>110</v>
@@ -16499,7 +16536,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="127" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B1" s="128"/>
       <c r="C1" s="128"/>
@@ -16509,7 +16546,7 @@
       <c r="G1" s="128"/>
       <c r="H1" s="129"/>
       <c r="I1" s="130" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="J1" s="130"/>
       <c r="K1" s="130"/>
@@ -16570,7 +16607,7 @@
         <v>97</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16581,7 +16618,7 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="34" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -16601,7 +16638,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>90</v>
@@ -16610,7 +16647,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36" t="s">
@@ -16620,7 +16657,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
@@ -16629,10 +16666,10 @@
       <c r="N4" s="36"/>
       <c r="O4" s="36"/>
       <c r="P4" s="34" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="Q4" s="34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -16645,7 +16682,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="J5" s="36" t="s">
         <v>126</v>
@@ -16669,7 +16706,7 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="J6" s="36" t="s">
         <v>128</v>
@@ -16689,7 +16726,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>90</v>
@@ -16698,7 +16735,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -16706,7 +16743,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -16722,7 +16759,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>99</v>
@@ -16731,7 +16768,7 @@
         <v>131</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
@@ -16739,7 +16776,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>133</v>
@@ -16752,7 +16789,7 @@
       <c r="N8" s="36"/>
       <c r="O8" s="36"/>
       <c r="P8" s="36" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="Q8" s="36"/>
     </row>
@@ -16761,7 +16798,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>99</v>
@@ -16770,7 +16807,7 @@
         <v>134</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
@@ -16778,7 +16815,7 @@
         <v>132</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>135</v>
@@ -16798,7 +16835,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>90</v>
@@ -16807,7 +16844,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
@@ -16815,7 +16852,7 @@
         <v>137</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -16897,7 +16934,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -16929,13 +16966,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>139</v>
@@ -16947,7 +16984,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>141</v>
@@ -16968,13 +17005,13 @@
         <v>146</v>
       </c>
       <c r="Q2" s="17" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="R2" s="17" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17005,10 +17042,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>147</v>
@@ -17016,7 +17053,7 @@
       <c r="E4" s="36"/>
       <c r="F4" s="36"/>
       <c r="G4" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H4" s="36" t="b">
         <v>1</v>
@@ -17038,13 +17075,13 @@
         <v>151</v>
       </c>
       <c r="Q4" s="36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="R4" s="58" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="S4" s="34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17079,10 +17116,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D6" s="36" t="s">
         <v>153</v>
@@ -17090,13 +17127,13 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36"/>
       <c r="G6" s="34" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H6" s="36" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="J6" s="36"/>
       <c r="K6" s="34" t="s">
@@ -17179,7 +17216,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -17200,7 +17237,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="35" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17208,13 +17245,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E3" s="36"/>
     </row>
@@ -17223,13 +17260,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E4" s="36"/>
     </row>
@@ -17238,13 +17275,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E5" s="36"/>
     </row>
@@ -17253,13 +17290,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E6" s="36"/>
     </row>
@@ -17277,10 +17314,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="69"/>
@@ -17290,13 +17327,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E9" s="69"/>
     </row>
@@ -17305,13 +17342,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E10" s="69"/>
     </row>
@@ -17320,10 +17357,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D11" s="69"/>
       <c r="E11" s="69"/>
@@ -17333,13 +17370,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D12" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E12" s="69"/>
     </row>
@@ -17348,13 +17385,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D13" s="69" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E13" s="69"/>
     </row>
@@ -17363,13 +17400,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D14" s="69" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E14" s="69"/>
     </row>
@@ -17378,16 +17415,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="69" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C15" s="69" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E15" s="70" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -17445,7 +17482,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -17480,16 +17517,16 @@
         <v>138</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>1059</v>
+        <v>1052</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>158</v>
@@ -17504,7 +17541,7 @@
         <v>161</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>162</v>
@@ -17525,16 +17562,16 @@
         <v>167</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -17568,10 +17605,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36"/>
@@ -17579,7 +17616,7 @@
         <v>168</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>169</v>
@@ -17615,10 +17652,10 @@
         <v>100</v>
       </c>
       <c r="S4" s="36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="T4" s="59" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="U4" s="36">
         <v>2</v>
@@ -17639,7 +17676,7 @@
         <v>174</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>169</v>
@@ -17676,10 +17713,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36"/>
@@ -17687,7 +17724,7 @@
         <v>177</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>169</v>
@@ -17797,7 +17834,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -17808,7 +17845,7 @@
       <c r="H1" s="116"/>
       <c r="I1" s="116"/>
       <c r="J1" s="118" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="K1" s="131"/>
       <c r="L1" s="131"/>
@@ -17864,7 +17901,7 @@
         <v>189</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>190</v>
@@ -17907,7 +17944,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>193</v>
@@ -17916,7 +17953,7 @@
         <v>194</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
@@ -18387,7 +18424,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C22" s="36" t="s">
         <v>230</v>
@@ -18496,7 +18533,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="133" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B1" s="134"/>
       <c r="C1" s="134"/>
@@ -18539,7 +18576,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>233</v>
@@ -18589,7 +18626,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>239</v>
@@ -18652,7 +18689,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="122" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -18694,16 +18731,16 @@
         <v>244</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>245</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>246</v>
@@ -18712,16 +18749,16 @@
         <v>247</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="P2" s="29" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -18750,7 +18787,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>168</v>
@@ -18770,16 +18807,16 @@
       <c r="H4" s="36"/>
       <c r="I4" s="36"/>
       <c r="J4" s="36" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="36"/>
       <c r="M4" s="36"/>
       <c r="N4" s="36" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="O4" s="59" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="P4" s="36">
         <v>2</v>
@@ -18807,7 +18844,7 @@
       <c r="H5" s="36"/>
       <c r="I5" s="36"/>
       <c r="J5" s="36" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="36"/>
@@ -18822,7 +18859,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>177</v>
@@ -18905,7 +18942,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="136" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B1" s="136"/>
       <c r="C1" s="136"/>
@@ -18924,25 +18961,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="H2" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="I2" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -18960,19 +18997,19 @@
     </row>
     <row r="4" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E4" s="48" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F4" s="36">
         <v>1</v>
@@ -18981,28 +19018,28 @@
         <v>1</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="J4" s="46"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F5" s="36">
         <v>1</v>
@@ -19011,7 +19048,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I5" s="45"/>
       <c r="J5" s="46"/>
@@ -19079,7 +19116,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="50" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -19122,73 +19159,73 @@
         <v>39</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="64" t="s">
+        <v>928</v>
+      </c>
+      <c r="H2" s="64" t="s">
+        <v>929</v>
+      </c>
+      <c r="I2" s="64" t="s">
+        <v>930</v>
+      </c>
+      <c r="J2" s="64" t="s">
+        <v>931</v>
+      </c>
+      <c r="K2" s="90" t="s">
+        <v>932</v>
+      </c>
+      <c r="L2" s="64" t="s">
+        <v>933</v>
+      </c>
+      <c r="M2" s="65" t="s">
+        <v>934</v>
+      </c>
+      <c r="N2" s="64" t="s">
+        <v>420</v>
+      </c>
+      <c r="O2" s="64" t="s">
+        <v>315</v>
+      </c>
+      <c r="P2" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q2" s="64" t="s">
+        <v>422</v>
+      </c>
+      <c r="R2" s="64" t="s">
+        <v>423</v>
+      </c>
+      <c r="S2" s="64" t="s">
         <v>935</v>
       </c>
-      <c r="H2" s="64" t="s">
+      <c r="T2" s="64" t="s">
         <v>936</v>
-      </c>
-      <c r="I2" s="64" t="s">
-        <v>937</v>
-      </c>
-      <c r="J2" s="64" t="s">
-        <v>938</v>
-      </c>
-      <c r="K2" s="90" t="s">
-        <v>939</v>
-      </c>
-      <c r="L2" s="64" t="s">
-        <v>940</v>
-      </c>
-      <c r="M2" s="65" t="s">
-        <v>941</v>
-      </c>
-      <c r="N2" s="64" t="s">
-        <v>423</v>
-      </c>
-      <c r="O2" s="64" t="s">
-        <v>318</v>
-      </c>
-      <c r="P2" s="64" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q2" s="64" t="s">
-        <v>425</v>
-      </c>
-      <c r="R2" s="64" t="s">
-        <v>426</v>
-      </c>
-      <c r="S2" s="64" t="s">
-        <v>942</v>
-      </c>
-      <c r="T2" s="64" t="s">
-        <v>943</v>
       </c>
       <c r="U2" s="64" t="s">
         <v>95</v>
       </c>
       <c r="V2" s="64" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="W2" s="64" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="X2" s="64" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="Y2" s="64" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="Z2" s="64" t="s">
         <v>97</v>
       </c>
       <c r="AA2" s="64" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -19224,57 +19261,57 @@
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="101" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="101" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="E4" s="102" t="s">
-        <v>979</v>
+        <v>972</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="G4" s="51">
         <v>1</v>
       </c>
       <c r="H4" s="51"/>
       <c r="I4" s="51" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="J4" s="51">
         <v>256</v>
       </c>
       <c r="K4" s="51"/>
       <c r="L4" s="51" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M4" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="N4" s="51" t="s">
+        <v>973</v>
+      </c>
+      <c r="O4" s="51" t="s">
+        <v>334</v>
+      </c>
+      <c r="P4" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q4" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="N4" s="51" t="s">
-        <v>980</v>
-      </c>
-      <c r="O4" s="51" t="s">
+      <c r="R4" s="51" t="s">
         <v>337</v>
       </c>
-      <c r="P4" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q4" s="51" t="s">
-        <v>339</v>
-      </c>
-      <c r="R4" s="51" t="s">
-        <v>340</v>
-      </c>
       <c r="S4" s="51" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T4" s="51" t="b">
         <v>1</v>
@@ -19283,38 +19320,38 @@
         <v>103</v>
       </c>
       <c r="V4" s="36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W4" s="36" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="X4" s="36">
         <v>15</v>
       </c>
       <c r="Y4" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Z4" s="36"/>
       <c r="AA4" s="36"/>
     </row>
     <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="103" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="101" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C5" s="101" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="E5" s="102" t="s">
-        <v>981</v>
+        <v>974</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="G5" s="51">
         <v>2</v>
@@ -19323,35 +19360,35 @@
         <v>4</v>
       </c>
       <c r="I5" s="51" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="J5" s="51">
         <v>256</v>
       </c>
       <c r="K5" s="51"/>
       <c r="L5" s="51" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M5" s="51" t="s">
+        <v>333</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>975</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="P5" s="52" t="s">
+        <v>426</v>
+      </c>
+      <c r="Q5" s="51" t="s">
         <v>336</v>
       </c>
-      <c r="N5" s="51" t="s">
-        <v>982</v>
-      </c>
-      <c r="O5" s="51" t="s">
-        <v>352</v>
-      </c>
-      <c r="P5" s="52" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q5" s="51" t="s">
-        <v>339</v>
-      </c>
       <c r="R5" s="51" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="S5" s="51" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="T5" s="51" t="b">
         <v>1</v>
@@ -19360,16 +19397,16 @@
         <v>103</v>
       </c>
       <c r="V5" s="36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="W5" s="36" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="X5" s="36">
         <v>15</v>
       </c>
       <c r="Y5" s="36" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Z5" s="36"/>
       <c r="AA5" s="36"/>
@@ -25507,7 +25544,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -25525,7 +25562,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="D2" s="90" t="s">
         <v>84</v>
@@ -25534,13 +25571,13 @@
         <v>85</v>
       </c>
       <c r="F2" s="90" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="G2" s="90" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="H2" s="93" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -25557,19 +25594,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="F4" s="34">
         <v>2</v>
@@ -31620,7 +31657,7 @@
   <sheetData>
     <row r="1" spans="1:24" s="50" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="124" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B1" s="125"/>
       <c r="C1" s="125"/>
@@ -31654,49 +31691,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="65" t="s">
+        <v>947</v>
+      </c>
+      <c r="D2" s="65" t="s">
+        <v>952</v>
+      </c>
+      <c r="E2" s="90" t="s">
+        <v>953</v>
+      </c>
+      <c r="F2" s="90" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" s="90" t="s">
+        <v>929</v>
+      </c>
+      <c r="H2" s="65" t="s">
+        <v>934</v>
+      </c>
+      <c r="I2" s="90" t="s">
+        <v>420</v>
+      </c>
+      <c r="J2" s="90" t="s">
         <v>954</v>
       </c>
-      <c r="D2" s="65" t="s">
-        <v>959</v>
-      </c>
-      <c r="E2" s="90" t="s">
-        <v>960</v>
-      </c>
-      <c r="F2" s="90" t="s">
-        <v>354</v>
-      </c>
-      <c r="G2" s="90" t="s">
-        <v>936</v>
-      </c>
-      <c r="H2" s="65" t="s">
-        <v>941</v>
-      </c>
-      <c r="I2" s="90" t="s">
-        <v>423</v>
-      </c>
-      <c r="J2" s="90" t="s">
-        <v>961</v>
-      </c>
       <c r="K2" s="90" t="s">
-        <v>962</v>
+        <v>955</v>
       </c>
       <c r="L2" s="90" t="s">
-        <v>963</v>
+        <v>956</v>
       </c>
       <c r="M2" s="90" t="s">
         <v>95</v>
       </c>
       <c r="N2" s="90" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="O2" s="107" t="s">
         <v>97</v>
       </c>
       <c r="P2" s="107" t="s">
-        <v>1057</v>
+        <v>1050</v>
       </c>
       <c r="Q2" s="97" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
@@ -31728,34 +31765,34 @@
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="101" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C4" s="51" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>978</v>
+        <v>971</v>
       </c>
       <c r="G4" s="105">
         <v>4</v>
       </c>
       <c r="H4" s="99" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I4" s="99" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="J4" s="99" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="K4" s="99" t="b">
         <v>1</v>
@@ -31767,11 +31804,11 @@
         <v>103</v>
       </c>
       <c r="N4" s="59" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="P4" s="36"/>
       <c r="Q4" s="34" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:24" s="36" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -38624,37 +38661,37 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="C1" s="56" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="G1" s="57" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H1" s="57" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="I1" s="92" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="J1" s="92" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -38662,31 +38699,31 @@
         <v>102</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D2" s="45" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F2" s="51" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G2" s="67" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H2" s="36" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I2" s="34">
         <v>80</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="K2" s="36">
         <v>1</v>
@@ -38694,34 +38731,34 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="91" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="B3" s="54" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="G3" s="67" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="I3" s="34">
         <v>40</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="K3" s="36">
         <v>2</v>
@@ -38729,659 +38766,659 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="91" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F4" s="36"/>
       <c r="H4" s="8" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="91" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="36" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F5" s="36"/>
       <c r="H5" s="36" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="91" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="36" t="s">
-        <v>983</v>
+        <v>976</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F6" s="36"/>
       <c r="H6" s="36" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="91" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36" t="s">
-        <v>984</v>
+        <v>977</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F7" s="36"/>
       <c r="H7" s="36" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="91" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
-        <v>985</v>
+        <v>978</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="36" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F8" s="36"/>
       <c r="H8" s="36" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="91" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F9" s="36"/>
       <c r="H9" s="36" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="91" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36" t="s">
-        <v>986</v>
+        <v>979</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F10" s="36"/>
       <c r="H10" s="36" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="91" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36" t="s">
-        <v>987</v>
+        <v>980</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F11" s="36"/>
       <c r="H11" s="36" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="91" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36" t="s">
-        <v>988</v>
+        <v>981</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="F12" s="36"/>
       <c r="H12" s="36" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="91" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36" t="s">
-        <v>989</v>
+        <v>982</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="H13" s="36" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="91" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="H14" s="36" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H15" s="36" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="H16" s="36" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="36" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="36" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="36" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="36" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="36" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="36" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="36" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="36" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="36" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="36" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="36" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="36" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="36" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="36" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="36" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="36" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="36" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="36" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="36" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="36" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="36" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="36" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="36" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="36" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="36" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="36" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="36" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="36" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="36" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="36" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="36" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="36" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="36" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="36" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="36" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="36" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="36" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="36" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="36" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="36" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="36" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="36" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="36" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="36" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="36" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="36" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="36" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="36" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="36" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="36" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="36" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="36" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="36" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="36" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="36" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="36" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="36" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="36" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="36" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="36" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="36" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="36" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="36" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="36" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="36" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="36" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="36" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="36" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="36" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="36" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="36" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="36" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="36" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="36" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="36" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="36" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="36" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="36" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="36" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="36" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="36" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="36" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="36" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="36" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="36" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="36" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="36" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="36" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="36" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="36" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="36" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -39439,91 +39476,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="80" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="C1" s="88" t="s">
-        <v>871</v>
+        <v>864</v>
       </c>
       <c r="D1" s="88" t="s">
-        <v>872</v>
+        <v>865</v>
       </c>
       <c r="E1" s="88" t="s">
-        <v>873</v>
+        <v>866</v>
       </c>
       <c r="F1" s="88" t="s">
-        <v>874</v>
+        <v>867</v>
       </c>
       <c r="G1" s="88" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="88" t="s">
+        <v>868</v>
+      </c>
+      <c r="I1" s="88" t="s">
+        <v>869</v>
+      </c>
+      <c r="J1" s="88" t="s">
+        <v>870</v>
+      </c>
+      <c r="K1" s="88" t="s">
+        <v>871</v>
+      </c>
+      <c r="L1" s="88" t="s">
+        <v>872</v>
+      </c>
+      <c r="M1" s="88" t="s">
+        <v>922</v>
+      </c>
+      <c r="N1" s="88" t="s">
+        <v>873</v>
+      </c>
+      <c r="O1" s="88" t="s">
+        <v>874</v>
+      </c>
+      <c r="P1" s="88" t="s">
         <v>875</v>
       </c>
-      <c r="I1" s="88" t="s">
+      <c r="Q1" s="88" t="s">
         <v>876</v>
       </c>
-      <c r="J1" s="88" t="s">
+      <c r="R1" s="88" t="s">
         <v>877</v>
       </c>
-      <c r="K1" s="88" t="s">
+      <c r="S1" s="88" t="s">
         <v>878</v>
       </c>
-      <c r="L1" s="88" t="s">
+      <c r="T1" s="88" t="s">
+        <v>924</v>
+      </c>
+      <c r="U1" s="88" t="s">
         <v>879</v>
       </c>
-      <c r="M1" s="88" t="s">
-        <v>929</v>
-      </c>
-      <c r="N1" s="88" t="s">
+      <c r="V1" s="79" t="s">
         <v>880</v>
       </c>
-      <c r="O1" s="88" t="s">
+      <c r="W1" s="79" t="s">
         <v>881</v>
       </c>
-      <c r="P1" s="88" t="s">
+      <c r="X1" s="79" t="s">
         <v>882</v>
       </c>
-      <c r="Q1" s="88" t="s">
-        <v>883</v>
-      </c>
-      <c r="R1" s="88" t="s">
-        <v>884</v>
-      </c>
-      <c r="S1" s="88" t="s">
-        <v>885</v>
-      </c>
-      <c r="T1" s="88" t="s">
-        <v>931</v>
-      </c>
-      <c r="U1" s="88" t="s">
-        <v>886</v>
-      </c>
-      <c r="V1" s="79" t="s">
-        <v>887</v>
-      </c>
-      <c r="W1" s="79" t="s">
-        <v>888</v>
-      </c>
-      <c r="X1" s="79" t="s">
-        <v>889</v>
-      </c>
       <c r="Y1" s="88" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="Z1" s="79" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="79" t="s">
-        <v>890</v>
+        <v>883</v>
       </c>
       <c r="AB1" s="79" t="s">
-        <v>891</v>
+        <v>884</v>
       </c>
       <c r="AC1" s="79" t="s">
-        <v>892</v>
+        <v>885</v>
       </c>
       <c r="AD1" s="79" t="s">
         <v>252</v>
@@ -39544,10 +39581,10 @@
         <v>257</v>
       </c>
       <c r="AJ1" s="79" t="s">
-        <v>893</v>
+        <v>886</v>
       </c>
       <c r="AK1" s="79" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AL1" s="79"/>
       <c r="AM1" s="79"/>
@@ -39576,7 +39613,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="82" t="s">
-        <v>894</v>
+        <v>887</v>
       </c>
       <c r="H2" s="82" t="s">
         <v>38</v>
@@ -39599,22 +39636,22 @@
         <v>DRG</v>
       </c>
       <c r="N2" s="82" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="O2" s="82" t="s">
         <v>78</v>
       </c>
       <c r="P2" s="83" t="s">
-        <v>895</v>
+        <v>888</v>
       </c>
       <c r="Q2" s="82" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="R2" s="82" t="s">
         <v>56</v>
       </c>
       <c r="S2" s="82" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="T2" s="82" t="str" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DedicatedVMHosts")))</f>
@@ -39625,13 +39662,13 @@
         <v>DNS-Server1-PhxHub</v>
       </c>
       <c r="V2" s="82" t="s">
-        <v>896</v>
+        <v>889</v>
       </c>
       <c r="W2" s="82" t="s">
         <v>129</v>
       </c>
       <c r="X2" s="82" t="s">
-        <v>897</v>
+        <v>890</v>
       </c>
       <c r="Y2" s="82" t="b">
         <v>1</v>
@@ -39640,7 +39677,7 @@
         <v>147</v>
       </c>
       <c r="AA2" s="82" t="s">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="AB2" s="82" t="s">
         <v>170</v>
@@ -39670,7 +39707,7 @@
         <v>170</v>
       </c>
       <c r="AK2" s="81" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="81" customFormat="1" x14ac:dyDescent="0.2">
@@ -39697,7 +39734,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="82" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H3" s="82" t="s">
         <v>36</v>
@@ -39706,7 +39743,7 @@
         <v>56</v>
       </c>
       <c r="J3" s="82" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="K3" s="82" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -39720,10 +39757,10 @@
         <v/>
       </c>
       <c r="N3" s="82" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
       <c r="O3" s="82" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P3" s="83" t="s">
         <v>79</v>
@@ -39735,7 +39772,7 @@
         <v>90</v>
       </c>
       <c r="S3" s="82" t="s">
-        <v>899</v>
+        <v>892</v>
       </c>
       <c r="T3" s="82" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -39752,7 +39789,7 @@
         <v>127</v>
       </c>
       <c r="X3" s="82" t="s">
-        <v>900</v>
+        <v>893</v>
       </c>
       <c r="Y3" s="82" t="b">
         <v>0</v>
@@ -39764,7 +39801,7 @@
         <v>169</v>
       </c>
       <c r="AB3" s="82" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="AC3" s="82" t="s">
         <v>172</v>
@@ -39788,10 +39825,10 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="82" t="s">
-        <v>901</v>
+        <v>894</v>
       </c>
       <c r="AK3" s="81" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="81" customFormat="1" x14ac:dyDescent="0.2">
@@ -39816,7 +39853,7 @@
       </c>
       <c r="F4" s="82"/>
       <c r="G4" s="82" t="s">
-        <v>902</v>
+        <v>895</v>
       </c>
       <c r="H4" s="82"/>
       <c r="I4" s="82" t="s">
@@ -39828,7 +39865,7 @@
         <v>dhcp-internal</v>
       </c>
       <c r="L4" s="82" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="M4" s="82" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DRGs")))</f>
@@ -39846,7 +39883,7 @@
         <v>99</v>
       </c>
       <c r="S4" s="82" t="s">
-        <v>903</v>
+        <v>896</v>
       </c>
       <c r="T4" s="82" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -39859,14 +39896,14 @@
       <c r="V4" s="82"/>
       <c r="W4" s="82"/>
       <c r="X4" s="82" t="s">
-        <v>904</v>
+        <v>897</v>
       </c>
       <c r="Y4" s="82"/>
       <c r="Z4" s="82" t="s">
-        <v>905</v>
+        <v>898</v>
       </c>
       <c r="AA4" s="82" t="s">
-        <v>906</v>
+        <v>899</v>
       </c>
       <c r="AB4" s="82"/>
       <c r="AC4" s="82" t="s">
@@ -39913,7 +39950,7 @@
       </c>
       <c r="F5" s="82"/>
       <c r="G5" s="82" t="s">
-        <v>907</v>
+        <v>900</v>
       </c>
       <c r="H5" s="82"/>
       <c r="I5" s="82" t="s">
@@ -39931,7 +39968,7 @@
       </c>
       <c r="N5" s="82"/>
       <c r="O5" s="82" t="s">
-        <v>908</v>
+        <v>901</v>
       </c>
       <c r="P5" s="83"/>
       <c r="Q5" s="82"/>
@@ -39948,7 +39985,7 @@
       <c r="X5" s="82"/>
       <c r="Y5" s="82"/>
       <c r="Z5" s="82" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="AA5" s="82"/>
       <c r="AB5" s="82"/>
@@ -39992,7 +40029,7 @@
       </c>
       <c r="F6" s="82"/>
       <c r="G6" s="82" t="s">
-        <v>909</v>
+        <v>902</v>
       </c>
       <c r="H6" s="82"/>
       <c r="I6" s="82"/>
@@ -40063,7 +40100,7 @@
       </c>
       <c r="F7" s="82"/>
       <c r="G7" s="82" t="s">
-        <v>910</v>
+        <v>903</v>
       </c>
       <c r="H7" s="82"/>
       <c r="I7" s="82"/>
@@ -40132,7 +40169,7 @@
       </c>
       <c r="F8" s="82"/>
       <c r="G8" s="82" t="s">
-        <v>911</v>
+        <v>904</v>
       </c>
       <c r="H8" s="82"/>
       <c r="I8" s="82"/>
@@ -40201,7 +40238,7 @@
       </c>
       <c r="F9" s="82"/>
       <c r="G9" s="82" t="s">
-        <v>912</v>
+        <v>905</v>
       </c>
       <c r="H9" s="82"/>
       <c r="I9" s="82"/>
@@ -40270,7 +40307,7 @@
       </c>
       <c r="F10" s="82"/>
       <c r="G10" s="82" t="s">
-        <v>913</v>
+        <v>906</v>
       </c>
       <c r="H10" s="82"/>
       <c r="I10" s="82"/>
@@ -40339,7 +40376,7 @@
       </c>
       <c r="F11" s="82"/>
       <c r="G11" s="82" t="s">
-        <v>914</v>
+        <v>907</v>
       </c>
       <c r="H11" s="82"/>
       <c r="I11" s="82"/>
@@ -40408,7 +40445,7 @@
       </c>
       <c r="F12" s="82"/>
       <c r="G12" s="82" t="s">
-        <v>915</v>
+        <v>908</v>
       </c>
       <c r="H12" s="82"/>
       <c r="I12" s="82"/>
@@ -40475,7 +40512,7 @@
       </c>
       <c r="F13" s="82"/>
       <c r="G13" s="82" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="H13" s="82"/>
       <c r="I13" s="82"/>
@@ -40542,7 +40579,7 @@
       </c>
       <c r="F14" s="82"/>
       <c r="G14" s="82" t="s">
-        <v>917</v>
+        <v>910</v>
       </c>
       <c r="H14" s="82"/>
       <c r="I14" s="82"/>
@@ -40676,7 +40713,7 @@
       </c>
       <c r="F16" s="82"/>
       <c r="G16" s="82" t="s">
-        <v>918</v>
+        <v>911</v>
       </c>
       <c r="H16" s="82"/>
       <c r="I16" s="82"/>
@@ -40743,7 +40780,7 @@
       </c>
       <c r="F17" s="82"/>
       <c r="G17" s="82" t="s">
-        <v>919</v>
+        <v>912</v>
       </c>
       <c r="H17" s="82"/>
       <c r="I17" s="82"/>
@@ -40810,7 +40847,7 @@
       </c>
       <c r="F18" s="82"/>
       <c r="G18" s="82" t="s">
-        <v>920</v>
+        <v>913</v>
       </c>
       <c r="H18" s="82"/>
       <c r="I18" s="82"/>
@@ -40877,7 +40914,7 @@
       </c>
       <c r="F19" s="82"/>
       <c r="G19" s="82" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="H19" s="82"/>
       <c r="I19" s="82"/>
@@ -40944,7 +40981,7 @@
       </c>
       <c r="F20" s="82"/>
       <c r="G20" s="82" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="H20" s="82"/>
       <c r="I20" s="82"/>
@@ -41011,7 +41048,7 @@
       </c>
       <c r="F21" s="82"/>
       <c r="G21" s="82" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="H21" s="82"/>
       <c r="I21" s="82"/>
@@ -41078,7 +41115,7 @@
       </c>
       <c r="F22" s="82"/>
       <c r="G22" s="82" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="H22" s="82"/>
       <c r="I22" s="82"/>
@@ -41145,7 +41182,7 @@
       </c>
       <c r="F23" s="82"/>
       <c r="G23" s="82" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="H23" s="82"/>
       <c r="I23" s="82"/>
@@ -41212,7 +41249,7 @@
       </c>
       <c r="F24" s="82"/>
       <c r="G24" s="82" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="H24" s="82"/>
       <c r="I24" s="82"/>
@@ -42662,7 +42699,7 @@
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -42680,10 +42717,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -42691,10 +42728,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="36"/>
@@ -42704,10 +42741,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="36"/>
@@ -42717,10 +42754,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="36"/>
@@ -42730,10 +42767,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="36"/>
@@ -42743,10 +42780,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="71" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C7" s="71" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
@@ -42756,10 +42793,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="D8" s="34"/>
       <c r="E8" s="34"/>
@@ -42769,10 +42806,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -42782,10 +42819,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>833</v>
+        <v>826</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -42795,10 +42832,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>975</v>
+        <v>968</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>976</v>
+        <v>969</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -43177,16 +43214,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="79" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="B1" s="79" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="81"/>
       <c r="B2" s="81" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -43652,7 +43689,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -43685,7 +43722,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -43693,16 +43730,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -43714,7 +43751,7 @@
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -43725,16 +43762,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="106" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -43746,7 +43783,7 @@
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -43758,7 +43795,7 @@
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -43770,7 +43807,7 @@
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -43782,7 +43819,7 @@
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -43794,7 +43831,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -43806,7 +43843,7 @@
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -43818,7 +43855,7 @@
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -43830,7 +43867,7 @@
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -43842,7 +43879,7 @@
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -43854,7 +43891,7 @@
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -43866,7 +43903,7 @@
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -43878,7 +43915,7 @@
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -43890,7 +43927,7 @@
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -43902,7 +43939,7 @@
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -43914,7 +43951,7 @@
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -43926,7 +43963,7 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -43938,7 +43975,7 @@
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -43950,7 +43987,7 @@
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -43962,7 +43999,7 @@
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
@@ -43974,7 +44011,7 @@
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
@@ -43986,7 +44023,7 @@
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
@@ -43998,7 +44035,7 @@
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -44010,7 +44047,7 @@
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -44022,7 +44059,7 @@
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34" t="s">
-        <v>836</v>
+        <v>829</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -44034,7 +44071,7 @@
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34" t="s">
-        <v>837</v>
+        <v>830</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -44046,7 +44083,7 @@
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -44058,7 +44095,7 @@
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -44070,7 +44107,7 @@
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -44082,7 +44119,7 @@
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -44094,7 +44131,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34" t="s">
-        <v>838</v>
+        <v>831</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
@@ -44106,7 +44143,7 @@
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="1" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -44118,7 +44155,7 @@
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="1" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
@@ -44130,7 +44167,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
       <c r="E38" s="1" t="s">
-        <v>997</v>
+        <v>990</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -44142,7 +44179,7 @@
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
       <c r="E39" s="1" t="s">
-        <v>1000</v>
+        <v>993</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
@@ -44154,7 +44191,7 @@
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="1" t="s">
-        <v>998</v>
+        <v>991</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
@@ -44166,7 +44203,7 @@
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
       <c r="E41" s="1" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -44178,7 +44215,7 @@
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
       <c r="E42" s="1" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -44190,7 +44227,7 @@
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
       <c r="E43" s="1" t="s">
-        <v>999</v>
+        <v>992</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -44202,7 +44239,7 @@
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -44214,7 +44251,7 @@
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34" t="s">
-        <v>964</v>
+        <v>957</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
@@ -44226,7 +44263,7 @@
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
       <c r="E46" s="34" t="s">
-        <v>965</v>
+        <v>958</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
@@ -44237,16 +44274,16 @@
         <v>5</v>
       </c>
       <c r="B47" s="106" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C47" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D47" s="34" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="E47" s="34" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -44258,7 +44295,7 @@
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
       <c r="E48" s="34" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -44270,7 +44307,7 @@
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
       <c r="E49" s="34" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
@@ -44282,7 +44319,7 @@
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
       <c r="E50" s="34" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
@@ -44294,7 +44331,7 @@
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
       <c r="E51" s="34" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
@@ -44306,7 +44343,7 @@
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
@@ -44318,7 +44355,7 @@
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="34" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -44330,7 +44367,7 @@
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
       <c r="E54" s="34" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
@@ -44342,7 +44379,7 @@
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -44354,7 +44391,7 @@
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
@@ -44366,7 +44403,7 @@
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
       <c r="E57" s="34" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
@@ -44378,7 +44415,7 @@
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
@@ -44390,7 +44427,7 @@
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
@@ -44402,7 +44439,7 @@
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
@@ -44414,7 +44451,7 @@
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34" t="s">
-        <v>966</v>
+        <v>959</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
@@ -44426,7 +44463,7 @@
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="s">
-        <v>967</v>
+        <v>960</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
@@ -44437,16 +44474,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="C63" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
@@ -44458,7 +44495,7 @@
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
       <c r="E64" s="34" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
@@ -44470,7 +44507,7 @@
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
@@ -44482,7 +44519,7 @@
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
-        <v>847</v>
+        <v>840</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
@@ -44493,16 +44530,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="C67" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
@@ -44514,7 +44551,7 @@
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
@@ -44526,7 +44563,7 @@
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
@@ -44538,7 +44575,7 @@
       <c r="C70" s="34"/>
       <c r="D70" s="34"/>
       <c r="E70" s="34" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
@@ -44550,7 +44587,7 @@
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
@@ -44562,7 +44599,7 @@
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
       <c r="E72" s="34" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -44574,7 +44611,7 @@
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
@@ -44586,7 +44623,7 @@
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
@@ -44598,7 +44635,7 @@
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
@@ -44610,7 +44647,7 @@
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
@@ -44622,7 +44659,7 @@
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
@@ -44634,7 +44671,7 @@
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
@@ -44646,7 +44683,7 @@
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
@@ -44658,7 +44695,7 @@
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
@@ -44670,7 +44707,7 @@
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
       <c r="E81" s="34" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
@@ -44682,7 +44719,7 @@
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
       <c r="E82" s="34" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
@@ -44694,7 +44731,7 @@
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
@@ -44706,7 +44743,7 @@
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
@@ -44718,7 +44755,7 @@
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="E85" s="34" t="s">
-        <v>1053</v>
+        <v>1046</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -44730,7 +44767,7 @@
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="34" t="s">
-        <v>1054</v>
+        <v>1047</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
@@ -44741,16 +44778,16 @@
         <v>5</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D87" s="34" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="E87" s="34" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
@@ -44762,7 +44799,7 @@
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
       <c r="E88" s="34" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
@@ -44774,7 +44811,7 @@
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="34" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
@@ -44786,7 +44823,7 @@
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
@@ -44798,7 +44835,7 @@
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="34" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
@@ -44810,7 +44847,7 @@
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
       <c r="E92" s="34" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
@@ -44822,7 +44859,7 @@
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
       <c r="E93" s="34" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
@@ -44834,7 +44871,7 @@
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
       <c r="E94" s="34" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
@@ -44846,7 +44883,7 @@
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
       <c r="E95" s="34" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
@@ -44858,7 +44895,7 @@
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
       <c r="E96" s="34" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
@@ -44870,7 +44907,7 @@
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
       <c r="E97" s="34" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
@@ -44882,7 +44919,7 @@
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
       <c r="E98" s="34" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
@@ -44894,7 +44931,7 @@
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
       <c r="E99" s="34" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
@@ -44906,7 +44943,7 @@
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
       <c r="E100" s="34" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
@@ -44918,7 +44955,7 @@
       <c r="C101" s="34"/>
       <c r="D101" s="34"/>
       <c r="E101" s="34" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="34"/>
@@ -44930,7 +44967,7 @@
       <c r="C102" s="34"/>
       <c r="D102" s="34"/>
       <c r="E102" s="34" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
@@ -44942,7 +44979,7 @@
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
       <c r="E103" s="34" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
@@ -44954,7 +44991,7 @@
       <c r="C104" s="34"/>
       <c r="D104" s="34"/>
       <c r="E104" s="34" t="s">
-        <v>848</v>
+        <v>841</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
@@ -44966,7 +45003,7 @@
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
       <c r="E105" s="1" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
@@ -44978,7 +45015,7 @@
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
       <c r="E106" s="1" t="s">
-        <v>1016</v>
+        <v>1009</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
@@ -44990,7 +45027,7 @@
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
       <c r="E107" s="1" t="s">
-        <v>1011</v>
+        <v>1004</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="34"/>
@@ -45002,7 +45039,7 @@
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
       <c r="E108" s="1" t="s">
-        <v>1009</v>
+        <v>1002</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="34"/>
@@ -45014,7 +45051,7 @@
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
       <c r="E109" s="1" t="s">
-        <v>1012</v>
+        <v>1005</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
@@ -45026,7 +45063,7 @@
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
       <c r="E110" s="1" t="s">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="34"/>
@@ -45038,7 +45075,7 @@
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
       <c r="E111" s="1" t="s">
-        <v>1013</v>
+        <v>1006</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
@@ -45050,7 +45087,7 @@
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="1" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
@@ -45062,7 +45099,7 @@
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
       <c r="E113" s="1" t="s">
-        <v>1017</v>
+        <v>1010</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
@@ -45074,7 +45111,7 @@
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
       <c r="E114" s="34" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
@@ -45086,7 +45123,7 @@
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
       <c r="E115" s="34" t="s">
-        <v>968</v>
+        <v>961</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
@@ -45098,7 +45135,7 @@
       <c r="C116" s="34"/>
       <c r="D116" s="34"/>
       <c r="E116" s="34" t="s">
-        <v>969</v>
+        <v>962</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
@@ -45109,16 +45146,16 @@
         <v>5</v>
       </c>
       <c r="B117" s="106" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D117" s="34" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="E117" s="106" t="s">
-        <v>850</v>
+        <v>843</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
@@ -45130,7 +45167,7 @@
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
       <c r="E118" s="106" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34"/>
@@ -45142,7 +45179,7 @@
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
       <c r="E119" s="106" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="34"/>
@@ -45154,7 +45191,7 @@
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
       <c r="E120" s="106" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
@@ -45166,7 +45203,7 @@
       <c r="C121" s="34"/>
       <c r="D121" s="34"/>
       <c r="E121" s="106" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="34"/>
@@ -45178,7 +45215,7 @@
       <c r="C122" s="34"/>
       <c r="D122" s="34"/>
       <c r="E122" s="106" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="34"/>
@@ -45190,7 +45227,7 @@
       <c r="C123" s="34"/>
       <c r="D123" s="34"/>
       <c r="E123" s="106" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F123" s="34"/>
       <c r="G123" s="34"/>
@@ -45202,7 +45239,7 @@
       <c r="C124" s="34"/>
       <c r="D124" s="34"/>
       <c r="E124" s="106" t="s">
-        <v>851</v>
+        <v>844</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="34"/>
@@ -45214,7 +45251,7 @@
       <c r="C125" s="34"/>
       <c r="D125" s="34"/>
       <c r="E125" s="106" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="34"/>
@@ -45226,7 +45263,7 @@
       <c r="C126" s="34"/>
       <c r="D126" s="34"/>
       <c r="E126" s="106" t="s">
-        <v>852</v>
+        <v>845</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="34"/>
@@ -45238,7 +45275,7 @@
       <c r="C127" s="34"/>
       <c r="D127" s="34"/>
       <c r="E127" s="106" t="s">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="F127" s="34"/>
       <c r="G127" s="34"/>
@@ -45250,7 +45287,7 @@
       <c r="C128" s="34"/>
       <c r="D128" s="34"/>
       <c r="E128" s="106" t="s">
-        <v>854</v>
+        <v>847</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="34"/>
@@ -45262,7 +45299,7 @@
       <c r="C129" s="34"/>
       <c r="D129" s="34"/>
       <c r="E129" s="106" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="34"/>
@@ -45274,7 +45311,7 @@
       <c r="C130" s="34"/>
       <c r="D130" s="34"/>
       <c r="E130" s="34" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="34"/>
@@ -45286,7 +45323,7 @@
       <c r="C131" s="34"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="34"/>
@@ -45298,7 +45335,7 @@
       <c r="C132" s="34"/>
       <c r="D132" s="34"/>
       <c r="E132" s="34" t="s">
-        <v>855</v>
+        <v>848</v>
       </c>
       <c r="F132" s="34"/>
       <c r="G132" s="34"/>
@@ -45310,7 +45347,7 @@
       <c r="C133" s="34"/>
       <c r="D133" s="34"/>
       <c r="E133" s="34" t="s">
-        <v>856</v>
+        <v>849</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="34"/>
@@ -45322,7 +45359,7 @@
       <c r="C134" s="34"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="34"/>
@@ -45333,16 +45370,16 @@
         <v>5</v>
       </c>
       <c r="B135" s="106" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D135" s="34" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E135" s="34" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="34"/>
@@ -45354,7 +45391,7 @@
       <c r="C136" s="34"/>
       <c r="D136" s="34"/>
       <c r="E136" s="34" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="34"/>
@@ -45366,7 +45403,7 @@
       <c r="C137" s="34"/>
       <c r="D137" s="34"/>
       <c r="E137" s="34" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="34"/>
@@ -45378,7 +45415,7 @@
       <c r="C138" s="34"/>
       <c r="D138" s="34"/>
       <c r="E138" s="34" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="34"/>
@@ -45390,7 +45427,7 @@
       <c r="C139" s="34"/>
       <c r="D139" s="34"/>
       <c r="E139" s="34" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="34"/>
@@ -45402,7 +45439,7 @@
       <c r="C140" s="34"/>
       <c r="D140" s="34"/>
       <c r="E140" s="34" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="34"/>
@@ -45414,7 +45451,7 @@
       <c r="C141" s="34"/>
       <c r="D141" s="34"/>
       <c r="E141" s="34" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="F141" s="34"/>
       <c r="G141" s="34"/>
@@ -45426,7 +45463,7 @@
       <c r="C142" s="34"/>
       <c r="D142" s="34"/>
       <c r="E142" s="34" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="F142" s="34"/>
       <c r="G142" s="34"/>
@@ -45438,7 +45475,7 @@
       <c r="C143" s="34"/>
       <c r="D143" s="34"/>
       <c r="E143" s="34" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="F143" s="34"/>
       <c r="G143" s="34"/>
@@ -45450,7 +45487,7 @@
       <c r="C144" s="34"/>
       <c r="D144" s="34"/>
       <c r="E144" s="34" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="F144" s="34"/>
       <c r="G144" s="34"/>
@@ -45462,7 +45499,7 @@
       <c r="C145" s="34"/>
       <c r="D145" s="34"/>
       <c r="E145" s="34" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="F145" s="34"/>
       <c r="G145" s="34"/>
@@ -45474,7 +45511,7 @@
       <c r="C146" s="34"/>
       <c r="D146" s="34"/>
       <c r="E146" s="1" t="s">
-        <v>1019</v>
+        <v>1012</v>
       </c>
       <c r="F146" s="34"/>
       <c r="G146" s="34"/>
@@ -45486,7 +45523,7 @@
       <c r="C147" s="34"/>
       <c r="D147" s="34"/>
       <c r="E147" s="1" t="s">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="34"/>
@@ -45498,7 +45535,7 @@
       <c r="C148" s="34"/>
       <c r="D148" s="34"/>
       <c r="E148" s="1" t="s">
-        <v>1021</v>
+        <v>1014</v>
       </c>
       <c r="F148" s="34"/>
       <c r="G148" s="34"/>
@@ -45510,7 +45547,7 @@
       <c r="C149" s="34"/>
       <c r="D149" s="34"/>
       <c r="E149" s="1" t="s">
-        <v>1023</v>
+        <v>1016</v>
       </c>
       <c r="F149" s="34"/>
       <c r="G149" s="34"/>
@@ -45522,7 +45559,7 @@
       <c r="C150" s="34"/>
       <c r="D150" s="34"/>
       <c r="E150" s="1" t="s">
-        <v>1022</v>
+        <v>1015</v>
       </c>
       <c r="F150" s="34"/>
       <c r="G150" s="34"/>
@@ -45534,7 +45571,7 @@
       <c r="C151" s="34"/>
       <c r="D151" s="34"/>
       <c r="E151" s="1" t="s">
-        <v>1024</v>
+        <v>1017</v>
       </c>
       <c r="F151" s="34"/>
       <c r="G151" s="34"/>
@@ -45546,7 +45583,7 @@
       <c r="C152" s="34"/>
       <c r="D152" s="34"/>
       <c r="E152" s="1" t="s">
-        <v>1025</v>
+        <v>1018</v>
       </c>
       <c r="F152" s="34"/>
       <c r="G152" s="34"/>
@@ -45558,7 +45595,7 @@
       <c r="C153" s="34"/>
       <c r="D153" s="34"/>
       <c r="E153" s="34" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="F153" s="34"/>
       <c r="G153" s="34"/>
@@ -45570,7 +45607,7 @@
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
       <c r="E154" s="34" t="s">
-        <v>970</v>
+        <v>963</v>
       </c>
       <c r="F154" s="34"/>
       <c r="G154" s="34"/>
@@ -45582,7 +45619,7 @@
       <c r="C155" s="34"/>
       <c r="D155" s="34"/>
       <c r="E155" s="34" t="s">
-        <v>1018</v>
+        <v>1011</v>
       </c>
       <c r="F155" s="34"/>
       <c r="G155" s="34"/>
@@ -45593,16 +45630,16 @@
         <v>5</v>
       </c>
       <c r="B156" s="34" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="C156" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D156" s="34" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="E156" s="34" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="F156" s="34"/>
       <c r="G156" s="34"/>
@@ -45613,16 +45650,16 @@
         <v>5</v>
       </c>
       <c r="B157" s="98" t="s">
-        <v>971</v>
+        <v>964</v>
       </c>
       <c r="C157" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D157" s="34" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
       <c r="E157" s="34" t="s">
-        <v>973</v>
+        <v>966</v>
       </c>
       <c r="F157" s="34"/>
       <c r="G157" s="34"/>
@@ -45634,7 +45671,7 @@
       <c r="C158" s="34"/>
       <c r="D158" s="34"/>
       <c r="E158" s="34" t="s">
-        <v>974</v>
+        <v>967</v>
       </c>
       <c r="F158" s="34"/>
       <c r="G158" s="34"/>
@@ -45645,16 +45682,16 @@
         <v>5</v>
       </c>
       <c r="B159" s="106" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C159" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D159" s="34" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="E159" s="34" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="F159" s="34"/>
       <c r="G159" s="34"/>
@@ -45666,7 +45703,7 @@
       <c r="C160" s="34"/>
       <c r="D160" s="34"/>
       <c r="E160" s="34" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
       <c r="F160" s="34"/>
       <c r="G160" s="34"/>
@@ -45678,7 +45715,7 @@
       <c r="C161" s="34"/>
       <c r="D161" s="34"/>
       <c r="E161" s="34" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="F161" s="34"/>
       <c r="G161" s="34"/>
@@ -45690,7 +45727,7 @@
       <c r="C162" s="34"/>
       <c r="D162" s="34"/>
       <c r="E162" s="34" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="F162" s="34"/>
       <c r="G162" s="34"/>
@@ -45702,7 +45739,7 @@
       <c r="C163" s="34"/>
       <c r="D163" s="34"/>
       <c r="E163" s="34" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="F163" s="34"/>
       <c r="G163" s="34"/>
@@ -45714,7 +45751,7 @@
       <c r="C164" s="34"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="F164" s="34"/>
       <c r="G164" s="34"/>
@@ -45726,7 +45763,7 @@
       <c r="C165" s="34"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
@@ -45738,7 +45775,7 @@
       <c r="C166" s="34"/>
       <c r="D166" s="34"/>
       <c r="E166" s="34" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="34"/>
@@ -45750,7 +45787,7 @@
       <c r="C167" s="34"/>
       <c r="D167" s="34"/>
       <c r="E167" s="34" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="F167" s="34"/>
       <c r="G167" s="34"/>
@@ -45762,7 +45799,7 @@
       <c r="C168" s="34"/>
       <c r="D168" s="34"/>
       <c r="E168" s="34" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="F168" s="34"/>
       <c r="G168" s="34"/>
@@ -45774,7 +45811,7 @@
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>
       <c r="E169" s="34" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F169" s="34"/>
       <c r="G169" s="34"/>
@@ -45786,7 +45823,7 @@
       <c r="C170" s="34"/>
       <c r="D170" s="34"/>
       <c r="E170" s="34" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="F170" s="34"/>
       <c r="G170" s="34"/>
@@ -45798,7 +45835,7 @@
       <c r="C171" s="34"/>
       <c r="D171" s="34"/>
       <c r="E171" s="34" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="F171" s="34"/>
       <c r="G171" s="34"/>
@@ -45810,7 +45847,7 @@
       <c r="C172" s="34"/>
       <c r="D172" s="34"/>
       <c r="E172" s="34" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="F172" s="34"/>
       <c r="G172" s="34"/>
@@ -45822,7 +45859,7 @@
       <c r="C173" s="34"/>
       <c r="D173" s="34"/>
       <c r="E173" s="34" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="F173" s="34"/>
       <c r="G173" s="34"/>
@@ -45834,7 +45871,7 @@
       <c r="C174" s="34"/>
       <c r="D174" s="34"/>
       <c r="E174" s="34" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F174" s="34"/>
       <c r="G174" s="34"/>
@@ -45846,7 +45883,7 @@
       <c r="C175" s="34"/>
       <c r="D175" s="34"/>
       <c r="E175" s="34" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="F175" s="34"/>
       <c r="G175" s="34"/>
@@ -45858,7 +45895,7 @@
       <c r="C176" s="34"/>
       <c r="D176" s="34"/>
       <c r="E176" s="34" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="F176" s="34"/>
       <c r="G176" s="34"/>
@@ -45870,7 +45907,7 @@
       <c r="C177" s="34"/>
       <c r="D177" s="34"/>
       <c r="E177" s="34" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="F177" s="34"/>
       <c r="G177" s="34"/>
@@ -45882,7 +45919,7 @@
       <c r="C178" s="34"/>
       <c r="D178" s="34"/>
       <c r="E178" s="34" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
@@ -45894,7 +45931,7 @@
       <c r="C179" s="34"/>
       <c r="D179" s="34"/>
       <c r="E179" s="34" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
@@ -45906,7 +45943,7 @@
       <c r="C180" s="34"/>
       <c r="D180" s="34"/>
       <c r="E180" s="34" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
@@ -45918,7 +45955,7 @@
       <c r="C181" s="34"/>
       <c r="D181" s="34"/>
       <c r="E181" s="34" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="F181" s="34"/>
       <c r="G181" s="34"/>
@@ -45930,7 +45967,7 @@
       <c r="C182" s="34"/>
       <c r="D182" s="34"/>
       <c r="E182" s="34" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F182" s="34"/>
       <c r="G182" s="34"/>
@@ -45942,7 +45979,7 @@
       <c r="C183" s="34"/>
       <c r="D183" s="34"/>
       <c r="E183" s="34" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="F183" s="34"/>
       <c r="G183" s="34"/>
@@ -45954,7 +45991,7 @@
       <c r="C184" s="34"/>
       <c r="D184" s="34"/>
       <c r="E184" s="34" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="F184" s="34"/>
       <c r="G184" s="34"/>
@@ -45966,7 +46003,7 @@
       <c r="C185" s="34"/>
       <c r="D185" s="34"/>
       <c r="E185" s="34" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F185" s="34"/>
       <c r="G185" s="34"/>
@@ -45978,7 +46015,7 @@
       <c r="C186" s="34"/>
       <c r="D186" s="34"/>
       <c r="E186" s="34" t="s">
-        <v>1001</v>
+        <v>994</v>
       </c>
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
@@ -45990,7 +46027,7 @@
       <c r="C187" s="34"/>
       <c r="D187" s="34"/>
       <c r="E187" s="34" t="s">
-        <v>1002</v>
+        <v>995</v>
       </c>
       <c r="F187" s="34"/>
       <c r="G187" s="34"/>
@@ -46002,7 +46039,7 @@
       <c r="C188" s="34"/>
       <c r="D188" s="34"/>
       <c r="E188" s="34" t="s">
-        <v>1003</v>
+        <v>996</v>
       </c>
       <c r="F188" s="34"/>
       <c r="G188" s="34"/>
@@ -46014,7 +46051,7 @@
       <c r="C189" s="34"/>
       <c r="D189" s="34"/>
       <c r="E189" s="34" t="s">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="F189" s="34"/>
       <c r="G189" s="34"/>
@@ -46026,7 +46063,7 @@
       <c r="C190" s="34"/>
       <c r="D190" s="34"/>
       <c r="E190" s="34" t="s">
-        <v>1005</v>
+        <v>998</v>
       </c>
       <c r="F190" s="34"/>
       <c r="G190" s="34"/>
@@ -46038,7 +46075,7 @@
       <c r="C191" s="34"/>
       <c r="D191" s="34"/>
       <c r="E191" s="34" t="s">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="F191" s="34"/>
       <c r="G191" s="34"/>
@@ -46050,7 +46087,7 @@
       <c r="C192" s="34"/>
       <c r="D192" s="34"/>
       <c r="E192" s="34" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="F192" s="34"/>
       <c r="G192" s="34"/>
@@ -46062,7 +46099,7 @@
       <c r="C193" s="34"/>
       <c r="D193" s="34"/>
       <c r="E193" s="34" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
       <c r="F193" s="34"/>
       <c r="G193" s="34"/>
@@ -46074,7 +46111,7 @@
       <c r="C194" s="34"/>
       <c r="D194" s="34"/>
       <c r="E194" s="34" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="F194" s="34"/>
       <c r="G194" s="34"/>
@@ -46086,7 +46123,7 @@
       <c r="C195" s="34"/>
       <c r="D195" s="34"/>
       <c r="E195" s="34" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
       <c r="F195" s="34"/>
       <c r="G195" s="34"/>
@@ -46098,7 +46135,7 @@
       <c r="C196" s="34"/>
       <c r="D196" s="34"/>
       <c r="E196" s="34" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="F196" s="34"/>
       <c r="G196" s="34"/>
@@ -46110,7 +46147,7 @@
       <c r="C197" s="71"/>
       <c r="D197" s="71"/>
       <c r="E197" s="71" t="s">
-        <v>1007</v>
+        <v>1000</v>
       </c>
       <c r="F197" s="71"/>
       <c r="G197" s="71"/>
@@ -46118,7 +46155,7 @@
     </row>
     <row r="198" spans="1:8" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="E198" s="34" t="s">
-        <v>1008</v>
+        <v>1001</v>
       </c>
     </row>
   </sheetData>
@@ -46193,7 +46230,7 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C109:C110 C44:C83 C148:C149</xm:sqref>
+          <xm:sqref>C109:C110 C148:C149 C44:C83</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000010000000}">
           <x14:formula1>
@@ -46205,13 +46242,13 @@
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C113 C111 C152 C150</xm:sqref>
+          <xm:sqref>C113 C150 C152 C111</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000016000000}">
           <x14:formula1>
             <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C107 C41:C43 C146</xm:sqref>
+          <xm:sqref>C107 C146 C41:C43</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000019000000}">
           <x14:formula1>
@@ -46263,10 +46300,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46278,14 +46315,13 @@
     <col min="5" max="5" width="9.83203125" style="35" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" style="35" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" style="35" customWidth="1"/>
-    <col min="8" max="8" width="21" style="35" customWidth="1"/>
-    <col min="9" max="9" width="23.83203125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="31.83203125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="41.1640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="131.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -46293,13 +46329,12 @@
       <c r="E1" s="116"/>
       <c r="F1" s="117"/>
       <c r="G1" s="118" t="s">
-        <v>480</v>
+        <v>1069</v>
       </c>
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
-      <c r="J1" s="120"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
         <v>0</v>
       </c>
@@ -46325,73 +46360,64 @@
         <v>298</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>445</v>
-      </c>
-      <c r="J2" s="40" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="35" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="35" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G3" s="34" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="34"/>
       <c r="I3" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="73" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>977</v>
+        <v>970</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="G4" s="34" t="b">
         <v>0</v>
       </c>
       <c r="H4" s="34"/>
       <c r="I4" s="34" t="s">
-        <v>416</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
@@ -46403,79 +46429,72 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="41"/>
-      <c r="J5" s="42"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="69" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C6" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="E6" s="69" t="s">
         <v>301</v>
-      </c>
-      <c r="E6" s="69" t="s">
-        <v>302</v>
       </c>
       <c r="F6" s="69"/>
       <c r="G6" s="69" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="69" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="J6" s="69" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C7" s="69" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="69" t="s">
         <v>300</v>
       </c>
-      <c r="D7" s="69" t="s">
-        <v>301</v>
-      </c>
       <c r="E7" s="69" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F7" s="69"/>
       <c r="G7" s="69" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="69" t="s">
-        <v>446</v>
-      </c>
-      <c r="I7" s="69" t="s">
-        <v>364</v>
-      </c>
-      <c r="J7" s="69"/>
-    </row>
-    <row r="8" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>442</v>
+      </c>
+      <c r="I7" s="69"/>
+    </row>
+    <row r="8" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D8" s="69"/>
       <c r="E8" s="69" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F8" s="69"/>
       <c r="G8" s="69" t="b">
@@ -46483,23 +46502,22 @@
       </c>
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-    </row>
-    <row r="9" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C9" s="69" t="s">
         <v>94</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E9" s="69" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F9" s="69"/>
       <c r="G9" s="69" t="b">
@@ -46507,23 +46525,22 @@
       </c>
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C10" s="69" t="s">
         <v>94</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F10" s="69"/>
       <c r="G10" s="69" t="b">
@@ -46531,49 +46548,45 @@
       </c>
       <c r="H10" s="69"/>
       <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-    </row>
-    <row r="11" spans="1:10" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C11" s="69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D11" s="69"/>
       <c r="E11" s="69" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F11" s="69" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G11" s="69" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="69"/>
       <c r="I11" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="J11" s="69" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C12" s="69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="69" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F12" s="69"/>
       <c r="G12" s="69" t="b">
@@ -46581,21 +46594,20 @@
       </c>
       <c r="H12" s="69"/>
       <c r="I12" s="69"/>
-      <c r="J12" s="69"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D13" s="69"/>
       <c r="E13" s="69" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F13" s="69"/>
       <c r="G13" s="69" t="b">
@@ -46603,21 +46615,20 @@
       </c>
       <c r="H13" s="69"/>
       <c r="I13" s="69"/>
-      <c r="J13" s="69"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="69" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C14" s="69" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D14" s="69"/>
       <c r="E14" s="69" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F14" s="69"/>
       <c r="G14" s="69" t="b">
@@ -46625,14 +46636,13 @@
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="69" t="s">
-        <v>381</v>
-      </c>
-      <c r="J14" s="69"/>
+        <v>378</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="This field is equivalent to specifying a list of values to Defined Tags during its creation (in OCI Console)._x000a__x000a_For entering values of type &quot;list&quot; use ENUM::&lt;values in double quotes separated by comma&gt;._x000a__x000a_For type &quot;string&quot; use ENUM::&quot;&lt;value&gt;&quot;." sqref="H4:H500" xr:uid="{00000000-0002-0000-0400-000000000000}"/>
@@ -46699,7 +46709,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>1056</v>
+        <v>1049</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
@@ -46707,7 +46717,7 @@
       <c r="E1" s="116"/>
       <c r="F1" s="117"/>
       <c r="G1" s="115" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H1" s="116"/>
       <c r="I1" s="116"/>
@@ -46726,7 +46736,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1055</v>
+        <v>1048</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -46750,24 +46760,24 @@
         <v>18</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>21</v>
@@ -46779,23 +46789,23 @@
         <v>21</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>22</v>
@@ -46813,23 +46823,23 @@
         <v>21</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>24</v>
@@ -46847,10 +46857,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="30"/>
@@ -46876,7 +46886,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="69" t="s">
         <v>19</v>
@@ -46885,7 +46895,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="69" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="F7" s="69" t="s">
         <v>23</v>
@@ -46897,16 +46907,16 @@
         <v>21</v>
       </c>
       <c r="I7" s="69" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="J7" s="69" t="s">
-        <v>1030</v>
+        <v>1023</v>
       </c>
       <c r="K7" s="69" t="s">
-        <v>1029</v>
+        <v>1022</v>
       </c>
       <c r="L7" s="70" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -46914,10 +46924,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>22</v>
@@ -46935,10 +46945,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="69" t="s">
-        <v>1028</v>
+        <v>1021</v>
       </c>
       <c r="J8" s="69" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
@@ -46948,10 +46958,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D9" s="69" t="s">
         <v>24</v>
@@ -46969,10 +46979,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="69" t="s">
-        <v>1027</v>
+        <v>1020</v>
       </c>
       <c r="J9" s="69" t="s">
-        <v>1026</v>
+        <v>1019</v>
       </c>
       <c r="K9" s="69"/>
       <c r="L9" s="69"/>
@@ -47011,17 +47021,17 @@
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="115" t="s">
-        <v>830</v>
+        <v>823</v>
       </c>
       <c r="B1" s="116"/>
       <c r="C1" s="116"/>
       <c r="D1" s="116"/>
       <c r="E1" s="116"/>
-      <c r="F1" s="121" t="s">
-        <v>831</v>
-      </c>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
+      <c r="F1" s="120" t="s">
+        <v>824</v>
+      </c>
+      <c r="G1" s="121"/>
+      <c r="H1" s="121"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="75" t="s">
@@ -47031,45 +47041,45 @@
         <v>6</v>
       </c>
       <c r="C2" s="75" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="D2" s="75" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="E2" s="75" t="s">
-        <v>824</v>
+        <v>817</v>
       </c>
       <c r="F2" s="76" t="s">
-        <v>825</v>
+        <v>818</v>
       </c>
       <c r="G2" s="77" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="H2" s="109" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>1038</v>
+        <v>1031</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="H3" s="36"/>
     </row>
@@ -47373,9 +47383,9 @@
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B1" s="120"/>
+        <v>1056</v>
+      </c>
+      <c r="B1" s="122"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -47390,7 +47400,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>1039</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -47439,7 +47449,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="114" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B1" s="114"/>
       <c r="C1" s="114"/>
@@ -47472,18 +47482,18 @@
         <v>34</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>35</v>
@@ -47492,20 +47502,20 @@
         <v>38</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>1042</v>
+        <v>1035</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>35</v>
@@ -47514,20 +47524,20 @@
         <v>38</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>1041</v>
+        <v>1034</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>35</v>
@@ -47536,7 +47546,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>1040</v>
+        <v>1033</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
@@ -47558,7 +47568,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="69" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C7" s="69" t="s">
         <v>19</v>
@@ -47573,10 +47583,10 @@
         <v>37</v>
       </c>
       <c r="G7" s="69" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="H7" s="70" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47584,10 +47594,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="69" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C8" s="69" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>35</v>
@@ -47606,13 +47616,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="69" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C9" s="69" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D9" s="69" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E9" s="69" t="s">
         <v>38</v>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10911"/>
   <workbookPr updateLinks="never" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E7D261A-1981-EB45-92EB-A0CA588B45CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B4C1E3-2E26-1748-A7B0-3187F84522FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,6 @@
     <externalReference r:id="rId40"/>
     <externalReference r:id="rId41"/>
     <externalReference r:id="rId42"/>
-    <externalReference r:id="rId43"/>
   </externalReferences>
   <definedNames>
     <definedName name="Action_Values" localSheetId="21">'LB Rule Set Dropdown'!$A$2:$A$12</definedName>
@@ -67,44 +66,44 @@
     <definedName name="bm_shapes_drop" localSheetId="6">[2]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="32">[3]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="bm_shapes_drop" localSheetId="30">[4]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="24">[9]Database_Dropdown!#REF!</definedName>
-    <definedName name="bm_shapes_drop" localSheetId="23">[9]Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="24">[5]Database_Dropdown!#REF!</definedName>
+    <definedName name="bm_shapes_drop" localSheetId="23">[5]Database_Dropdown!#REF!</definedName>
     <definedName name="bm_shapes_drop">Database_Dropdown!#REF!</definedName>
     <definedName name="char_set" localSheetId="10">[1]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="6">[2]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="32">[3]Database_Dropdown!$I$2:$I$108</definedName>
     <definedName name="char_set" localSheetId="30">[4]Database_Dropdown!$I$2:$I$108</definedName>
-    <definedName name="char_set" localSheetId="24">[9]Database_Dropdown!$H$2:$H$108</definedName>
-    <definedName name="char_set" localSheetId="23">[9]Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="24">[5]Database_Dropdown!$H$2:$H$108</definedName>
+    <definedName name="char_set" localSheetId="23">[5]Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="char_set">Database_Dropdown!$H$2:$H$108</definedName>
     <definedName name="D3D1000">'DBSystems-VM-BM'!$D$3</definedName>
     <definedName name="db_sersion_drop" localSheetId="10">[1]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="6">[2]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="32">[3]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop" localSheetId="30">[4]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="24">[9]Database_Dropdown!$C$2:$C$14</definedName>
-    <definedName name="db_sersion_drop" localSheetId="23">[9]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="24">[5]Database_Dropdown!$C$2:$C$14</definedName>
+    <definedName name="db_sersion_drop" localSheetId="23">[5]Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="db_sersion_drop">Database_Dropdown!$C$2:$C$14</definedName>
     <definedName name="exa_shapes_drop" localSheetId="10">[1]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="6">[2]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="32">[3]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="30">[4]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="24">[9]Database_Dropdown!$E$2:$E$11</definedName>
-    <definedName name="exa_shapes_drop" localSheetId="23">[9]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="24">[5]Database_Dropdown!$E$2:$E$11</definedName>
+    <definedName name="exa_shapes_drop" localSheetId="23">[5]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop">Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="Header_Size" localSheetId="10">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="6">'[2]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="32">'[3]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="30">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="24">'[9]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="23">'[9]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="24">'[5]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="23">'[5]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size">'LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="license_type_drop" localSheetId="10">[1]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="6">[2]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="32">[3]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="license_type_drop" localSheetId="30">[4]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="license_type_drop" localSheetId="24">[9]Database_Dropdown!$F$2:$F$3</definedName>
-    <definedName name="license_type_drop" localSheetId="23">[9]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="24">[5]Database_Dropdown!$F$2:$F$3</definedName>
+    <definedName name="license_type_drop" localSheetId="23">[5]Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="license_type_drop">Database_Dropdown!$F$2:$F$3</definedName>
     <definedName name="Match_Style" localSheetId="22">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
     <definedName name="Match_Style" localSheetId="21">'LB Rule Set Dropdown'!$C$2:$C$6</definedName>
@@ -112,15 +111,15 @@
     <definedName name="nchar_set" localSheetId="6">[2]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="32">[3]Database_Dropdown!$H$2:$H$3</definedName>
     <definedName name="nchar_set" localSheetId="30">[4]Database_Dropdown!$H$2:$H$3</definedName>
-    <definedName name="nchar_set" localSheetId="24">[9]Database_Dropdown!$G$2:$G$3</definedName>
-    <definedName name="nchar_set" localSheetId="23">[9]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="24">[5]Database_Dropdown!$G$2:$G$3</definedName>
+    <definedName name="nchar_set" localSheetId="23">[5]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set">Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="Response_Code" localSheetId="10">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="6">'[2]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="32">'[3]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="30">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="24">'[9]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="23">'[9]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="24">'[5]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="23">'[5]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code">'LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Shape_Option" localSheetId="29">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="26">#REF!</definedName>
@@ -132,13 +131,13 @@
     <definedName name="Shape_Option" localSheetId="24">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="23">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
-    <definedName name="Shape_Option_DB">[5]Database!$B$10:$J$10</definedName>
+    <definedName name="Shape_Option_DB">[6]Database!$B$10:$J$10</definedName>
     <definedName name="software_drop" localSheetId="10">[1]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="6">[2]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="32">[3]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="30">[4]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="24">[9]Database_Dropdown!$B$2:$B$5</definedName>
-    <definedName name="software_drop" localSheetId="23">[9]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="24">[5]Database_Dropdown!$B$2:$B$5</definedName>
+    <definedName name="software_drop" localSheetId="23">[5]Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop">Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="VM_Shapes" localSheetId="29">Database_Dropdown!$A$2:$A$12</definedName>
     <definedName name="VM_Shapes" localSheetId="10">#REF!</definedName>
@@ -148,15 +147,15 @@
     <definedName name="VM_shapes_drop" localSheetId="6">[2]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="32">[3]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop" localSheetId="30">[4]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="24">[9]Database_Dropdown!$A$2:$A$7</definedName>
-    <definedName name="VM_shapes_drop" localSheetId="23">[9]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="24">[5]Database_Dropdown!$A$2:$A$7</definedName>
+    <definedName name="VM_shapes_drop" localSheetId="23">[5]Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="VM_shapes_drop">Database_Dropdown!$A$2:$A$7</definedName>
     <definedName name="workload_drop" localSheetId="10">[1]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="6">[2]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="32">[3]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop" localSheetId="30">[4]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="24">[9]Database_Dropdown!$D$2:$D$3</definedName>
-    <definedName name="workload_drop" localSheetId="23">[9]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="24">[5]Database_Dropdown!$D$2:$D$3</definedName>
+    <definedName name="workload_drop" localSheetId="23">[5]Database_Dropdown!$D$2:$D$3</definedName>
     <definedName name="workload_drop">Database_Dropdown!$D$2:$D$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -7236,6 +7235,31 @@
     </r>
   </si>
   <si>
+    <t>root=${iam.principal.name}</t>
+  </si>
+  <si>
+    <t>root=${oci.datetime}</t>
+  </si>
+  <si>
+    <t>Network=ocs</t>
+  </si>
+  <si>
+    <t>Network::TCC=ocs-development</t>
+  </si>
+  <si>
+    <t>Oracle-Tags</t>
+  </si>
+  <si>
+    <t>SanJose</t>
+  </si>
+  <si>
+    <t>SaoPaulo</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">
+</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -7245,7 +7269,192 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>"Default Tag Compartment = Default Tag Value "</t>
+      <t>CD3 Automation Toolkit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Release - v9.2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Added Tabs for Network Load Balancers,</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>modified</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tags Tab to support default tags for multiple compartments
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Bastion</t>
+  </si>
+  <si>
+    <t>nonprod-vcn_nonprod-dmz</t>
+  </si>
+  <si>
+    <t>10.112.1.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
+</t>
+  </si>
+  <si>
+    <t>NLB Name</t>
+  </si>
+  <si>
+    <t>Backend Policy(FIVE_TUPLE|THREE_TUPLE|TWO_TUPLE)</t>
+  </si>
+  <si>
+    <t>Is Preserve Source(True|False)</t>
+  </si>
+  <si>
+    <t>Backend HealthCheck Protocol(HTTP|HTTPS|TCP|UDP)</t>
+  </si>
+  <si>
+    <t>NLB1</t>
+  </si>
+  <si>
+    <t>BS1-1</t>
+  </si>
+  <si>
+    <t>FIVE_TUPLE</t>
+  </si>
+  <si>
+    <t>/url1</t>
+  </si>
+  <si>
+    <t>CD3aaS&amp;CD3aaS-Dev-Instance-Venv:9,&amp;10.2.2.2:9</t>
+  </si>
+  <si>
+    <t>NLB2</t>
+  </si>
+  <si>
+    <t>BS2-1</t>
+  </si>
+  <si>
+    <t>TWO_TUPLE</t>
+  </si>
+  <si>
+    <t>UDP</t>
+  </si>
+  <si>
+    <t>CD3aaS&amp;cd3aas-new:1,CD3aaS&amp;test-360:10,&amp;10.0.0.144:10,CD3aaS&amp;grafana-vm:1</t>
+  </si>
+  <si>
+    <t>BS2-2</t>
+  </si>
+  <si>
+    <t>THREE_TUPLE</t>
+  </si>
+  <si>
+    <t>CD3aaS&amp;jump-vm:20,CD3aaS&amp;jump-vm2:20</t>
+  </si>
+  <si>
+    <t>Is Preserve Source Destination(True|False)</t>
+  </si>
+  <si>
+    <t>Reserved IP(Y|N|OCID)</t>
+  </si>
+  <si>
+    <t>Listener Protocol(UDP|TCP|UDP/TCP|Any)</t>
+  </si>
+  <si>
+    <t>Lis1-1</t>
+  </si>
+  <si>
+    <t>UDP/TCP</t>
+  </si>
+  <si>
+    <t>fwl-vcn_fwl-pub</t>
+  </si>
+  <si>
+    <t>NSG-App,NSG-LBR</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Lis2-1</t>
+  </si>
+  <si>
+    <t>Lis2-2</t>
+  </si>
+  <si>
+    <t>Default Tag Compartment=Default Tag Value</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Default Tag Compartment=Default Tag Value "</t>
     </r>
     <r>
       <rPr>
@@ -7342,216 +7551,6 @@
       </rPr>
       <t>: Tag key - 'internal' of row 5, the entries to columns till 'Namespace Description' will be automatically copied over from the row above it by the Tool Kit .</t>
     </r>
-  </si>
-  <si>
-    <t>root=${iam.principal.name}</t>
-  </si>
-  <si>
-    <t>root=${oci.datetime}</t>
-  </si>
-  <si>
-    <t>Network=ocs</t>
-  </si>
-  <si>
-    <t>Network::TCC=ocs-development</t>
-  </si>
-  <si>
-    <t>Default Tag Compartment = Default Tag Value</t>
-  </si>
-  <si>
-    <t>Oracle-Tags</t>
-  </si>
-  <si>
-    <t>SanJose</t>
-  </si>
-  <si>
-    <t>SaoPaulo</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>CD3 Automation Toolkit</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Release - v9.2
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Added Tabs for Network Load Balancers,</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>modified</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tags Tab to support default tags for multiple compartments
-</t>
-    </r>
-  </si>
-  <si>
-    <t>Bastion</t>
-  </si>
-  <si>
-    <t>nonprod-vcn_nonprod-dmz</t>
-  </si>
-  <si>
-    <t>10.112.1.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"># Rows after &lt;END&gt; will not be processed (Sample data is provided for reference after &lt;END&gt;);
-</t>
-  </si>
-  <si>
-    <t>NLB Name</t>
-  </si>
-  <si>
-    <t>Backend Policy(FIVE_TUPLE|THREE_TUPLE|TWO_TUPLE)</t>
-  </si>
-  <si>
-    <t>Is Preserve Source(True|False)</t>
-  </si>
-  <si>
-    <t>Backend HealthCheck Protocol(HTTP|HTTPS|TCP|UDP)</t>
-  </si>
-  <si>
-    <t>NLB1</t>
-  </si>
-  <si>
-    <t>BS1-1</t>
-  </si>
-  <si>
-    <t>FIVE_TUPLE</t>
-  </si>
-  <si>
-    <t>/url1</t>
-  </si>
-  <si>
-    <t>CD3aaS&amp;CD3aaS-Dev-Instance-Venv:9,&amp;10.2.2.2:9</t>
-  </si>
-  <si>
-    <t>NLB2</t>
-  </si>
-  <si>
-    <t>BS2-1</t>
-  </si>
-  <si>
-    <t>TWO_TUPLE</t>
-  </si>
-  <si>
-    <t>UDP</t>
-  </si>
-  <si>
-    <t>CD3aaS&amp;cd3aas-new:1,CD3aaS&amp;test-360:10,&amp;10.0.0.144:10,CD3aaS&amp;grafana-vm:1</t>
-  </si>
-  <si>
-    <t>BS2-2</t>
-  </si>
-  <si>
-    <t>THREE_TUPLE</t>
-  </si>
-  <si>
-    <t>CD3aaS&amp;jump-vm:20,CD3aaS&amp;jump-vm2:20</t>
-  </si>
-  <si>
-    <t>Is Preserve Source Destination(True|False)</t>
-  </si>
-  <si>
-    <t>Reserved IP(Y|N|OCID)</t>
-  </si>
-  <si>
-    <t>Listener Protocol(UDP|TCP|UDP/TCP|Any)</t>
-  </si>
-  <si>
-    <t>Lis1-1</t>
-  </si>
-  <si>
-    <t>UDP/TCP</t>
-  </si>
-  <si>
-    <t>fwl-vcn_fwl-pub</t>
-  </si>
-  <si>
-    <t>NSG-App,NSG-LBR</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Lis2-1</t>
-  </si>
-  <si>
-    <t>Lis2-2</t>
   </si>
 </sst>
 </file>
@@ -8352,6 +8351,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8420,12 +8425,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9211,83 +9210,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink10.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVolumes"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="NLB-Listeners"/>
-      <sheetName val="NLB-BackendSets-BackendServers"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DBSystems-VM-BM"/>
-      <sheetName val="EXA-Infra"/>
-      <sheetName val="EXA-VMClusters"/>
-      <sheetName val="Database_Dropdown"/>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="LB Rule Set Dropdown"/>
-      <sheetName val="drop_down_rule_comp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18" refreshError="1"/>
-      <sheetData sheetId="19" refreshError="1"/>
-      <sheetData sheetId="20" refreshError="1"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-      <sheetData sheetId="23" refreshError="1"/>
-      <sheetData sheetId="24" refreshError="1"/>
-      <sheetData sheetId="25" refreshError="1"/>
-      <sheetData sheetId="26" refreshError="1"/>
-      <sheetData sheetId="27" refreshError="1"/>
-      <sheetData sheetId="28" refreshError="1"/>
-      <sheetData sheetId="29" refreshError="1"/>
-      <sheetData sheetId="30" refreshError="1"/>
-      <sheetData sheetId="31" refreshError="1"/>
-      <sheetData sheetId="32" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -11549,133 +11471,6 @@
 </file>
 
 <file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-      <sheetName val="Database"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="ADW_ATP"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="AddRouteRules"/>
-      <sheetName val="AddSecRules"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVols"/>
-      <sheetName val="Tags"/>
-      <sheetName val="TagServer"/>
-      <sheetName val="TagVolume"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="Sheet 2"/>
-      <sheetName val="Data_Validation Values"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="D10" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>VM.Standard2.8</v>
-          </cell>
-          <cell r="G10" t="str">
-            <v>VM.Standard2.24</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>BM.DenseIO2.52</v>
-          </cell>
-          <cell r="I10" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="J10" t="str">
-            <v>VM.Standard2.16</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21" refreshError="1"/>
-      <sheetData sheetId="22" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="drop_down_rule_comp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="drop_down_rule_comp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="drop_down_rule_set"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -12444,6 +12239,133 @@
         </row>
       </sheetData>
       <sheetData sheetId="35"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Database"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="ADW_ATP"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="AddRouteRules"/>
+      <sheetName val="AddSecRules"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVols"/>
+      <sheetName val="Tags"/>
+      <sheetName val="TagServer"/>
+      <sheetName val="TagVolume"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="Sheet 2"/>
+      <sheetName val="Data_Validation Values"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="C10" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>VM.Standard2.8</v>
+          </cell>
+          <cell r="G10" t="str">
+            <v>VM.Standard2.24</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>BM.DenseIO2.52</v>
+          </cell>
+          <cell r="I10" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="J10" t="str">
+            <v>VM.Standard2.16</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21" refreshError="1"/>
+      <sheetData sheetId="22" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink9.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="drop_down_rule_set"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12786,8 +12708,8 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="134" t="s">
-        <v>1073</v>
+      <c r="A2" s="111" t="s">
+        <v>1071</v>
       </c>
     </row>
   </sheetData>
@@ -12827,28 +12749,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="114"/>
-      <c r="I1" s="120" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="122" t="s">
         <v>452</v>
       </c>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
-      <c r="N1" s="120"/>
-      <c r="O1" s="120"/>
-      <c r="P1" s="120"/>
-      <c r="Q1" s="120"/>
-      <c r="R1" s="120"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="122"/>
+      <c r="O1" s="122"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="122"/>
     </row>
     <row r="2" spans="1:18" s="43" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -13780,18 +13702,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>820</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -15404,17 +15326,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -15505,25 +15427,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -15657,28 +15579,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
@@ -16631,15 +16553,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -16817,30 +16739,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="123" t="s">
         <v>812</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="123"/>
-      <c r="I1" s="112" t="s">
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="125"/>
+      <c r="I1" s="114" t="s">
         <v>1054</v>
       </c>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="114"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="116"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -16915,19 +16837,19 @@
         <v>56</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>360</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="I3" s="36" t="s">
         <v>458</v>
@@ -17216,20 +17138,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>583</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -17537,27 +17459,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="126" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="125"/>
-      <c r="G1" s="125"/>
-      <c r="H1" s="126"/>
-      <c r="I1" s="127" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="129" t="s">
         <v>463</v>
       </c>
-      <c r="J1" s="127"/>
-      <c r="K1" s="127"/>
-      <c r="L1" s="127"/>
-      <c r="M1" s="127"/>
-      <c r="N1" s="127"/>
-      <c r="O1" s="127"/>
-      <c r="P1" s="127"/>
-      <c r="Q1" s="127"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -17935,27 +17857,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="111"/>
-      <c r="S1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -18217,13 +18139,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -18483,30 +18405,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>1063</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="116"/>
     </row>
     <row r="2" spans="1:22" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -18831,25 +18753,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>1062</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-      <c r="I1" s="111"/>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
     </row>
     <row r="2" spans="1:17" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -19087,29 +19009,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="115" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="117" t="s">
         <v>471</v>
       </c>
-      <c r="K1" s="128"/>
-      <c r="L1" s="128"/>
-      <c r="M1" s="128"/>
-      <c r="N1" s="128"/>
-      <c r="O1" s="128"/>
-      <c r="P1" s="128"/>
-      <c r="Q1" s="128"/>
-      <c r="R1" s="128"/>
-      <c r="S1" s="129"/>
+      <c r="K1" s="130"/>
+      <c r="L1" s="130"/>
+      <c r="M1" s="130"/>
+      <c r="N1" s="130"/>
+      <c r="O1" s="130"/>
+      <c r="P1" s="130"/>
+      <c r="Q1" s="130"/>
+      <c r="R1" s="130"/>
+      <c r="S1" s="131"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -19786,14 +19708,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="132" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="132"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="133"/>
+      <c r="F1" s="134"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -19940,25 +19862,25 @@
     <col min="8" max="9" width="8.6640625" style="35" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" style="35" customWidth="1"/>
     <col min="11" max="12" width="8.6640625" style="35" customWidth="1"/>
-    <col min="13" max="18" width="8.6640625" style="135"/>
+    <col min="13" max="18" width="8.6640625" style="112"/>
     <col min="19" max="16384" width="8.6640625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="114"/>
+      <c r="A1" s="114" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -19968,19 +19890,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>245</v>
@@ -19989,7 +19911,7 @@
         <v>157</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>246</v>
@@ -20022,10 +19944,10 @@
         <v>361</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E4" s="69" t="b">
         <v>0</v>
@@ -20033,20 +19955,20 @@
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="K4" s="69">
         <v>7003</v>
       </c>
       <c r="L4" s="69"/>
     </row>
-    <row r="5" spans="1:12" s="135" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="112" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="69" t="s">
         <v>903</v>
       </c>
@@ -20054,35 +19976,35 @@
         <v>361</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="E5" s="69" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="69" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G5" s="69" t="s">
+        <v>1100</v>
+      </c>
+      <c r="H5" s="69" t="s">
         <v>1101</v>
       </c>
-      <c r="G5" s="69" t="s">
-        <v>1102</v>
-      </c>
-      <c r="H5" s="69" t="s">
-        <v>1103</v>
-      </c>
       <c r="I5" s="69" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J5" s="69" t="s">
         <v>1088</v>
-      </c>
-      <c r="J5" s="69" t="s">
-        <v>1090</v>
       </c>
       <c r="K5" s="69">
         <v>53</v>
       </c>
       <c r="L5" s="69"/>
     </row>
-    <row r="6" spans="1:12" s="135" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="112" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="69"/>
       <c r="B6" s="69"/>
       <c r="C6" s="69"/>
@@ -20091,10 +20013,10 @@
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
       <c r="H6" s="69" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="J6" s="69" t="s">
         <v>892</v>
@@ -20104,7 +20026,7 @@
       </c>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -20118,7 +20040,7 @@
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
     </row>
-    <row r="8" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -20132,7 +20054,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -20146,7 +20068,7 @@
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -20160,7 +20082,7 @@
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -20174,7 +20096,7 @@
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -20188,7 +20110,7 @@
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -20202,7 +20124,7 @@
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -20216,7 +20138,7 @@
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -20230,7 +20152,7 @@
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -20244,7 +20166,7 @@
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -20258,7 +20180,7 @@
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
     </row>
-    <row r="18" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -20272,7 +20194,7 @@
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -20286,7 +20208,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -20300,7 +20222,7 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -20314,7 +20236,7 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -20328,7 +20250,7 @@
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -20342,7 +20264,7 @@
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -20356,7 +20278,7 @@
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -20370,7 +20292,7 @@
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" s="135" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -20416,19 +20338,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
+      <c r="A1" s="114" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:11" ht="72.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -20438,19 +20360,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>157</v>
       </c>
       <c r="E2" s="29" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>1079</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>1081</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>160</v>
@@ -20488,13 +20410,13 @@
         <v>361</v>
       </c>
       <c r="C4" s="69" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D4" s="69" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E4" s="69" t="s">
         <v>1082</v>
-      </c>
-      <c r="D4" s="69" t="s">
-        <v>1083</v>
-      </c>
-      <c r="E4" s="69" t="s">
-        <v>1084</v>
       </c>
       <c r="F4" s="69" t="b">
         <v>0</v>
@@ -20506,13 +20428,13 @@
         <v>7003</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="J4" s="69">
         <v>10000</v>
       </c>
       <c r="K4" s="69" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
@@ -20523,19 +20445,19 @@
         <v>361</v>
       </c>
       <c r="C5" s="69" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>1086</v>
+      </c>
+      <c r="E5" s="69" t="s">
         <v>1087</v>
-      </c>
-      <c r="D5" s="69" t="s">
-        <v>1088</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>1089</v>
       </c>
       <c r="F5" s="69" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H5" s="69">
         <v>53</v>
@@ -20545,7 +20467,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="69" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -20553,10 +20475,10 @@
       <c r="B6" s="69"/>
       <c r="C6" s="69"/>
       <c r="D6" s="69" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F6" s="69" t="b">
         <v>0</v>
@@ -20572,7 +20494,7 @@
         <v>20000</v>
       </c>
       <c r="K6" s="69" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
     </row>
   </sheetData>
@@ -20606,17 +20528,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="135" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="133"/>
-      <c r="H1" s="133"/>
-      <c r="I1" s="133"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
+      <c r="F1" s="135"/>
+      <c r="G1" s="135"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -20780,35 +20702,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="50" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
-      <c r="U1" s="113"/>
-      <c r="V1" s="113"/>
-      <c r="W1" s="113"/>
-      <c r="X1" s="113"/>
-      <c r="Y1" s="113"/>
-      <c r="Z1" s="113"/>
-      <c r="AA1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="116"/>
     </row>
     <row r="2" spans="1:27" s="61" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
@@ -27208,16 +27130,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>947</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
@@ -33321,25 +33243,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="50" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="123" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="124"/>
+      <c r="J1" s="124"/>
+      <c r="K1" s="124"/>
+      <c r="L1" s="124"/>
+      <c r="M1" s="124"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
       <c r="R1" s="93"/>
       <c r="S1" s="93"/>
       <c r="T1" s="93"/>
@@ -40319,13 +40241,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -42570,7 +42492,7 @@
       </c>
       <c r="F16" s="79"/>
       <c r="G16" s="79" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
@@ -42704,7 +42626,7 @@
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="79" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
@@ -45353,16 +45275,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -47968,7 +47890,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:I14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47985,19 +47907,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>917</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="115" t="s">
-        <v>1064</v>
-      </c>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="117" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -48025,7 +47947,7 @@
         <v>298</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>1069</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="35" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48065,7 +47987,7 @@
         <v>302</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -48182,7 +48104,7 @@
       </c>
       <c r="H9" s="68"/>
       <c r="I9" s="68" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -48258,7 +48180,7 @@
         <v>412</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D13" s="68" t="s">
         <v>966</v>
@@ -48274,7 +48196,7 @@
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="68" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -48285,7 +48207,7 @@
         <v>412</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D14" s="68" t="s">
         <v>966</v>
@@ -48301,7 +48223,7 @@
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="68" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
   </sheetData>
@@ -48367,22 +48289,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>1045</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
-      <c r="G1" s="112" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="114" t="s">
         <v>464</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="114"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -48679,18 +48601,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="114" t="s">
         <v>821</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="117" t="s">
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="119" t="s">
         <v>822</v>
       </c>
-      <c r="G1" s="118"/>
-      <c r="H1" s="118"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
@@ -49041,10 +48963,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>1052</v>
       </c>
-      <c r="B1" s="119"/>
+      <c r="B1" s="121"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -49107,16 +49029,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="113" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B4C1E3-2E26-1748-A7B0-3187F84522FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFFBB00F-E619-8643-AFCD-4BF2D57F616B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="1156">
   <si>
     <t>Region</t>
   </si>
@@ -4607,78 +4607,6 @@
     <t>Policy allowing AppDevAdmins group to manage app development related services in compartment AppDev.</t>
   </si>
   <si>
-    <t>Allow group AppDevAdmins to read all-resources in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage functions-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage api-gateway-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage ons-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage streams in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage cluster-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage alarms in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage metrics in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage logs in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage instance-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage volume-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage object-family in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read virtual-network-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use subnets in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use network-security-groups in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use vnics in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use load-balancers in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to inspect keys in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read app-catalog-listing in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read instance-images in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage orm-stacks in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage orm-jobs in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage orm-config-source-providers in compartment AppDev</t>
-  </si>
-  <si>
     <t>AuditorAccess-Policy</t>
   </si>
   <si>
@@ -4718,273 +4646,39 @@
     <t>Allow Group Auditors to read audit-events in tenancy</t>
   </si>
   <si>
-    <t>CloudGuardAccess-Policy</t>
-  </si>
-  <si>
-    <t>Policy for Cloud Guard to be able to review a tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read keys in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read compartments in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read tenancies in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read audit-events in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read compute-management-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read instance-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read virtual-network-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read volume-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read database-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read object-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read load-balancers in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read users in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read policies in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read dynamic-groups in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read authentication-policies in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to use network-security-groups in tenancy</t>
-  </si>
-  <si>
     <t>DatabaseAdmins-Policy</t>
   </si>
   <si>
-    <t>Policy allowing DatabaseAdmins group to manage database-family in compartment Database.</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read all-resources in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage database-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage autonomous-database-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage alarms in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage metrics in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use vnics in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use subnets in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use network-security-groups in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read virtual-network-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use vnics in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use subnets in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to use network-security-groups in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage orm-stacks in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage orm-jobs in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage orm-config-source-providers in compartment Database</t>
-  </si>
-  <si>
     <t>IAMAdmins-Policy</t>
   </si>
   <si>
     <t>Policy allowing IAMAdmins group to manage IAM resources in tenancy, except changing Administrators group assignments.</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to inspect groups in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage dynamic-groups in tenancy</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to manage compartments in tenancy</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to manage authentication-policies in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage network-sources in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage tag-defaults in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage tag-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage orm-stacks in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage orm-jobs in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage orm-config-source-providers in tenancy</t>
-  </si>
-  <si>
     <t>NetworkAdmins-Policy</t>
   </si>
   <si>
     <t>Policy allowing NetworkAdmins group to manage virtual-network-family in compartment Network.</t>
   </si>
   <si>
-    <t>Allow group NetworkAdmins to read all-resources in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage virtual-network-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage dns in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage load-balancers in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage alarms in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage metrics in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage orm-stacks in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage orm-jobs in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage orm-config-source-providers in compartment Network</t>
-  </si>
-  <si>
     <t>SecurityAdmins-Policy</t>
   </si>
   <si>
     <t>Policy allowing SecurityAdmins group to manage security related services in compartment Security.</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to read all-resources in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage instance-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage keys in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage secret-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage logging-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage serviceconnectors in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage streams in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage ons-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage functions-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage waas-family in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage security-zone in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to read virtual-network-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to use subnets in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to use network-security-groups in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to use vnics in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage tag-namespaces in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage tag-defaults in tenancy</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to manage cloud-guard-family in tenancy</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to read audit-events in tenancy</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to read tenancies in tenancy</t>
   </si>
   <si>
     <t>Allow group SecurityAdmins to read objectstorage-namespaces in tenancy</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to read app-catalog-listing in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to read instance-images in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to inspect buckets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage orm-stacks in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage orm-jobs in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage orm-config-source-providers in compartment Security</t>
-  </si>
-  <si>
     <t>hub-vcn</t>
   </si>
   <si>
@@ -5162,25 +4856,7 @@
     <t>Allow group AnnouncementReaders to read announcements in tenancy</t>
   </si>
   <si>
-    <t>Allow group AppDevAdmins to read autonomous-database-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read database-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group AppDevAdmins to read audit-events in compartment AppDev</t>
-  </si>
-  <si>
     <t>Allow Group Auditors to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage object-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group DatabaseAdmins to read audit-events in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group NetworkAdmins to read audit-events in compartment Network</t>
   </si>
   <si>
     <t>OS-ManagementAcess-Policy</t>
@@ -5479,18 +5155,6 @@
     <t>Allow group AnnouncementReaders to use cloud-shell in tenancy</t>
   </si>
   <si>
-    <t>Allow group AppDevAdmins to manage instance-images in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage repos in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read repos in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read vss-family in compartment Security</t>
-  </si>
-  <si>
     <t>Allow Group AppDevAdmins to use cloud-shell in tenancy</t>
   </si>
   <si>
@@ -5518,46 +5182,10 @@
     <t>Allow group CredAdmins to use cloud-shell in tenancy</t>
   </si>
   <si>
-    <t>Allow group DatabaseAdmins to read vss-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow Group DatabaseAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
     <t>Allow group IAMAdmins to manage policies in tenancy</t>
   </si>
   <si>
-    <t>Allow group IAMAdmins to inspect users in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage groups in tenancy where all {target.group.name != 'Administrators', target.group.name != 'CredAdmins'}</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to inspect identity-providers in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage identity-providers in tenancy where any {request.operation = 'AddIdpGroupMapping', request.operation = 'DeleteIdpGroupMapping'}</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to manage quota in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to read audit-events in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group IAMAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group NetworkAdmins to read vss-family in compartment Security</t>
-  </si>
-  <si>
     <t>Allow group NetworkAdmins to use cloud-shell in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage repos in tenancy</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage vss-family in compartment Security</t>
   </si>
   <si>
     <t>Allow group SecurityAdmins to manage cloudevents-rules in tenancy</t>
@@ -5969,12 +5597,6 @@
     <t>Allow Group Auditors to read usage-reports in tenancy</t>
   </si>
   <si>
-    <t>Allow Group DatabaseAdmins to read usage-budgets in tenancy</t>
-  </si>
-  <si>
-    <t>Allow Group DatabaseAdmins to read usage-reports in tenancy</t>
-  </si>
-  <si>
     <t>Allow Group NetworkAdmins to read usage-budgets in tenancy</t>
   </si>
   <si>
@@ -6050,30 +5672,6 @@
     <t>ENTERPRISE_EDITION_HIGH_PERFORMANCE</t>
   </si>
   <si>
-    <t>Allow group AppDevAdmins to read work-requests in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage bastion-session in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage cloudevents-rules in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to read instance-agent-plugins in compartment AppDev</t>
-  </si>
-  <si>
-    <t>Allow group AppDevAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to read work-requests in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group SecurityAdmins to manage bastion-family in compartment Security</t>
-  </si>
-  <si>
     <t>Allow group SecurityAdmins to manage cloudevents-rules in compartment Security</t>
   </si>
   <si>
@@ -6083,66 +5681,15 @@
     <t>Allow group SecurityAdmins to manage metrics in compartment Security</t>
   </si>
   <si>
-    <t>Allow group SecurityAdmins to read instance-agent-plugins in compartment Security</t>
-  </si>
-  <si>
     <t>Allow Group SecurityAdmins to read usage-budgets in tenancy</t>
   </si>
   <si>
     <t>Allow Group SecurityAdmins to read usage-reports in tenancy</t>
   </si>
   <si>
-    <t>Allow group DatabaseAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read work-requests in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage bastion-session in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage cloudevents-rules in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to manage instance-family in compartment Database</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read vaults in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to inspect keys in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group DatabaseAdmins to read instance-agent-plugins in compartment Database</t>
-  </si>
-  <si>
     <t>Allow Group NetworkAdmins to read usage-reports in tenancy</t>
   </si>
   <si>
-    <t>Allow group NetworkAdmins to read work-requests in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to use bastion in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage bastion-session in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage cloudevents-rules in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage bastion-session in compartment Security</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to manage instance-family in compartment Network</t>
-  </si>
-  <si>
-    <t>Allow group NetworkAdmins to read instance-agent-plugins in compartment Network</t>
-  </si>
-  <si>
     <t>spoke:PHXHub-VCN</t>
   </si>
   <si>
@@ -6219,15 +5766,6 @@
   </si>
   <si>
     <t>pvt-infra</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read data-safe-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read autonomous-database-family in tenancy</t>
-  </si>
-  <si>
-    <t>allow service cloudguard to read vaults in tenancy</t>
   </si>
   <si>
     <t>CIDR Blocks</t>
@@ -7552,6 +7090,621 @@
       <t>: Tag key - 'internal' of row 5, the entries to columns till 'Namespace Description' will be automatically copied over from the row above it by the Tool Kit .</t>
     </r>
   </si>
+  <si>
+    <t>StorageAdmins</t>
+  </si>
+  <si>
+    <t>Group responsible for Storage Management.</t>
+  </si>
+  <si>
+    <t>AppDev-computeagent-dynamic-group</t>
+  </si>
+  <si>
+    <t>Dynamic Group for compute agents in AppDev compartment.</t>
+  </si>
+  <si>
+    <t>ALL {resource.type = 'managementagent',resource.compartment.id = '&lt;AppDev compartment OCID&gt;'}</t>
+  </si>
+  <si>
+    <t>AppDev-fun-dynamic-group</t>
+  </si>
+  <si>
+    <t>Dynamic Group for functions in AppDev compartment.</t>
+  </si>
+  <si>
+    <t>ALL {resource.type = 'fnfunc',resource.compartment.id = '&lt;AppDev compartment OCID&gt;'}</t>
+  </si>
+  <si>
+    <t>Database-kms-dynamic-group</t>
+  </si>
+  <si>
+    <t>Dynamic Group for databases in Database compartment.</t>
+  </si>
+  <si>
+    <t>ALL {resource.compartment.id = '&lt;Database compartment OCID&gt;'}</t>
+  </si>
+  <si>
+    <t>Sec-fun-dynamic-group</t>
+  </si>
+  <si>
+    <t>Landing Zone dynamic group for functions in Security compartment.</t>
+  </si>
+  <si>
+    <t>ALL {resource.type = 'fnfunc',resource.compartment.id = '&lt;Security compartment OCID&gt;'}</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read all-resources in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage functions-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage api-gateway-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage ons-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage streams in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage cluster-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage alarms in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage metrics in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage logging-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage instance-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage volume-family in compartment AppDev where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage object-family in compartment AppDev where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage file-family in compartment AppDev where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage repos in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage orm-stacks in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage orm-jobs in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage orm-config-source-providers in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read audit-events in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read work-requests in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage bastion-session in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage cloudevents-rules in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read instance-agent-plugins in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read virtual-network-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use subnets in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use network-security-groups in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use vnics in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use load-balancers in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to inspect keys in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage instance-images in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read autonomous-database-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read database-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read app-catalog-listing in compartment root</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read instance-images in compartment root</t>
+  </si>
+  <si>
+    <t>allow group AppDevAdmins to read repos in compartment root</t>
+  </si>
+  <si>
+    <t>Allow Group Auditors to read data-safe-family in tenancy</t>
+  </si>
+  <si>
+    <t>Managed Services Policy</t>
+  </si>
+  <si>
+    <t>Policy for for OCI services: Cloud Guard, Vulnerability Scanning and OS Management.</t>
+  </si>
+  <si>
+    <t>Allow service cloudguard to read all-resources in tenancy</t>
+  </si>
+  <si>
+    <t>Allow service cloudguard to use network-security-groups in tenancy</t>
+  </si>
+  <si>
+    <t>Policy allowing DatabaseAdmins group to manage databases in compartment Database.</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read all-resources in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage database-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage autonomous-database-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage alarms in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage metrics in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage cloudevents-rules in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage object-family in compartment Database where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage instance-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage volume-family in compartment Database where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage file-family in compartment Database where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage orm-stacks in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage orm-jobs in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage orm-config-source-providers in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage ons-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage logging-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read audit-events in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read work-requests in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage bastion-session in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read instance-agent-plugins in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage data-safe-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read virtual-network-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use vnics in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use subnets in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use network-security-groups in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to read vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to inspect keys in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>allow Group DatabaseAdmins to read usage-reports in tenancy</t>
+  </si>
+  <si>
+    <t>allow Group DatabaseAdmins to read usage-budgets in tenancy</t>
+  </si>
+  <si>
+    <t>allow group DatabaseAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to inspect users in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to inspect groups in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to read policies in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage groups in tenancy where all {target.group.name != 'Administrators', target.group.name != 'CredAdmins'}</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to inspect identity-providers in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage identity-providers in tenancy where any {request.operation = 'AddIdpGroupMapping', request.operation = 'DeleteIdpGroupMapping'}</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage dynamic-groups in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage authentication-policies in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage network-sources in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage quota in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to read audit-events in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to use cloud-shell in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage tag-defaults in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage tag-namespaces in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage orm-stacks in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage orm-jobs in tenancy</t>
+  </si>
+  <si>
+    <t>allow group IAMAdmins to manage orm-config-source-providers in tenancy</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read all-resources in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage virtual-network-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage dns in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage load-balancers in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage alarms in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage metrics in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage ons-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage orm-stacks in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage orm-jobs in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage orm-config-source-providers in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read audit-events in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read work-requests in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage instance-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage volume-family in compartment Network where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage object-family in compartment Network where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage file-family in compartment Network where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage bastion-session in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage cloudevents-rules in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read instance-agent-plugins in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to read vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to use bastion in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group NetworkAdmins to manage bastion-session in compartment Security</t>
+  </si>
+  <si>
+    <t>endorse group CostAdmins to read objects in tenancy usage-report</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage tag-namespaces in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage tag-defaults in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage repos in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read audit-events in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read app-catalog-listing in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read instance-images in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to inspect buckets in compartment root</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read all-resources in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage instance-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage volume-family in compartment Security where all{request.permission != 'VOLUME_BACKUP_DELETE', request.permission != 'VOLUME_DELETE', request.permission != 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage object-family in compartment Security where all{request.permission != 'OBJECT_DELETE', request.permission != 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage file-family in compartment Security where all{request.permission != 'FILE_SYSTEM_DELETE', request.permission != 'MOUNT_TARGET_DELETE', request.permission != 'EXPORT_SET_DELETE', request.permission != 'FILE_SYSTEM_DELETE_SNAPSHOT', request.permission != 'FILE_SYSTEM_NFSv3_UNEXPORT'}</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage keys in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage secret-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage logging-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage serviceconnectors in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage streams in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage ons-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage functions-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage waas-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage security-zone in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage orm-stacks in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage orm-jobs in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage orm-config-source-providers in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage vss-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read work-requests in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage bastion-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read instance-agent-plugins in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage cloudevents-rules in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage alarms in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to manage metrics in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to read virtual-network-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use subnets in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use network-security-groups in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group SecurityAdmins to use vnics in compartment Network</t>
+  </si>
+  <si>
+    <t>StorageAdmins-Policy</t>
+  </si>
+  <si>
+    <t>Policy allowing StorageAdmins group to manage storage resources.</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read bucket in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to inspect object in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage object-family in compartment AppDev where any {request.permission = 'OBJECT_DELETE', request.permission = 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read volume-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage volume-family in compartment AppDev where any {request.permission = 'VOLUME_DELETE', request.permission = 'VOLUME_BACKUP_DELETE', request.permission = 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read file-family in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage file-family in compartment AppDev where any {request.permission = 'FILE_SYSTEM_DELETE', request.permission = 'MOUNT_TARGET_DELETE', request.permission = 'EXPORT_SET_UPDATE', request.permission = 'FILE_SYSTEM_NFSv3_UNEXPORT', request.permission = 'EXPORT_SET_DELETE', request.permission = 'FILE_SYSTEM_DELETE_SNAPSHOT'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read bucket in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to inspect object in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage object-family in compartment Database where any {request.permission = 'OBJECT_DELETE', request.permission = 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read volume-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage volume-family in compartment Database where any {request.permission = 'VOLUME_DELETE', request.permission = 'VOLUME_BACKUP_DELETE', request.permission = 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read file-family in compartment Database</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage file-family in compartment Database where any {request.permission = 'FILE_SYSTEM_DELETE', request.permission = 'MOUNT_TARGET_DELETE', request.permission = 'EXPORT_SET_UPDATE', request.permission = 'FILE_SYSTEM_NFSv3_UNEXPORT', request.permission = 'EXPORT_SET_DELETE', request.permission = 'FILE_SYSTEM_DELETE_SNAPSHOT'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read bucket in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to inspect object in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage object-family in compartment Security where any {request.permission = 'OBJECT_DELETE', request.permission = 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read volume-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage volume-family in compartment Security where any {request.permission = 'VOLUME_DELETE', request.permission = 'VOLUME_BACKUP_DELETE', request.permission = 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read file-family in compartment Security</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage file-family in compartment Security where any {request.permission = 'FILE_SYSTEM_DELETE', request.permission = 'MOUNT_TARGET_DELETE', request.permission = 'EXPORT_SET_UPDATE', request.permission = 'FILE_SYSTEM_NFSv3_UNEXPORT', request.permission = 'EXPORT_SET_DELETE', request.permission = 'FILE_SYSTEM_DELETE_SNAPSHOT'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read bucket in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to inspect object in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage object-family in compartment Network where any {request.permission = 'OBJECT_DELETE', request.permission = 'BUCKET_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read volume-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage volume-family in compartment Network where any {request.permission = 'VOLUME_DELETE', request.permission = 'VOLUME_BACKUP_DELETE', request.permission = 'BOOT_VOLUME_BACKUP_DELETE'}</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to read file-family in compartment Network</t>
+  </si>
+  <si>
+    <t>allow group StorageAdmins to manage file-family in compartment Network where any {request.permission = 'FILE_SYSTEM_DELETE', request.permission = 'MOUNT_TARGET_DELETE', request.permission = 'VNIC_DELETE', request.permission = 'SUBNET_DETACH', request.permission = 'VNIC_DETACH', request.permission = 'PRIVATE_IP_DELETE', request.permission = 'PRIVATE_IP_UNASSIGN', request.permission = 'VNIC_UNASSIGN', request.permission = 'EXPORT_SET_UPDATE', request.permission = 'FILE_SYSTEM_NFSv3_UNEXPORT', request.permission = 'EXPORT_SET_DELETE', request.permission = 'FILE_SYSTEM_DELETE_SNAPSHOT'}</t>
+  </si>
+  <si>
+    <t>compute-agent-policy</t>
+  </si>
+  <si>
+    <t>Policy for AppDev-computeagent-dynamic-group group to manage compute agent related services.</t>
+  </si>
+  <si>
+    <t>allow dynamic-group AppDev-computeagent-dynamic-group to manage management-agents in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow dynamic-group AppDev-computeagent-dynamic-group to use metrics in compartment AppDev</t>
+  </si>
+  <si>
+    <t>allow dynamic-group AppDev-computeagent-dynamic-group to use tag-namespaces in compartment AppDev</t>
+  </si>
+  <si>
+    <t>database-dynamic_group-policy</t>
+  </si>
+  <si>
+    <t>Database-kms-dynamic-group group to use keys in compartment managed-security-cmp.</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to read vaults in compartment Security</t>
+  </si>
+  <si>
+    <t>allow dynamic-group Database-kms-dynamic-group to use keys in compartment Security</t>
+  </si>
 </sst>
 </file>
 
@@ -7560,7 +7713,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=";;;**"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7779,13 +7932,6 @@
       <color rgb="FF1D1E23"/>
       <name val="Abadi Extra Light"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -8097,7 +8243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8318,9 +8464,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -11474,6 +11617,8 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Database_Dropdown"/>
+      <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="Release-Info"/>
       <sheetName val="Compartments"/>
       <sheetName val="Groups"/>
@@ -11506,14 +11651,703 @@
       <sheetName val="DBSystems-VM-BM"/>
       <sheetName val="EXA-Infra"/>
       <sheetName val="EXA-VMClusters"/>
-      <sheetName val="Database_Dropdown"/>
       <sheetName val="drop_down_rule_set"/>
-      <sheetName val="LB Rule Set Dropdown"/>
       <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>VM.Standard2.1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v xml:space="preserve">11.2.0.4 </v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>OLTP</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>Exadata.Quarter2.92</v>
+          </cell>
+          <cell r="F2" t="str">
+            <v>LICENSE_INCLUDED</v>
+          </cell>
+          <cell r="G2" t="str">
+            <v>AL16UTF16</v>
+          </cell>
+          <cell r="H2" t="str">
+            <v>AL32UTF8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>VM.Standard1.1</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>STANDARD_EDITION</v>
+          </cell>
+          <cell r="C3" t="str">
+            <v>12.1.0.2</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>DSS</v>
+          </cell>
+          <cell r="E3" t="str">
+            <v>Exadata.Half2.184</v>
+          </cell>
+          <cell r="F3" t="str">
+            <v>BRING_YOUR_OWN_LICENSE</v>
+          </cell>
+          <cell r="G3" t="str">
+            <v>UTF8</v>
+          </cell>
+          <cell r="H3" t="str">
+            <v>AR8ADOS710</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>VM.Standard1.2</v>
+          </cell>
+          <cell r="B4" t="str">
+            <v>ENTERPRISE_EDITION</v>
+          </cell>
+          <cell r="C4" t="str">
+            <v>12.2.0.1</v>
+          </cell>
+          <cell r="E4" t="str">
+            <v>Exadata.Full2.368</v>
+          </cell>
+          <cell r="H4" t="str">
+            <v>AR8ADOS720</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>VM.Standard2.2</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>ENTERPRISE_EDITION_HIGH_PERFORMANCE</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>18.0.0.0</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>Exadata.Quarter1.84</v>
+          </cell>
+          <cell r="H5" t="str">
+            <v>AR8APTEC715</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>VM.Standard2.4</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v xml:space="preserve">18.12.0.0 </v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>Exadata.Half1.168</v>
+          </cell>
+          <cell r="H6" t="str">
+            <v>AR8ARABICMACS</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>VM.Standard1.4</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>18.13.0.0</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>Exadata.Full1.336</v>
+          </cell>
+          <cell r="H7" t="str">
+            <v>AR8ASMO8X</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8" t="str">
+            <v>18.14.0.0</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>Exadata.Base.48</v>
+          </cell>
+          <cell r="H8" t="str">
+            <v>AR8ISO8859P6</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9" t="str">
+            <v>19.0.0.0</v>
+          </cell>
+          <cell r="E9" t="str">
+            <v>Exadata.Half3.200</v>
+          </cell>
+          <cell r="H9" t="str">
+            <v>AR8MSWIN1256</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10" t="str">
+            <v>19.10.0.0</v>
+          </cell>
+          <cell r="E10" t="str">
+            <v>Exadata.Quater3.100</v>
+          </cell>
+          <cell r="H10" t="str">
+            <v>AR8MUSSAD768</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11" t="str">
+            <v xml:space="preserve">19.11.0.0 </v>
+          </cell>
+          <cell r="E11" t="str">
+            <v>Exadata.Full3.400</v>
+          </cell>
+          <cell r="H11" t="str">
+            <v>AR8NAFITHA711</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12" t="str">
+            <v>19.12.0.0</v>
+          </cell>
+          <cell r="H12" t="str">
+            <v>AR8NAFITHA721</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13" t="str">
+            <v>21.0.0.0</v>
+          </cell>
+          <cell r="H13" t="str">
+            <v>AR8SAKHR706</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14" t="str">
+            <v>21.3.0.0</v>
+          </cell>
+          <cell r="H14" t="str">
+            <v>AR8SAKHR707</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="H15" t="str">
+            <v>AZ8ISO8859P9E</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="H16" t="str">
+            <v>BG8MSWIN</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="H17" t="str">
+            <v>BG8PC437S</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="H18" t="str">
+            <v>BLT8CP921</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="H19" t="str">
+            <v>BLT8ISO8859P13</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="H20" t="str">
+            <v>BLT8MSWIN1257</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="H21" t="str">
+            <v>BLT8PC775</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="H22" t="str">
+            <v>BN8BSCII</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="H23" t="str">
+            <v>CDN8PC863</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="H24" t="str">
+            <v>CEL8ISO8859P14</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="H25" t="str">
+            <v>CL8ISO8859P5</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="H26" t="str">
+            <v>CL8ISOIR111</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="H27" t="str">
+            <v>CL8KOI8R</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="H28" t="str">
+            <v>CL8KOI8U</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="H29" t="str">
+            <v>CL8MACCYRILLICS</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="H30" t="str">
+            <v>CL8MSWIN1251</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="H31" t="str">
+            <v>EE8ISO8859P2</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="H32" t="str">
+            <v>EE8MACCES</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="H33" t="str">
+            <v>EE8MACCROATIANS</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="H34" t="str">
+            <v>EE8MSWIN1250</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="H35" t="str">
+            <v>EE8PC852</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="H36" t="str">
+            <v>EL8DEC</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="H37" t="str">
+            <v>EL8ISO8859P7</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="H38" t="str">
+            <v>EL8MACGREEKS</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="H39" t="str">
+            <v>EL8MSWIN1253</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="H40" t="str">
+            <v>EL8PC437S</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="H41" t="str">
+            <v>EL8PC851</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="H42" t="str">
+            <v>EL8PC869</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="H43" t="str">
+            <v>ET8MSWIN923</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="H44" t="str">
+            <v>HU8ABMOD</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="H45" t="str">
+            <v>HU8CWI2</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="H46" t="str">
+            <v>IN8ISCII</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="H47" t="str">
+            <v>IS8PC861</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="H48" t="str">
+            <v>IW8ISO8859P8</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="H49" t="str">
+            <v>IW8MACHEBREWS</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="H50" t="str">
+            <v>IW8MSWIN1255</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="H51" t="str">
+            <v>IW8PC1507</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="H52" t="str">
+            <v>JA16EUC</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="H53" t="str">
+            <v>JA16EUCTILDE</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="H54" t="str">
+            <v>JA16SJIS</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="H55" t="str">
+            <v>JA16SJISTILDE</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="H56" t="str">
+            <v>JA16VMS</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="H57" t="str">
+            <v>KO16KSC5601</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="H58" t="str">
+            <v>KO16KSCCS</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="H59" t="str">
+            <v>KO16MSWIN949</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="H60" t="str">
+            <v>LA8ISO6937</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="H61" t="str">
+            <v>LA8PASSPORT</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="H62" t="str">
+            <v>LT8MSWIN921</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="H63" t="str">
+            <v>LT8PC772</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="H64" t="str">
+            <v>LT8PC774</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="H65" t="str">
+            <v>LV8PC1117</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="H66" t="str">
+            <v>LV8PC8LR</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="H67" t="str">
+            <v>LV8RST104090</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="H68" t="str">
+            <v>N8PC865</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="H69" t="str">
+            <v>NE8ISO8859P10</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="H70" t="str">
+            <v>NEE8ISO8859P4</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="H71" t="str">
+            <v>RU8BESTA</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="H72" t="str">
+            <v>RU8PC855</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="H73" t="str">
+            <v>RU8PC866</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="H74" t="str">
+            <v>SE8ISO8859P3</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="H75" t="str">
+            <v>TH8MACTHAIS</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="H76" t="str">
+            <v>TH8TISASCII</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="H77" t="str">
+            <v>TR8DEC</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="H78" t="str">
+            <v>TR8MACTURKISHS</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="H79" t="str">
+            <v>TR8MSWIN1254</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="H80" t="str">
+            <v>TR8PC857</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="H81" t="str">
+            <v>US7ASCII</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="H82" t="str">
+            <v>US8PC437</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="H83" t="str">
+            <v>UTF8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="H84" t="str">
+            <v>VN8MSWIN1258</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="H85" t="str">
+            <v>VN8VN3</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="H86" t="str">
+            <v>WE8DEC</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="H87" t="str">
+            <v>WE8DG</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="H88" t="str">
+            <v>WE8ISO8859P1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="H89" t="str">
+            <v>WE8ISO8859P15</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="H90" t="str">
+            <v>WE8ISO8859P9</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="H91" t="str">
+            <v>WE8MACROMAN8S</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="H92" t="str">
+            <v>WE8MSWIN1252</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="H93" t="str">
+            <v>WE8NCR4970</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="H94" t="str">
+            <v>WE8NEXTSTEP</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="H95" t="str">
+            <v>WE8PC850</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="H96" t="str">
+            <v>WE8PC858</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="H97" t="str">
+            <v>WE8PC860</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="H98" t="str">
+            <v>WE8ROMAN8</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="H99" t="str">
+            <v>ZHS16CGB231280</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="H100" t="str">
+            <v>ZHS16GBK</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="H101" t="str">
+            <v>ZHT16BIG5</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="H102" t="str">
+            <v>ZHT16CCDC</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="H103" t="str">
+            <v>ZHT16DBT</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="H104" t="str">
+            <v>ZHT16HKSCS</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="H105" t="str">
+            <v>ZHT16MSWIN950</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="H106" t="str">
+            <v>ZHT32EUC</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="H107" t="str">
+            <v>ZHT32SOPS</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="H108" t="str">
+            <v>ZHT32TRIS</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="E2">
+            <v>301</v>
+          </cell>
+          <cell r="F2">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>302</v>
+          </cell>
+          <cell r="F3">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>303</v>
+          </cell>
+          <cell r="F4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>307</v>
+          </cell>
+          <cell r="F5">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>308</v>
+          </cell>
+        </row>
+      </sheetData>
       <sheetData sheetId="2"/>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
@@ -11544,700 +12378,9 @@
       <sheetData sheetId="29"/>
       <sheetData sheetId="30"/>
       <sheetData sheetId="31"/>
-      <sheetData sheetId="32">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>VM.Standard2.1</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>ENTERPRISE_EDITION_EXTREME_PERFORMANCE</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v xml:space="preserve">11.2.0.4 </v>
-          </cell>
-          <cell r="D2" t="str">
-            <v>OLTP</v>
-          </cell>
-          <cell r="E2" t="str">
-            <v>Exadata.Quarter2.92</v>
-          </cell>
-          <cell r="F2" t="str">
-            <v>LICENSE_INCLUDED</v>
-          </cell>
-          <cell r="G2" t="str">
-            <v>AL16UTF16</v>
-          </cell>
-          <cell r="H2" t="str">
-            <v>AL32UTF8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>VM.Standard1.1</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>STANDARD_EDITION</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>12.1.0.2</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>DSS</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>Exadata.Half2.184</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>BRING_YOUR_OWN_LICENSE</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>UTF8</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>AR8ADOS710</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>VM.Standard1.2</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>ENTERPRISE_EDITION</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>12.2.0.1</v>
-          </cell>
-          <cell r="E4" t="str">
-            <v>Exadata.Full2.368</v>
-          </cell>
-          <cell r="H4" t="str">
-            <v>AR8ADOS720</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>VM.Standard2.2</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>ENTERPRISE_EDITION_HIGH_PERFORMANCE</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>18.0.0.0</v>
-          </cell>
-          <cell r="E5" t="str">
-            <v>Exadata.Quarter1.84</v>
-          </cell>
-          <cell r="H5" t="str">
-            <v>AR8APTEC715</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>VM.Standard2.4</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v xml:space="preserve">18.12.0.0 </v>
-          </cell>
-          <cell r="E6" t="str">
-            <v>Exadata.Half1.168</v>
-          </cell>
-          <cell r="H6" t="str">
-            <v>AR8ARABICMACS</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>VM.Standard1.4</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>18.13.0.0</v>
-          </cell>
-          <cell r="E7" t="str">
-            <v>Exadata.Full1.336</v>
-          </cell>
-          <cell r="H7" t="str">
-            <v>AR8ASMO8X</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="C8" t="str">
-            <v>18.14.0.0</v>
-          </cell>
-          <cell r="E8" t="str">
-            <v>Exadata.Base.48</v>
-          </cell>
-          <cell r="H8" t="str">
-            <v>AR8ISO8859P6</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="C9" t="str">
-            <v>19.0.0.0</v>
-          </cell>
-          <cell r="E9" t="str">
-            <v>Exadata.Half3.200</v>
-          </cell>
-          <cell r="H9" t="str">
-            <v>AR8MSWIN1256</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="C10" t="str">
-            <v>19.10.0.0</v>
-          </cell>
-          <cell r="E10" t="str">
-            <v>Exadata.Quater3.100</v>
-          </cell>
-          <cell r="H10" t="str">
-            <v>AR8MUSSAD768</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="C11" t="str">
-            <v xml:space="preserve">19.11.0.0 </v>
-          </cell>
-          <cell r="E11" t="str">
-            <v>Exadata.Full3.400</v>
-          </cell>
-          <cell r="H11" t="str">
-            <v>AR8NAFITHA711</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="C12" t="str">
-            <v>19.12.0.0</v>
-          </cell>
-          <cell r="H12" t="str">
-            <v>AR8NAFITHA721</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="C13" t="str">
-            <v>21.0.0.0</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>AR8SAKHR706</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="C14" t="str">
-            <v>21.3.0.0</v>
-          </cell>
-          <cell r="H14" t="str">
-            <v>AR8SAKHR707</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="H15" t="str">
-            <v>AZ8ISO8859P9E</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="H16" t="str">
-            <v>BG8MSWIN</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="H17" t="str">
-            <v>BG8PC437S</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="H18" t="str">
-            <v>BLT8CP921</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="H19" t="str">
-            <v>BLT8ISO8859P13</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="H20" t="str">
-            <v>BLT8MSWIN1257</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="H21" t="str">
-            <v>BLT8PC775</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="H22" t="str">
-            <v>BN8BSCII</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="H23" t="str">
-            <v>CDN8PC863</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24" t="str">
-            <v>CEL8ISO8859P14</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="H25" t="str">
-            <v>CL8ISO8859P5</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26" t="str">
-            <v>CL8ISOIR111</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27" t="str">
-            <v>CL8KOI8R</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="H28" t="str">
-            <v>CL8KOI8U</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="H29" t="str">
-            <v>CL8MACCYRILLICS</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="H30" t="str">
-            <v>CL8MSWIN1251</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31" t="str">
-            <v>EE8ISO8859P2</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32" t="str">
-            <v>EE8MACCES</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="H33" t="str">
-            <v>EE8MACCROATIANS</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34" t="str">
-            <v>EE8MSWIN1250</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35" t="str">
-            <v>EE8PC852</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36" t="str">
-            <v>EL8DEC</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37" t="str">
-            <v>EL8ISO8859P7</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38" t="str">
-            <v>EL8MACGREEKS</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39" t="str">
-            <v>EL8MSWIN1253</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40" t="str">
-            <v>EL8PC437S</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="H41" t="str">
-            <v>EL8PC851</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="H42" t="str">
-            <v>EL8PC869</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="H43" t="str">
-            <v>ET8MSWIN923</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="H44" t="str">
-            <v>HU8ABMOD</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="H45" t="str">
-            <v>HU8CWI2</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="H46" t="str">
-            <v>IN8ISCII</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="H47" t="str">
-            <v>IS8PC861</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="H48" t="str">
-            <v>IW8ISO8859P8</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="H49" t="str">
-            <v>IW8MACHEBREWS</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="H50" t="str">
-            <v>IW8MSWIN1255</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="H51" t="str">
-            <v>IW8PC1507</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="H52" t="str">
-            <v>JA16EUC</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="H53" t="str">
-            <v>JA16EUCTILDE</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="H54" t="str">
-            <v>JA16SJIS</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="H55" t="str">
-            <v>JA16SJISTILDE</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="H56" t="str">
-            <v>JA16VMS</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="H57" t="str">
-            <v>KO16KSC5601</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="H58" t="str">
-            <v>KO16KSCCS</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="H59" t="str">
-            <v>KO16MSWIN949</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="H60" t="str">
-            <v>LA8ISO6937</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="H61" t="str">
-            <v>LA8PASSPORT</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="H62" t="str">
-            <v>LT8MSWIN921</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="H63" t="str">
-            <v>LT8PC772</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="H64" t="str">
-            <v>LT8PC774</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="H65" t="str">
-            <v>LV8PC1117</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="H66" t="str">
-            <v>LV8PC8LR</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="H67" t="str">
-            <v>LV8RST104090</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="H68" t="str">
-            <v>N8PC865</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="H69" t="str">
-            <v>NE8ISO8859P10</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="H70" t="str">
-            <v>NEE8ISO8859P4</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="H71" t="str">
-            <v>RU8BESTA</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="H72" t="str">
-            <v>RU8PC855</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="H73" t="str">
-            <v>RU8PC866</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="H74" t="str">
-            <v>SE8ISO8859P3</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="H75" t="str">
-            <v>TH8MACTHAIS</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="H76" t="str">
-            <v>TH8TISASCII</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="H77" t="str">
-            <v>TR8DEC</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="H78" t="str">
-            <v>TR8MACTURKISHS</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="H79" t="str">
-            <v>TR8MSWIN1254</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="H80" t="str">
-            <v>TR8PC857</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="H81" t="str">
-            <v>US7ASCII</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="H82" t="str">
-            <v>US8PC437</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="H83" t="str">
-            <v>UTF8</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="H84" t="str">
-            <v>VN8MSWIN1258</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="H85" t="str">
-            <v>VN8VN3</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="H86" t="str">
-            <v>WE8DEC</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="H87" t="str">
-            <v>WE8DG</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="H88" t="str">
-            <v>WE8ISO8859P1</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="H89" t="str">
-            <v>WE8ISO8859P15</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="H90" t="str">
-            <v>WE8ISO8859P9</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="H91" t="str">
-            <v>WE8MACROMAN8S</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="H92" t="str">
-            <v>WE8MSWIN1252</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="H93" t="str">
-            <v>WE8NCR4970</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="H94" t="str">
-            <v>WE8NEXTSTEP</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="H95" t="str">
-            <v>WE8PC850</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="H96" t="str">
-            <v>WE8PC858</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="H97" t="str">
-            <v>WE8PC860</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="H98" t="str">
-            <v>WE8ROMAN8</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="H99" t="str">
-            <v>ZHS16CGB231280</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="H100" t="str">
-            <v>ZHS16GBK</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="H101" t="str">
-            <v>ZHT16BIG5</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="H102" t="str">
-            <v>ZHT16CCDC</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="H103" t="str">
-            <v>ZHT16DBT</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="H104" t="str">
-            <v>ZHT16HKSCS</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="H105" t="str">
-            <v>ZHT16MSWIN950</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="H106" t="str">
-            <v>ZHT32EUC</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="H107" t="str">
-            <v>ZHT32SOPS</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="H108" t="str">
-            <v>ZHT32TRIS</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="32"/>
       <sheetData sheetId="33"/>
-      <sheetData sheetId="34">
-        <row r="2">
-          <cell r="E2">
-            <v>301</v>
-          </cell>
-          <cell r="F2">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>302</v>
-          </cell>
-          <cell r="F3">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>303</v>
-          </cell>
-          <cell r="F4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>307</v>
-          </cell>
-          <cell r="F5">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>308</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="34"/>
       <sheetData sheetId="35"/>
     </sheetDataSet>
   </externalBook>
@@ -12708,8 +12851,8 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="111" t="s">
-        <v>1071</v>
+      <c r="A2" s="110" t="s">
+        <v>917</v>
       </c>
     </row>
   </sheetData>
@@ -12749,28 +12892,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="113" t="s">
         <v>445</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="122" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="121" t="s">
         <v>452</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
     </row>
     <row r="2" spans="1:18" s="43" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -12836,10 +12979,10 @@
         <v>361</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>1040</v>
+        <v>889</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>50</v>
@@ -12854,10 +12997,10 @@
         <v>35</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>1039</v>
+        <v>888</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>1038</v>
+        <v>887</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>23</v>
@@ -12888,28 +13031,28 @@
         <v>361</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>1037</v>
+        <v>886</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>739</v>
+        <v>637</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>1036</v>
+        <v>885</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>1035</v>
+        <v>884</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>23</v>
@@ -12940,10 +13083,10 @@
         <v>361</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>737</v>
+        <v>635</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>1034</v>
+        <v>883</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>386</v>
@@ -12952,16 +13095,16 @@
         <v>51</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>1033</v>
+        <v>882</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>1032</v>
+        <v>881</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>23</v>
@@ -12992,10 +13135,10 @@
         <v>361</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>737</v>
+        <v>635</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>741</v>
+        <v>639</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>55</v>
@@ -13010,10 +13153,10 @@
         <v>35</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>742</v>
+        <v>640</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>743</v>
+        <v>641</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>23</v>
@@ -13044,13 +13187,13 @@
         <v>361</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>737</v>
+        <v>635</v>
       </c>
       <c r="D7" s="36" t="s">
-        <v>744</v>
+        <v>642</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>745</v>
+        <v>643</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>51</v>
@@ -13062,10 +13205,10 @@
         <v>35</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>746</v>
+        <v>644</v>
       </c>
       <c r="J7" s="34" t="s">
-        <v>747</v>
+        <v>645</v>
       </c>
       <c r="K7" s="36" t="s">
         <v>23</v>
@@ -13096,13 +13239,13 @@
         <v>361</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>737</v>
+        <v>635</v>
       </c>
       <c r="D8" s="36" t="s">
-        <v>748</v>
+        <v>646</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>749</v>
+        <v>647</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>51</v>
@@ -13114,10 +13257,10 @@
         <v>35</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>750</v>
+        <v>648</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>751</v>
+        <v>649</v>
       </c>
       <c r="K8" s="36" t="s">
         <v>23</v>
@@ -13148,10 +13291,10 @@
         <v>361</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>752</v>
+        <v>650</v>
       </c>
       <c r="E9" s="36" t="s">
         <v>388</v>
@@ -13160,16 +13303,16 @@
         <v>51</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>753</v>
+        <v>651</v>
       </c>
       <c r="J9" s="34" t="s">
-        <v>754</v>
+        <v>652</v>
       </c>
       <c r="K9" s="36" t="s">
         <v>23</v>
@@ -13200,10 +13343,10 @@
         <v>361</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>755</v>
+        <v>653</v>
       </c>
       <c r="E10" s="36" t="s">
         <v>389</v>
@@ -13218,10 +13361,10 @@
         <v>35</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>756</v>
+        <v>654</v>
       </c>
       <c r="J10" s="34" t="s">
-        <v>757</v>
+        <v>655</v>
       </c>
       <c r="K10" s="36" t="s">
         <v>23</v>
@@ -13252,10 +13395,10 @@
         <v>361</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>758</v>
+        <v>656</v>
       </c>
       <c r="E11" s="36" t="s">
         <v>392</v>
@@ -13270,10 +13413,10 @@
         <v>35</v>
       </c>
       <c r="I11" s="36" t="s">
-        <v>759</v>
+        <v>657</v>
       </c>
       <c r="J11" s="34" t="s">
-        <v>760</v>
+        <v>658</v>
       </c>
       <c r="K11" s="36" t="s">
         <v>23</v>
@@ -13304,13 +13447,13 @@
         <v>361</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="D12" s="36" t="s">
-        <v>761</v>
+        <v>659</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>762</v>
+        <v>660</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>51</v>
@@ -13322,10 +13465,10 @@
         <v>35</v>
       </c>
       <c r="I12" s="36" t="s">
-        <v>763</v>
+        <v>661</v>
       </c>
       <c r="J12" s="34" t="s">
-        <v>764</v>
+        <v>662</v>
       </c>
       <c r="K12" s="36" t="s">
         <v>23</v>
@@ -13702,18 +13845,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
-        <v>820</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
+      <c r="A1" s="112" t="s">
+        <v>712</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
     </row>
     <row r="2" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -13723,25 +13866,25 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>813</v>
+        <v>705</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>815</v>
+        <v>707</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>816</v>
+        <v>708</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>818</v>
+        <v>710</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>819</v>
+        <v>711</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>438</v>
@@ -13756,23 +13899,23 @@
         <v>361</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>736</v>
+        <v>634</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>855</v>
+        <v>731</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="63" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="63" t="s">
-        <v>1053</v>
+        <v>899</v>
       </c>
       <c r="H3" s="63" t="s">
-        <v>770</v>
+        <v>668</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>857</v>
+        <v>733</v>
       </c>
       <c r="J3" s="34"/>
       <c r="K3" s="36"/>
@@ -15326,17 +15469,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>453</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -15427,25 +15570,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>454</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -15579,34 +15722,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>461</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
-      <c r="T1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="106" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="60" t="s">
@@ -15627,7 +15770,7 @@
       <c r="H2" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="108" t="s">
+      <c r="I2" s="107" t="s">
         <v>66</v>
       </c>
       <c r="J2" s="60" t="s">
@@ -15672,13 +15815,13 @@
         <v>361</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>765</v>
+        <v>663</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>766</v>
+        <v>664</v>
       </c>
       <c r="F3" s="34" t="s">
         <v>396</v>
@@ -15692,7 +15835,7 @@
         <v>397</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>767</v>
+        <v>665</v>
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
@@ -15705,7 +15848,7 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
-        <v>768</v>
+        <v>666</v>
       </c>
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
@@ -15718,13 +15861,13 @@
         <v>361</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>765</v>
+        <v>663</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="F4" s="34" t="s">
         <v>396</v>
@@ -15733,7 +15876,7 @@
         <v>79</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>770</v>
+        <v>668</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>29</v>
@@ -15751,7 +15894,7 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
       <c r="R4" s="34" t="s">
-        <v>771</v>
+        <v>669</v>
       </c>
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
@@ -15764,13 +15907,13 @@
         <v>361</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>765</v>
+        <v>663</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="F5" s="34" t="s">
         <v>396</v>
@@ -15779,10 +15922,10 @@
         <v>79</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>770</v>
+        <v>668</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>772</v>
+        <v>670</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
@@ -15797,7 +15940,7 @@
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34" t="s">
-        <v>773</v>
+        <v>671</v>
       </c>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
@@ -15810,13 +15953,13 @@
         <v>361</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>774</v>
+        <v>672</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>766</v>
+        <v>664</v>
       </c>
       <c r="F6" s="34" t="s">
         <v>396</v>
@@ -15830,7 +15973,7 @@
         <v>397</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>767</v>
+        <v>665</v>
       </c>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
@@ -15843,7 +15986,7 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34" t="s">
-        <v>775</v>
+        <v>673</v>
       </c>
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
@@ -15856,13 +15999,13 @@
         <v>361</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>774</v>
+        <v>672</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="F7" s="34" t="s">
         <v>396</v>
@@ -15871,10 +16014,10 @@
         <v>79</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>770</v>
+        <v>668</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>772</v>
+        <v>670</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
@@ -15889,7 +16032,7 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="34" t="s">
-        <v>776</v>
+        <v>674</v>
       </c>
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
@@ -15902,13 +16045,13 @@
         <v>361</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>774</v>
+        <v>672</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="F8" s="34" t="s">
         <v>396</v>
@@ -15917,10 +16060,10 @@
         <v>79</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>770</v>
+        <v>668</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>777</v>
+        <v>675</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
@@ -15935,7 +16078,7 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34" t="s">
-        <v>778</v>
+        <v>676</v>
       </c>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
@@ -15948,13 +16091,13 @@
         <v>361</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>774</v>
+        <v>672</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>766</v>
+        <v>664</v>
       </c>
       <c r="F9" s="34" t="s">
         <v>396</v>
@@ -15968,7 +16111,7 @@
         <v>397</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>779</v>
+        <v>677</v>
       </c>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
@@ -15981,7 +16124,7 @@
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34" t="s">
-        <v>780</v>
+        <v>678</v>
       </c>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
@@ -15994,13 +16137,13 @@
         <v>361</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>779</v>
+        <v>677</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>766</v>
+        <v>664</v>
       </c>
       <c r="F10" s="34" t="s">
         <v>396</v>
@@ -16011,10 +16154,10 @@
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34" t="s">
-        <v>781</v>
+        <v>679</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>782</v>
+        <v>680</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
@@ -16027,7 +16170,7 @@
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34" t="s">
-        <v>783</v>
+        <v>681</v>
       </c>
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
@@ -16040,13 +16183,13 @@
         <v>361</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>779</v>
+        <v>677</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="F11" s="34" t="s">
         <v>396</v>
@@ -16055,10 +16198,10 @@
         <v>79</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>784</v>
+        <v>682</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>767</v>
+        <v>665</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
@@ -16073,7 +16216,7 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34" t="s">
-        <v>785</v>
+        <v>683</v>
       </c>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
@@ -16086,13 +16229,13 @@
         <v>361</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>779</v>
+        <v>677</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="F12" s="34" t="s">
         <v>396</v>
@@ -16101,10 +16244,10 @@
         <v>79</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>784</v>
+        <v>682</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>774</v>
+        <v>672</v>
       </c>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
@@ -16119,7 +16262,7 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34" t="s">
-        <v>786</v>
+        <v>684</v>
       </c>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
@@ -16132,13 +16275,13 @@
         <v>361</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>767</v>
+        <v>665</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>766</v>
+        <v>664</v>
       </c>
       <c r="F13" s="34" t="s">
         <v>396</v>
@@ -16152,7 +16295,7 @@
         <v>397</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>779</v>
+        <v>677</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -16165,7 +16308,7 @@
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34" t="s">
-        <v>787</v>
+        <v>685</v>
       </c>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
@@ -16178,13 +16321,13 @@
         <v>361</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>767</v>
+        <v>665</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>766</v>
+        <v>664</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>396</v>
@@ -16195,10 +16338,10 @@
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34" t="s">
-        <v>781</v>
+        <v>679</v>
       </c>
       <c r="K14" s="34" t="s">
-        <v>782</v>
+        <v>680</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
@@ -16211,7 +16354,7 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="34" t="s">
-        <v>783</v>
+        <v>681</v>
       </c>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
@@ -16224,13 +16367,13 @@
         <v>361</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>767</v>
+        <v>665</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>396</v>
@@ -16239,10 +16382,10 @@
         <v>79</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>784</v>
+        <v>682</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>765</v>
+        <v>663</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
@@ -16257,7 +16400,7 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34" t="s">
-        <v>788</v>
+        <v>686</v>
       </c>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
@@ -16270,13 +16413,13 @@
         <v>361</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>767</v>
+        <v>665</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>396</v>
@@ -16285,10 +16428,10 @@
         <v>79</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>784</v>
+        <v>682</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>774</v>
+        <v>672</v>
       </c>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
@@ -16303,7 +16446,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="34" t="s">
-        <v>786</v>
+        <v>684</v>
       </c>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
@@ -16553,15 +16696,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>462</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -16739,30 +16882,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
-        <v>812</v>
-      </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="125"/>
-      <c r="I1" s="114" t="s">
-        <v>1054</v>
-      </c>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="116"/>
+      <c r="A1" s="122" t="s">
+        <v>704</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="113" t="s">
+        <v>900</v>
+      </c>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="115"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -16796,16 +16939,16 @@
         <v>85</v>
       </c>
       <c r="K2" s="28" t="s">
-        <v>1049</v>
+        <v>895</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>1050</v>
+        <v>896</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>1055</v>
+        <v>901</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>1056</v>
+        <v>902</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>95</v>
@@ -16837,24 +16980,24 @@
         <v>56</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>1072</v>
+        <v>918</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>360</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1073</v>
+        <v>919</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>1074</v>
+        <v>920</v>
       </c>
       <c r="I3" s="36" t="s">
         <v>458</v>
       </c>
-      <c r="J3" s="109" t="s">
+      <c r="J3" s="108" t="s">
         <v>105</v>
       </c>
       <c r="K3" s="36">
@@ -16980,13 +17123,13 @@
       <c r="I6" s="36" t="s">
         <v>460</v>
       </c>
-      <c r="J6" s="109" t="s">
+      <c r="J6" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
+      <c r="M6" s="108"/>
+      <c r="N6" s="108"/>
       <c r="O6" s="36" t="s">
         <v>103</v>
       </c>
@@ -17026,13 +17169,13 @@
       <c r="I7" s="36" t="s">
         <v>459</v>
       </c>
-      <c r="J7" s="109" t="s">
+      <c r="J7" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
       <c r="O7" s="36" t="s">
         <v>103</v>
       </c>
@@ -17138,20 +17281,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="113" t="s">
         <v>583</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -17176,10 +17319,10 @@
         <v>109</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1058</v>
+        <v>904</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>1057</v>
+        <v>903</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>96</v>
@@ -17230,7 +17373,7 @@
         <v>110</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>1059</v>
+        <v>905</v>
       </c>
       <c r="I4" s="21" t="b">
         <v>1</v>
@@ -17262,13 +17405,13 @@
       <c r="F5" s="36" t="s">
         <v>404</v>
       </c>
-      <c r="G5" s="98" t="s">
+      <c r="G5" s="97" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="98"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="36"/>
       <c r="J5" s="36"/>
-      <c r="K5" s="110"/>
+      <c r="K5" s="109"/>
       <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -17459,27 +17602,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="125" t="s">
         <v>468</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
-      <c r="G1" s="127"/>
-      <c r="H1" s="128"/>
-      <c r="I1" s="129" t="s">
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128" t="s">
         <v>463</v>
       </c>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -17542,7 +17685,7 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="34" t="s">
-        <v>922</v>
+        <v>798</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -17581,7 +17724,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>808</v>
+        <v>700</v>
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="36"/>
@@ -17606,7 +17749,7 @@
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
       <c r="I5" s="36" t="s">
-        <v>808</v>
+        <v>700</v>
       </c>
       <c r="J5" s="36" t="s">
         <v>126</v>
@@ -17630,7 +17773,7 @@
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
       <c r="I6" s="36" t="s">
-        <v>808</v>
+        <v>700</v>
       </c>
       <c r="J6" s="36" t="s">
         <v>128</v>
@@ -17667,7 +17810,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="36" t="s">
-        <v>809</v>
+        <v>701</v>
       </c>
       <c r="J7" s="36"/>
       <c r="K7" s="36"/>
@@ -17700,7 +17843,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="36" t="s">
-        <v>810</v>
+        <v>702</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>133</v>
@@ -17739,7 +17882,7 @@
         <v>132</v>
       </c>
       <c r="I9" s="36" t="s">
-        <v>810</v>
+        <v>702</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>135</v>
@@ -17776,7 +17919,7 @@
         <v>137</v>
       </c>
       <c r="I10" s="36" t="s">
-        <v>811</v>
+        <v>703</v>
       </c>
       <c r="J10" s="36"/>
       <c r="K10" s="36"/>
@@ -17857,27 +18000,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>455</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
-      <c r="S1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -17890,13 +18033,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>1047</v>
+        <v>893</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>858</v>
+        <v>734</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>859</v>
+        <v>735</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>139</v>
@@ -17908,7 +18051,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>1060</v>
+        <v>906</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>141</v>
@@ -18139,13 +18282,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>448</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -18405,30 +18548,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="116"/>
+      <c r="A1" s="113" t="s">
+        <v>909</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="115"/>
     </row>
     <row r="2" spans="1:22" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -18441,16 +18584,16 @@
         <v>138</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>1051</v>
+        <v>897</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>1061</v>
+        <v>907</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>1048</v>
+        <v>894</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>158</v>
@@ -18753,25 +18896,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
-        <v>1062</v>
-      </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
+      <c r="A1" s="112" t="s">
+        <v>908</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
     </row>
     <row r="2" spans="1:17" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -18796,10 +18939,10 @@
         <v>244</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>1051</v>
+        <v>897</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>1061</v>
+        <v>907</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>245</v>
@@ -19009,29 +19152,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="113" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="117" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="116" t="s">
         <v>471</v>
       </c>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
-      <c r="N1" s="130"/>
-      <c r="O1" s="130"/>
-      <c r="P1" s="130"/>
-      <c r="Q1" s="130"/>
-      <c r="R1" s="130"/>
-      <c r="S1" s="131"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="130"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -19708,14 +19851,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="131" t="s">
         <v>447</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="134"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -19862,25 +20005,25 @@
     <col min="8" max="9" width="8.6640625" style="35" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" style="35" customWidth="1"/>
     <col min="11" max="12" width="8.6640625" style="35" customWidth="1"/>
-    <col min="13" max="18" width="8.6640625" style="112"/>
+    <col min="13" max="18" width="8.6640625" style="111"/>
     <col min="19" max="16384" width="8.6640625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
+      <c r="A1" s="113" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -19890,19 +20033,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1076</v>
+        <v>922</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>1093</v>
+        <v>939</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1094</v>
+        <v>940</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>245</v>
@@ -19911,7 +20054,7 @@
         <v>157</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>1095</v>
+        <v>941</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>246</v>
@@ -19938,16 +20081,16 @@
     </row>
     <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="69" t="s">
-        <v>903</v>
+        <v>779</v>
       </c>
       <c r="B4" s="69" t="s">
         <v>361</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>1080</v>
+        <v>926</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>1073</v>
+        <v>919</v>
       </c>
       <c r="E4" s="69" t="b">
         <v>0</v>
@@ -19955,56 +20098,56 @@
       <c r="F4" s="69"/>
       <c r="G4" s="69"/>
       <c r="H4" s="69" t="s">
-        <v>1096</v>
+        <v>942</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>1081</v>
+        <v>927</v>
       </c>
       <c r="J4" s="69" t="s">
-        <v>1097</v>
+        <v>943</v>
       </c>
       <c r="K4" s="69">
         <v>7003</v>
       </c>
       <c r="L4" s="69"/>
     </row>
-    <row r="5" spans="1:12" s="112" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="111" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="69" t="s">
-        <v>903</v>
+        <v>779</v>
       </c>
       <c r="B5" s="69" t="s">
         <v>361</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>1085</v>
+        <v>931</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>1098</v>
+        <v>944</v>
       </c>
       <c r="E5" s="69" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>1099</v>
+        <v>945</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>1100</v>
+        <v>946</v>
       </c>
       <c r="H5" s="69" t="s">
-        <v>1101</v>
+        <v>947</v>
       </c>
       <c r="I5" s="69" t="s">
-        <v>1086</v>
+        <v>932</v>
       </c>
       <c r="J5" s="69" t="s">
-        <v>1088</v>
+        <v>934</v>
       </c>
       <c r="K5" s="69">
         <v>53</v>
       </c>
       <c r="L5" s="69"/>
     </row>
-    <row r="6" spans="1:12" s="112" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="111" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="69"/>
       <c r="B6" s="69"/>
       <c r="C6" s="69"/>
@@ -20013,20 +20156,20 @@
       <c r="F6" s="69"/>
       <c r="G6" s="69"/>
       <c r="H6" s="69" t="s">
-        <v>1102</v>
+        <v>948</v>
       </c>
       <c r="I6" s="69" t="s">
-        <v>1090</v>
+        <v>936</v>
       </c>
       <c r="J6" s="69" t="s">
-        <v>892</v>
+        <v>768</v>
       </c>
       <c r="K6" s="69">
         <v>22</v>
       </c>
       <c r="L6" s="69"/>
     </row>
-    <row r="7" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="35"/>
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
@@ -20040,7 +20183,7 @@
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
     </row>
-    <row r="8" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="35"/>
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
@@ -20054,7 +20197,7 @@
       <c r="K8" s="35"/>
       <c r="L8" s="35"/>
     </row>
-    <row r="9" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="35"/>
       <c r="B9" s="35"/>
       <c r="C9" s="35"/>
@@ -20068,7 +20211,7 @@
       <c r="K9" s="35"/>
       <c r="L9" s="35"/>
     </row>
-    <row r="10" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="35"/>
       <c r="B10" s="35"/>
       <c r="C10" s="35"/>
@@ -20082,7 +20225,7 @@
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
     </row>
-    <row r="11" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="35"/>
       <c r="B11" s="35"/>
       <c r="C11" s="35"/>
@@ -20096,7 +20239,7 @@
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
     </row>
-    <row r="12" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="35"/>
       <c r="B12" s="35"/>
       <c r="C12" s="35"/>
@@ -20110,7 +20253,7 @@
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
     </row>
-    <row r="13" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="35"/>
       <c r="B13" s="35"/>
       <c r="C13" s="35"/>
@@ -20124,7 +20267,7 @@
       <c r="K13" s="35"/>
       <c r="L13" s="35"/>
     </row>
-    <row r="14" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="35"/>
       <c r="B14" s="35"/>
       <c r="C14" s="35"/>
@@ -20138,7 +20281,7 @@
       <c r="K14" s="35"/>
       <c r="L14" s="35"/>
     </row>
-    <row r="15" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
@@ -20152,7 +20295,7 @@
       <c r="K15" s="35"/>
       <c r="L15" s="35"/>
     </row>
-    <row r="16" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="35"/>
       <c r="B16" s="35"/>
       <c r="C16" s="35"/>
@@ -20166,7 +20309,7 @@
       <c r="K16" s="35"/>
       <c r="L16" s="35"/>
     </row>
-    <row r="17" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35"/>
       <c r="B17" s="35"/>
       <c r="C17" s="35"/>
@@ -20180,7 +20323,7 @@
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
     </row>
-    <row r="18" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="35"/>
       <c r="B18" s="35"/>
       <c r="C18" s="35"/>
@@ -20194,7 +20337,7 @@
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
     </row>
-    <row r="19" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="35"/>
       <c r="B19" s="35"/>
       <c r="C19" s="35"/>
@@ -20208,7 +20351,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="35"/>
     </row>
-    <row r="20" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35"/>
@@ -20222,7 +20365,7 @@
       <c r="K20" s="35"/>
       <c r="L20" s="35"/>
     </row>
-    <row r="21" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="35"/>
       <c r="B21" s="35"/>
       <c r="C21" s="35"/>
@@ -20236,7 +20379,7 @@
       <c r="K21" s="35"/>
       <c r="L21" s="35"/>
     </row>
-    <row r="22" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="35"/>
       <c r="B22" s="35"/>
       <c r="C22" s="35"/>
@@ -20250,7 +20393,7 @@
       <c r="K22" s="35"/>
       <c r="L22" s="35"/>
     </row>
-    <row r="23" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35"/>
       <c r="B23" s="35"/>
       <c r="C23" s="35"/>
@@ -20264,7 +20407,7 @@
       <c r="K23" s="35"/>
       <c r="L23" s="35"/>
     </row>
-    <row r="24" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35"/>
       <c r="B24" s="35"/>
       <c r="C24" s="35"/>
@@ -20278,7 +20421,7 @@
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
     </row>
-    <row r="25" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="35"/>
       <c r="B25" s="35"/>
       <c r="C25" s="35"/>
@@ -20292,7 +20435,7 @@
       <c r="K25" s="35"/>
       <c r="L25" s="35"/>
     </row>
-    <row r="26" spans="1:12" s="112" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="111" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="35"/>
       <c r="B26" s="35"/>
       <c r="C26" s="35"/>
@@ -20338,19 +20481,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
+      <c r="A1" s="113" t="s">
+        <v>921</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:11" ht="72.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -20360,19 +20503,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>1076</v>
+        <v>922</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>157</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>1077</v>
+        <v>923</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>1078</v>
+        <v>924</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>1079</v>
+        <v>925</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>160</v>
@@ -20384,7 +20527,7 @@
         <v>474</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>1048</v>
+        <v>894</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -20404,19 +20547,19 @@
     </row>
     <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="69" t="s">
-        <v>903</v>
+        <v>779</v>
       </c>
       <c r="B4" s="69" t="s">
         <v>361</v>
       </c>
       <c r="C4" s="69" t="s">
-        <v>1080</v>
+        <v>926</v>
       </c>
       <c r="D4" s="69" t="s">
-        <v>1081</v>
+        <v>927</v>
       </c>
       <c r="E4" s="69" t="s">
-        <v>1082</v>
+        <v>928</v>
       </c>
       <c r="F4" s="69" t="b">
         <v>0</v>
@@ -20428,36 +20571,36 @@
         <v>7003</v>
       </c>
       <c r="I4" s="69" t="s">
-        <v>1083</v>
+        <v>929</v>
       </c>
       <c r="J4" s="69">
         <v>10000</v>
       </c>
       <c r="K4" s="69" t="s">
-        <v>1084</v>
+        <v>930</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="69" t="s">
-        <v>903</v>
+        <v>779</v>
       </c>
       <c r="B5" s="69" t="s">
         <v>361</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>1085</v>
+        <v>931</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>1086</v>
+        <v>932</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>1087</v>
+        <v>933</v>
       </c>
       <c r="F5" s="69" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="69" t="s">
-        <v>1088</v>
+        <v>934</v>
       </c>
       <c r="H5" s="69">
         <v>53</v>
@@ -20467,7 +20610,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="69" t="s">
-        <v>1089</v>
+        <v>935</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -20475,16 +20618,16 @@
       <c r="B6" s="69"/>
       <c r="C6" s="69"/>
       <c r="D6" s="69" t="s">
-        <v>1090</v>
+        <v>936</v>
       </c>
       <c r="E6" s="69" t="s">
-        <v>1091</v>
+        <v>937</v>
       </c>
       <c r="F6" s="69" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="69" t="s">
-        <v>892</v>
+        <v>768</v>
       </c>
       <c r="H6" s="69">
         <v>22</v>
@@ -20494,7 +20637,7 @@
         <v>20000</v>
       </c>
       <c r="K6" s="69" t="s">
-        <v>1092</v>
+        <v>938</v>
       </c>
     </row>
   </sheetData>
@@ -20528,17 +20671,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="134" t="s">
         <v>469</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+      <c r="I1" s="134"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -20702,35 +20845,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="50" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="113" t="s">
         <v>586</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="115"/>
-      <c r="O1" s="115"/>
-      <c r="P1" s="115"/>
-      <c r="Q1" s="115"/>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
-      <c r="AA1" s="116"/>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="114"/>
+      <c r="Q1" s="114"/>
+      <c r="R1" s="114"/>
+      <c r="S1" s="114"/>
+      <c r="T1" s="114"/>
+      <c r="U1" s="114"/>
+      <c r="V1" s="114"/>
+      <c r="W1" s="114"/>
+      <c r="X1" s="114"/>
+      <c r="Y1" s="114"/>
+      <c r="Z1" s="114"/>
+      <c r="AA1" s="115"/>
     </row>
     <row r="2" spans="1:27" s="61" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="64" t="s">
@@ -20746,31 +20889,31 @@
         <v>39</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>923</v>
+        <v>799</v>
       </c>
       <c r="F2" s="64" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="64" t="s">
-        <v>924</v>
+        <v>800</v>
       </c>
       <c r="H2" s="64" t="s">
-        <v>925</v>
+        <v>801</v>
       </c>
       <c r="I2" s="64" t="s">
-        <v>926</v>
+        <v>802</v>
       </c>
       <c r="J2" s="64" t="s">
-        <v>927</v>
+        <v>803</v>
       </c>
       <c r="K2" s="87" t="s">
-        <v>928</v>
+        <v>804</v>
       </c>
       <c r="L2" s="64" t="s">
-        <v>929</v>
+        <v>805</v>
       </c>
       <c r="M2" s="65" t="s">
-        <v>930</v>
+        <v>806</v>
       </c>
       <c r="N2" s="64" t="s">
         <v>419</v>
@@ -20788,10 +20931,10 @@
         <v>422</v>
       </c>
       <c r="S2" s="64" t="s">
-        <v>931</v>
+        <v>807</v>
       </c>
       <c r="T2" s="64" t="s">
-        <v>932</v>
+        <v>808</v>
       </c>
       <c r="U2" s="64" t="s">
         <v>95</v>
@@ -20803,7 +20946,7 @@
         <v>327</v>
       </c>
       <c r="X2" s="64" t="s">
-        <v>933</v>
+        <v>809</v>
       </c>
       <c r="Y2" s="64" t="s">
         <v>584</v>
@@ -20847,20 +20990,20 @@
       <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>320</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="97" t="s">
         <v>590</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="97" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>967</v>
-      </c>
-      <c r="E4" s="99" t="s">
-        <v>968</v>
+        <v>841</v>
+      </c>
+      <c r="E4" s="98" t="s">
+        <v>842</v>
       </c>
       <c r="F4" s="51" t="s">
         <v>344</v>
@@ -20883,7 +21026,7 @@
         <v>333</v>
       </c>
       <c r="N4" s="51" t="s">
-        <v>969</v>
+        <v>843</v>
       </c>
       <c r="O4" s="51" t="s">
         <v>334</v>
@@ -20922,20 +21065,20 @@
       <c r="AA4" s="36"/>
     </row>
     <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="99" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="97" t="s">
         <v>590</v>
       </c>
-      <c r="C5" s="98" t="s">
+      <c r="C5" s="97" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>982</v>
-      </c>
-      <c r="E5" s="99" t="s">
-        <v>970</v>
+        <v>856</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>844</v>
       </c>
       <c r="F5" s="51" t="s">
         <v>347</v>
@@ -20960,7 +21103,7 @@
         <v>333</v>
       </c>
       <c r="N5" s="51" t="s">
-        <v>971</v>
+        <v>845</v>
       </c>
       <c r="O5" s="51" t="s">
         <v>349</v>
@@ -20999,11 +21142,11 @@
       <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
       <c r="D6" s="34"/>
-      <c r="E6" s="99"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="51"/>
       <c r="G6" s="51"/>
       <c r="H6" s="51"/>
@@ -21028,11 +21171,11 @@
       <c r="AA6" s="36"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
       <c r="D7" s="34"/>
-      <c r="E7" s="99"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="51"/>
       <c r="G7" s="51"/>
       <c r="H7" s="51"/>
@@ -27130,16 +27273,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>947</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="A1" s="113" t="s">
+        <v>823</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="87" t="s">
@@ -27149,7 +27292,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>943</v>
+        <v>819</v>
       </c>
       <c r="D2" s="87" t="s">
         <v>84</v>
@@ -27158,22 +27301,22 @@
         <v>85</v>
       </c>
       <c r="F2" s="87" t="s">
-        <v>944</v>
+        <v>820</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>945</v>
+        <v>821</v>
       </c>
       <c r="H2" s="90" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="98" t="s">
+      <c r="A3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="98"/>
+      <c r="B3" s="97"/>
       <c r="C3" s="36"/>
-      <c r="D3" s="98"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="51"/>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -27193,7 +27336,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="51" t="s">
-        <v>946</v>
+        <v>822</v>
       </c>
       <c r="F4" s="34">
         <v>2</v>
@@ -33243,25 +33386,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="50" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="122" t="s">
         <v>587</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
-      <c r="H1" s="124"/>
-      <c r="I1" s="124"/>
-      <c r="J1" s="124"/>
-      <c r="K1" s="124"/>
-      <c r="L1" s="124"/>
-      <c r="M1" s="124"/>
-      <c r="N1" s="124"/>
-      <c r="O1" s="124"/>
-      <c r="P1" s="124"/>
-      <c r="Q1" s="124"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
       <c r="R1" s="93"/>
       <c r="S1" s="93"/>
       <c r="T1" s="93"/>
@@ -33278,34 +33421,34 @@
         <v>6</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>943</v>
+        <v>819</v>
       </c>
       <c r="D2" s="65" t="s">
-        <v>948</v>
+        <v>824</v>
       </c>
       <c r="E2" s="87" t="s">
-        <v>949</v>
+        <v>825</v>
       </c>
       <c r="F2" s="87" t="s">
         <v>351</v>
       </c>
       <c r="G2" s="87" t="s">
-        <v>925</v>
+        <v>801</v>
       </c>
       <c r="H2" s="65" t="s">
-        <v>930</v>
+        <v>806</v>
       </c>
       <c r="I2" s="87" t="s">
         <v>419</v>
       </c>
       <c r="J2" s="87" t="s">
-        <v>950</v>
+        <v>826</v>
       </c>
       <c r="K2" s="87" t="s">
-        <v>951</v>
+        <v>827</v>
       </c>
       <c r="L2" s="87" t="s">
-        <v>952</v>
+        <v>828</v>
       </c>
       <c r="M2" s="87" t="s">
         <v>95</v>
@@ -33313,11 +33456,11 @@
       <c r="N2" s="87" t="s">
         <v>584</v>
       </c>
-      <c r="O2" s="104" t="s">
+      <c r="O2" s="103" t="s">
         <v>97</v>
       </c>
-      <c r="P2" s="104" t="s">
-        <v>1046</v>
+      <c r="P2" s="103" t="s">
+        <v>892</v>
       </c>
       <c r="Q2" s="94" t="s">
         <v>438</v>
@@ -33331,7 +33474,7 @@
       <c r="X2" s="46"/>
     </row>
     <row r="3" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="99" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="36"/>
@@ -33346,12 +33489,12 @@
       <c r="L3" s="67"/>
       <c r="M3" s="51"/>
       <c r="N3" s="59"/>
-      <c r="O3" s="105"/>
+      <c r="O3" s="104"/>
       <c r="P3" s="36"/>
       <c r="Q3" s="36"/>
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="98" t="s">
+      <c r="A4" s="97" t="s">
         <v>320</v>
       </c>
       <c r="B4" s="36" t="s">
@@ -33361,33 +33504,33 @@
         <v>426</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>980</v>
+        <v>854</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>967</v>
+        <v>841</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>967</v>
-      </c>
-      <c r="G4" s="102">
+        <v>841</v>
+      </c>
+      <c r="G4" s="101">
         <v>4</v>
       </c>
-      <c r="H4" s="96" t="s">
+      <c r="H4" s="95" t="s">
         <v>333</v>
       </c>
-      <c r="I4" s="96" t="s">
-        <v>981</v>
-      </c>
-      <c r="J4" s="96" t="s">
+      <c r="I4" s="95" t="s">
+        <v>855</v>
+      </c>
+      <c r="J4" s="95" t="s">
         <v>431</v>
       </c>
-      <c r="K4" s="96" t="b">
+      <c r="K4" s="95" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="97" t="b">
+      <c r="L4" s="96" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="96" t="s">
+      <c r="M4" s="95" t="s">
         <v>103</v>
       </c>
       <c r="N4" s="59" t="s">
@@ -33399,11 +33542,11 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="36" customFormat="1" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="98"/>
+      <c r="A5" s="97"/>
       <c r="C5" s="51"/>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
-      <c r="G5" s="101"/>
+      <c r="G5" s="100"/>
       <c r="H5" s="51"/>
       <c r="I5" s="51"/>
       <c r="J5" s="51"/>
@@ -33411,8 +33554,8 @@
       <c r="L5" s="59"/>
       <c r="M5" s="51"/>
       <c r="N5" s="59"/>
-      <c r="O5" s="105"/>
-      <c r="R5" s="101"/>
+      <c r="O5" s="104"/>
+      <c r="R5" s="100"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6" s="46"/>
@@ -40225,10 +40368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -40241,13 +40384,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>449</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -40284,10 +40427,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>597</v>
+        <v>951</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>598</v>
+        <v>952</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="36"/>
@@ -40297,10 +40440,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="36"/>
@@ -40310,10 +40453,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="36"/>
@@ -40322,26 +40465,26 @@
       <c r="A7" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="70" t="s">
-        <v>603</v>
-      </c>
-      <c r="C7" s="70" t="s">
-        <v>604</v>
-      </c>
-      <c r="D7" s="21"/>
+      <c r="B7" s="34" t="s">
+        <v>601</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>602</v>
+      </c>
+      <c r="D7" s="34"/>
       <c r="E7" s="21"/>
     </row>
     <row r="8" spans="1:5" s="46" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>605</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>606</v>
-      </c>
-      <c r="D8" s="34"/>
+      <c r="B8" s="70" t="s">
+        <v>603</v>
+      </c>
+      <c r="C8" s="70" t="s">
+        <v>604</v>
+      </c>
+      <c r="D8" s="21"/>
       <c r="E8" s="34"/>
     </row>
     <row r="9" spans="1:5" s="46" customFormat="1" ht="28" customHeight="1" x14ac:dyDescent="0.2">
@@ -40349,10 +40492,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>789</v>
+        <v>605</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>790</v>
+        <v>606</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -40362,10 +40505,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>823</v>
+        <v>687</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>824</v>
+        <v>688</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -40375,28 +40518,107 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>964</v>
+        <v>715</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>965</v>
+        <v>716</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>838</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>839</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="36"/>
+    </row>
+    <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="63" t="s">
         <v>4</v>
       </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+    </row>
+    <row r="14" spans="1:5" ht="64" x14ac:dyDescent="0.2">
+      <c r="A14" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>953</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>954</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>955</v>
+      </c>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="34" t="s">
+        <v>956</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>957</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>958</v>
+      </c>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>959</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>960</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>961</v>
+      </c>
+      <c r="E16" s="36"/>
+    </row>
+    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.2">
+      <c r="A17" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="34" t="s">
+        <v>962</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>963</v>
+      </c>
+      <c r="D17" s="34" t="s">
+        <v>964</v>
+      </c>
+      <c r="E17" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the matching rule for creating Dynamic Groups; else leave it empty" sqref="D3:D501" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
+  <dataValidations count="6">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the matching rule for creating Dynamic Groups; else leave it empty" sqref="D18:D501 D3:D13" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="E3:E501" xr:uid="{00000000-0002-0000-0200-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Group  Name is a mandatory field" sqref="B4:B501" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Group Name is a mandatory field" sqref="B3" xr:uid="{00000000-0002-0000-0200-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Group  Name is a mandatory field" sqref="B18:B501 B5:B13" xr:uid="{00000000-0002-0000-0200-000002000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Group Name is a mandatory field" sqref="B3:B4" xr:uid="{290773E1-71E9-234D-8DD7-DAD5D718F518}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Specify the matching rule for creating Dynamic Groups; else leave it empty" sqref="D14:D17" xr:uid="{0D2AE422-CF6D-9C4F-A1BF-B63D8F285371}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Group  Name is a mandatory field" sqref="B14:B17" xr:uid="{7A604B0C-413A-3A4C-825A-9DD9A5AB1812}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -40440,22 +40662,22 @@
   <sheetData>
     <row r="1" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
-        <v>939</v>
+        <v>815</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>926</v>
+        <v>802</v>
       </c>
       <c r="C1" s="56" t="s">
         <v>427</v>
       </c>
       <c r="D1" s="56" t="s">
-        <v>942</v>
+        <v>818</v>
       </c>
       <c r="E1" s="47" t="s">
         <v>353</v>
       </c>
       <c r="F1" s="57" t="s">
-        <v>930</v>
+        <v>806</v>
       </c>
       <c r="G1" s="57" t="s">
         <v>327</v>
@@ -40464,13 +40686,13 @@
         <v>326</v>
       </c>
       <c r="I1" s="89" t="s">
-        <v>928</v>
+        <v>804</v>
       </c>
       <c r="J1" s="89" t="s">
-        <v>929</v>
+        <v>805</v>
       </c>
       <c r="K1" s="57" t="s">
-        <v>924</v>
+        <v>800</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -40502,7 +40724,7 @@
         <v>80</v>
       </c>
       <c r="J2" s="63" t="s">
-        <v>940</v>
+        <v>816</v>
       </c>
       <c r="K2" s="36">
         <v>1</v>
@@ -40510,7 +40732,7 @@
     </row>
     <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="88" t="s">
-        <v>934</v>
+        <v>810</v>
       </c>
       <c r="B3" s="54" t="s">
         <v>429</v>
@@ -40537,7 +40759,7 @@
         <v>40</v>
       </c>
       <c r="J3" s="63" t="s">
-        <v>941</v>
+        <v>817</v>
       </c>
       <c r="K3" s="36">
         <v>2</v>
@@ -40545,7 +40767,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="88" t="s">
-        <v>935</v>
+        <v>811</v>
       </c>
       <c r="B4" s="36" t="s">
         <v>348</v>
@@ -40567,7 +40789,7 @@
         <v>344</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>983</v>
+        <v>857</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>430</v>
@@ -40587,7 +40809,7 @@
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="36" t="s">
-        <v>972</v>
+        <v>846</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36" t="s">
@@ -40600,11 +40822,11 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="88" t="s">
-        <v>936</v>
+        <v>812</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36" t="s">
-        <v>973</v>
+        <v>847</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36" t="s">
@@ -40617,11 +40839,11 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="88" t="s">
-        <v>937</v>
+        <v>813</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
-        <v>974</v>
+        <v>848</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="36" t="s">
@@ -40655,7 +40877,7 @@
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36" t="s">
-        <v>975</v>
+        <v>849</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36" t="s">
@@ -40668,11 +40890,11 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="88" t="s">
-        <v>938</v>
+        <v>814</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36" t="s">
-        <v>976</v>
+        <v>850</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36" t="s">
@@ -40689,11 +40911,11 @@
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36" t="s">
-        <v>977</v>
+        <v>851</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>946</v>
+        <v>822</v>
       </c>
       <c r="F12" s="36"/>
       <c r="H12" s="36" t="s">
@@ -40706,7 +40928,7 @@
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36" t="s">
-        <v>978</v>
+        <v>852</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
@@ -40721,7 +40943,7 @@
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
-        <v>979</v>
+        <v>853</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -41255,91 +41477,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="77" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="85" t="s">
-        <v>860</v>
+        <v>736</v>
       </c>
       <c r="B1" s="85" t="s">
-        <v>861</v>
+        <v>737</v>
       </c>
       <c r="C1" s="85" t="s">
-        <v>862</v>
+        <v>738</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>863</v>
+        <v>739</v>
       </c>
       <c r="E1" s="85" t="s">
-        <v>864</v>
+        <v>740</v>
       </c>
       <c r="F1" s="85" t="s">
-        <v>865</v>
+        <v>741</v>
       </c>
       <c r="G1" s="85" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="85" t="s">
-        <v>866</v>
+        <v>742</v>
       </c>
       <c r="I1" s="85" t="s">
-        <v>867</v>
+        <v>743</v>
       </c>
       <c r="J1" s="85" t="s">
-        <v>868</v>
+        <v>744</v>
       </c>
       <c r="K1" s="85" t="s">
-        <v>869</v>
+        <v>745</v>
       </c>
       <c r="L1" s="85" t="s">
-        <v>870</v>
+        <v>746</v>
       </c>
       <c r="M1" s="85" t="s">
-        <v>918</v>
+        <v>794</v>
       </c>
       <c r="N1" s="85" t="s">
-        <v>871</v>
+        <v>747</v>
       </c>
       <c r="O1" s="85" t="s">
-        <v>872</v>
+        <v>748</v>
       </c>
       <c r="P1" s="85" t="s">
-        <v>873</v>
+        <v>749</v>
       </c>
       <c r="Q1" s="85" t="s">
-        <v>874</v>
+        <v>750</v>
       </c>
       <c r="R1" s="85" t="s">
-        <v>875</v>
+        <v>751</v>
       </c>
       <c r="S1" s="85" t="s">
-        <v>876</v>
+        <v>752</v>
       </c>
       <c r="T1" s="85" t="s">
-        <v>920</v>
+        <v>796</v>
       </c>
       <c r="U1" s="85" t="s">
-        <v>877</v>
+        <v>753</v>
       </c>
       <c r="V1" s="76" t="s">
-        <v>878</v>
+        <v>754</v>
       </c>
       <c r="W1" s="76" t="s">
-        <v>879</v>
+        <v>755</v>
       </c>
       <c r="X1" s="76" t="s">
-        <v>880</v>
+        <v>756</v>
       </c>
       <c r="Y1" s="85" t="s">
-        <v>919</v>
+        <v>795</v>
       </c>
       <c r="Z1" s="76" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="76" t="s">
-        <v>881</v>
+        <v>757</v>
       </c>
       <c r="AB1" s="76" t="s">
-        <v>882</v>
+        <v>758</v>
       </c>
       <c r="AC1" s="76" t="s">
-        <v>883</v>
+        <v>759</v>
       </c>
       <c r="AD1" s="76" t="s">
         <v>252</v>
@@ -41360,7 +41582,7 @@
         <v>257</v>
       </c>
       <c r="AJ1" s="76" t="s">
-        <v>884</v>
+        <v>760</v>
       </c>
       <c r="AK1" s="76" t="s">
         <v>319</v>
@@ -41392,7 +41614,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="79" t="s">
-        <v>885</v>
+        <v>761</v>
       </c>
       <c r="H2" s="79" t="s">
         <v>38</v>
@@ -41415,13 +41637,13 @@
         <v>DRG</v>
       </c>
       <c r="N2" s="79" t="s">
-        <v>766</v>
+        <v>664</v>
       </c>
       <c r="O2" s="79" t="s">
         <v>78</v>
       </c>
       <c r="P2" s="80" t="s">
-        <v>886</v>
+        <v>762</v>
       </c>
       <c r="Q2" s="79" t="s">
         <v>360</v>
@@ -41441,13 +41663,13 @@
         <v>Bastion</v>
       </c>
       <c r="V2" s="79" t="s">
-        <v>887</v>
+        <v>763</v>
       </c>
       <c r="W2" s="79" t="s">
         <v>129</v>
       </c>
       <c r="X2" s="79" t="s">
-        <v>888</v>
+        <v>764</v>
       </c>
       <c r="Y2" s="79" t="b">
         <v>1</v>
@@ -41456,7 +41678,7 @@
         <v>147</v>
       </c>
       <c r="AA2" s="79" t="s">
-        <v>889</v>
+        <v>765</v>
       </c>
       <c r="AB2" s="79" t="s">
         <v>170</v>
@@ -41522,7 +41744,7 @@
         <v>56</v>
       </c>
       <c r="J3" s="79" t="s">
-        <v>740</v>
+        <v>638</v>
       </c>
       <c r="K3" s="79" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -41536,7 +41758,7 @@
         <v/>
       </c>
       <c r="N3" s="79" t="s">
-        <v>769</v>
+        <v>667</v>
       </c>
       <c r="O3" s="79" t="s">
         <v>396</v>
@@ -41551,7 +41773,7 @@
         <v>90</v>
       </c>
       <c r="S3" s="79" t="s">
-        <v>890</v>
+        <v>766</v>
       </c>
       <c r="T3" s="79" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -41568,7 +41790,7 @@
         <v>127</v>
       </c>
       <c r="X3" s="79" t="s">
-        <v>891</v>
+        <v>767</v>
       </c>
       <c r="Y3" s="79" t="b">
         <v>0</v>
@@ -41580,7 +41802,7 @@
         <v>169</v>
       </c>
       <c r="AB3" s="79" t="s">
-        <v>892</v>
+        <v>768</v>
       </c>
       <c r="AC3" s="79" t="s">
         <v>172</v>
@@ -41604,7 +41826,7 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="79" t="s">
-        <v>892</v>
+        <v>768</v>
       </c>
       <c r="AK3" s="78" t="s">
         <v>325</v>
@@ -41632,7 +41854,7 @@
       </c>
       <c r="F4" s="79"/>
       <c r="G4" s="79" t="s">
-        <v>893</v>
+        <v>769</v>
       </c>
       <c r="H4" s="79"/>
       <c r="I4" s="79" t="s">
@@ -41662,7 +41884,7 @@
         <v>99</v>
       </c>
       <c r="S4" s="79" t="s">
-        <v>894</v>
+        <v>770</v>
       </c>
       <c r="T4" s="79" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -41675,14 +41897,14 @@
       <c r="V4" s="79"/>
       <c r="W4" s="79"/>
       <c r="X4" s="79" t="s">
-        <v>895</v>
+        <v>771</v>
       </c>
       <c r="Y4" s="79"/>
       <c r="Z4" s="79" t="s">
-        <v>896</v>
+        <v>772</v>
       </c>
       <c r="AA4" s="79" t="s">
-        <v>897</v>
+        <v>773</v>
       </c>
       <c r="AB4" s="79"/>
       <c r="AC4" s="79" t="s">
@@ -41729,7 +41951,7 @@
       </c>
       <c r="F5" s="79"/>
       <c r="G5" s="79" t="s">
-        <v>898</v>
+        <v>774</v>
       </c>
       <c r="H5" s="79"/>
       <c r="I5" s="79" t="s">
@@ -41747,7 +41969,7 @@
       </c>
       <c r="N5" s="79"/>
       <c r="O5" s="79" t="s">
-        <v>899</v>
+        <v>775</v>
       </c>
       <c r="P5" s="80"/>
       <c r="Q5" s="79"/>
@@ -41764,7 +41986,7 @@
       <c r="X5" s="79"/>
       <c r="Y5" s="79"/>
       <c r="Z5" s="79" t="s">
-        <v>921</v>
+        <v>797</v>
       </c>
       <c r="AA5" s="79"/>
       <c r="AB5" s="79"/>
@@ -41808,7 +42030,7 @@
       </c>
       <c r="F6" s="79"/>
       <c r="G6" s="79" t="s">
-        <v>900</v>
+        <v>776</v>
       </c>
       <c r="H6" s="79"/>
       <c r="I6" s="79"/>
@@ -41879,7 +42101,7 @@
       </c>
       <c r="F7" s="79"/>
       <c r="G7" s="79" t="s">
-        <v>901</v>
+        <v>777</v>
       </c>
       <c r="H7" s="79"/>
       <c r="I7" s="79"/>
@@ -41948,7 +42170,7 @@
       </c>
       <c r="F8" s="79"/>
       <c r="G8" s="79" t="s">
-        <v>902</v>
+        <v>778</v>
       </c>
       <c r="H8" s="79"/>
       <c r="I8" s="79"/>
@@ -42017,7 +42239,7 @@
       </c>
       <c r="F9" s="79"/>
       <c r="G9" s="79" t="s">
-        <v>903</v>
+        <v>779</v>
       </c>
       <c r="H9" s="79"/>
       <c r="I9" s="79"/>
@@ -42086,7 +42308,7 @@
       </c>
       <c r="F10" s="79"/>
       <c r="G10" s="79" t="s">
-        <v>904</v>
+        <v>780</v>
       </c>
       <c r="H10" s="79"/>
       <c r="I10" s="79"/>
@@ -42155,7 +42377,7 @@
       </c>
       <c r="F11" s="79"/>
       <c r="G11" s="79" t="s">
-        <v>905</v>
+        <v>781</v>
       </c>
       <c r="H11" s="79"/>
       <c r="I11" s="79"/>
@@ -42224,7 +42446,7 @@
       </c>
       <c r="F12" s="79"/>
       <c r="G12" s="79" t="s">
-        <v>906</v>
+        <v>782</v>
       </c>
       <c r="H12" s="79"/>
       <c r="I12" s="79"/>
@@ -42291,7 +42513,7 @@
       </c>
       <c r="F13" s="79"/>
       <c r="G13" s="79" t="s">
-        <v>907</v>
+        <v>783</v>
       </c>
       <c r="H13" s="79"/>
       <c r="I13" s="79"/>
@@ -42358,7 +42580,7 @@
       </c>
       <c r="F14" s="79"/>
       <c r="G14" s="79" t="s">
-        <v>908</v>
+        <v>784</v>
       </c>
       <c r="H14" s="79"/>
       <c r="I14" s="79"/>
@@ -42492,7 +42714,7 @@
       </c>
       <c r="F16" s="79"/>
       <c r="G16" s="79" t="s">
-        <v>1069</v>
+        <v>915</v>
       </c>
       <c r="H16" s="79"/>
       <c r="I16" s="79"/>
@@ -42559,7 +42781,7 @@
       </c>
       <c r="F17" s="79"/>
       <c r="G17" s="79" t="s">
-        <v>909</v>
+        <v>785</v>
       </c>
       <c r="H17" s="79"/>
       <c r="I17" s="79"/>
@@ -42626,7 +42848,7 @@
       </c>
       <c r="F18" s="79"/>
       <c r="G18" s="79" t="s">
-        <v>1070</v>
+        <v>916</v>
       </c>
       <c r="H18" s="79"/>
       <c r="I18" s="79"/>
@@ -42693,7 +42915,7 @@
       </c>
       <c r="F19" s="79"/>
       <c r="G19" s="79" t="s">
-        <v>910</v>
+        <v>786</v>
       </c>
       <c r="H19" s="79"/>
       <c r="I19" s="79"/>
@@ -42760,7 +42982,7 @@
       </c>
       <c r="F20" s="79"/>
       <c r="G20" s="79" t="s">
-        <v>911</v>
+        <v>787</v>
       </c>
       <c r="H20" s="79"/>
       <c r="I20" s="79"/>
@@ -42827,7 +43049,7 @@
       </c>
       <c r="F21" s="79"/>
       <c r="G21" s="79" t="s">
-        <v>912</v>
+        <v>788</v>
       </c>
       <c r="H21" s="79"/>
       <c r="I21" s="79"/>
@@ -42894,7 +43116,7 @@
       </c>
       <c r="F22" s="79"/>
       <c r="G22" s="79" t="s">
-        <v>913</v>
+        <v>789</v>
       </c>
       <c r="H22" s="79"/>
       <c r="I22" s="79"/>
@@ -42961,7 +43183,7 @@
       </c>
       <c r="F23" s="79"/>
       <c r="G23" s="79" t="s">
-        <v>914</v>
+        <v>790</v>
       </c>
       <c r="H23" s="79"/>
       <c r="I23" s="79"/>
@@ -43028,7 +43250,7 @@
       </c>
       <c r="F24" s="79"/>
       <c r="G24" s="79" t="s">
-        <v>915</v>
+        <v>791</v>
       </c>
       <c r="H24" s="79"/>
       <c r="I24" s="79"/>
@@ -44801,10 +45023,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
-        <v>860</v>
+        <v>736</v>
       </c>
       <c r="B1" s="76" t="s">
-        <v>916</v>
+        <v>792</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -45256,10 +45478,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H198"/>
+  <dimension ref="A1:I231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D201" sqref="D201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -45275,16 +45497,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>450</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -45317,16 +45539,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>791</v>
+        <v>689</v>
       </c>
       <c r="C3" s="34" t="s">
         <v>412</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>792</v>
+        <v>690</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>793</v>
+        <v>691</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -45338,7 +45560,7 @@
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34" t="s">
-        <v>825</v>
+        <v>717</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -45348,7 +45570,7 @@
       <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>607</v>
       </c>
       <c r="C5" s="34" t="s">
@@ -45358,7 +45580,7 @@
         <v>608</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>609</v>
+        <v>965</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -45370,7 +45592,7 @@
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34" t="s">
-        <v>610</v>
+        <v>966</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -45382,7 +45604,7 @@
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
-        <v>611</v>
+        <v>967</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -45394,7 +45616,7 @@
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34" t="s">
-        <v>612</v>
+        <v>968</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -45406,7 +45628,7 @@
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>613</v>
+        <v>969</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -45418,7 +45640,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>614</v>
+        <v>970</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -45430,7 +45652,7 @@
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34" t="s">
-        <v>615</v>
+        <v>971</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -45442,7 +45664,7 @@
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34" t="s">
-        <v>616</v>
+        <v>972</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -45454,7 +45676,7 @@
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>617</v>
+        <v>973</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -45466,7 +45688,7 @@
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>618</v>
+        <v>974</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -45478,7 +45700,7 @@
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34" t="s">
-        <v>619</v>
+        <v>975</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -45490,7 +45712,7 @@
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>620</v>
+        <v>976</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -45502,7 +45724,7 @@
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34" t="s">
-        <v>621</v>
+        <v>977</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -45514,7 +45736,7 @@
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34" t="s">
-        <v>622</v>
+        <v>978</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -45526,7 +45748,7 @@
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34" t="s">
-        <v>623</v>
+        <v>979</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -45538,7 +45760,7 @@
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34" t="s">
-        <v>624</v>
+        <v>980</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -45550,7 +45772,7 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34" t="s">
-        <v>625</v>
+        <v>981</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -45562,7 +45784,7 @@
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34" t="s">
-        <v>794</v>
+        <v>982</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -45574,7 +45796,7 @@
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34" t="s">
-        <v>795</v>
+        <v>983</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -45586,7 +45808,7 @@
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34" t="s">
-        <v>626</v>
+        <v>984</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
@@ -45598,7 +45820,7 @@
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34" t="s">
-        <v>627</v>
+        <v>985</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
@@ -45610,7 +45832,7 @@
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34" t="s">
-        <v>628</v>
+        <v>986</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
@@ -45622,7 +45844,7 @@
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34" t="s">
-        <v>826</v>
+        <v>987</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -45634,7 +45856,7 @@
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34" t="s">
-        <v>629</v>
+        <v>988</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -45646,19 +45868,19 @@
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34" t="s">
-        <v>827</v>
+        <v>989</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
       <c r="H29" s="34"/>
     </row>
-    <row r="30" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="34"/>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34" t="s">
-        <v>828</v>
+        <v>990</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -45670,7 +45892,7 @@
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34" t="s">
-        <v>630</v>
+        <v>991</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -45682,7 +45904,7 @@
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34" t="s">
-        <v>631</v>
+        <v>992</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -45694,7 +45916,7 @@
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34" t="s">
-        <v>632</v>
+        <v>993</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -45706,7 +45928,7 @@
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34" t="s">
-        <v>796</v>
+        <v>994</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -45718,7 +45940,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34" t="s">
-        <v>829</v>
+        <v>995</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
@@ -45729,8 +45951,8 @@
       <c r="B36" s="34"/>
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
-      <c r="E36" s="1" t="s">
-        <v>984</v>
+      <c r="E36" s="34" t="s">
+        <v>996</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -45741,8 +45963,8 @@
       <c r="B37" s="34"/>
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
-      <c r="E37" s="1" t="s">
-        <v>985</v>
+      <c r="E37" s="34" t="s">
+        <v>997</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
@@ -45753,8 +45975,8 @@
       <c r="B38" s="34"/>
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
-      <c r="E38" s="1" t="s">
-        <v>986</v>
+      <c r="E38" s="34" t="s">
+        <v>998</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -45765,8 +45987,8 @@
       <c r="B39" s="34"/>
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
-      <c r="E39" s="1" t="s">
-        <v>989</v>
+      <c r="E39" s="34" t="s">
+        <v>999</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
@@ -45777,8 +45999,8 @@
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
-      <c r="E40" s="1" t="s">
-        <v>987</v>
+      <c r="E40" s="34" t="s">
+        <v>1000</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
@@ -45789,8 +46011,8 @@
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="1" t="s">
-        <v>615</v>
+      <c r="E41" s="34" t="s">
+        <v>1001</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -45801,20 +46023,20 @@
       <c r="B42" s="34"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="1" t="s">
-        <v>616</v>
+      <c r="E42" s="34" t="s">
+        <v>1002</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="1" t="s">
-        <v>988</v>
+      <c r="E43" s="34" t="s">
+        <v>718</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -45826,7 +46048,7 @@
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -45838,19 +46060,25 @@
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34" t="s">
-        <v>953</v>
+        <v>830</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
       <c r="H45" s="34"/>
     </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="34"/>
-      <c r="B46" s="34"/>
-      <c r="C46" s="34"/>
-      <c r="D46" s="34"/>
+      <c r="B46" s="102" t="s">
+        <v>609</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>610</v>
+      </c>
       <c r="E46" s="34" t="s">
-        <v>954</v>
+        <v>611</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
@@ -45860,17 +46088,11 @@
       <c r="A47" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B47" s="103" t="s">
-        <v>633</v>
-      </c>
-      <c r="C47" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="D47" s="34" t="s">
-        <v>634</v>
-      </c>
+      <c r="B47" s="34"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
       <c r="E47" s="34" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -45882,7 +46104,7 @@
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
       <c r="E48" s="34" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -45894,7 +46116,7 @@
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
       <c r="E49" s="34" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
@@ -45906,7 +46128,7 @@
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
       <c r="E50" s="34" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
@@ -45918,7 +46140,7 @@
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
       <c r="E51" s="34" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
@@ -45930,19 +46152,19 @@
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
       <c r="H52" s="34"/>
     </row>
-    <row r="53" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="34"/>
       <c r="B53" s="34"/>
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="34" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -45954,7 +46176,7 @@
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
       <c r="E54" s="34" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
@@ -45966,7 +46188,7 @@
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -45978,7 +46200,7 @@
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
@@ -45990,7 +46212,7 @@
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
       <c r="E57" s="34" t="s">
-        <v>645</v>
+        <v>692</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
@@ -46002,7 +46224,7 @@
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34" t="s">
-        <v>797</v>
+        <v>719</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
@@ -46014,7 +46236,7 @@
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34" t="s">
-        <v>831</v>
+        <v>720</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
@@ -46026,7 +46248,7 @@
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
@@ -46038,7 +46260,7 @@
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34" t="s">
-        <v>955</v>
+        <v>832</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
@@ -46050,7 +46272,7 @@
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="s">
-        <v>956</v>
+        <v>1003</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
@@ -46061,16 +46283,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>833</v>
+        <v>721</v>
       </c>
       <c r="C63" s="34" t="s">
         <v>412</v>
       </c>
       <c r="D63" s="34" t="s">
-        <v>834</v>
+        <v>722</v>
       </c>
       <c r="E63" s="34" t="s">
-        <v>835</v>
+        <v>723</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
@@ -46082,7 +46304,7 @@
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
       <c r="E64" s="34" t="s">
-        <v>836</v>
+        <v>724</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
@@ -46094,7 +46316,7 @@
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34" t="s">
-        <v>837</v>
+        <v>725</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
@@ -46106,7 +46328,7 @@
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
-        <v>838</v>
+        <v>726</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
@@ -46117,16 +46339,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>646</v>
+        <v>1004</v>
       </c>
       <c r="C67" s="34" t="s">
         <v>412</v>
       </c>
       <c r="D67" s="34" t="s">
-        <v>647</v>
+        <v>1005</v>
       </c>
       <c r="E67" s="34" t="s">
-        <v>648</v>
+        <v>1006</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
@@ -46138,7 +46360,7 @@
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34" t="s">
-        <v>649</v>
+        <v>1007</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
@@ -46150,19 +46372,27 @@
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34" t="s">
-        <v>650</v>
+        <v>695</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
       <c r="H69" s="34"/>
     </row>
-    <row r="70" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="34"/>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
+    <row r="70" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A70" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" s="102" t="s">
+        <v>622</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>1008</v>
+      </c>
       <c r="E70" s="34" t="s">
-        <v>651</v>
+        <v>1009</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
@@ -46174,19 +46404,19 @@
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34" t="s">
-        <v>652</v>
+        <v>1010</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
       <c r="H71" s="34"/>
     </row>
-    <row r="72" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A72" s="34"/>
       <c r="B72" s="34"/>
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
       <c r="E72" s="34" t="s">
-        <v>653</v>
+        <v>1011</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -46198,103 +46428,103 @@
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
-        <v>654</v>
+        <v>1012</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
       <c r="H73" s="34"/>
     </row>
-    <row r="74" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A74" s="34"/>
       <c r="B74" s="34"/>
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
-        <v>655</v>
+        <v>1013</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
       <c r="H74" s="34"/>
     </row>
-    <row r="75" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A75" s="34"/>
       <c r="B75" s="34"/>
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34" t="s">
-        <v>656</v>
+        <v>1014</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
       <c r="H75" s="34"/>
     </row>
-    <row r="76" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A76" s="34"/>
       <c r="B76" s="34"/>
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34" t="s">
-        <v>657</v>
+        <v>1015</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
       <c r="H76" s="34"/>
     </row>
-    <row r="77" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A77" s="34"/>
       <c r="B77" s="34"/>
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34" t="s">
-        <v>658</v>
+        <v>1016</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
       <c r="H77" s="34"/>
     </row>
-    <row r="78" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A78" s="34"/>
       <c r="B78" s="34"/>
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34" t="s">
-        <v>659</v>
+        <v>1017</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
       <c r="H78" s="34"/>
     </row>
-    <row r="79" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="112" x14ac:dyDescent="0.2">
       <c r="A79" s="34"/>
       <c r="B79" s="34"/>
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34" t="s">
-        <v>660</v>
+        <v>1018</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
       <c r="H79" s="34"/>
     </row>
-    <row r="80" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A80" s="34"/>
       <c r="B80" s="34"/>
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34" t="s">
-        <v>661</v>
+        <v>1019</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
       <c r="H80" s="34"/>
     </row>
-    <row r="81" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A81" s="34"/>
       <c r="B81" s="34"/>
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
       <c r="E81" s="34" t="s">
-        <v>662</v>
+        <v>1020</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
@@ -46306,7 +46536,7 @@
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
       <c r="E82" s="34" t="s">
-        <v>663</v>
+        <v>1021</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
@@ -46318,7 +46548,7 @@
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34" t="s">
-        <v>664</v>
+        <v>1022</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
@@ -46330,7 +46560,7 @@
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34" t="s">
-        <v>1041</v>
+        <v>1023</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
@@ -46342,7 +46572,7 @@
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="E85" s="34" t="s">
-        <v>1042</v>
+        <v>1024</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -46354,27 +46584,19 @@
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="34" t="s">
-        <v>1043</v>
+        <v>1025</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
       <c r="H86" s="34"/>
     </row>
     <row r="87" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" s="103" t="s">
-        <v>665</v>
-      </c>
-      <c r="C87" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="D87" s="34" t="s">
-        <v>666</v>
-      </c>
+      <c r="A87" s="34"/>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
       <c r="E87" s="34" t="s">
-        <v>667</v>
+        <v>1026</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
@@ -46386,7 +46608,7 @@
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
       <c r="E88" s="34" t="s">
-        <v>668</v>
+        <v>1027</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
@@ -46398,7 +46620,7 @@
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="34" t="s">
-        <v>669</v>
+        <v>1028</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
@@ -46410,7 +46632,7 @@
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34" t="s">
-        <v>670</v>
+        <v>1029</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
@@ -46422,7 +46644,7 @@
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="34" t="s">
-        <v>671</v>
+        <v>1030</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
@@ -46434,7 +46656,7 @@
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
       <c r="E92" s="34" t="s">
-        <v>798</v>
+        <v>1031</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
@@ -46446,7 +46668,7 @@
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
       <c r="E93" s="34" t="s">
-        <v>672</v>
+        <v>1032</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
@@ -46458,7 +46680,7 @@
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
       <c r="E94" s="34" t="s">
-        <v>673</v>
+        <v>1033</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
@@ -46470,7 +46692,7 @@
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
       <c r="E95" s="34" t="s">
-        <v>674</v>
+        <v>1034</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
@@ -46482,7 +46704,7 @@
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
       <c r="E96" s="34" t="s">
-        <v>675</v>
+        <v>1035</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
@@ -46494,7 +46716,7 @@
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
       <c r="E97" s="34" t="s">
-        <v>676</v>
+        <v>1036</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
@@ -46506,7 +46728,7 @@
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
       <c r="E98" s="34" t="s">
-        <v>677</v>
+        <v>1037</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
@@ -46518,7 +46740,7 @@
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
       <c r="E99" s="34" t="s">
-        <v>678</v>
+        <v>1038</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
@@ -46530,7 +46752,7 @@
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
       <c r="E100" s="34" t="s">
-        <v>679</v>
+        <v>1039</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
@@ -46542,79 +46764,87 @@
       <c r="C101" s="34"/>
       <c r="D101" s="34"/>
       <c r="E101" s="34" t="s">
-        <v>680</v>
+        <v>1040</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="34"/>
       <c r="H101" s="34"/>
     </row>
     <row r="102" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="34"/>
-      <c r="B102" s="34"/>
-      <c r="C102" s="34"/>
-      <c r="D102" s="34"/>
-      <c r="E102" s="34" t="s">
-        <v>681</v>
+      <c r="A102" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="102" t="s">
+        <v>623</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D102" s="34" t="s">
+        <v>624</v>
+      </c>
+      <c r="E102" s="102" t="s">
+        <v>727</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
       <c r="H102" s="34"/>
     </row>
-    <row r="103" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="34"/>
       <c r="B103" s="34"/>
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
-      <c r="E103" s="34" t="s">
-        <v>799</v>
+      <c r="E103" s="102" t="s">
+        <v>625</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
       <c r="H103" s="34"/>
     </row>
-    <row r="104" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="34"/>
       <c r="B104" s="34"/>
       <c r="C104" s="34"/>
       <c r="D104" s="34"/>
       <c r="E104" s="34" t="s">
-        <v>839</v>
+        <v>1041</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
       <c r="H104" s="34"/>
     </row>
-    <row r="105" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="34"/>
       <c r="B105" s="34"/>
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
-      <c r="E105" s="1" t="s">
-        <v>1004</v>
+      <c r="E105" s="34" t="s">
+        <v>1042</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
       <c r="H105" s="34"/>
     </row>
-    <row r="106" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="34"/>
       <c r="B106" s="34"/>
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
-      <c r="E106" s="1" t="s">
-        <v>1005</v>
+      <c r="E106" s="34" t="s">
+        <v>1043</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
       <c r="H106" s="34"/>
     </row>
-    <row r="107" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A107" s="34"/>
       <c r="B107" s="34"/>
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
-      <c r="E107" s="1" t="s">
-        <v>1000</v>
+      <c r="E107" s="34" t="s">
+        <v>1044</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="34"/>
@@ -46625,32 +46855,32 @@
       <c r="B108" s="34"/>
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
-      <c r="E108" s="1" t="s">
-        <v>998</v>
+      <c r="E108" s="34" t="s">
+        <v>1045</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="34"/>
       <c r="H108" s="34"/>
     </row>
-    <row r="109" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="64" x14ac:dyDescent="0.2">
       <c r="A109" s="34"/>
       <c r="B109" s="34"/>
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
-      <c r="E109" s="1" t="s">
-        <v>1001</v>
+      <c r="E109" s="34" t="s">
+        <v>1046</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
       <c r="H109" s="34"/>
     </row>
-    <row r="110" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="34"/>
       <c r="B110" s="34"/>
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
-      <c r="E110" s="1" t="s">
-        <v>999</v>
+      <c r="E110" s="34" t="s">
+        <v>1047</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="34"/>
@@ -46661,8 +46891,8 @@
       <c r="B111" s="34"/>
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
-      <c r="E111" s="1" t="s">
-        <v>1002</v>
+      <c r="E111" s="34" t="s">
+        <v>1048</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
@@ -46673,20 +46903,20 @@
       <c r="B112" s="34"/>
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
-      <c r="E112" s="1" t="s">
-        <v>1003</v>
+      <c r="E112" s="34" t="s">
+        <v>1049</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
       <c r="H112" s="34"/>
     </row>
-    <row r="113" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="34"/>
       <c r="B113" s="34"/>
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
-      <c r="E113" s="1" t="s">
-        <v>1006</v>
+      <c r="E113" s="34" t="s">
+        <v>1050</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
@@ -46698,19 +46928,19 @@
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
       <c r="E114" s="34" t="s">
-        <v>840</v>
+        <v>1051</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
       <c r="H114" s="34"/>
     </row>
-    <row r="115" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="34"/>
       <c r="B115" s="34"/>
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
       <c r="E115" s="34" t="s">
-        <v>957</v>
+        <v>1052</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
@@ -46722,27 +46952,19 @@
       <c r="C116" s="34"/>
       <c r="D116" s="34"/>
       <c r="E116" s="34" t="s">
-        <v>958</v>
+        <v>1053</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
       <c r="H116" s="34"/>
     </row>
     <row r="117" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" s="103" t="s">
-        <v>682</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="D117" s="34" t="s">
-        <v>683</v>
-      </c>
-      <c r="E117" s="103" t="s">
-        <v>841</v>
+      <c r="A117" s="34"/>
+      <c r="B117" s="34"/>
+      <c r="C117" s="34"/>
+      <c r="D117" s="34"/>
+      <c r="E117" s="34" t="s">
+        <v>1054</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
@@ -46753,8 +46975,8 @@
       <c r="B118" s="34"/>
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
-      <c r="E118" s="103" t="s">
-        <v>686</v>
+      <c r="E118" s="34" t="s">
+        <v>1055</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34"/>
@@ -46765,32 +46987,40 @@
       <c r="B119" s="34"/>
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
-      <c r="E119" s="103" t="s">
-        <v>689</v>
+      <c r="E119" s="34" t="s">
+        <v>1056</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="34"/>
       <c r="H119" s="34"/>
     </row>
-    <row r="120" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="34"/>
       <c r="B120" s="34"/>
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
-      <c r="E120" s="103" t="s">
-        <v>690</v>
+      <c r="E120" s="34" t="s">
+        <v>1057</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
       <c r="H120" s="34"/>
     </row>
     <row r="121" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="34"/>
-      <c r="B121" s="34"/>
-      <c r="C121" s="34"/>
-      <c r="D121" s="34"/>
-      <c r="E121" s="103" t="s">
-        <v>691</v>
+      <c r="A121" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" s="102" t="s">
+        <v>626</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D121" s="34" t="s">
+        <v>627</v>
+      </c>
+      <c r="E121" s="34" t="s">
+        <v>1058</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="34"/>
@@ -46801,8 +47031,8 @@
       <c r="B122" s="34"/>
       <c r="C122" s="34"/>
       <c r="D122" s="34"/>
-      <c r="E122" s="103" t="s">
-        <v>692</v>
+      <c r="E122" s="34" t="s">
+        <v>1059</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="34"/>
@@ -46813,8 +47043,8 @@
       <c r="B123" s="34"/>
       <c r="C123" s="34"/>
       <c r="D123" s="34"/>
-      <c r="E123" s="103" t="s">
-        <v>693</v>
+      <c r="E123" s="34" t="s">
+        <v>1060</v>
       </c>
       <c r="F123" s="34"/>
       <c r="G123" s="34"/>
@@ -46825,8 +47055,8 @@
       <c r="B124" s="34"/>
       <c r="C124" s="34"/>
       <c r="D124" s="34"/>
-      <c r="E124" s="103" t="s">
-        <v>842</v>
+      <c r="E124" s="34" t="s">
+        <v>1061</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="34"/>
@@ -46837,8 +47067,8 @@
       <c r="B125" s="34"/>
       <c r="C125" s="34"/>
       <c r="D125" s="34"/>
-      <c r="E125" s="103" t="s">
-        <v>684</v>
+      <c r="E125" s="34" t="s">
+        <v>1062</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="34"/>
@@ -46849,8 +47079,8 @@
       <c r="B126" s="34"/>
       <c r="C126" s="34"/>
       <c r="D126" s="34"/>
-      <c r="E126" s="103" t="s">
-        <v>843</v>
+      <c r="E126" s="34" t="s">
+        <v>1063</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="34"/>
@@ -46861,8 +47091,8 @@
       <c r="B127" s="34"/>
       <c r="C127" s="34"/>
       <c r="D127" s="34"/>
-      <c r="E127" s="103" t="s">
-        <v>844</v>
+      <c r="E127" s="34" t="s">
+        <v>1064</v>
       </c>
       <c r="F127" s="34"/>
       <c r="G127" s="34"/>
@@ -46873,20 +47103,20 @@
       <c r="B128" s="34"/>
       <c r="C128" s="34"/>
       <c r="D128" s="34"/>
-      <c r="E128" s="103" t="s">
-        <v>845</v>
+      <c r="E128" s="34" t="s">
+        <v>1065</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="34"/>
       <c r="H128" s="34"/>
     </row>
-    <row r="129" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A129" s="34"/>
       <c r="B129" s="34"/>
       <c r="C129" s="34"/>
       <c r="D129" s="34"/>
-      <c r="E129" s="103" t="s">
-        <v>685</v>
+      <c r="E129" s="34" t="s">
+        <v>1066</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="34"/>
@@ -46898,7 +47128,7 @@
       <c r="C130" s="34"/>
       <c r="D130" s="34"/>
       <c r="E130" s="34" t="s">
-        <v>687</v>
+        <v>1067</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="34"/>
@@ -46910,63 +47140,55 @@
       <c r="C131" s="34"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34" t="s">
-        <v>688</v>
+        <v>1068</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="34"/>
       <c r="H131" s="34"/>
     </row>
-    <row r="132" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A132" s="34"/>
       <c r="B132" s="34"/>
       <c r="C132" s="34"/>
       <c r="D132" s="34"/>
       <c r="E132" s="34" t="s">
-        <v>846</v>
+        <v>1069</v>
       </c>
       <c r="F132" s="34"/>
       <c r="G132" s="34"/>
       <c r="H132" s="34"/>
     </row>
-    <row r="133" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A133" s="34"/>
       <c r="B133" s="34"/>
       <c r="C133" s="34"/>
       <c r="D133" s="34"/>
       <c r="E133" s="34" t="s">
-        <v>847</v>
+        <v>1070</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="34"/>
       <c r="H133" s="34"/>
     </row>
-    <row r="134" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A134" s="34"/>
       <c r="B134" s="34"/>
       <c r="C134" s="34"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34" t="s">
-        <v>848</v>
+        <v>1071</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="34"/>
       <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B135" s="103" t="s">
-        <v>694</v>
-      </c>
-      <c r="C135" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="D135" s="34" t="s">
-        <v>695</v>
-      </c>
+      <c r="A135" s="34"/>
+      <c r="B135" s="34"/>
+      <c r="C135" s="34"/>
+      <c r="D135" s="34"/>
       <c r="E135" s="34" t="s">
-        <v>696</v>
+        <v>1072</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="34"/>
@@ -46978,7 +47200,7 @@
       <c r="C136" s="34"/>
       <c r="D136" s="34"/>
       <c r="E136" s="34" t="s">
-        <v>697</v>
+        <v>1073</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="34"/>
@@ -46990,7 +47212,7 @@
       <c r="C137" s="34"/>
       <c r="D137" s="34"/>
       <c r="E137" s="34" t="s">
-        <v>698</v>
+        <v>1074</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="34"/>
@@ -47002,7 +47224,7 @@
       <c r="C138" s="34"/>
       <c r="D138" s="34"/>
       <c r="E138" s="34" t="s">
-        <v>699</v>
+        <v>1075</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="34"/>
@@ -47014,7 +47236,7 @@
       <c r="C139" s="34"/>
       <c r="D139" s="34"/>
       <c r="E139" s="34" t="s">
-        <v>700</v>
+        <v>1062</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="34"/>
@@ -47026,7 +47248,7 @@
       <c r="C140" s="34"/>
       <c r="D140" s="34"/>
       <c r="E140" s="34" t="s">
-        <v>701</v>
+        <v>1063</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="34"/>
@@ -47038,7 +47260,7 @@
       <c r="C141" s="34"/>
       <c r="D141" s="34"/>
       <c r="E141" s="34" t="s">
-        <v>702</v>
+        <v>1076</v>
       </c>
       <c r="F141" s="34"/>
       <c r="G141" s="34"/>
@@ -47050,7 +47272,7 @@
       <c r="C142" s="34"/>
       <c r="D142" s="34"/>
       <c r="E142" s="34" t="s">
-        <v>703</v>
+        <v>1077</v>
       </c>
       <c r="F142" s="34"/>
       <c r="G142" s="34"/>
@@ -47062,7 +47284,7 @@
       <c r="C143" s="34"/>
       <c r="D143" s="34"/>
       <c r="E143" s="34" t="s">
-        <v>704</v>
+        <v>1078</v>
       </c>
       <c r="F143" s="34"/>
       <c r="G143" s="34"/>
@@ -47074,79 +47296,95 @@
       <c r="C144" s="34"/>
       <c r="D144" s="34"/>
       <c r="E144" s="34" t="s">
-        <v>800</v>
+        <v>1079</v>
       </c>
       <c r="F144" s="34"/>
       <c r="G144" s="34"/>
       <c r="H144" s="34"/>
     </row>
-    <row r="145" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="34"/>
       <c r="B145" s="34"/>
       <c r="C145" s="34"/>
       <c r="D145" s="34"/>
       <c r="E145" s="34" t="s">
-        <v>849</v>
+        <v>728</v>
       </c>
       <c r="F145" s="34"/>
       <c r="G145" s="34"/>
       <c r="H145" s="34"/>
     </row>
-    <row r="146" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="34"/>
       <c r="B146" s="34"/>
       <c r="C146" s="34"/>
       <c r="D146" s="34"/>
-      <c r="E146" s="1" t="s">
-        <v>1008</v>
+      <c r="E146" s="34" t="s">
+        <v>833</v>
       </c>
       <c r="F146" s="34"/>
       <c r="G146" s="34"/>
       <c r="H146" s="34"/>
     </row>
-    <row r="147" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="34"/>
       <c r="B147" s="34"/>
       <c r="C147" s="34"/>
       <c r="D147" s="34"/>
-      <c r="E147" s="1" t="s">
-        <v>1009</v>
+      <c r="E147" s="34" t="s">
+        <v>863</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="34"/>
       <c r="H147" s="34"/>
     </row>
-    <row r="148" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A148" s="34"/>
-      <c r="B148" s="34"/>
-      <c r="C148" s="34"/>
-      <c r="D148" s="34"/>
-      <c r="E148" s="1" t="s">
-        <v>1010</v>
+    <row r="148" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A148" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D148" s="34" t="s">
+        <v>694</v>
+      </c>
+      <c r="E148" s="34" t="s">
+        <v>695</v>
       </c>
       <c r="F148" s="34"/>
       <c r="G148" s="34"/>
       <c r="H148" s="34"/>
     </row>
-    <row r="149" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A149" s="34"/>
-      <c r="B149" s="34"/>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="1" t="s">
-        <v>1012</v>
+    <row r="149" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A149" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" s="34" t="s">
+        <v>834</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D149" s="34" t="s">
+        <v>835</v>
+      </c>
+      <c r="E149" s="34" t="s">
+        <v>836</v>
       </c>
       <c r="F149" s="34"/>
       <c r="G149" s="34"/>
       <c r="H149" s="34"/>
     </row>
-    <row r="150" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="34"/>
       <c r="B150" s="34"/>
       <c r="C150" s="34"/>
       <c r="D150" s="34"/>
-      <c r="E150" s="1" t="s">
-        <v>1011</v>
+      <c r="E150" s="34" t="s">
+        <v>837</v>
       </c>
       <c r="F150" s="34"/>
       <c r="G150" s="34"/>
@@ -47157,20 +47395,28 @@
       <c r="B151" s="34"/>
       <c r="C151" s="34"/>
       <c r="D151" s="34"/>
-      <c r="E151" s="1" t="s">
-        <v>1013</v>
+      <c r="E151" s="34" t="s">
+        <v>1080</v>
       </c>
       <c r="F151" s="34"/>
       <c r="G151" s="34"/>
       <c r="H151" s="34"/>
     </row>
-    <row r="152" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A152" s="34"/>
-      <c r="B152" s="34"/>
-      <c r="C152" s="34"/>
-      <c r="D152" s="34"/>
-      <c r="E152" s="1" t="s">
-        <v>1014</v>
+    <row r="152" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A152" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" s="102" t="s">
+        <v>628</v>
+      </c>
+      <c r="C152" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D152" s="34" t="s">
+        <v>629</v>
+      </c>
+      <c r="E152" s="34" t="s">
+        <v>1081</v>
       </c>
       <c r="F152" s="34"/>
       <c r="G152" s="34"/>
@@ -47182,103 +47428,79 @@
       <c r="C153" s="34"/>
       <c r="D153" s="34"/>
       <c r="E153" s="34" t="s">
-        <v>850</v>
+        <v>1082</v>
       </c>
       <c r="F153" s="34"/>
       <c r="G153" s="34"/>
       <c r="H153" s="34"/>
     </row>
-    <row r="154" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A154" s="34"/>
       <c r="B154" s="34"/>
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
       <c r="E154" s="34" t="s">
-        <v>959</v>
+        <v>1083</v>
       </c>
       <c r="F154" s="34"/>
       <c r="G154" s="34"/>
       <c r="H154" s="34"/>
     </row>
-    <row r="155" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A155" s="34"/>
       <c r="B155" s="34"/>
       <c r="C155" s="34"/>
       <c r="D155" s="34"/>
       <c r="E155" s="34" t="s">
-        <v>1007</v>
+        <v>1084</v>
       </c>
       <c r="F155" s="34"/>
       <c r="G155" s="34"/>
       <c r="H155" s="34"/>
     </row>
-    <row r="156" spans="1:8" ht="80" x14ac:dyDescent="0.2">
-      <c r="A156" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="34" t="s">
-        <v>801</v>
-      </c>
-      <c r="C156" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="D156" s="34" t="s">
-        <v>802</v>
-      </c>
+    <row r="156" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A156" s="34"/>
+      <c r="B156" s="34"/>
+      <c r="C156" s="34"/>
+      <c r="D156" s="34"/>
       <c r="E156" s="34" t="s">
-        <v>803</v>
+        <v>1085</v>
       </c>
       <c r="F156" s="34"/>
       <c r="G156" s="34"/>
       <c r="H156" s="34"/>
     </row>
-    <row r="157" spans="1:8" ht="48" x14ac:dyDescent="0.2">
-      <c r="A157" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B157" s="95" t="s">
-        <v>960</v>
-      </c>
-      <c r="C157" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="D157" s="34" t="s">
-        <v>961</v>
-      </c>
+    <row r="157" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A157" s="34"/>
+      <c r="B157" s="34"/>
+      <c r="C157" s="34"/>
+      <c r="D157" s="34"/>
       <c r="E157" s="34" t="s">
-        <v>962</v>
+        <v>1086</v>
       </c>
       <c r="F157" s="34"/>
       <c r="G157" s="34"/>
       <c r="H157" s="34"/>
     </row>
-    <row r="158" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A158" s="34"/>
       <c r="B158" s="34"/>
       <c r="C158" s="34"/>
       <c r="D158" s="34"/>
       <c r="E158" s="34" t="s">
-        <v>963</v>
+        <v>1087</v>
       </c>
       <c r="F158" s="34"/>
       <c r="G158" s="34"/>
       <c r="H158" s="34"/>
     </row>
     <row r="159" spans="1:8" ht="101.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B159" s="103" t="s">
-        <v>705</v>
-      </c>
-      <c r="C159" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="D159" s="34" t="s">
-        <v>706</v>
-      </c>
+      <c r="A159" s="34"/>
+      <c r="B159" s="34"/>
+      <c r="C159" s="34"/>
+      <c r="D159" s="34"/>
       <c r="E159" s="34" t="s">
-        <v>723</v>
+        <v>1088</v>
       </c>
       <c r="F159" s="34"/>
       <c r="G159" s="34"/>
@@ -47290,19 +47512,19 @@
       <c r="C160" s="34"/>
       <c r="D160" s="34"/>
       <c r="E160" s="34" t="s">
-        <v>724</v>
+        <v>1089</v>
       </c>
       <c r="F160" s="34"/>
       <c r="G160" s="34"/>
       <c r="H160" s="34"/>
     </row>
-    <row r="161" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" ht="80" x14ac:dyDescent="0.2">
       <c r="A161" s="34"/>
       <c r="B161" s="34"/>
       <c r="C161" s="34"/>
       <c r="D161" s="34"/>
       <c r="E161" s="34" t="s">
-        <v>851</v>
+        <v>1090</v>
       </c>
       <c r="F161" s="34"/>
       <c r="G161" s="34"/>
@@ -47314,7 +47536,7 @@
       <c r="C162" s="34"/>
       <c r="D162" s="34"/>
       <c r="E162" s="34" t="s">
-        <v>726</v>
+        <v>1091</v>
       </c>
       <c r="F162" s="34"/>
       <c r="G162" s="34"/>
@@ -47326,7 +47548,7 @@
       <c r="C163" s="34"/>
       <c r="D163" s="34"/>
       <c r="E163" s="34" t="s">
-        <v>729</v>
+        <v>1092</v>
       </c>
       <c r="F163" s="34"/>
       <c r="G163" s="34"/>
@@ -47338,7 +47560,7 @@
       <c r="C164" s="34"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>730</v>
+        <v>1093</v>
       </c>
       <c r="F164" s="34"/>
       <c r="G164" s="34"/>
@@ -47350,7 +47572,7 @@
       <c r="C165" s="34"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>731</v>
+        <v>1094</v>
       </c>
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
@@ -47362,7 +47584,7 @@
       <c r="C166" s="34"/>
       <c r="D166" s="34"/>
       <c r="E166" s="34" t="s">
-        <v>707</v>
+        <v>1095</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="34"/>
@@ -47374,7 +47596,7 @@
       <c r="C167" s="34"/>
       <c r="D167" s="34"/>
       <c r="E167" s="34" t="s">
-        <v>708</v>
+        <v>1096</v>
       </c>
       <c r="F167" s="34"/>
       <c r="G167" s="34"/>
@@ -47386,7 +47608,7 @@
       <c r="C168" s="34"/>
       <c r="D168" s="34"/>
       <c r="E168" s="34" t="s">
-        <v>709</v>
+        <v>1097</v>
       </c>
       <c r="F168" s="34"/>
       <c r="G168" s="34"/>
@@ -47398,7 +47620,7 @@
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>
       <c r="E169" s="34" t="s">
-        <v>710</v>
+        <v>1098</v>
       </c>
       <c r="F169" s="34"/>
       <c r="G169" s="34"/>
@@ -47410,7 +47632,7 @@
       <c r="C170" s="34"/>
       <c r="D170" s="34"/>
       <c r="E170" s="34" t="s">
-        <v>711</v>
+        <v>1099</v>
       </c>
       <c r="F170" s="34"/>
       <c r="G170" s="34"/>
@@ -47422,7 +47644,7 @@
       <c r="C171" s="34"/>
       <c r="D171" s="34"/>
       <c r="E171" s="34" t="s">
-        <v>712</v>
+        <v>1100</v>
       </c>
       <c r="F171" s="34"/>
       <c r="G171" s="34"/>
@@ -47434,7 +47656,7 @@
       <c r="C172" s="34"/>
       <c r="D172" s="34"/>
       <c r="E172" s="34" t="s">
-        <v>713</v>
+        <v>1101</v>
       </c>
       <c r="F172" s="34"/>
       <c r="G172" s="34"/>
@@ -47446,7 +47668,7 @@
       <c r="C173" s="34"/>
       <c r="D173" s="34"/>
       <c r="E173" s="34" t="s">
-        <v>714</v>
+        <v>1102</v>
       </c>
       <c r="F173" s="34"/>
       <c r="G173" s="34"/>
@@ -47458,7 +47680,7 @@
       <c r="C174" s="34"/>
       <c r="D174" s="34"/>
       <c r="E174" s="34" t="s">
-        <v>715</v>
+        <v>1103</v>
       </c>
       <c r="F174" s="34"/>
       <c r="G174" s="34"/>
@@ -47470,7 +47692,7 @@
       <c r="C175" s="34"/>
       <c r="D175" s="34"/>
       <c r="E175" s="34" t="s">
-        <v>716</v>
+        <v>1104</v>
       </c>
       <c r="F175" s="34"/>
       <c r="G175" s="34"/>
@@ -47482,7 +47704,7 @@
       <c r="C176" s="34"/>
       <c r="D176" s="34"/>
       <c r="E176" s="34" t="s">
-        <v>717</v>
+        <v>1105</v>
       </c>
       <c r="F176" s="34"/>
       <c r="G176" s="34"/>
@@ -47494,7 +47716,7 @@
       <c r="C177" s="34"/>
       <c r="D177" s="34"/>
       <c r="E177" s="34" t="s">
-        <v>718</v>
+        <v>1106</v>
       </c>
       <c r="F177" s="34"/>
       <c r="G177" s="34"/>
@@ -47506,7 +47728,7 @@
       <c r="C178" s="34"/>
       <c r="D178" s="34"/>
       <c r="E178" s="34" t="s">
-        <v>719</v>
+        <v>1107</v>
       </c>
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
@@ -47518,7 +47740,7 @@
       <c r="C179" s="34"/>
       <c r="D179" s="34"/>
       <c r="E179" s="34" t="s">
-        <v>720</v>
+        <v>1108</v>
       </c>
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
@@ -47530,7 +47752,7 @@
       <c r="C180" s="34"/>
       <c r="D180" s="34"/>
       <c r="E180" s="34" t="s">
-        <v>721</v>
+        <v>1109</v>
       </c>
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
@@ -47542,7 +47764,7 @@
       <c r="C181" s="34"/>
       <c r="D181" s="34"/>
       <c r="E181" s="34" t="s">
-        <v>722</v>
+        <v>1110</v>
       </c>
       <c r="F181" s="34"/>
       <c r="G181" s="34"/>
@@ -47554,7 +47776,7 @@
       <c r="C182" s="34"/>
       <c r="D182" s="34"/>
       <c r="E182" s="34" t="s">
-        <v>732</v>
+        <v>1111</v>
       </c>
       <c r="F182" s="34"/>
       <c r="G182" s="34"/>
@@ -47566,7 +47788,7 @@
       <c r="C183" s="34"/>
       <c r="D183" s="34"/>
       <c r="E183" s="34" t="s">
-        <v>733</v>
+        <v>1112</v>
       </c>
       <c r="F183" s="34"/>
       <c r="G183" s="34"/>
@@ -47578,7 +47800,7 @@
       <c r="C184" s="34"/>
       <c r="D184" s="34"/>
       <c r="E184" s="34" t="s">
-        <v>734</v>
+        <v>1113</v>
       </c>
       <c r="F184" s="34"/>
       <c r="G184" s="34"/>
@@ -47590,7 +47812,7 @@
       <c r="C185" s="34"/>
       <c r="D185" s="34"/>
       <c r="E185" s="34" t="s">
-        <v>852</v>
+        <v>1114</v>
       </c>
       <c r="F185" s="34"/>
       <c r="G185" s="34"/>
@@ -47602,7 +47824,7 @@
       <c r="C186" s="34"/>
       <c r="D186" s="34"/>
       <c r="E186" s="34" t="s">
-        <v>990</v>
+        <v>1115</v>
       </c>
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
@@ -47614,7 +47836,7 @@
       <c r="C187" s="34"/>
       <c r="D187" s="34"/>
       <c r="E187" s="34" t="s">
-        <v>991</v>
+        <v>1116</v>
       </c>
       <c r="F187" s="34"/>
       <c r="G187" s="34"/>
@@ -47626,7 +47848,7 @@
       <c r="C188" s="34"/>
       <c r="D188" s="34"/>
       <c r="E188" s="34" t="s">
-        <v>992</v>
+        <v>858</v>
       </c>
       <c r="F188" s="34"/>
       <c r="G188" s="34"/>
@@ -47638,7 +47860,7 @@
       <c r="C189" s="34"/>
       <c r="D189" s="34"/>
       <c r="E189" s="34" t="s">
-        <v>993</v>
+        <v>859</v>
       </c>
       <c r="F189" s="34"/>
       <c r="G189" s="34"/>
@@ -47650,7 +47872,7 @@
       <c r="C190" s="34"/>
       <c r="D190" s="34"/>
       <c r="E190" s="34" t="s">
-        <v>994</v>
+        <v>860</v>
       </c>
       <c r="F190" s="34"/>
       <c r="G190" s="34"/>
@@ -47662,7 +47884,7 @@
       <c r="C191" s="34"/>
       <c r="D191" s="34"/>
       <c r="E191" s="34" t="s">
-        <v>995</v>
+        <v>729</v>
       </c>
       <c r="F191" s="34"/>
       <c r="G191" s="34"/>
@@ -47674,91 +47896,518 @@
       <c r="C192" s="34"/>
       <c r="D192" s="34"/>
       <c r="E192" s="34" t="s">
-        <v>853</v>
+        <v>630</v>
       </c>
       <c r="F192" s="34"/>
       <c r="G192" s="34"/>
       <c r="H192" s="34"/>
     </row>
-    <row r="193" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="34"/>
       <c r="B193" s="34"/>
       <c r="C193" s="34"/>
       <c r="D193" s="34"/>
       <c r="E193" s="34" t="s">
-        <v>725</v>
+        <v>631</v>
       </c>
       <c r="F193" s="34"/>
       <c r="G193" s="34"/>
       <c r="H193" s="34"/>
     </row>
-    <row r="194" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="34"/>
       <c r="B194" s="34"/>
       <c r="C194" s="34"/>
       <c r="D194" s="34"/>
       <c r="E194" s="34" t="s">
-        <v>727</v>
+        <v>632</v>
       </c>
       <c r="F194" s="34"/>
       <c r="G194" s="34"/>
       <c r="H194" s="34"/>
     </row>
-    <row r="195" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="34"/>
       <c r="B195" s="34"/>
       <c r="C195" s="34"/>
       <c r="D195" s="34"/>
       <c r="E195" s="34" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="F195" s="34"/>
       <c r="G195" s="34"/>
       <c r="H195" s="34"/>
     </row>
-    <row r="196" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="34"/>
-      <c r="B196" s="34"/>
-      <c r="C196" s="34"/>
-      <c r="D196" s="34"/>
-      <c r="E196" s="34" t="s">
-        <v>854</v>
+      <c r="B196" s="70"/>
+      <c r="C196" s="70"/>
+      <c r="D196" s="70"/>
+      <c r="E196" s="70" t="s">
+        <v>861</v>
       </c>
       <c r="F196" s="34"/>
       <c r="G196" s="34"/>
       <c r="H196" s="34"/>
     </row>
-    <row r="197" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="70"/>
-      <c r="B197" s="70"/>
-      <c r="C197" s="70"/>
-      <c r="D197" s="70"/>
-      <c r="E197" s="70" t="s">
-        <v>996</v>
+      <c r="B197" s="36"/>
+      <c r="C197" s="36"/>
+      <c r="D197" s="36"/>
+      <c r="E197" s="34" t="s">
+        <v>862</v>
       </c>
       <c r="F197" s="70"/>
       <c r="G197" s="70"/>
       <c r="H197" s="70"/>
     </row>
-    <row r="198" spans="1:8" s="36" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" s="36" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+      <c r="A198" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" s="102" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C198" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D198" s="34" t="s">
+        <v>1118</v>
+      </c>
       <c r="E198" s="34" t="s">
-        <v>997</v>
-      </c>
+        <v>1119</v>
+      </c>
+      <c r="I198" s="100"/>
+    </row>
+    <row r="199" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A199" s="36"/>
+      <c r="B199" s="36"/>
+      <c r="C199" s="36"/>
+      <c r="D199" s="36"/>
+      <c r="E199" s="34" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F199" s="36"/>
+      <c r="G199" s="36"/>
+      <c r="H199" s="36"/>
+    </row>
+    <row r="200" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A200" s="36"/>
+      <c r="B200" s="36"/>
+      <c r="C200" s="36"/>
+      <c r="D200" s="36"/>
+      <c r="E200" s="34" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F200" s="36"/>
+      <c r="G200" s="36"/>
+      <c r="H200" s="36"/>
+    </row>
+    <row r="201" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A201" s="36"/>
+      <c r="B201" s="36"/>
+      <c r="C201" s="36"/>
+      <c r="D201" s="36"/>
+      <c r="E201" s="34" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F201" s="36"/>
+      <c r="G201" s="36"/>
+      <c r="H201" s="36"/>
+    </row>
+    <row r="202" spans="1:9" ht="80" x14ac:dyDescent="0.2">
+      <c r="A202" s="36"/>
+      <c r="B202" s="36"/>
+      <c r="C202" s="36"/>
+      <c r="D202" s="36"/>
+      <c r="E202" s="34" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F202" s="36"/>
+      <c r="G202" s="36"/>
+      <c r="H202" s="36"/>
+    </row>
+    <row r="203" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A203" s="36"/>
+      <c r="B203" s="36"/>
+      <c r="C203" s="36"/>
+      <c r="D203" s="36"/>
+      <c r="E203" s="34" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F203" s="36"/>
+      <c r="G203" s="36"/>
+      <c r="H203" s="36"/>
+    </row>
+    <row r="204" spans="1:9" ht="128" x14ac:dyDescent="0.2">
+      <c r="A204" s="36"/>
+      <c r="B204" s="36"/>
+      <c r="C204" s="36"/>
+      <c r="D204" s="36"/>
+      <c r="E204" s="34" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F204" s="36"/>
+      <c r="G204" s="36"/>
+      <c r="H204" s="36"/>
+    </row>
+    <row r="205" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A205" s="36"/>
+      <c r="B205" s="36"/>
+      <c r="C205" s="36"/>
+      <c r="D205" s="36"/>
+      <c r="E205" s="34" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F205" s="36"/>
+      <c r="G205" s="36"/>
+      <c r="H205" s="36"/>
+    </row>
+    <row r="206" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A206" s="36"/>
+      <c r="B206" s="36"/>
+      <c r="C206" s="36"/>
+      <c r="D206" s="36"/>
+      <c r="E206" s="34" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F206" s="36"/>
+      <c r="G206" s="36"/>
+      <c r="H206" s="36"/>
+    </row>
+    <row r="207" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A207" s="36"/>
+      <c r="B207" s="36"/>
+      <c r="C207" s="36"/>
+      <c r="D207" s="36"/>
+      <c r="E207" s="34" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F207" s="36"/>
+      <c r="G207" s="36"/>
+      <c r="H207" s="36"/>
+    </row>
+    <row r="208" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="A208" s="36"/>
+      <c r="B208" s="36"/>
+      <c r="C208" s="36"/>
+      <c r="D208" s="36"/>
+      <c r="E208" s="34" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F208" s="36"/>
+      <c r="G208" s="36"/>
+      <c r="H208" s="36"/>
+    </row>
+    <row r="209" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A209" s="36"/>
+      <c r="B209" s="36"/>
+      <c r="C209" s="36"/>
+      <c r="D209" s="36"/>
+      <c r="E209" s="34" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F209" s="36"/>
+      <c r="G209" s="36"/>
+      <c r="H209" s="36"/>
+    </row>
+    <row r="210" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A210" s="36"/>
+      <c r="B210" s="36"/>
+      <c r="C210" s="36"/>
+      <c r="D210" s="36"/>
+      <c r="E210" s="34" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F210" s="36"/>
+      <c r="G210" s="36"/>
+      <c r="H210" s="36"/>
+    </row>
+    <row r="211" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A211" s="36"/>
+      <c r="B211" s="36"/>
+      <c r="C211" s="36"/>
+      <c r="D211" s="36"/>
+      <c r="E211" s="34" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F211" s="36"/>
+      <c r="G211" s="36"/>
+      <c r="H211" s="36"/>
+    </row>
+    <row r="212" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A212" s="36"/>
+      <c r="B212" s="36"/>
+      <c r="C212" s="36"/>
+      <c r="D212" s="36"/>
+      <c r="E212" s="34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F212" s="36"/>
+      <c r="G212" s="36"/>
+      <c r="H212" s="36"/>
+    </row>
+    <row r="213" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A213" s="36"/>
+      <c r="B213" s="36"/>
+      <c r="C213" s="36"/>
+      <c r="D213" s="36"/>
+      <c r="E213" s="34" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F213" s="36"/>
+      <c r="G213" s="36"/>
+      <c r="H213" s="36"/>
+    </row>
+    <row r="214" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A214" s="36"/>
+      <c r="B214" s="36"/>
+      <c r="C214" s="36"/>
+      <c r="D214" s="36"/>
+      <c r="E214" s="34" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F214" s="36"/>
+      <c r="G214" s="36"/>
+      <c r="H214" s="36"/>
+    </row>
+    <row r="215" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A215" s="36"/>
+      <c r="B215" s="36"/>
+      <c r="C215" s="36"/>
+      <c r="D215" s="36"/>
+      <c r="E215" s="34" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F215" s="36"/>
+      <c r="G215" s="36"/>
+      <c r="H215" s="36"/>
+    </row>
+    <row r="216" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A216" s="36"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="36"/>
+      <c r="D216" s="36"/>
+      <c r="E216" s="34" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F216" s="36"/>
+      <c r="G216" s="36"/>
+      <c r="H216" s="36"/>
+    </row>
+    <row r="217" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A217" s="36"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="36"/>
+      <c r="D217" s="36"/>
+      <c r="E217" s="34" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F217" s="36"/>
+      <c r="G217" s="36"/>
+      <c r="H217" s="36"/>
+    </row>
+    <row r="218" spans="1:8" ht="128" x14ac:dyDescent="0.2">
+      <c r="A218" s="36"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="36"/>
+      <c r="D218" s="36"/>
+      <c r="E218" s="34" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F218" s="36"/>
+      <c r="G218" s="36"/>
+      <c r="H218" s="36"/>
+    </row>
+    <row r="219" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A219" s="36"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="36"/>
+      <c r="D219" s="36"/>
+      <c r="E219" s="34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F219" s="36"/>
+      <c r="G219" s="36"/>
+      <c r="H219" s="36"/>
+    </row>
+    <row r="220" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A220" s="36"/>
+      <c r="B220" s="36"/>
+      <c r="C220" s="36"/>
+      <c r="D220" s="36"/>
+      <c r="E220" s="34" t="s">
+        <v>1141</v>
+      </c>
+      <c r="F220" s="36"/>
+      <c r="G220" s="36"/>
+      <c r="H220" s="36"/>
+    </row>
+    <row r="221" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A221" s="36"/>
+      <c r="B221" s="36"/>
+      <c r="C221" s="36"/>
+      <c r="D221" s="36"/>
+      <c r="E221" s="34" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F221" s="36"/>
+      <c r="G221" s="36"/>
+      <c r="H221" s="36"/>
+    </row>
+    <row r="222" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A222" s="36"/>
+      <c r="B222" s="36"/>
+      <c r="C222" s="36"/>
+      <c r="D222" s="36"/>
+      <c r="E222" s="34" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F222" s="36"/>
+      <c r="G222" s="36"/>
+      <c r="H222" s="36"/>
+    </row>
+    <row r="223" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A223" s="36"/>
+      <c r="B223" s="36"/>
+      <c r="C223" s="36"/>
+      <c r="D223" s="36"/>
+      <c r="E223" s="34" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F223" s="36"/>
+      <c r="G223" s="36"/>
+      <c r="H223" s="36"/>
+    </row>
+    <row r="224" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A224" s="36"/>
+      <c r="B224" s="36"/>
+      <c r="C224" s="36"/>
+      <c r="D224" s="36"/>
+      <c r="E224" s="34" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F224" s="36"/>
+      <c r="G224" s="36"/>
+      <c r="H224" s="36"/>
+    </row>
+    <row r="225" spans="1:8" ht="192" x14ac:dyDescent="0.2">
+      <c r="A225" s="36"/>
+      <c r="B225" s="36"/>
+      <c r="C225" s="36"/>
+      <c r="D225" s="36"/>
+      <c r="E225" s="34" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F225" s="36"/>
+      <c r="G225" s="36"/>
+      <c r="H225" s="36"/>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B226" s="36"/>
+      <c r="C226" s="36"/>
+      <c r="D226" s="36"/>
+      <c r="E226" s="36"/>
+      <c r="F226" s="36"/>
+      <c r="G226" s="36"/>
+      <c r="H226" s="36"/>
+    </row>
+    <row r="227" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+      <c r="A227" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" s="34" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D227" s="34" t="s">
+        <v>1148</v>
+      </c>
+      <c r="E227" s="34" t="s">
+        <v>1149</v>
+      </c>
+      <c r="F227" s="36"/>
+      <c r="G227" s="36"/>
+      <c r="H227" s="36"/>
+    </row>
+    <row r="228" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A228" s="36"/>
+      <c r="B228" s="34"/>
+      <c r="C228" s="34"/>
+      <c r="D228" s="34"/>
+      <c r="E228" s="34" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F228" s="36"/>
+      <c r="G228" s="36"/>
+      <c r="H228" s="36"/>
+    </row>
+    <row r="229" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A229" s="36"/>
+      <c r="B229" s="34"/>
+      <c r="C229" s="34"/>
+      <c r="D229" s="34"/>
+      <c r="E229" s="34" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F229" s="36"/>
+      <c r="G229" s="36"/>
+      <c r="H229" s="36"/>
+    </row>
+    <row r="230" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A230" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" s="34" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D230" s="34" t="s">
+        <v>1153</v>
+      </c>
+      <c r="E230" s="34" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F230" s="36"/>
+      <c r="G230" s="36"/>
+      <c r="H230" s="36"/>
+    </row>
+    <row r="231" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A231" s="36"/>
+      <c r="B231" s="34"/>
+      <c r="C231" s="34"/>
+      <c r="D231" s="34"/>
+      <c r="E231" s="34" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F231" s="36"/>
+      <c r="G231" s="36"/>
+      <c r="H231" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E3:E35 E192:E533 E153:E185 E114:E145 E44:E83 E87:E104" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B3:B533" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E232:E533 E99:E103 E145:E151 E3:E4 E43:E66 E191:E197 E226" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B232:B533 B3:B66 B68:B226" xr:uid="{00000000-0002-0000-0300-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Specify the defined tag key and its value in the format - &lt;Namespace&gt;.&lt;TagKey&gt;=&lt;Value&gt; else leave it empty._x000a_Multiple Tag Key , Values can be specified using semi colon (;) as the delimeter. _x000a_Example: Operations.CostCenter=01;Users.Name=user01" sqref="H3:H533" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="Specify Policy Name" sqref="B67 B227:B231" xr:uid="{0D51B509-E1E2-3449-B618-BC9EF31E0CE4}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" prompt="$ and * in  the Policy Statements will be replaced by &quot;Policy Statement Groups&quot; and &quot;Policy Statement Compartment&quot; respectively." sqref="E104:E132 E5:E42 E67:E98 E227:E231" xr:uid="{44052C22-D371-9E48-81DB-FB3BF9344B7C}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="20">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify your tenancy's Home Region for creating IAM Policies." xr:uid="{00000000-0002-0000-0300-000003000000}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
@@ -47771,113 +48420,11 @@
           </x14:formula1>
           <xm:sqref>A84:A86</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000005000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF('/Users/shrsubra/Library/Containers/com.microsoft.Excel/Data/Documents/Users\shrsubra\Library\Containers\com.microsoft.Excel\Data\Documents\D:\PycharmProjects\oci_develop_new\oci_tools\automation_toolkit\example\[CD3-DRGv2-template.xlsx]drop_down_rule_comp'!#REF!,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C84:C86</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000006000000}">
           <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C656,"*?")+1,2,1,4))</xm:f>
+            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C696,"*?")+1,2,1,4))</xm:f>
           </x14:formula1>
-          <xm:sqref>C192:C533</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000007000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C189:C191</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000008000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C188</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000009000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C664,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C186</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00000A000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C591,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C187 C114:C145</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00000C000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C623,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C153:C185</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00000D000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C109:C110 C44:C83 C148:C149</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000010000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C112 C151</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000012000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C113 C111 C152 C150</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000016000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C107 C41:C43 C146</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-000019000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C599,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C108 C147</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00001B000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C532,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C38:C39</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00001C000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C40</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00001D000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C533,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C37</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00001E000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C573,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C87:C106</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{00000000-0002-0000-0300-00001F000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C501,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:C36</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name. Specify 'root' to create in root compartment." xr:uid="{00000000-0002-0000-0300-000020000000}">
-          <x14:formula1>
-            <xm:f>INDIRECT("drop_down_rule_comp!$B$2:"&amp;ADDRESS(COUNTIF(drop_down_rule_comp!$B$2:C500,"*?")+1,2,1,4))</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3</xm:sqref>
+          <xm:sqref>C232:C533</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -47907,19 +48454,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>917</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="117" t="s">
-        <v>1104</v>
-      </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
+      <c r="A1" s="113" t="s">
+        <v>793</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116" t="s">
+        <v>950</v>
+      </c>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -47947,7 +48494,7 @@
         <v>298</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>1103</v>
+        <v>949</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="35" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47987,7 +48534,7 @@
         <v>302</v>
       </c>
       <c r="I4" s="68" t="s">
-        <v>1066</v>
+        <v>912</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -48104,7 +48651,7 @@
       </c>
       <c r="H9" s="68"/>
       <c r="I9" s="68" t="s">
-        <v>1067</v>
+        <v>913</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -48180,23 +48727,23 @@
         <v>412</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>1068</v>
+        <v>914</v>
       </c>
       <c r="D13" s="68" t="s">
-        <v>966</v>
+        <v>840</v>
       </c>
       <c r="E13" s="68" t="s">
-        <v>804</v>
+        <v>696</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>805</v>
+        <v>697</v>
       </c>
       <c r="G13" s="68" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="68"/>
       <c r="I13" s="68" t="s">
-        <v>1064</v>
+        <v>910</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -48207,23 +48754,23 @@
         <v>412</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>1068</v>
+        <v>914</v>
       </c>
       <c r="D14" s="68" t="s">
-        <v>966</v>
+        <v>840</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>806</v>
+        <v>698</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>807</v>
+        <v>699</v>
       </c>
       <c r="G14" s="68" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="68" t="s">
-        <v>1065</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -48289,22 +48836,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>1045</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="114" t="s">
+      <c r="A1" s="113" t="s">
+        <v>891</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="113" t="s">
         <v>464</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="116"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="115"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -48317,7 +48864,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>1044</v>
+        <v>890</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -48352,13 +48899,13 @@
         <v>361</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>736</v>
+        <v>634</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>21</v>
@@ -48370,10 +48917,10 @@
         <v>21</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>1020</v>
+        <v>869</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>1019</v>
+        <v>868</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="34"/>
@@ -48386,7 +48933,7 @@
         <v>361</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>737</v>
+        <v>635</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>22</v>
@@ -48404,10 +48951,10 @@
         <v>21</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>1024</v>
+        <v>873</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>1022</v>
+        <v>871</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="30"/>
@@ -48420,7 +48967,7 @@
         <v>361</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>24</v>
@@ -48438,10 +48985,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>1023</v>
+        <v>872</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>1022</v>
+        <v>871</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="30"/>
@@ -48476,7 +49023,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>1021</v>
+        <v>870</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>23</v>
@@ -48488,13 +49035,13 @@
         <v>21</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>1020</v>
+        <v>869</v>
       </c>
       <c r="J7" s="68" t="s">
-        <v>1019</v>
+        <v>868</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>1018</v>
+        <v>867</v>
       </c>
       <c r="L7" s="69" t="s">
         <v>456</v>
@@ -48526,10 +49073,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>1017</v>
+        <v>866</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>1015</v>
+        <v>864</v>
       </c>
       <c r="K8" s="68"/>
       <c r="L8" s="68"/>
@@ -48560,10 +49107,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>1016</v>
+        <v>865</v>
       </c>
       <c r="J9" s="68" t="s">
-        <v>1015</v>
+        <v>864</v>
       </c>
       <c r="K9" s="68"/>
       <c r="L9" s="68"/>
@@ -48601,18 +49148,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>821</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="119" t="s">
-        <v>822</v>
-      </c>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
+      <c r="A1" s="113" t="s">
+        <v>713</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="118" t="s">
+        <v>714</v>
+      </c>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
@@ -48622,21 +49169,21 @@
         <v>6</v>
       </c>
       <c r="C2" s="72" t="s">
-        <v>813</v>
+        <v>705</v>
       </c>
       <c r="D2" s="72" t="s">
-        <v>814</v>
+        <v>706</v>
       </c>
       <c r="E2" s="72" t="s">
-        <v>815</v>
+        <v>707</v>
       </c>
       <c r="F2" s="73" t="s">
-        <v>816</v>
+        <v>708</v>
       </c>
       <c r="G2" s="74" t="s">
-        <v>817</v>
-      </c>
-      <c r="H2" s="106" t="s">
+        <v>709</v>
+      </c>
+      <c r="H2" s="105" t="s">
         <v>438</v>
       </c>
     </row>
@@ -48648,19 +49195,19 @@
         <v>361</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>736</v>
+        <v>634</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>1027</v>
+        <v>876</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>1026</v>
+        <v>875</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>1025</v>
+        <v>874</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>856</v>
+        <v>732</v>
       </c>
       <c r="H3" s="36"/>
     </row>
@@ -48963,10 +49510,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B1" s="121"/>
+      <c r="A1" s="112" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1" s="120"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -48981,7 +49528,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>1028</v>
+        <v>877</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -49029,16 +49576,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>451</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -49074,7 +49621,7 @@
         <v>361</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>735</v>
+        <v>633</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>35</v>
@@ -49083,7 +49630,7 @@
         <v>38</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>1031</v>
+        <v>880</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="34"/>
@@ -49096,7 +49643,7 @@
         <v>361</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>737</v>
+        <v>635</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>35</v>
@@ -49105,7 +49652,7 @@
         <v>38</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>1030</v>
+        <v>879</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -49118,7 +49665,7 @@
         <v>361</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>738</v>
+        <v>636</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>35</v>
@@ -49127,7 +49674,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>1029</v>
+        <v>878</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>

--- a/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
+++ b/oci_tools/cd3_automation_toolkit/example/CD3-HubSpoke-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shrsubra/Desktop/Shruthi/cd3-automation/oci/oci_tools/cd3_automation_toolkit/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501FEF8A-26D5-DC45-93A7-0F12C3C8358B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D61EAF-829B-6E4B-AF14-517F2F69535D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16220" tabRatio="1000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Release-Info" sheetId="1" r:id="rId1"/>
@@ -99,8 +99,8 @@
     <definedName name="exa_shapes_drop" localSheetId="24">[5]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop" localSheetId="23">[5]Database_Dropdown!$E$2:$E$11</definedName>
     <definedName name="exa_shapes_drop">#REF!</definedName>
-    <definedName name="Header_Size" localSheetId="25">'[10]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
-    <definedName name="Header_Size" localSheetId="29">'[10]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="25">'[6]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
+    <definedName name="Header_Size" localSheetId="29">'[6]LB Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="10">'[1]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="6">'[2]Rule Set Dropdown'!$F$2:$F$6</definedName>
     <definedName name="Header_Size" localSheetId="32">'[3]Rule Set Dropdown'!$F$2:$F$6</definedName>
@@ -128,8 +128,8 @@
     <definedName name="nchar_set" localSheetId="24">[5]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set" localSheetId="23">[5]Database_Dropdown!$G$2:$G$3</definedName>
     <definedName name="nchar_set">#REF!</definedName>
-    <definedName name="Response_Code" localSheetId="25">'[10]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
-    <definedName name="Response_Code" localSheetId="29">'[10]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="25">'[6]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
+    <definedName name="Response_Code" localSheetId="29">'[6]LB Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="10">'[1]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="6">'[2]Rule Set Dropdown'!$E$2:$E$7</definedName>
     <definedName name="Response_Code" localSheetId="32">'[3]Rule Set Dropdown'!$E$2:$E$7</definedName>
@@ -147,7 +147,7 @@
     <definedName name="Shape_Option" localSheetId="24">#REF!</definedName>
     <definedName name="Shape_Option" localSheetId="23">#REF!</definedName>
     <definedName name="Shape_Option">#REF!</definedName>
-    <definedName name="Shape_Option_DB">[6]Database!$B$10:$J$10</definedName>
+    <definedName name="Shape_Option_DB">[7]Database!$B$10:$J$10</definedName>
     <definedName name="software_drop" localSheetId="25">Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="29">Database_Dropdown!$B$2:$B$5</definedName>
     <definedName name="software_drop" localSheetId="10">[1]Database_Dropdown!$B$2:$B$5</definedName>
@@ -219,7 +219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="1159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2200" uniqueCount="1158">
   <si>
     <t>Region</t>
   </si>
@@ -1170,9 +1170,6 @@
   </si>
   <si>
     <t>Admin Password</t>
-  </si>
-  <si>
-    <t>CPU Count</t>
   </si>
   <si>
     <t>ADW or ATP</t>
@@ -8733,6 +8730,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -8750,6 +8779,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -8792,41 +8824,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9616,110 +9613,10 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Release-Info"/>
-      <sheetName val="Compartments"/>
-      <sheetName val="Groups"/>
-      <sheetName val="Policies"/>
-      <sheetName val="Tags"/>
-      <sheetName val="VCNs"/>
-      <sheetName val="DRGs"/>
-      <sheetName val="VCN Info"/>
-      <sheetName val="DHCP"/>
-      <sheetName val="Subnets"/>
-      <sheetName val="DRGRouteRulesinOCI"/>
-      <sheetName val="RouteRulesinOCI"/>
-      <sheetName val="SecRulesinOCI"/>
-      <sheetName val="NSGs"/>
-      <sheetName val="DedicatedVMHosts"/>
-      <sheetName val="Instances"/>
-      <sheetName val="BlockVolumes"/>
-      <sheetName val="FSS"/>
-      <sheetName val="LB-Hostname-Certs"/>
-      <sheetName val="BackendSet-BackendServer"/>
-      <sheetName val="LB-Listener"/>
-      <sheetName val="RuleSet"/>
-      <sheetName val="PathRouteSet"/>
-      <sheetName val="NLB-Listeners"/>
-      <sheetName val="NLB-BackendSets-BackendServers"/>
-      <sheetName val="ADB"/>
-      <sheetName val="DBSystems-VM-BM"/>
-      <sheetName val="EXA-Infra"/>
-      <sheetName val="EXA-VMClusters"/>
       <sheetName val="drop_down_rule_set"/>
-      <sheetName val="LB Rule Set Dropdown"/>
-      <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
-      <sheetData sheetId="19"/>
-      <sheetData sheetId="20"/>
-      <sheetData sheetId="21"/>
-      <sheetData sheetId="22"/>
-      <sheetData sheetId="23"/>
-      <sheetData sheetId="24"/>
-      <sheetData sheetId="25"/>
-      <sheetData sheetId="26"/>
-      <sheetData sheetId="27"/>
-      <sheetData sheetId="28"/>
-      <sheetData sheetId="29"/>
-      <sheetData sheetId="30">
-        <row r="2">
-          <cell r="E2">
-            <v>301</v>
-          </cell>
-          <cell r="F2">
-            <v>8</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>302</v>
-          </cell>
-          <cell r="F3">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>303</v>
-          </cell>
-          <cell r="F4">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>307</v>
-          </cell>
-          <cell r="F5">
-            <v>64</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>308</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="31"/>
+      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12763,6 +12660,119 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
+      <sheetName val="Release-Info"/>
+      <sheetName val="Compartments"/>
+      <sheetName val="Groups"/>
+      <sheetName val="Policies"/>
+      <sheetName val="Tags"/>
+      <sheetName val="VCNs"/>
+      <sheetName val="DRGs"/>
+      <sheetName val="VCN Info"/>
+      <sheetName val="DHCP"/>
+      <sheetName val="Subnets"/>
+      <sheetName val="DRGRouteRulesinOCI"/>
+      <sheetName val="RouteRulesinOCI"/>
+      <sheetName val="SecRulesinOCI"/>
+      <sheetName val="NSGs"/>
+      <sheetName val="DedicatedVMHosts"/>
+      <sheetName val="Instances"/>
+      <sheetName val="BlockVolumes"/>
+      <sheetName val="FSS"/>
+      <sheetName val="LB-Hostname-Certs"/>
+      <sheetName val="BackendSet-BackendServer"/>
+      <sheetName val="LB-Listener"/>
+      <sheetName val="RuleSet"/>
+      <sheetName val="PathRouteSet"/>
+      <sheetName val="NLB-Listeners"/>
+      <sheetName val="NLB-BackendSets-BackendServers"/>
+      <sheetName val="ADB"/>
+      <sheetName val="DBSystems-VM-BM"/>
+      <sheetName val="EXA-Infra"/>
+      <sheetName val="EXA-VMClusters"/>
+      <sheetName val="drop_down_rule_set"/>
+      <sheetName val="LB Rule Set Dropdown"/>
+      <sheetName val="drop_down_rule_comp"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
+      <sheetData sheetId="18"/>
+      <sheetData sheetId="19"/>
+      <sheetData sheetId="20"/>
+      <sheetData sheetId="21"/>
+      <sheetData sheetId="22"/>
+      <sheetData sheetId="23"/>
+      <sheetData sheetId="24"/>
+      <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
+      <sheetData sheetId="30">
+        <row r="2">
+          <cell r="E2">
+            <v>301</v>
+          </cell>
+          <cell r="F2">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>302</v>
+          </cell>
+          <cell r="F3">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>303</v>
+          </cell>
+          <cell r="F4">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>307</v>
+          </cell>
+          <cell r="F5">
+            <v>64</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>308</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="31"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
       <sheetName val="Sheet1"/>
       <sheetName val="Database"/>
       <sheetName val="Compartments"/>
@@ -12843,21 +12853,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="drop_down_rule_set"/>
-      <sheetName val="drop_down_rule_comp"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -12878,9 +12873,11 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="drop_down_rule_set"/>
+      <sheetName val="drop_down_rule_comp"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -13224,7 +13221,7 @@
     <row r="1" spans="1:1" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="59" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
   </sheetData>
@@ -13264,28 +13261,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="173.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>439</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="100"/>
-      <c r="I1" s="104" t="s">
-        <v>446</v>
-      </c>
-      <c r="J1" s="104"/>
-      <c r="K1" s="104"/>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
-      <c r="P1" s="104"/>
-      <c r="Q1" s="104"/>
-      <c r="R1" s="104"/>
+      <c r="A1" s="114" t="s">
+        <v>438</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="121" t="s">
+        <v>445</v>
+      </c>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="121"/>
     </row>
     <row r="2" spans="1:18" s="43" customFormat="1" ht="59.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -13340,21 +13337,21 @@
         <v>18</v>
       </c>
       <c r="R2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="32" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="E3" s="36" t="s">
         <v>50</v>
@@ -13369,10 +13366,10 @@
         <v>35</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K3" s="31" t="s">
         <v>23</v>
@@ -13397,34 +13394,34 @@
     </row>
     <row r="4" spans="1:18" s="32" customFormat="1" ht="25.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D4" s="36" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F4" s="31" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="30" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="J4" s="34" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>23</v>
@@ -13449,34 +13446,34 @@
     </row>
     <row r="5" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D5" s="36" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>51</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="K5" s="36" t="s">
         <v>23</v>
@@ -13501,16 +13498,16 @@
     </row>
     <row r="6" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E6" s="36" t="s">
         <v>55</v>
@@ -13525,16 +13522,16 @@
         <v>35</v>
       </c>
       <c r="I6" s="36" t="s">
+        <v>632</v>
+      </c>
+      <c r="J6" s="34" t="s">
         <v>633</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>634</v>
       </c>
       <c r="K6" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L6" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M6" s="36" t="s">
         <v>21</v>
@@ -13553,19 +13550,19 @@
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D7" s="36" t="s">
+        <v>634</v>
+      </c>
+      <c r="E7" s="36" t="s">
         <v>635</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>636</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>51</v>
@@ -13577,16 +13574,16 @@
         <v>35</v>
       </c>
       <c r="I7" s="36" t="s">
+        <v>636</v>
+      </c>
+      <c r="J7" s="34" t="s">
         <v>637</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>638</v>
       </c>
       <c r="K7" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L7" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M7" s="36" t="s">
         <v>21</v>
@@ -13605,19 +13602,19 @@
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D8" s="36" t="s">
+        <v>638</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>639</v>
-      </c>
-      <c r="E8" s="36" t="s">
-        <v>640</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>51</v>
@@ -13629,16 +13626,16 @@
         <v>35</v>
       </c>
       <c r="I8" s="36" t="s">
+        <v>640</v>
+      </c>
+      <c r="J8" s="34" t="s">
         <v>641</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>642</v>
       </c>
       <c r="K8" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L8" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M8" s="36" t="s">
         <v>21</v>
@@ -13657,34 +13654,34 @@
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D9" s="36" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E9" s="36" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>35</v>
       </c>
       <c r="I9" s="36" t="s">
+        <v>643</v>
+      </c>
+      <c r="J9" s="34" t="s">
         <v>644</v>
-      </c>
-      <c r="J9" s="34" t="s">
-        <v>645</v>
       </c>
       <c r="K9" s="36" t="s">
         <v>23</v>
@@ -13709,19 +13706,19 @@
     </row>
     <row r="10" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C10" s="36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D10" s="36" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E10" s="36" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>51</v>
@@ -13733,16 +13730,16 @@
         <v>35</v>
       </c>
       <c r="I10" s="36" t="s">
+        <v>646</v>
+      </c>
+      <c r="J10" s="34" t="s">
         <v>647</v>
-      </c>
-      <c r="J10" s="34" t="s">
-        <v>648</v>
       </c>
       <c r="K10" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L10" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M10" s="36" t="s">
         <v>21</v>
@@ -13761,19 +13758,19 @@
     </row>
     <row r="11" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C11" s="36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D11" s="36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E11" s="36" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>51</v>
@@ -13785,16 +13782,16 @@
         <v>35</v>
       </c>
       <c r="I11" s="36" t="s">
+        <v>649</v>
+      </c>
+      <c r="J11" s="34" t="s">
         <v>650</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>651</v>
       </c>
       <c r="K11" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L11" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M11" s="36" t="s">
         <v>21</v>
@@ -13813,19 +13810,19 @@
     </row>
     <row r="12" spans="1:18" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" s="36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D12" s="36" t="s">
+        <v>651</v>
+      </c>
+      <c r="E12" s="36" t="s">
         <v>652</v>
-      </c>
-      <c r="E12" s="36" t="s">
-        <v>653</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>51</v>
@@ -13837,16 +13834,16 @@
         <v>35</v>
       </c>
       <c r="I12" s="36" t="s">
+        <v>653</v>
+      </c>
+      <c r="J12" s="34" t="s">
         <v>654</v>
-      </c>
-      <c r="J12" s="34" t="s">
-        <v>655</v>
       </c>
       <c r="K12" s="36" t="s">
         <v>23</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M12" s="36" t="s">
         <v>21</v>
@@ -13889,13 +13886,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C14" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E14" s="63" t="s">
         <v>50</v>
@@ -13917,7 +13914,7 @@
         <v>21</v>
       </c>
       <c r="L14" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M14" s="66" t="s">
         <v>21</v>
@@ -13933,7 +13930,7 @@
       </c>
       <c r="Q14" s="66"/>
       <c r="R14" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.2">
@@ -13941,16 +13938,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C15" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D15" s="63" t="s">
+        <v>380</v>
+      </c>
+      <c r="E15" s="63" t="s">
         <v>381</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>382</v>
       </c>
       <c r="F15" s="63" t="s">
         <v>51</v>
@@ -13989,13 +13986,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C16" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D16" s="63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E16" s="63" t="s">
         <v>55</v>
@@ -14037,16 +14034,16 @@
         <v>5</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C17" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D17" s="63" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E17" s="63" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F17" s="63" t="s">
         <v>51</v>
@@ -14055,7 +14052,7 @@
         <v>57</v>
       </c>
       <c r="H17" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I17" s="63"/>
       <c r="J17" s="63" t="s">
@@ -14087,16 +14084,16 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C18" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E18" s="63" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F18" s="63" t="s">
         <v>51</v>
@@ -14105,11 +14102,11 @@
         <v>57</v>
       </c>
       <c r="H18" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I18" s="63"/>
       <c r="J18" s="63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K18" s="63" t="s">
         <v>23</v>
@@ -14137,16 +14134,16 @@
         <v>5</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C19" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D19" s="63" t="s">
+        <v>386</v>
+      </c>
+      <c r="E19" s="63" t="s">
         <v>387</v>
-      </c>
-      <c r="E19" s="63" t="s">
-        <v>388</v>
       </c>
       <c r="F19" s="63" t="s">
         <v>51</v>
@@ -14155,17 +14152,17 @@
         <v>57</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I19" s="63"/>
       <c r="J19" s="63" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K19" s="63" t="s">
         <v>23</v>
       </c>
       <c r="L19" s="66" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M19" s="66" t="s">
         <v>23</v>
@@ -14216,18 +14213,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>1148</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
     </row>
     <row r="2" spans="1:10" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -14237,55 +14234,55 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D2" s="28" t="s">
+        <v>699</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>700</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>701</v>
       </c>
       <c r="F2" s="28" t="s">
         <v>58</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="H2" s="28" t="s">
         <v>60</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E3" s="34"/>
       <c r="F3" s="58" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="H3" s="58" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I3" s="34" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="J3" s="34"/>
     </row>
@@ -14355,17 +14352,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="63" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>447</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>446</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -14393,7 +14390,7 @@
         <v>61</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -14456,25 +14453,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>448</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>447</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -14526,7 +14523,7 @@
         <v>61</v>
       </c>
       <c r="Q2" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -14608,28 +14605,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="118.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>455</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
-      <c r="T1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
+      <c r="T1" s="113"/>
     </row>
     <row r="2" spans="1:20" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
@@ -14687,30 +14684,30 @@
         <v>61</v>
       </c>
       <c r="S2" s="56" t="s">
+        <v>430</v>
+      </c>
+      <c r="T2" s="56" t="s">
         <v>431</v>
-      </c>
-      <c r="T2" s="56" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D3" s="34" t="s">
+        <v>655</v>
+      </c>
+      <c r="E3" s="34" t="s">
         <v>656</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>657</v>
-      </c>
       <c r="F3" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>79</v>
@@ -14718,10 +14715,10 @@
       <c r="H3" s="34"/>
       <c r="I3" s="34"/>
       <c r="J3" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L3" s="34"/>
       <c r="M3" s="34"/>
@@ -14734,35 +14731,35 @@
       <c r="P3" s="34"/>
       <c r="Q3" s="34"/>
       <c r="R3" s="34" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S3" s="34"/>
       <c r="T3" s="34"/>
     </row>
     <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D4" s="34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E4" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H4" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>29</v>
@@ -14780,38 +14777,38 @@
       <c r="P4" s="34"/>
       <c r="Q4" s="34"/>
       <c r="R4" s="34" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="S4" s="34"/>
       <c r="T4" s="34"/>
     </row>
     <row r="5" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E5" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F5" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H5" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I5" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J5" s="34"/>
       <c r="K5" s="34"/>
@@ -14826,29 +14823,29 @@
       <c r="P5" s="34"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="S5" s="34"/>
       <c r="T5" s="34"/>
     </row>
     <row r="6" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D6" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>79</v>
@@ -14856,10 +14853,10 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="L6" s="34"/>
       <c r="M6" s="34"/>
@@ -14872,38 +14869,38 @@
       <c r="P6" s="34"/>
       <c r="Q6" s="34"/>
       <c r="R6" s="34" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="S6" s="34"/>
       <c r="T6" s="34"/>
     </row>
     <row r="7" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F7" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H7" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I7" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="J7" s="34"/>
       <c r="K7" s="34"/>
@@ -14918,38 +14915,38 @@
       <c r="P7" s="34"/>
       <c r="Q7" s="34"/>
       <c r="R7" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="S7" s="34"/>
       <c r="T7" s="34"/>
     </row>
     <row r="8" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D8" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F8" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G8" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H8" s="34" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I8" s="34" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J8" s="34"/>
       <c r="K8" s="34"/>
@@ -14964,29 +14961,29 @@
       <c r="P8" s="34"/>
       <c r="Q8" s="34"/>
       <c r="R8" s="34" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="S8" s="34"/>
       <c r="T8" s="34"/>
     </row>
     <row r="9" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D9" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E9" s="34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F9" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G9" s="34" t="s">
         <v>79</v>
@@ -14994,10 +14991,10 @@
       <c r="H9" s="34"/>
       <c r="I9" s="34"/>
       <c r="J9" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K9" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L9" s="34"/>
       <c r="M9" s="34"/>
@@ -15010,29 +15007,29 @@
       <c r="P9" s="34"/>
       <c r="Q9" s="34"/>
       <c r="R9" s="34" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="S9" s="34"/>
       <c r="T9" s="34"/>
     </row>
     <row r="10" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D10" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F10" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G10" s="34" t="s">
         <v>79</v>
@@ -15040,10 +15037,10 @@
       <c r="H10" s="34"/>
       <c r="I10" s="34"/>
       <c r="J10" s="34" t="s">
+        <v>671</v>
+      </c>
+      <c r="K10" s="34" t="s">
         <v>672</v>
-      </c>
-      <c r="K10" s="34" t="s">
-        <v>673</v>
       </c>
       <c r="L10" s="34"/>
       <c r="M10" s="34"/>
@@ -15056,38 +15053,38 @@
       <c r="P10" s="34"/>
       <c r="Q10" s="34"/>
       <c r="R10" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="S10" s="34"/>
       <c r="T10" s="34"/>
     </row>
     <row r="11" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C11" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D11" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E11" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G11" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H11" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I11" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="J11" s="34"/>
       <c r="K11" s="34"/>
@@ -15102,38 +15099,38 @@
       <c r="P11" s="34"/>
       <c r="Q11" s="34"/>
       <c r="R11" s="34" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="S11" s="34"/>
       <c r="T11" s="34"/>
     </row>
     <row r="12" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D12" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E12" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G12" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H12" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I12" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J12" s="34"/>
       <c r="K12" s="34"/>
@@ -15148,29 +15145,29 @@
       <c r="P12" s="34"/>
       <c r="Q12" s="34"/>
       <c r="R12" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S12" s="34"/>
       <c r="T12" s="34"/>
     </row>
     <row r="13" spans="1:20" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D13" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>79</v>
@@ -15178,10 +15175,10 @@
       <c r="H13" s="34"/>
       <c r="I13" s="34"/>
       <c r="J13" s="34" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K13" s="34" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L13" s="34"/>
       <c r="M13" s="34"/>
@@ -15194,29 +15191,29 @@
       <c r="P13" s="34"/>
       <c r="Q13" s="34"/>
       <c r="R13" s="34" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="S13" s="34"/>
       <c r="T13" s="34"/>
     </row>
     <row r="14" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D14" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F14" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G14" s="34" t="s">
         <v>79</v>
@@ -15224,10 +15221,10 @@
       <c r="H14" s="34"/>
       <c r="I14" s="34"/>
       <c r="J14" s="34" t="s">
+        <v>671</v>
+      </c>
+      <c r="K14" s="34" t="s">
         <v>672</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>673</v>
       </c>
       <c r="L14" s="34"/>
       <c r="M14" s="34"/>
@@ -15240,38 +15237,38 @@
       <c r="P14" s="34"/>
       <c r="Q14" s="34"/>
       <c r="R14" s="34" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="S14" s="34"/>
       <c r="T14" s="34"/>
     </row>
     <row r="15" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C15" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D15" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E15" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F15" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G15" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I15" s="34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J15" s="34"/>
       <c r="K15" s="34"/>
@@ -15286,38 +15283,38 @@
       <c r="P15" s="34"/>
       <c r="Q15" s="34"/>
       <c r="R15" s="34" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="S15" s="34"/>
       <c r="T15" s="34"/>
     </row>
     <row r="16" spans="1:20" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D16" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G16" s="34" t="s">
         <v>79</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I16" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="J16" s="34"/>
       <c r="K16" s="34"/>
@@ -15332,7 +15329,7 @@
       <c r="P16" s="34"/>
       <c r="Q16" s="34"/>
       <c r="R16" s="34" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="S16" s="34"/>
       <c r="T16" s="34"/>
@@ -15366,13 +15363,13 @@
         <v>5</v>
       </c>
       <c r="B18" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C18" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E18" s="63" t="s">
         <v>77</v>
@@ -15406,28 +15403,28 @@
         <v>5</v>
       </c>
       <c r="B19" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C19" s="63" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E19" s="63" t="s">
         <v>82</v>
       </c>
       <c r="F19" s="63" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G19" s="63" t="s">
         <v>79</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I19" s="63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
@@ -15450,13 +15447,13 @@
         <v>5</v>
       </c>
       <c r="B20" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C20" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D20" s="63" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E20" s="63" t="s">
         <v>77</v>
@@ -15490,13 +15487,13 @@
         <v>5</v>
       </c>
       <c r="B21" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C21" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D21" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E21" s="63" t="s">
         <v>82</v>
@@ -15511,7 +15508,7 @@
         <v>80</v>
       </c>
       <c r="I21" s="63" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J21" s="63"/>
       <c r="K21" s="63"/>
@@ -15587,15 +15584,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>456</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>455</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
     </row>
     <row r="2" spans="1:7" s="43" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -15617,7 +15614,7 @@
         <v>86</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -15625,7 +15622,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>87</v>
@@ -15640,7 +15637,7 @@
         <v>101</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15648,7 +15645,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>89</v>
@@ -15669,7 +15666,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>91</v>
@@ -15681,7 +15678,7 @@
         <v>88</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G5" s="36"/>
     </row>
@@ -15773,30 +15770,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="136" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>697</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="98" t="s">
-        <v>890</v>
-      </c>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="100"/>
+      <c r="A1" s="122" t="s">
+        <v>696</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="114" t="s">
+        <v>889</v>
+      </c>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="116"/>
     </row>
     <row r="2" spans="1:20" s="43" customFormat="1" ht="52.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -15824,22 +15821,22 @@
         <v>93</v>
       </c>
       <c r="I2" s="28" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>85</v>
       </c>
       <c r="K2" s="28" t="s">
+        <v>884</v>
+      </c>
+      <c r="L2" s="28" t="s">
         <v>885</v>
       </c>
-      <c r="L2" s="28" t="s">
-        <v>886</v>
-      </c>
       <c r="M2" s="29" t="s">
+        <v>890</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>891</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>892</v>
       </c>
       <c r="O2" s="28" t="s">
         <v>95</v>
@@ -15848,7 +15845,7 @@
         <v>96</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="R2" s="28" t="s">
         <v>97</v>
@@ -15857,7 +15854,7 @@
         <v>98</v>
       </c>
       <c r="T2" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="64" x14ac:dyDescent="0.2">
@@ -15865,28 +15862,28 @@
         <v>5</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>56</v>
       </c>
       <c r="D3" s="36" t="s">
+        <v>906</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>355</v>
+      </c>
+      <c r="F3" s="34" t="s">
         <v>907</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>356</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>908</v>
       </c>
       <c r="G3" s="36" t="b">
         <v>0</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J3" s="94" t="s">
         <v>105</v>
@@ -15903,17 +15900,17 @@
         <v>103</v>
       </c>
       <c r="P3" s="45" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="Q3" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R3" s="36"/>
       <c r="S3" s="36" t="s">
         <v>91</v>
       </c>
       <c r="T3" s="34" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -15945,29 +15942,29 @@
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="63" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E5" s="63" t="s">
         <v>104</v>
       </c>
       <c r="F5" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G5" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H5" s="63"/>
       <c r="I5" s="63" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J5" s="63" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -15979,7 +15976,7 @@
         <v>103</v>
       </c>
       <c r="P5" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="63"/>
       <c r="R5" s="63"/>
@@ -15993,43 +15990,43 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>56</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E6" s="63" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F6" s="64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G6" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H6" s="63"/>
       <c r="I6" s="63" t="s">
-        <v>454</v>
-      </c>
-      <c r="J6" s="119" t="s">
+        <v>453</v>
+      </c>
+      <c r="J6" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
-      <c r="N6" s="119"/>
+      <c r="K6" s="98"/>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
       <c r="O6" s="63" t="s">
         <v>103</v>
       </c>
       <c r="P6" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q6" s="63"/>
       <c r="R6" s="63" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S6" s="63"/>
       <c r="T6" s="63"/>
@@ -16039,43 +16036,43 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>56</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>104</v>
       </c>
       <c r="F7" s="64" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G7" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H7" s="63"/>
       <c r="I7" s="63" t="s">
-        <v>453</v>
-      </c>
-      <c r="J7" s="119" t="s">
+        <v>452</v>
+      </c>
+      <c r="J7" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
-      <c r="N7" s="119"/>
+      <c r="K7" s="98"/>
+      <c r="L7" s="98"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="98"/>
       <c r="O7" s="63" t="s">
         <v>103</v>
       </c>
       <c r="P7" s="63" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Q7" s="63"/>
       <c r="R7" s="63" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="S7" s="63"/>
       <c r="T7" s="63"/>
@@ -16172,20 +16169,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="114.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>576</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="100"/>
+      <c r="A1" s="114" t="s">
+        <v>575</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -16210,19 +16207,19 @@
         <v>109</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J2" s="29" t="s">
         <v>96</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="31.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16246,10 +16243,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D4" s="63">
         <v>150</v>
@@ -16258,23 +16255,23 @@
         <v>56</v>
       </c>
       <c r="F4" s="63" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G4" s="63" t="s">
         <v>110</v>
       </c>
       <c r="H4" s="64" t="s">
-        <v>895</v>
-      </c>
-      <c r="I4" s="120" t="b">
+        <v>894</v>
+      </c>
+      <c r="I4" s="99" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="120"/>
+      <c r="J4" s="99"/>
       <c r="K4" s="63" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -16282,10 +16279,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C5" s="63" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D5" s="63">
         <v>150</v>
@@ -16294,15 +16291,15 @@
         <v>56</v>
       </c>
       <c r="F5" s="63" t="s">
-        <v>400</v>
-      </c>
-      <c r="G5" s="121" t="s">
+        <v>399</v>
+      </c>
+      <c r="G5" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="121"/>
+      <c r="H5" s="100"/>
       <c r="I5" s="63"/>
       <c r="J5" s="63"/>
-      <c r="K5" s="122"/>
+      <c r="K5" s="101"/>
       <c r="L5" s="63"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -16493,27 +16490,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="108" t="s">
-        <v>462</v>
-      </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
-      <c r="H1" s="110"/>
-      <c r="I1" s="111" t="s">
-        <v>457</v>
-      </c>
-      <c r="J1" s="111"/>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="111"/>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
+      <c r="A1" s="125" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" s="126"/>
+      <c r="C1" s="126"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="126"/>
+      <c r="F1" s="126"/>
+      <c r="G1" s="126"/>
+      <c r="H1" s="127"/>
+      <c r="I1" s="128" t="s">
+        <v>456</v>
+      </c>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
+      <c r="L1" s="128"/>
+      <c r="M1" s="128"/>
+      <c r="N1" s="128"/>
+      <c r="O1" s="128"/>
+      <c r="P1" s="128"/>
+      <c r="Q1" s="128"/>
     </row>
     <row r="2" spans="1:17" s="1" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -16565,7 +16562,7 @@
         <v>97</v>
       </c>
       <c r="Q2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="16" x14ac:dyDescent="0.2">
@@ -16576,7 +16573,7 @@
       <c r="C3" s="36"/>
       <c r="D3" s="36"/>
       <c r="E3" s="34" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F3" s="36"/>
       <c r="G3" s="36"/>
@@ -16596,7 +16593,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>90</v>
@@ -16605,7 +16602,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="63" t="s">
@@ -16615,7 +16612,7 @@
         <v>125</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J4" s="63"/>
       <c r="K4" s="63"/>
@@ -16624,10 +16621,10 @@
       <c r="N4" s="63"/>
       <c r="O4" s="63"/>
       <c r="P4" s="64" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="Q4" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
@@ -16640,7 +16637,7 @@
       <c r="G5" s="63"/>
       <c r="H5" s="63"/>
       <c r="I5" s="63" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J5" s="63" t="s">
         <v>126</v>
@@ -16657,7 +16654,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="63"/>
-      <c r="B6" s="123"/>
+      <c r="B6" s="102"/>
       <c r="C6" s="63"/>
       <c r="D6" s="63"/>
       <c r="E6" s="64"/>
@@ -16665,7 +16662,7 @@
       <c r="G6" s="63"/>
       <c r="H6" s="63"/>
       <c r="I6" s="63" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J6" s="63" t="s">
         <v>128</v>
@@ -16685,7 +16682,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>90</v>
@@ -16694,7 +16691,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F7" s="63"/>
       <c r="G7" s="63"/>
@@ -16702,7 +16699,7 @@
         <v>130</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="J7" s="63"/>
       <c r="K7" s="63"/>
@@ -16718,7 +16715,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="63" t="s">
         <v>99</v>
@@ -16727,7 +16724,7 @@
         <v>131</v>
       </c>
       <c r="E8" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F8" s="63"/>
       <c r="G8" s="63"/>
@@ -16735,7 +16732,7 @@
         <v>132</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J8" s="63" t="s">
         <v>133</v>
@@ -16748,7 +16745,7 @@
       <c r="N8" s="63"/>
       <c r="O8" s="63"/>
       <c r="P8" s="63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="Q8" s="63"/>
     </row>
@@ -16757,7 +16754,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>99</v>
@@ -16766,7 +16763,7 @@
         <v>134</v>
       </c>
       <c r="E9" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F9" s="63"/>
       <c r="G9" s="63"/>
@@ -16774,7 +16771,7 @@
         <v>132</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J9" s="63" t="s">
         <v>135</v>
@@ -16794,7 +16791,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>90</v>
@@ -16803,7 +16800,7 @@
         <v>136</v>
       </c>
       <c r="E10" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="F10" s="63"/>
       <c r="G10" s="63"/>
@@ -16811,7 +16808,7 @@
         <v>137</v>
       </c>
       <c r="I10" s="63" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J10" s="63"/>
       <c r="K10" s="63"/>
@@ -16892,27 +16889,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="122.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>449</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
-      <c r="R1" s="97"/>
-      <c r="S1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
     </row>
     <row r="2" spans="1:19" ht="43" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -16925,13 +16922,13 @@
         <v>138</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E2" s="17" t="s">
+        <v>723</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>724</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>725</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>139</v>
@@ -16943,7 +16940,7 @@
         <v>97</v>
       </c>
       <c r="J2" s="17" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>141</v>
@@ -16964,13 +16961,13 @@
         <v>146</v>
       </c>
       <c r="Q2" s="17" t="s">
+        <v>410</v>
+      </c>
+      <c r="R2" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="R2" s="17" t="s">
-        <v>412</v>
-      </c>
       <c r="S2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17001,10 +16998,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D4" s="63" t="s">
         <v>147</v>
@@ -17012,7 +17009,7 @@
       <c r="E4" s="63"/>
       <c r="F4" s="63"/>
       <c r="G4" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H4" s="63" t="b">
         <v>1</v>
@@ -17034,13 +17031,13 @@
         <v>151</v>
       </c>
       <c r="Q4" s="63" t="s">
-        <v>426</v>
-      </c>
-      <c r="R4" s="124" t="s">
-        <v>428</v>
+        <v>425</v>
+      </c>
+      <c r="R4" s="103" t="s">
+        <v>427</v>
       </c>
       <c r="S4" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="37.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -17075,10 +17072,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="63" t="s">
         <v>153</v>
@@ -17086,13 +17083,13 @@
       <c r="E6" s="63"/>
       <c r="F6" s="63"/>
       <c r="G6" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H6" s="63" t="b">
         <v>0</v>
       </c>
       <c r="I6" s="63" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="J6" s="63"/>
       <c r="K6" s="64" t="s">
@@ -17174,13 +17171,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -17196,7 +17193,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="35" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -17204,13 +17201,13 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>581</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>582</v>
-      </c>
       <c r="D3" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E3" s="36"/>
     </row>
@@ -17219,13 +17216,13 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>583</v>
       </c>
-      <c r="C4" s="34" t="s">
-        <v>584</v>
-      </c>
       <c r="D4" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E4" s="36"/>
     </row>
@@ -17234,13 +17231,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D5" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E5" s="36"/>
     </row>
@@ -17249,13 +17246,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>586</v>
       </c>
-      <c r="C6" s="34" t="s">
-        <v>587</v>
-      </c>
       <c r="D6" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E6" s="36"/>
     </row>
@@ -17273,10 +17270,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="63" t="s">
         <v>357</v>
-      </c>
-      <c r="C8" s="63" t="s">
-        <v>358</v>
       </c>
       <c r="D8" s="63"/>
       <c r="E8" s="63"/>
@@ -17286,13 +17283,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="C9" s="63" t="s">
         <v>359</v>
       </c>
-      <c r="C9" s="63" t="s">
-        <v>360</v>
-      </c>
       <c r="D9" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E9" s="63"/>
     </row>
@@ -17301,13 +17298,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="63" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="63" t="s">
         <v>361</v>
       </c>
-      <c r="C10" s="63" t="s">
-        <v>362</v>
-      </c>
       <c r="D10" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E10" s="63"/>
     </row>
@@ -17316,10 +17313,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="63" t="s">
+        <v>362</v>
+      </c>
+      <c r="C11" s="63" t="s">
         <v>363</v>
-      </c>
-      <c r="C11" s="63" t="s">
-        <v>364</v>
       </c>
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
@@ -17329,13 +17326,13 @@
         <v>5</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C12" s="63" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D12" s="63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E12" s="63"/>
     </row>
@@ -17344,13 +17341,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C13" s="63" t="s">
+        <v>365</v>
+      </c>
+      <c r="D13" s="63" t="s">
         <v>366</v>
-      </c>
-      <c r="D13" s="63" t="s">
-        <v>367</v>
       </c>
       <c r="E13" s="63"/>
     </row>
@@ -17359,13 +17356,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E14" s="63"/>
     </row>
@@ -17374,16 +17371,16 @@
         <v>5</v>
       </c>
       <c r="B15" s="63" t="s">
+        <v>368</v>
+      </c>
+      <c r="C15" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="D15" s="63" t="s">
         <v>370</v>
       </c>
-      <c r="D15" s="63" t="s">
-        <v>371</v>
-      </c>
       <c r="E15" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -17440,30 +17437,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="123" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>899</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="100"/>
+      <c r="A1" s="114" t="s">
+        <v>898</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="116"/>
     </row>
     <row r="2" spans="1:22" ht="58.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
@@ -17476,16 +17473,16 @@
         <v>138</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E2" s="37" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="F2" s="37" t="s">
         <v>157</v>
       </c>
       <c r="G2" s="37" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H2" s="37" t="s">
         <v>158</v>
@@ -17500,7 +17497,7 @@
         <v>161</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>162</v>
@@ -17521,16 +17518,16 @@
         <v>167</v>
       </c>
       <c r="S2" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="T2" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="U2" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="V2" s="29" t="s">
         <v>465</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -17564,10 +17561,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D4" s="63"/>
       <c r="E4" s="63"/>
@@ -17575,7 +17572,7 @@
         <v>168</v>
       </c>
       <c r="G4" s="63" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H4" s="63" t="s">
         <v>169</v>
@@ -17611,10 +17608,10 @@
         <v>100</v>
       </c>
       <c r="S4" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="T4" s="104" t="s">
         <v>426</v>
-      </c>
-      <c r="T4" s="125" t="s">
-        <v>427</v>
       </c>
       <c r="U4" s="63">
         <v>2</v>
@@ -17635,7 +17632,7 @@
         <v>174</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H5" s="63" t="s">
         <v>169</v>
@@ -17672,10 +17669,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D6" s="63"/>
       <c r="E6" s="63"/>
@@ -17683,7 +17680,7 @@
         <v>177</v>
       </c>
       <c r="G6" s="63" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>169</v>
@@ -17788,25 +17785,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="122" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>898</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="97"/>
-      <c r="Q1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>897</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
     </row>
     <row r="2" spans="1:17" ht="46.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -17831,16 +17828,16 @@
         <v>244</v>
       </c>
       <c r="H2" s="29" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I2" s="29" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="J2" s="10" t="s">
         <v>245</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>246</v>
@@ -17849,16 +17846,16 @@
         <v>247</v>
       </c>
       <c r="N2" s="29" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P2" s="29" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q2" s="29" t="s">
         <v>465</v>
-      </c>
-      <c r="Q2" s="29" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -17887,7 +17884,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>168</v>
@@ -17907,16 +17904,16 @@
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
       <c r="J4" s="63" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K4" s="63"/>
       <c r="L4" s="63"/>
       <c r="M4" s="63"/>
       <c r="N4" s="63" t="s">
+        <v>425</v>
+      </c>
+      <c r="O4" s="104" t="s">
         <v>426</v>
-      </c>
-      <c r="O4" s="125" t="s">
-        <v>427</v>
       </c>
       <c r="P4" s="63">
         <v>2</v>
@@ -17944,7 +17941,7 @@
       <c r="H5" s="63"/>
       <c r="I5" s="63"/>
       <c r="J5" s="63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K5" s="63"/>
       <c r="L5" s="63"/>
@@ -17959,7 +17956,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>177</v>
@@ -18044,29 +18041,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="115.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>440</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="101" t="s">
-        <v>464</v>
-      </c>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="113"/>
+      <c r="A1" s="114" t="s">
+        <v>439</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="117" t="s">
+        <v>463</v>
+      </c>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+      <c r="O1" s="129"/>
+      <c r="P1" s="129"/>
+      <c r="Q1" s="129"/>
+      <c r="R1" s="129"/>
+      <c r="S1" s="130"/>
     </row>
     <row r="2" spans="1:19" ht="58.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
@@ -18112,7 +18109,7 @@
         <v>189</v>
       </c>
       <c r="O2" s="29" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P2" s="10" t="s">
         <v>190</v>
@@ -18155,7 +18152,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>193</v>
@@ -18164,7 +18161,7 @@
         <v>194</v>
       </c>
       <c r="E4" s="63" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F4" s="63"/>
       <c r="G4" s="63"/>
@@ -18635,7 +18632,7 @@
         <v>5</v>
       </c>
       <c r="B22" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C22" s="63" t="s">
         <v>230</v>
@@ -18743,14 +18740,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="43" customFormat="1" ht="44.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="114" t="s">
-        <v>441</v>
-      </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
+      <c r="A1" s="131" t="s">
+        <v>440</v>
+      </c>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
+      <c r="F1" s="133"/>
     </row>
     <row r="2" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -18787,7 +18784,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>233</v>
@@ -18837,7 +18834,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>239</v>
@@ -18902,20 +18899,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>910</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="100"/>
+      <c r="A1" s="114" t="s">
+        <v>909</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" ht="58" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -18925,19 +18922,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>97</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>245</v>
@@ -18946,13 +18943,13 @@
         <v>157</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="K2" s="29" t="s">
         <v>246</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -18973,16 +18970,16 @@
     </row>
     <row r="4" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="64" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E4" s="64" t="b">
         <v>0</v>
@@ -18990,13 +18987,13 @@
       <c r="F4" s="64"/>
       <c r="G4" s="64"/>
       <c r="H4" s="64" t="s">
+        <v>930</v>
+      </c>
+      <c r="I4" s="64" t="s">
+        <v>915</v>
+      </c>
+      <c r="J4" s="64" t="s">
         <v>931</v>
-      </c>
-      <c r="I4" s="64" t="s">
-        <v>916</v>
-      </c>
-      <c r="J4" s="64" t="s">
-        <v>932</v>
       </c>
       <c r="K4" s="64">
         <v>7003</v>
@@ -19005,34 +19002,34 @@
     </row>
     <row r="5" spans="1:12" s="96" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="64" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E5" s="64" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="64" t="s">
+        <v>933</v>
+      </c>
+      <c r="G5" s="64" t="s">
         <v>934</v>
       </c>
-      <c r="G5" s="64" t="s">
+      <c r="H5" s="64" t="s">
         <v>935</v>
       </c>
-      <c r="H5" s="64" t="s">
-        <v>936</v>
-      </c>
       <c r="I5" s="64" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="J5" s="64" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="K5" s="64">
         <v>53</v>
@@ -19048,13 +19045,13 @@
       <c r="F6" s="64"/>
       <c r="G6" s="64"/>
       <c r="H6" s="64" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="I6" s="64" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="K6" s="64">
         <v>22</v>
@@ -19373,19 +19370,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>910</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
+      <c r="A1" s="114" t="s">
+        <v>909</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
     </row>
     <row r="2" spans="1:11" ht="72.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
@@ -19395,19 +19392,19 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D2" s="29" t="s">
         <v>157</v>
       </c>
       <c r="E2" s="29" t="s">
+        <v>911</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>912</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>913</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>914</v>
       </c>
       <c r="H2" s="29" t="s">
         <v>160</v>
@@ -19416,10 +19413,10 @@
         <v>161</v>
       </c>
       <c r="J2" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K2" s="29" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="29" customHeight="1" x14ac:dyDescent="0.2">
@@ -19439,19 +19436,19 @@
     </row>
     <row r="4" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="64" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B4" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="64" t="s">
+        <v>914</v>
+      </c>
+      <c r="D4" s="64" t="s">
         <v>915</v>
       </c>
-      <c r="D4" s="64" t="s">
+      <c r="E4" s="64" t="s">
         <v>916</v>
-      </c>
-      <c r="E4" s="64" t="s">
-        <v>917</v>
       </c>
       <c r="F4" s="64" t="b">
         <v>0</v>
@@ -19463,36 +19460,36 @@
         <v>7003</v>
       </c>
       <c r="I4" s="64" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="J4" s="64">
         <v>10000</v>
       </c>
       <c r="K4" s="64" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="64" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B5" s="64" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="64" t="s">
+        <v>919</v>
+      </c>
+      <c r="D5" s="64" t="s">
         <v>920</v>
       </c>
-      <c r="D5" s="64" t="s">
+      <c r="E5" s="64" t="s">
         <v>921</v>
-      </c>
-      <c r="E5" s="64" t="s">
-        <v>922</v>
       </c>
       <c r="F5" s="64" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="64" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="H5" s="64">
         <v>53</v>
@@ -19502,7 +19499,7 @@
         <v>10000</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
@@ -19510,16 +19507,16 @@
       <c r="B6" s="64"/>
       <c r="C6" s="64"/>
       <c r="D6" s="64" t="s">
+        <v>924</v>
+      </c>
+      <c r="E6" s="64" t="s">
         <v>925</v>
-      </c>
-      <c r="E6" s="64" t="s">
-        <v>926</v>
       </c>
       <c r="F6" s="64" t="b">
         <v>0</v>
       </c>
       <c r="G6" s="64" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H6" s="64">
         <v>22</v>
@@ -19529,7 +19526,7 @@
         <v>20000</v>
       </c>
       <c r="K6" s="64" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -19567,24 +19564,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
+      <c r="A1" s="114" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
     </row>
     <row r="2" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
@@ -19594,46 +19591,46 @@
         <v>6</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F2" s="17" t="s">
         <v>315</v>
       </c>
       <c r="G2" s="59" t="s">
-        <v>792</v>
-      </c>
-      <c r="H2" s="133" t="s">
+        <v>791</v>
+      </c>
+      <c r="H2" s="112" t="s">
         <v>316</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>317</v>
+        <v>790</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>1151</v>
+      </c>
+      <c r="K2" s="17" t="s">
         <v>1152</v>
       </c>
-      <c r="K2" s="17" t="s">
-        <v>1153</v>
-      </c>
       <c r="L2" s="60" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="M2" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="59" t="s">
         <v>322</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>323</v>
       </c>
       <c r="O2" s="59" t="s">
         <v>97</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -19658,38 +19655,38 @@
     </row>
     <row r="4" spans="1:16" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="D4" s="64" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E4" s="63"/>
       <c r="F4" s="63" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G4" s="63"/>
-      <c r="H4" s="127" t="s">
-        <v>333</v>
+      <c r="H4" s="106" t="s">
+        <v>332</v>
       </c>
       <c r="I4" s="63"/>
       <c r="J4" s="63"/>
       <c r="K4" s="63" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L4" s="63" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M4" s="63" t="s">
+        <v>334</v>
+      </c>
+      <c r="N4" s="63" t="s">
         <v>335</v>
-      </c>
-      <c r="N4" s="63" t="s">
-        <v>336</v>
       </c>
       <c r="O4" s="63"/>
       <c r="P4" s="63"/>
@@ -19753,35 +19750,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="48" customFormat="1" ht="135.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>579</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="99"/>
-      <c r="M1" s="99"/>
-      <c r="N1" s="99"/>
-      <c r="O1" s="99"/>
-      <c r="P1" s="99"/>
-      <c r="Q1" s="99"/>
-      <c r="R1" s="99"/>
-      <c r="S1" s="99"/>
-      <c r="T1" s="99"/>
-      <c r="U1" s="99"/>
-      <c r="V1" s="99"/>
-      <c r="W1" s="99"/>
-      <c r="X1" s="99"/>
-      <c r="Y1" s="99"/>
-      <c r="Z1" s="99"/>
-      <c r="AA1" s="100"/>
+      <c r="A1" s="114" t="s">
+        <v>578</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="115"/>
+      <c r="Z1" s="115"/>
+      <c r="AA1" s="116"/>
     </row>
     <row r="2" spans="1:27" s="57" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="59" t="s">
@@ -19797,73 +19794,73 @@
         <v>39</v>
       </c>
       <c r="E2" s="60" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F2" s="59" t="s">
         <v>85</v>
       </c>
       <c r="G2" s="59" t="s">
+        <v>789</v>
+      </c>
+      <c r="H2" s="59" t="s">
         <v>790</v>
       </c>
-      <c r="H2" s="59" t="s">
+      <c r="I2" s="59" t="s">
         <v>791</v>
       </c>
-      <c r="I2" s="59" t="s">
+      <c r="J2" s="59" t="s">
         <v>792</v>
       </c>
-      <c r="J2" s="59" t="s">
+      <c r="K2" s="78" t="s">
         <v>793</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="L2" s="59" t="s">
         <v>794</v>
       </c>
-      <c r="L2" s="59" t="s">
+      <c r="M2" s="60" t="s">
         <v>795</v>
       </c>
-      <c r="M2" s="60" t="s">
-        <v>796</v>
-      </c>
       <c r="N2" s="59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="O2" s="59" t="s">
         <v>315</v>
       </c>
       <c r="P2" s="59" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q2" s="59" t="s">
         <v>414</v>
       </c>
-      <c r="Q2" s="59" t="s">
+      <c r="R2" s="59" t="s">
         <v>415</v>
       </c>
-      <c r="R2" s="59" t="s">
-        <v>416</v>
-      </c>
       <c r="S2" s="59" t="s">
+        <v>796</v>
+      </c>
+      <c r="T2" s="59" t="s">
         <v>797</v>
-      </c>
-      <c r="T2" s="59" t="s">
-        <v>798</v>
       </c>
       <c r="U2" s="59" t="s">
         <v>95</v>
       </c>
       <c r="V2" s="59" t="s">
+        <v>321</v>
+      </c>
+      <c r="W2" s="59" t="s">
         <v>322</v>
       </c>
-      <c r="W2" s="59" t="s">
-        <v>323</v>
-      </c>
       <c r="X2" s="59" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="Y2" s="59" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Z2" s="59" t="s">
         <v>97</v>
       </c>
       <c r="AA2" s="59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
@@ -19898,153 +19895,153 @@
       <c r="AA3" s="36"/>
     </row>
     <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="121" t="s">
-        <v>319</v>
-      </c>
-      <c r="B4" s="121" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="121" t="s">
+      <c r="A4" s="100" t="s">
+        <v>318</v>
+      </c>
+      <c r="B4" s="100" t="s">
+        <v>582</v>
+      </c>
+      <c r="C4" s="100" t="s">
         <v>56</v>
       </c>
       <c r="D4" s="64" t="s">
+        <v>830</v>
+      </c>
+      <c r="E4" s="105" t="s">
         <v>831</v>
       </c>
-      <c r="E4" s="126" t="s">
+      <c r="F4" s="106" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" s="106">
+        <v>1</v>
+      </c>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106" t="s">
+        <v>422</v>
+      </c>
+      <c r="J4" s="106">
+        <v>256</v>
+      </c>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="M4" s="106" t="s">
+        <v>328</v>
+      </c>
+      <c r="N4" s="106" t="s">
         <v>832</v>
       </c>
-      <c r="F4" s="127" t="s">
-        <v>340</v>
-      </c>
-      <c r="G4" s="127">
+      <c r="O4" s="106" t="s">
+        <v>329</v>
+      </c>
+      <c r="P4" s="107" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q4" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="R4" s="106" t="s">
+        <v>332</v>
+      </c>
+      <c r="S4" s="106" t="s">
+        <v>333</v>
+      </c>
+      <c r="T4" s="106" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="127"/>
-      <c r="I4" s="127" t="s">
-        <v>423</v>
-      </c>
-      <c r="J4" s="127">
-        <v>256</v>
-      </c>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127" t="s">
-        <v>328</v>
-      </c>
-      <c r="M4" s="127" t="s">
-        <v>329</v>
-      </c>
-      <c r="N4" s="127" t="s">
-        <v>833</v>
-      </c>
-      <c r="O4" s="127" t="s">
-        <v>330</v>
-      </c>
-      <c r="P4" s="128" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q4" s="127" t="s">
-        <v>332</v>
-      </c>
-      <c r="R4" s="127" t="s">
-        <v>333</v>
-      </c>
-      <c r="S4" s="127" t="s">
+      <c r="U4" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="V4" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="T4" s="127" t="b">
-        <v>1</v>
-      </c>
-      <c r="U4" s="127" t="s">
-        <v>103</v>
-      </c>
-      <c r="V4" s="63" t="s">
+      <c r="W4" s="63" t="s">
         <v>335</v>
-      </c>
-      <c r="W4" s="63" t="s">
-        <v>336</v>
       </c>
       <c r="X4" s="63">
         <v>15</v>
       </c>
       <c r="Y4" s="63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Z4" s="63"/>
       <c r="AA4" s="63"/>
     </row>
     <row r="5" spans="1:27" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="129" t="s">
-        <v>319</v>
-      </c>
-      <c r="B5" s="121" t="s">
-        <v>583</v>
-      </c>
-      <c r="C5" s="121" t="s">
+      <c r="A5" s="108" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="100" t="s">
+        <v>582</v>
+      </c>
+      <c r="C5" s="100" t="s">
         <v>90</v>
       </c>
       <c r="D5" s="64" t="s">
-        <v>846</v>
-      </c>
-      <c r="E5" s="126" t="s">
+        <v>845</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>833</v>
+      </c>
+      <c r="F5" s="106" t="s">
+        <v>342</v>
+      </c>
+      <c r="G5" s="106">
+        <v>2</v>
+      </c>
+      <c r="H5" s="106">
+        <v>4</v>
+      </c>
+      <c r="I5" s="106" t="s">
+        <v>343</v>
+      </c>
+      <c r="J5" s="106">
+        <v>256</v>
+      </c>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106" t="s">
+        <v>327</v>
+      </c>
+      <c r="M5" s="106" t="s">
+        <v>328</v>
+      </c>
+      <c r="N5" s="106" t="s">
         <v>834</v>
       </c>
-      <c r="F5" s="127" t="s">
-        <v>343</v>
-      </c>
-      <c r="G5" s="127">
-        <v>2</v>
-      </c>
-      <c r="H5" s="127">
-        <v>4</v>
-      </c>
-      <c r="I5" s="127" t="s">
+      <c r="O5" s="106" t="s">
         <v>344</v>
       </c>
-      <c r="J5" s="127">
-        <v>256</v>
-      </c>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127" t="s">
-        <v>328</v>
-      </c>
-      <c r="M5" s="127" t="s">
-        <v>329</v>
-      </c>
-      <c r="N5" s="127" t="s">
-        <v>835</v>
-      </c>
-      <c r="O5" s="127" t="s">
-        <v>345</v>
-      </c>
-      <c r="P5" s="128" t="s">
-        <v>419</v>
-      </c>
-      <c r="Q5" s="127" t="s">
+      <c r="P5" s="107" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q5" s="106" t="s">
+        <v>331</v>
+      </c>
+      <c r="R5" s="106" t="s">
         <v>332</v>
       </c>
-      <c r="R5" s="127" t="s">
+      <c r="S5" s="106" t="s">
         <v>333</v>
       </c>
-      <c r="S5" s="127" t="s">
+      <c r="T5" s="106" t="b">
+        <v>1</v>
+      </c>
+      <c r="U5" s="106" t="s">
+        <v>103</v>
+      </c>
+      <c r="V5" s="63" t="s">
         <v>334</v>
       </c>
-      <c r="T5" s="127" t="b">
-        <v>1</v>
-      </c>
-      <c r="U5" s="127" t="s">
-        <v>103</v>
-      </c>
-      <c r="V5" s="63" t="s">
+      <c r="W5" s="63" t="s">
         <v>335</v>
-      </c>
-      <c r="W5" s="63" t="s">
-        <v>336</v>
       </c>
       <c r="X5" s="63">
         <v>15</v>
       </c>
       <c r="Y5" s="63" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="Z5" s="63"/>
       <c r="AA5" s="63"/>
@@ -25999,7 +25996,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:AA1"/>
   </mergeCells>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F997:F1048576" xr:uid="{B70C110F-B7BC-6C49-8A57-AD4295B0E7FA}">
       <formula1>VM_shapes_drop</formula1>
     </dataValidation>
@@ -26024,18 +26021,15 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="P3:P996" xr:uid="{087AB1F6-B370-D94E-BF90-A47BDEC5053C}">
       <formula1>db_sersion_drop</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L997:L1075 K3:L996 F3:G996" xr:uid="{F0516B4B-931F-F242-A446-CA86156F64DC}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="11">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F0516B4B-931F-F242-A446-CA86156F64DC}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L997:L1075</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Select an OCI region" xr:uid="{AB1348A7-3B4D-6F4C-B6CE-628C25541118}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$G$2:$G$25</xm:f>
@@ -26047,30 +26041,6 @@
             <xm:f>drop_down_rule_set!$R$2:$R$4</xm:f>
           </x14:formula1>
           <xm:sqref>C3:C996</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9B80E890-9EEC-5442-8312-B81FDFA02D0C}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F3:F996</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F245DE03-AEC3-B04A-A87E-1E261A72C892}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G996</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AEAFE5F0-00AF-2A4D-93F2-6B70D7FBD3DC}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K3:K996</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D235EE70-D7EF-C94C-B8BA-04BA1FD7DB87}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>L3:L996</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" prompt="Specify Compartment name." xr:uid="{E3994830-9ABA-2642-86F9-70E60BA5FDD6}">
           <x14:formula1>
@@ -26123,16 +26093,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="119" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>813</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="A1" s="114" t="s">
+        <v>812</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
     </row>
     <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
@@ -26142,7 +26112,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D2" s="78" t="s">
         <v>84</v>
@@ -26151,13 +26121,13 @@
         <v>85</v>
       </c>
       <c r="F2" s="78" t="s">
+        <v>809</v>
+      </c>
+      <c r="G2" s="78" t="s">
         <v>810</v>
       </c>
-      <c r="G2" s="78" t="s">
-        <v>811</v>
-      </c>
       <c r="H2" s="81" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -26174,19 +26144,19 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="63" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="127" t="s">
-        <v>420</v>
+        <v>582</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>419</v>
       </c>
       <c r="D4" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="127" t="s">
-        <v>812</v>
+      <c r="E4" s="106" t="s">
+        <v>811</v>
       </c>
       <c r="F4" s="64">
         <v>2</v>
@@ -32163,16 +32133,15 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1000" xr:uid="{00000000-0002-0000-1900-000000000000}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-1900-000000000000}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>E3:E1000</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" xr:uid="{00000000-0002-0000-1900-000001000000}">
           <x14:formula1>
             <xm:f>drop_down_rule_set!$R$2:$R$4</xm:f>
@@ -32236,25 +32205,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="48" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="105" t="s">
-        <v>580</v>
-      </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
-      <c r="O1" s="106"/>
-      <c r="P1" s="106"/>
-      <c r="Q1" s="106"/>
+      <c r="A1" s="122" t="s">
+        <v>579</v>
+      </c>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
       <c r="R1" s="84"/>
       <c r="S1" s="84"/>
       <c r="T1" s="84"/>
@@ -32271,49 +32240,49 @@
         <v>6</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="D2" s="60" t="s">
+        <v>813</v>
+      </c>
+      <c r="E2" s="78" t="s">
         <v>814</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="F2" s="78" t="s">
+        <v>346</v>
+      </c>
+      <c r="G2" s="78" t="s">
+        <v>790</v>
+      </c>
+      <c r="H2" s="60" t="s">
+        <v>795</v>
+      </c>
+      <c r="I2" s="78" t="s">
+        <v>412</v>
+      </c>
+      <c r="J2" s="78" t="s">
         <v>815</v>
       </c>
-      <c r="F2" s="78" t="s">
-        <v>347</v>
-      </c>
-      <c r="G2" s="78" t="s">
-        <v>791</v>
-      </c>
-      <c r="H2" s="60" t="s">
-        <v>796</v>
-      </c>
-      <c r="I2" s="78" t="s">
-        <v>413</v>
-      </c>
-      <c r="J2" s="78" t="s">
+      <c r="K2" s="78" t="s">
         <v>816</v>
       </c>
-      <c r="K2" s="78" t="s">
+      <c r="L2" s="78" t="s">
         <v>817</v>
-      </c>
-      <c r="L2" s="78" t="s">
-        <v>818</v>
       </c>
       <c r="M2" s="78" t="s">
         <v>95</v>
       </c>
       <c r="N2" s="78" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="O2" s="90" t="s">
         <v>97</v>
       </c>
       <c r="P2" s="90" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="Q2" s="85" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R2" s="46"/>
       <c r="S2" s="46"/>
@@ -32344,52 +32313,52 @@
       <c r="Q3" s="36"/>
     </row>
     <row r="4" spans="1:24" ht="14.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="121" t="s">
-        <v>319</v>
+      <c r="A4" s="100" t="s">
+        <v>318</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>583</v>
-      </c>
-      <c r="C4" s="127" t="s">
-        <v>420</v>
+        <v>582</v>
+      </c>
+      <c r="C4" s="106" t="s">
+        <v>419</v>
       </c>
       <c r="D4" s="63" t="s">
+        <v>843</v>
+      </c>
+      <c r="E4" s="64" t="s">
+        <v>830</v>
+      </c>
+      <c r="F4" s="64" t="s">
+        <v>830</v>
+      </c>
+      <c r="G4" s="109">
+        <v>4</v>
+      </c>
+      <c r="H4" s="110" t="s">
+        <v>328</v>
+      </c>
+      <c r="I4" s="110" t="s">
         <v>844</v>
       </c>
-      <c r="E4" s="64" t="s">
-        <v>831</v>
-      </c>
-      <c r="F4" s="64" t="s">
-        <v>831</v>
-      </c>
-      <c r="G4" s="130">
-        <v>4</v>
-      </c>
-      <c r="H4" s="131" t="s">
-        <v>329</v>
-      </c>
-      <c r="I4" s="131" t="s">
-        <v>845</v>
-      </c>
-      <c r="J4" s="131" t="s">
-        <v>425</v>
-      </c>
-      <c r="K4" s="131" t="b">
+      <c r="J4" s="110" t="s">
+        <v>424</v>
+      </c>
+      <c r="K4" s="110" t="b">
         <v>1</v>
       </c>
-      <c r="L4" s="132" t="b">
+      <c r="L4" s="111" t="b">
         <v>1</v>
       </c>
-      <c r="M4" s="131" t="s">
+      <c r="M4" s="110" t="s">
         <v>103</v>
       </c>
-      <c r="N4" s="125" t="s">
-        <v>578</v>
-      </c>
-      <c r="O4" s="123"/>
+      <c r="N4" s="104" t="s">
+        <v>577</v>
+      </c>
+      <c r="O4" s="102"/>
       <c r="P4" s="63"/>
       <c r="Q4" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.2">
@@ -39178,13 +39147,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="43" customFormat="1" ht="105.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>443</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
@@ -39197,10 +39166,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
@@ -39208,10 +39177,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>587</v>
+      </c>
+      <c r="C3" s="34" t="s">
         <v>588</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>589</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="36"/>
@@ -39221,10 +39190,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="34" t="s">
+        <v>939</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>940</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>941</v>
       </c>
       <c r="D4" s="34"/>
       <c r="E4" s="36"/>
@@ -39234,10 +39203,10 @@
         <v>5</v>
       </c>
       <c r="B5" s="34" t="s">
+        <v>589</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>590</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>591</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="36"/>
@@ -39247,10 +39216,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
+        <v>591</v>
+      </c>
+      <c r="C6" s="34" t="s">
         <v>592</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>593</v>
       </c>
       <c r="D6" s="34"/>
       <c r="E6" s="36"/>
@@ -39260,10 +39229,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="C7" s="34" t="s">
         <v>594</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>595</v>
       </c>
       <c r="D7" s="34"/>
       <c r="E7" s="21"/>
@@ -39273,10 +39242,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="65" t="s">
+        <v>595</v>
+      </c>
+      <c r="C8" s="65" t="s">
         <v>596</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>597</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="34"/>
@@ -39286,10 +39255,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>597</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>598</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>599</v>
       </c>
       <c r="D9" s="34"/>
       <c r="E9" s="34"/>
@@ -39299,10 +39268,10 @@
         <v>5</v>
       </c>
       <c r="B10" s="34" t="s">
+        <v>679</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>680</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>681</v>
       </c>
       <c r="D10" s="34"/>
       <c r="E10" s="34"/>
@@ -39312,10 +39281,10 @@
         <v>5</v>
       </c>
       <c r="B11" s="34" t="s">
+        <v>704</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>705</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>706</v>
       </c>
       <c r="D11" s="34"/>
       <c r="E11" s="34"/>
@@ -39325,10 +39294,10 @@
         <v>5</v>
       </c>
       <c r="B12" s="34" t="s">
+        <v>827</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>828</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>829</v>
       </c>
       <c r="D12" s="34"/>
       <c r="E12" s="36"/>
@@ -39347,13 +39316,13 @@
         <v>5</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>942</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="20" t="s">
         <v>943</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>944</v>
       </c>
       <c r="E14" s="8"/>
     </row>
@@ -39362,13 +39331,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="34" t="s">
+        <v>944</v>
+      </c>
+      <c r="C15" s="34" t="s">
         <v>945</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="D15" s="34" t="s">
         <v>946</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>947</v>
       </c>
       <c r="E15" s="36"/>
     </row>
@@ -39377,13 +39346,13 @@
         <v>5</v>
       </c>
       <c r="B16" s="34" t="s">
+        <v>947</v>
+      </c>
+      <c r="C16" s="34" t="s">
         <v>948</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="D16" s="34" t="s">
         <v>949</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>950</v>
       </c>
       <c r="E16" s="36"/>
     </row>
@@ -39392,13 +39361,13 @@
         <v>5</v>
       </c>
       <c r="B17" s="34" t="s">
+        <v>950</v>
+      </c>
+      <c r="C17" s="34" t="s">
         <v>951</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="D17" s="34" t="s">
         <v>952</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>953</v>
       </c>
       <c r="E17" s="36"/>
     </row>
@@ -39457,40 +39426,40 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="47" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B1" s="47" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C1" s="53" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D1" s="53" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="E1" s="47" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F1" s="54" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G1" s="54" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H1" s="54" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I1" s="80" t="s">
+        <v>793</v>
+      </c>
+      <c r="J1" s="80" t="s">
         <v>794</v>
       </c>
-      <c r="J1" s="80" t="s">
-        <v>795</v>
-      </c>
       <c r="K1" s="54" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="L1" s="53" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -39498,738 +39467,738 @@
         <v>102</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D2" s="36" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="36" t="s">
         <v>334</v>
-      </c>
-      <c r="E2" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" s="49" t="s">
-        <v>329</v>
-      </c>
-      <c r="G2" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" s="36" t="s">
-        <v>335</v>
       </c>
       <c r="I2" s="34">
         <v>80</v>
       </c>
       <c r="J2" s="34" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K2" s="36">
         <v>1</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="79" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D3" s="36" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G3" s="61" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H3" s="36" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I3" s="34">
         <v>40</v>
       </c>
       <c r="J3" s="34" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K3" s="36">
         <v>2</v>
       </c>
       <c r="L3" s="35" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="79" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D4" s="36"/>
       <c r="E4" s="36" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F4" s="36"/>
       <c r="H4" s="8" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="L4" s="35" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="79" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D5" s="36"/>
       <c r="E5" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F5" s="36"/>
       <c r="H5" s="36" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="L5" s="35" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="79" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="36"/>
       <c r="C6" s="36" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D6" s="36"/>
       <c r="E6" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F6" s="36"/>
       <c r="H6" s="36" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="79" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="36" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D7" s="36"/>
       <c r="E7" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F7" s="36"/>
       <c r="H7" s="36" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="79" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="36" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="D8" s="36"/>
       <c r="E8" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F8" s="36"/>
       <c r="H8" s="36" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="79" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D9" s="36"/>
       <c r="E9" s="36" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F9" s="36"/>
       <c r="H9" s="36" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="79" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" s="36"/>
       <c r="C10" s="36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D10" s="36"/>
       <c r="E10" s="36" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F10" s="36"/>
       <c r="H10" s="36" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="79" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B11" s="36"/>
       <c r="C11" s="36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F11" s="36"/>
       <c r="H11" s="36" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="79" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="36" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F12" s="36"/>
       <c r="H12" s="36" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="79" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="H13" s="36" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="79" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B14" s="36"/>
       <c r="C14" s="36" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
       <c r="F14" s="36"/>
       <c r="H14" s="36" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H15" s="36" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="H16" s="36" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="36" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="36" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="36" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="36" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="36" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="36" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="36" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="36" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="36" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="36" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="36" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="36" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="36" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="36" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="36" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="36" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="36" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="36" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="36" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="36" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="36" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="36" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="36" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="36" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="36" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="36" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="36" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="36" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="36" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="36" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="36" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="36" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="36" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="36" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="36" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="36" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H60" s="36" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H61" s="36" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H62" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H63" s="36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H64" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H65" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H66" s="36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H67" s="36" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H68" s="36" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H69" s="36" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="70" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H70" s="36" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="71" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H71" s="36" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="72" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H72" s="36" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="73" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H73" s="36" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H74" s="36" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="75" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H75" s="36" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="76" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H76" s="36" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="77" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H77" s="36" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="78" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H78" s="36" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="79" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H79" s="36" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="80" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H80" s="36" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H81" s="36" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="82" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H82" s="36" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="83" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H83" s="36" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="84" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H84" s="36" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="85" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H85" s="36" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="86" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H86" s="36" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="87" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H87" s="36" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="88" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H88" s="36" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="89" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H89" s="36" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="90" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H90" s="36" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="91" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H91" s="36" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="92" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H92" s="36" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="93" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H93" s="36" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="94" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H94" s="36" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="95" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H95" s="36" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="96" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H96" s="36" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H97" s="36" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="98" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H98" s="36" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="99" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H99" s="36" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="100" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H100" s="36" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H101" s="36" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="102" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H102" s="36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="103" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H103" s="36" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="104" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H104" s="36" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="105" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H105" s="36" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="106" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H106" s="36" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="107" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H107" s="36" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="108" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H108" s="36" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -40287,91 +40256,91 @@
   <sheetData>
     <row r="1" spans="1:39" s="68" customFormat="1" ht="148" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
+        <v>725</v>
+      </c>
+      <c r="B1" s="76" t="s">
         <v>726</v>
       </c>
-      <c r="B1" s="76" t="s">
+      <c r="C1" s="76" t="s">
         <v>727</v>
       </c>
-      <c r="C1" s="76" t="s">
+      <c r="D1" s="76" t="s">
         <v>728</v>
       </c>
-      <c r="D1" s="76" t="s">
+      <c r="E1" s="76" t="s">
         <v>729</v>
       </c>
-      <c r="E1" s="76" t="s">
+      <c r="F1" s="76" t="s">
         <v>730</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>731</v>
       </c>
       <c r="G1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="76" t="s">
+        <v>731</v>
+      </c>
+      <c r="I1" s="76" t="s">
         <v>732</v>
       </c>
-      <c r="I1" s="76" t="s">
+      <c r="J1" s="76" t="s">
         <v>733</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="K1" s="76" t="s">
         <v>734</v>
       </c>
-      <c r="K1" s="76" t="s">
+      <c r="L1" s="76" t="s">
         <v>735</v>
       </c>
-      <c r="L1" s="76" t="s">
+      <c r="M1" s="76" t="s">
+        <v>783</v>
+      </c>
+      <c r="N1" s="76" t="s">
         <v>736</v>
       </c>
-      <c r="M1" s="76" t="s">
+      <c r="O1" s="76" t="s">
+        <v>737</v>
+      </c>
+      <c r="P1" s="76" t="s">
+        <v>738</v>
+      </c>
+      <c r="Q1" s="76" t="s">
+        <v>739</v>
+      </c>
+      <c r="R1" s="76" t="s">
+        <v>740</v>
+      </c>
+      <c r="S1" s="76" t="s">
+        <v>741</v>
+      </c>
+      <c r="T1" s="76" t="s">
+        <v>785</v>
+      </c>
+      <c r="U1" s="76" t="s">
+        <v>742</v>
+      </c>
+      <c r="V1" s="67" t="s">
+        <v>743</v>
+      </c>
+      <c r="W1" s="67" t="s">
+        <v>744</v>
+      </c>
+      <c r="X1" s="67" t="s">
+        <v>745</v>
+      </c>
+      <c r="Y1" s="76" t="s">
         <v>784</v>
-      </c>
-      <c r="N1" s="76" t="s">
-        <v>737</v>
-      </c>
-      <c r="O1" s="76" t="s">
-        <v>738</v>
-      </c>
-      <c r="P1" s="76" t="s">
-        <v>739</v>
-      </c>
-      <c r="Q1" s="76" t="s">
-        <v>740</v>
-      </c>
-      <c r="R1" s="76" t="s">
-        <v>741</v>
-      </c>
-      <c r="S1" s="76" t="s">
-        <v>742</v>
-      </c>
-      <c r="T1" s="76" t="s">
-        <v>786</v>
-      </c>
-      <c r="U1" s="76" t="s">
-        <v>743</v>
-      </c>
-      <c r="V1" s="67" t="s">
-        <v>744</v>
-      </c>
-      <c r="W1" s="67" t="s">
-        <v>745</v>
-      </c>
-      <c r="X1" s="67" t="s">
-        <v>746</v>
-      </c>
-      <c r="Y1" s="76" t="s">
-        <v>785</v>
       </c>
       <c r="Z1" s="67" t="s">
         <v>85</v>
       </c>
       <c r="AA1" s="67" t="s">
+        <v>746</v>
+      </c>
+      <c r="AB1" s="67" t="s">
         <v>747</v>
       </c>
-      <c r="AB1" s="67" t="s">
+      <c r="AC1" s="67" t="s">
         <v>748</v>
-      </c>
-      <c r="AC1" s="67" t="s">
-        <v>749</v>
       </c>
       <c r="AD1" s="67" t="s">
         <v>252</v>
@@ -40392,10 +40361,10 @@
         <v>257</v>
       </c>
       <c r="AJ1" s="67" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AK1" s="67" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AL1" s="67"/>
       <c r="AM1" s="67"/>
@@ -40424,7 +40393,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="70" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H2" s="70" t="s">
         <v>38</v>
@@ -40447,22 +40416,22 @@
         <v>DRG</v>
       </c>
       <c r="N2" s="70" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="O2" s="70" t="s">
         <v>78</v>
       </c>
       <c r="P2" s="71" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="Q2" s="70" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R2" s="70" t="s">
         <v>56</v>
       </c>
       <c r="S2" s="70" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="T2" s="70" t="str" cm="1">
         <f t="array" aca="1" ref="T2" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A2,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A2,3,4,1,"DedicatedVMHosts")))</f>
@@ -40473,13 +40442,13 @@
         <v>Bastion</v>
       </c>
       <c r="V2" s="70" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="W2" s="70" t="s">
         <v>129</v>
       </c>
       <c r="X2" s="70" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="Y2" s="70" t="b">
         <v>1</v>
@@ -40488,7 +40457,7 @@
         <v>147</v>
       </c>
       <c r="AA2" s="70" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AB2" s="70" t="s">
         <v>170</v>
@@ -40518,7 +40487,7 @@
         <v>170</v>
       </c>
       <c r="AK2" s="69" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="69" customFormat="1" x14ac:dyDescent="0.2">
@@ -40545,7 +40514,7 @@
         <v>23</v>
       </c>
       <c r="G3" s="70" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H3" s="70" t="s">
         <v>36</v>
@@ -40554,7 +40523,7 @@
         <v>56</v>
       </c>
       <c r="J3" s="70" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="K3" s="70" t="str" cm="1">
         <f t="array" aca="1" ref="K3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DHCP")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,4,4,1,"DHCP")))</f>
@@ -40568,10 +40537,10 @@
         <v/>
       </c>
       <c r="N3" s="70" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="O3" s="70" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="P3" s="71" t="s">
         <v>79</v>
@@ -40583,7 +40552,7 @@
         <v>90</v>
       </c>
       <c r="S3" s="70" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="T3" s="70" t="str" cm="1">
         <f t="array" aca="1" ref="T3" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A3,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A3,3,4,1,"DedicatedVMHosts")))</f>
@@ -40600,7 +40569,7 @@
         <v>127</v>
       </c>
       <c r="X3" s="70" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="Y3" s="70" t="b">
         <v>0</v>
@@ -40612,7 +40581,7 @@
         <v>169</v>
       </c>
       <c r="AB3" s="70" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AC3" s="70" t="s">
         <v>172</v>
@@ -40636,10 +40605,10 @@
         <v>16</v>
       </c>
       <c r="AJ3" s="70" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AK3" s="69" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:39" s="69" customFormat="1" x14ac:dyDescent="0.2">
@@ -40664,7 +40633,7 @@
       </c>
       <c r="F4" s="70"/>
       <c r="G4" s="70" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H4" s="70"/>
       <c r="I4" s="70" t="s">
@@ -40676,7 +40645,7 @@
         <v>dhcp-internal</v>
       </c>
       <c r="L4" s="70" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M4" s="70" t="str" cm="1">
         <f t="array" aca="1" ref="M4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DRGs")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DRGs")))</f>
@@ -40694,7 +40663,7 @@
         <v>99</v>
       </c>
       <c r="S4" s="70" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="T4" s="70" t="str" cm="1">
         <f t="array" aca="1" ref="T4" ca="1">IF(COUNTIF(INDIRECT(ADDRESS(3,1,1,1,"DedicatedVMHosts")&amp;":"&amp;ADDRESS(A4,1,4,1)),"*END*")&gt;0,"",INDIRECT(ADDRESS(A4,3,4,1,"DedicatedVMHosts")))</f>
@@ -40707,14 +40676,14 @@
       <c r="V4" s="70"/>
       <c r="W4" s="70"/>
       <c r="X4" s="70" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="Y4" s="70"/>
       <c r="Z4" s="70" t="s">
+        <v>761</v>
+      </c>
+      <c r="AA4" s="70" t="s">
         <v>762</v>
-      </c>
-      <c r="AA4" s="70" t="s">
-        <v>763</v>
       </c>
       <c r="AB4" s="70"/>
       <c r="AC4" s="70" t="s">
@@ -40761,7 +40730,7 @@
       </c>
       <c r="F5" s="70"/>
       <c r="G5" s="70" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H5" s="70"/>
       <c r="I5" s="70" t="s">
@@ -40779,7 +40748,7 @@
       </c>
       <c r="N5" s="70"/>
       <c r="O5" s="70" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="P5" s="71"/>
       <c r="Q5" s="70"/>
@@ -40796,7 +40765,7 @@
       <c r="X5" s="70"/>
       <c r="Y5" s="70"/>
       <c r="Z5" s="70" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AA5" s="70"/>
       <c r="AB5" s="70"/>
@@ -40840,7 +40809,7 @@
       </c>
       <c r="F6" s="70"/>
       <c r="G6" s="70" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H6" s="70"/>
       <c r="I6" s="70"/>
@@ -40911,7 +40880,7 @@
       </c>
       <c r="F7" s="70"/>
       <c r="G7" s="70" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H7" s="70"/>
       <c r="I7" s="70"/>
@@ -40980,7 +40949,7 @@
       </c>
       <c r="F8" s="70"/>
       <c r="G8" s="70" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
@@ -41049,7 +41018,7 @@
       </c>
       <c r="F9" s="70"/>
       <c r="G9" s="70" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H9" s="70"/>
       <c r="I9" s="70"/>
@@ -41118,7 +41087,7 @@
       </c>
       <c r="F10" s="70"/>
       <c r="G10" s="70" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H10" s="70"/>
       <c r="I10" s="70"/>
@@ -41187,7 +41156,7 @@
       </c>
       <c r="F11" s="70"/>
       <c r="G11" s="70" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H11" s="70"/>
       <c r="I11" s="70"/>
@@ -41256,7 +41225,7 @@
       </c>
       <c r="F12" s="70"/>
       <c r="G12" s="70" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H12" s="70"/>
       <c r="I12" s="70"/>
@@ -41323,7 +41292,7 @@
       </c>
       <c r="F13" s="70"/>
       <c r="G13" s="70" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H13" s="70"/>
       <c r="I13" s="70"/>
@@ -41390,7 +41359,7 @@
       </c>
       <c r="F14" s="70"/>
       <c r="G14" s="70" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H14" s="70"/>
       <c r="I14" s="70"/>
@@ -41524,7 +41493,7 @@
       </c>
       <c r="F16" s="70"/>
       <c r="G16" s="70" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
@@ -41591,7 +41560,7 @@
       </c>
       <c r="F17" s="70"/>
       <c r="G17" s="70" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
@@ -41658,7 +41627,7 @@
       </c>
       <c r="F18" s="70"/>
       <c r="G18" s="70" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
@@ -41725,7 +41694,7 @@
       </c>
       <c r="F19" s="70"/>
       <c r="G19" s="70" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
@@ -41792,7 +41761,7 @@
       </c>
       <c r="F20" s="70"/>
       <c r="G20" s="70" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H20" s="70"/>
       <c r="I20" s="70"/>
@@ -41859,7 +41828,7 @@
       </c>
       <c r="F21" s="70"/>
       <c r="G21" s="70" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H21" s="70"/>
       <c r="I21" s="70"/>
@@ -41926,7 +41895,7 @@
       </c>
       <c r="F22" s="70"/>
       <c r="G22" s="70" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H22" s="70"/>
       <c r="I22" s="70"/>
@@ -41993,7 +41962,7 @@
       </c>
       <c r="F23" s="70"/>
       <c r="G23" s="70" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H23" s="70"/>
       <c r="I23" s="70"/>
@@ -42060,7 +42029,7 @@
       </c>
       <c r="F24" s="70"/>
       <c r="G24" s="70" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H24" s="70"/>
       <c r="I24" s="70"/>
@@ -43833,16 +43802,16 @@
   <sheetData>
     <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.2">
       <c r="A1" s="67" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B1" s="67" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="69"/>
       <c r="B2" s="69" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -44307,16 +44276,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="43" customFormat="1" ht="102.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>444</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>443</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
@@ -44341,7 +44310,7 @@
         <v>9</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -44349,16 +44318,16 @@
         <v>5</v>
       </c>
       <c r="B3" s="34" t="s">
+        <v>681</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D3" s="34" t="s">
         <v>682</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D3" s="34" t="s">
+      <c r="E3" s="34" t="s">
         <v>683</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>684</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="34"/>
@@ -44370,7 +44339,7 @@
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
       <c r="E4" s="34" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="34"/>
@@ -44381,16 +44350,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="89" t="s">
+        <v>599</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D5" s="34" t="s">
         <v>600</v>
       </c>
-      <c r="C5" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>601</v>
-      </c>
       <c r="E5" s="34" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F5" s="34"/>
       <c r="G5" s="34"/>
@@ -44402,7 +44371,7 @@
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
       <c r="E6" s="34" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="34"/>
@@ -44414,7 +44383,7 @@
       <c r="C7" s="34"/>
       <c r="D7" s="34"/>
       <c r="E7" s="34" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
@@ -44426,7 +44395,7 @@
       <c r="C8" s="34"/>
       <c r="D8" s="34"/>
       <c r="E8" s="34" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
@@ -44438,7 +44407,7 @@
       <c r="C9" s="34"/>
       <c r="D9" s="34"/>
       <c r="E9" s="34" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
@@ -44450,7 +44419,7 @@
       <c r="C10" s="34"/>
       <c r="D10" s="34"/>
       <c r="E10" s="34" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="34"/>
@@ -44462,7 +44431,7 @@
       <c r="C11" s="34"/>
       <c r="D11" s="34"/>
       <c r="E11" s="34" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F11" s="34"/>
       <c r="G11" s="34"/>
@@ -44474,7 +44443,7 @@
       <c r="C12" s="34"/>
       <c r="D12" s="34"/>
       <c r="E12" s="34" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F12" s="34"/>
       <c r="G12" s="34"/>
@@ -44486,7 +44455,7 @@
       <c r="C13" s="34"/>
       <c r="D13" s="34"/>
       <c r="E13" s="34" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="34"/>
@@ -44498,7 +44467,7 @@
       <c r="C14" s="34"/>
       <c r="D14" s="34"/>
       <c r="E14" s="34" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="34"/>
@@ -44510,7 +44479,7 @@
       <c r="C15" s="34"/>
       <c r="D15" s="34"/>
       <c r="E15" s="34" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="34"/>
@@ -44522,7 +44491,7 @@
       <c r="C16" s="34"/>
       <c r="D16" s="34"/>
       <c r="E16" s="34" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="34"/>
@@ -44534,7 +44503,7 @@
       <c r="C17" s="34"/>
       <c r="D17" s="34"/>
       <c r="E17" s="34" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="34"/>
@@ -44546,7 +44515,7 @@
       <c r="C18" s="34"/>
       <c r="D18" s="34"/>
       <c r="E18" s="34" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="34"/>
@@ -44558,7 +44527,7 @@
       <c r="C19" s="34"/>
       <c r="D19" s="34"/>
       <c r="E19" s="34" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="34"/>
@@ -44570,7 +44539,7 @@
       <c r="C20" s="34"/>
       <c r="D20" s="34"/>
       <c r="E20" s="34" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="34"/>
@@ -44582,7 +44551,7 @@
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
       <c r="E21" s="34" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="34"/>
@@ -44594,7 +44563,7 @@
       <c r="C22" s="34"/>
       <c r="D22" s="34"/>
       <c r="E22" s="34" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -44606,7 +44575,7 @@
       <c r="C23" s="34"/>
       <c r="D23" s="34"/>
       <c r="E23" s="34" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="F23" s="34"/>
       <c r="G23" s="34"/>
@@ -44618,7 +44587,7 @@
       <c r="C24" s="34"/>
       <c r="D24" s="34"/>
       <c r="E24" s="34" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="F24" s="34"/>
       <c r="G24" s="34"/>
@@ -44630,7 +44599,7 @@
       <c r="C25" s="34"/>
       <c r="D25" s="34"/>
       <c r="E25" s="34" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="F25" s="34"/>
       <c r="G25" s="34"/>
@@ -44642,7 +44611,7 @@
       <c r="C26" s="34"/>
       <c r="D26" s="34"/>
       <c r="E26" s="34" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="F26" s="34"/>
       <c r="G26" s="34"/>
@@ -44654,7 +44623,7 @@
       <c r="C27" s="34"/>
       <c r="D27" s="34"/>
       <c r="E27" s="34" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="34"/>
@@ -44666,7 +44635,7 @@
       <c r="C28" s="34"/>
       <c r="D28" s="34"/>
       <c r="E28" s="34" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F28" s="34"/>
       <c r="G28" s="34"/>
@@ -44678,7 +44647,7 @@
       <c r="C29" s="34"/>
       <c r="D29" s="34"/>
       <c r="E29" s="34" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F29" s="34"/>
       <c r="G29" s="34"/>
@@ -44690,7 +44659,7 @@
       <c r="C30" s="34"/>
       <c r="D30" s="34"/>
       <c r="E30" s="34" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="F30" s="34"/>
       <c r="G30" s="34"/>
@@ -44702,7 +44671,7 @@
       <c r="C31" s="34"/>
       <c r="D31" s="34"/>
       <c r="E31" s="34" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="F31" s="34"/>
       <c r="G31" s="34"/>
@@ -44714,7 +44683,7 @@
       <c r="C32" s="34"/>
       <c r="D32" s="34"/>
       <c r="E32" s="34" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F32" s="34"/>
       <c r="G32" s="34"/>
@@ -44726,7 +44695,7 @@
       <c r="C33" s="34"/>
       <c r="D33" s="34"/>
       <c r="E33" s="34" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F33" s="34"/>
       <c r="G33" s="34"/>
@@ -44738,7 +44707,7 @@
       <c r="C34" s="34"/>
       <c r="D34" s="34"/>
       <c r="E34" s="34" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="F34" s="34"/>
       <c r="G34" s="34"/>
@@ -44750,7 +44719,7 @@
       <c r="C35" s="34"/>
       <c r="D35" s="34"/>
       <c r="E35" s="34" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
@@ -44762,7 +44731,7 @@
       <c r="C36" s="34"/>
       <c r="D36" s="34"/>
       <c r="E36" s="34" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F36" s="34"/>
       <c r="G36" s="34"/>
@@ -44774,7 +44743,7 @@
       <c r="C37" s="34"/>
       <c r="D37" s="34"/>
       <c r="E37" s="34" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F37" s="34"/>
       <c r="G37" s="34"/>
@@ -44786,7 +44755,7 @@
       <c r="C38" s="34"/>
       <c r="D38" s="34"/>
       <c r="E38" s="34" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="F38" s="34"/>
       <c r="G38" s="34"/>
@@ -44798,7 +44767,7 @@
       <c r="C39" s="34"/>
       <c r="D39" s="34"/>
       <c r="E39" s="34" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="F39" s="34"/>
       <c r="G39" s="34"/>
@@ -44810,7 +44779,7 @@
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
       <c r="E40" s="34" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F40" s="34"/>
       <c r="G40" s="34"/>
@@ -44822,7 +44791,7 @@
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
       <c r="E41" s="34" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
@@ -44834,7 +44803,7 @@
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
       <c r="E42" s="34" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="F42" s="34"/>
       <c r="G42" s="34"/>
@@ -44846,7 +44815,7 @@
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
       <c r="E43" s="34" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
@@ -44858,7 +44827,7 @@
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
       <c r="E44" s="34" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F44" s="34"/>
       <c r="G44" s="34"/>
@@ -44870,7 +44839,7 @@
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
       <c r="E45" s="34" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F45" s="34"/>
       <c r="G45" s="34"/>
@@ -44879,16 +44848,16 @@
     <row r="46" spans="1:8" ht="32" x14ac:dyDescent="0.2">
       <c r="A46" s="34"/>
       <c r="B46" s="89" t="s">
+        <v>601</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D46" s="34" t="s">
         <v>602</v>
       </c>
-      <c r="C46" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D46" s="34" t="s">
+      <c r="E46" s="34" t="s">
         <v>603</v>
-      </c>
-      <c r="E46" s="34" t="s">
-        <v>604</v>
       </c>
       <c r="F46" s="34"/>
       <c r="G46" s="34"/>
@@ -44902,7 +44871,7 @@
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
       <c r="E47" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F47" s="34"/>
       <c r="G47" s="34"/>
@@ -44914,7 +44883,7 @@
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
       <c r="E48" s="34" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F48" s="34"/>
       <c r="G48" s="34"/>
@@ -44926,7 +44895,7 @@
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
       <c r="E49" s="34" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F49" s="34"/>
       <c r="G49" s="34"/>
@@ -44938,7 +44907,7 @@
       <c r="C50" s="34"/>
       <c r="D50" s="34"/>
       <c r="E50" s="34" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F50" s="34"/>
       <c r="G50" s="34"/>
@@ -44950,7 +44919,7 @@
       <c r="C51" s="34"/>
       <c r="D51" s="34"/>
       <c r="E51" s="34" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F51" s="34"/>
       <c r="G51" s="34"/>
@@ -44962,7 +44931,7 @@
       <c r="C52" s="34"/>
       <c r="D52" s="34"/>
       <c r="E52" s="34" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F52" s="34"/>
       <c r="G52" s="34"/>
@@ -44974,7 +44943,7 @@
       <c r="C53" s="34"/>
       <c r="D53" s="34"/>
       <c r="E53" s="34" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F53" s="34"/>
       <c r="G53" s="34"/>
@@ -44986,7 +44955,7 @@
       <c r="C54" s="34"/>
       <c r="D54" s="34"/>
       <c r="E54" s="34" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F54" s="34"/>
       <c r="G54" s="34"/>
@@ -44998,7 +44967,7 @@
       <c r="C55" s="34"/>
       <c r="D55" s="34"/>
       <c r="E55" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F55" s="34"/>
       <c r="G55" s="34"/>
@@ -45010,7 +44979,7 @@
       <c r="C56" s="34"/>
       <c r="D56" s="34"/>
       <c r="E56" s="34" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F56" s="34"/>
       <c r="G56" s="34"/>
@@ -45022,7 +44991,7 @@
       <c r="C57" s="34"/>
       <c r="D57" s="34"/>
       <c r="E57" s="34" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F57" s="34"/>
       <c r="G57" s="34"/>
@@ -45034,7 +45003,7 @@
       <c r="C58" s="34"/>
       <c r="D58" s="34"/>
       <c r="E58" s="34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
@@ -45046,7 +45015,7 @@
       <c r="C59" s="34"/>
       <c r="D59" s="34"/>
       <c r="E59" s="34" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
@@ -45058,7 +45027,7 @@
       <c r="C60" s="34"/>
       <c r="D60" s="34"/>
       <c r="E60" s="34" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
@@ -45070,7 +45039,7 @@
       <c r="C61" s="34"/>
       <c r="D61" s="34"/>
       <c r="E61" s="34" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
@@ -45082,7 +45051,7 @@
       <c r="C62" s="34"/>
       <c r="D62" s="34"/>
       <c r="E62" s="34" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
@@ -45093,16 +45062,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="34" t="s">
+        <v>710</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D63" s="34" t="s">
         <v>711</v>
       </c>
-      <c r="C63" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D63" s="34" t="s">
+      <c r="E63" s="34" t="s">
         <v>712</v>
-      </c>
-      <c r="E63" s="34" t="s">
-        <v>713</v>
       </c>
       <c r="F63" s="34"/>
       <c r="G63" s="34"/>
@@ -45114,7 +45083,7 @@
       <c r="C64" s="34"/>
       <c r="D64" s="34"/>
       <c r="E64" s="34" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
@@ -45126,7 +45095,7 @@
       <c r="C65" s="34"/>
       <c r="D65" s="34"/>
       <c r="E65" s="34" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="F65" s="34"/>
       <c r="G65" s="34"/>
@@ -45138,7 +45107,7 @@
       <c r="C66" s="34"/>
       <c r="D66" s="34"/>
       <c r="E66" s="34" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="F66" s="34"/>
       <c r="G66" s="34"/>
@@ -45149,16 +45118,16 @@
         <v>5</v>
       </c>
       <c r="B67" s="34" t="s">
+        <v>992</v>
+      </c>
+      <c r="C67" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D67" s="34" t="s">
         <v>993</v>
       </c>
-      <c r="C67" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D67" s="34" t="s">
+      <c r="E67" s="34" t="s">
         <v>994</v>
-      </c>
-      <c r="E67" s="34" t="s">
-        <v>995</v>
       </c>
       <c r="F67" s="34"/>
       <c r="G67" s="34"/>
@@ -45170,7 +45139,7 @@
       <c r="C68" s="34"/>
       <c r="D68" s="34"/>
       <c r="E68" s="34" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F68" s="34"/>
       <c r="G68" s="34"/>
@@ -45182,7 +45151,7 @@
       <c r="C69" s="34"/>
       <c r="D69" s="34"/>
       <c r="E69" s="34" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="F69" s="34"/>
       <c r="G69" s="34"/>
@@ -45193,16 +45162,16 @@
         <v>5</v>
       </c>
       <c r="B70" s="89" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C70" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D70" s="34" t="s">
+        <v>996</v>
+      </c>
+      <c r="E70" s="34" t="s">
         <v>997</v>
-      </c>
-      <c r="E70" s="34" t="s">
-        <v>998</v>
       </c>
       <c r="F70" s="34"/>
       <c r="G70" s="34"/>
@@ -45214,7 +45183,7 @@
       <c r="C71" s="34"/>
       <c r="D71" s="34"/>
       <c r="E71" s="34" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F71" s="34"/>
       <c r="G71" s="34"/>
@@ -45226,7 +45195,7 @@
       <c r="C72" s="34"/>
       <c r="D72" s="34"/>
       <c r="E72" s="34" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F72" s="34"/>
       <c r="G72" s="34"/>
@@ -45238,7 +45207,7 @@
       <c r="C73" s="34"/>
       <c r="D73" s="34"/>
       <c r="E73" s="34" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F73" s="34"/>
       <c r="G73" s="34"/>
@@ -45250,7 +45219,7 @@
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
       <c r="E74" s="34" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F74" s="34"/>
       <c r="G74" s="34"/>
@@ -45262,7 +45231,7 @@
       <c r="C75" s="34"/>
       <c r="D75" s="34"/>
       <c r="E75" s="34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F75" s="34"/>
       <c r="G75" s="34"/>
@@ -45274,7 +45243,7 @@
       <c r="C76" s="34"/>
       <c r="D76" s="34"/>
       <c r="E76" s="34" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
@@ -45286,7 +45255,7 @@
       <c r="C77" s="34"/>
       <c r="D77" s="34"/>
       <c r="E77" s="34" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F77" s="34"/>
       <c r="G77" s="34"/>
@@ -45298,7 +45267,7 @@
       <c r="C78" s="34"/>
       <c r="D78" s="34"/>
       <c r="E78" s="34" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F78" s="34"/>
       <c r="G78" s="34"/>
@@ -45310,7 +45279,7 @@
       <c r="C79" s="34"/>
       <c r="D79" s="34"/>
       <c r="E79" s="34" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F79" s="34"/>
       <c r="G79" s="34"/>
@@ -45322,7 +45291,7 @@
       <c r="C80" s="34"/>
       <c r="D80" s="34"/>
       <c r="E80" s="34" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F80" s="34"/>
       <c r="G80" s="34"/>
@@ -45334,7 +45303,7 @@
       <c r="C81" s="34"/>
       <c r="D81" s="34"/>
       <c r="E81" s="34" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F81" s="34"/>
       <c r="G81" s="34"/>
@@ -45346,7 +45315,7 @@
       <c r="C82" s="34"/>
       <c r="D82" s="34"/>
       <c r="E82" s="34" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F82" s="34"/>
       <c r="G82" s="34"/>
@@ -45358,7 +45327,7 @@
       <c r="C83" s="34"/>
       <c r="D83" s="34"/>
       <c r="E83" s="34" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F83" s="34"/>
       <c r="G83" s="34"/>
@@ -45370,7 +45339,7 @@
       <c r="C84" s="34"/>
       <c r="D84" s="34"/>
       <c r="E84" s="34" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F84" s="34"/>
       <c r="G84" s="34"/>
@@ -45382,7 +45351,7 @@
       <c r="C85" s="34"/>
       <c r="D85" s="34"/>
       <c r="E85" s="34" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F85" s="34"/>
       <c r="G85" s="34"/>
@@ -45394,7 +45363,7 @@
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
       <c r="E86" s="34" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="F86" s="34"/>
       <c r="G86" s="34"/>
@@ -45406,7 +45375,7 @@
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
       <c r="E87" s="34" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="F87" s="34"/>
       <c r="G87" s="34"/>
@@ -45418,7 +45387,7 @@
       <c r="C88" s="34"/>
       <c r="D88" s="34"/>
       <c r="E88" s="34" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="F88" s="34"/>
       <c r="G88" s="34"/>
@@ -45430,7 +45399,7 @@
       <c r="C89" s="34"/>
       <c r="D89" s="34"/>
       <c r="E89" s="34" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
@@ -45442,7 +45411,7 @@
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
       <c r="E90" s="34" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="F90" s="34"/>
       <c r="G90" s="34"/>
@@ -45454,7 +45423,7 @@
       <c r="C91" s="34"/>
       <c r="D91" s="34"/>
       <c r="E91" s="34" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="F91" s="34"/>
       <c r="G91" s="34"/>
@@ -45466,7 +45435,7 @@
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
       <c r="E92" s="34" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="F92" s="34"/>
       <c r="G92" s="34"/>
@@ -45478,7 +45447,7 @@
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
       <c r="E93" s="34" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
@@ -45490,7 +45459,7 @@
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
       <c r="E94" s="34" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="F94" s="34"/>
       <c r="G94" s="34"/>
@@ -45502,7 +45471,7 @@
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
       <c r="E95" s="34" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="F95" s="34"/>
       <c r="G95" s="34"/>
@@ -45514,7 +45483,7 @@
       <c r="C96" s="34"/>
       <c r="D96" s="34"/>
       <c r="E96" s="34" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="F96" s="34"/>
       <c r="G96" s="34"/>
@@ -45526,7 +45495,7 @@
       <c r="C97" s="34"/>
       <c r="D97" s="34"/>
       <c r="E97" s="34" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="F97" s="34"/>
       <c r="G97" s="34"/>
@@ -45538,7 +45507,7 @@
       <c r="C98" s="34"/>
       <c r="D98" s="34"/>
       <c r="E98" s="34" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="F98" s="34"/>
       <c r="G98" s="34"/>
@@ -45550,7 +45519,7 @@
       <c r="C99" s="34"/>
       <c r="D99" s="34"/>
       <c r="E99" s="34" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="F99" s="34"/>
       <c r="G99" s="34"/>
@@ -45562,7 +45531,7 @@
       <c r="C100" s="34"/>
       <c r="D100" s="34"/>
       <c r="E100" s="34" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
@@ -45574,7 +45543,7 @@
       <c r="C101" s="34"/>
       <c r="D101" s="34"/>
       <c r="E101" s="34" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="F101" s="34"/>
       <c r="G101" s="34"/>
@@ -45585,16 +45554,16 @@
         <v>5</v>
       </c>
       <c r="B102" s="89" t="s">
+        <v>615</v>
+      </c>
+      <c r="C102" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D102" s="34" t="s">
         <v>616</v>
       </c>
-      <c r="C102" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D102" s="34" t="s">
-        <v>617</v>
-      </c>
       <c r="E102" s="89" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="F102" s="34"/>
       <c r="G102" s="34"/>
@@ -45606,7 +45575,7 @@
       <c r="C103" s="34"/>
       <c r="D103" s="34"/>
       <c r="E103" s="89" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
@@ -45618,7 +45587,7 @@
       <c r="C104" s="34"/>
       <c r="D104" s="34"/>
       <c r="E104" s="34" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="F104" s="34"/>
       <c r="G104" s="34"/>
@@ -45630,7 +45599,7 @@
       <c r="C105" s="34"/>
       <c r="D105" s="34"/>
       <c r="E105" s="34" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="F105" s="34"/>
       <c r="G105" s="34"/>
@@ -45642,7 +45611,7 @@
       <c r="C106" s="34"/>
       <c r="D106" s="34"/>
       <c r="E106" s="34" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="F106" s="34"/>
       <c r="G106" s="34"/>
@@ -45654,7 +45623,7 @@
       <c r="C107" s="34"/>
       <c r="D107" s="34"/>
       <c r="E107" s="34" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="F107" s="34"/>
       <c r="G107" s="34"/>
@@ -45666,7 +45635,7 @@
       <c r="C108" s="34"/>
       <c r="D108" s="34"/>
       <c r="E108" s="34" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="F108" s="34"/>
       <c r="G108" s="34"/>
@@ -45678,7 +45647,7 @@
       <c r="C109" s="34"/>
       <c r="D109" s="34"/>
       <c r="E109" s="34" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="F109" s="34"/>
       <c r="G109" s="34"/>
@@ -45690,7 +45659,7 @@
       <c r="C110" s="34"/>
       <c r="D110" s="34"/>
       <c r="E110" s="34" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F110" s="34"/>
       <c r="G110" s="34"/>
@@ -45702,7 +45671,7 @@
       <c r="C111" s="34"/>
       <c r="D111" s="34"/>
       <c r="E111" s="34" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F111" s="34"/>
       <c r="G111" s="34"/>
@@ -45714,7 +45683,7 @@
       <c r="C112" s="34"/>
       <c r="D112" s="34"/>
       <c r="E112" s="34" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="F112" s="34"/>
       <c r="G112" s="34"/>
@@ -45726,7 +45695,7 @@
       <c r="C113" s="34"/>
       <c r="D113" s="34"/>
       <c r="E113" s="34" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="F113" s="34"/>
       <c r="G113" s="34"/>
@@ -45738,7 +45707,7 @@
       <c r="C114" s="34"/>
       <c r="D114" s="34"/>
       <c r="E114" s="34" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="F114" s="34"/>
       <c r="G114" s="34"/>
@@ -45750,7 +45719,7 @@
       <c r="C115" s="34"/>
       <c r="D115" s="34"/>
       <c r="E115" s="34" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="F115" s="34"/>
       <c r="G115" s="34"/>
@@ -45762,7 +45731,7 @@
       <c r="C116" s="34"/>
       <c r="D116" s="34"/>
       <c r="E116" s="34" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F116" s="34"/>
       <c r="G116" s="34"/>
@@ -45774,7 +45743,7 @@
       <c r="C117" s="34"/>
       <c r="D117" s="34"/>
       <c r="E117" s="34" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="F117" s="34"/>
       <c r="G117" s="34"/>
@@ -45786,7 +45755,7 @@
       <c r="C118" s="34"/>
       <c r="D118" s="34"/>
       <c r="E118" s="34" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="F118" s="34"/>
       <c r="G118" s="34"/>
@@ -45798,7 +45767,7 @@
       <c r="C119" s="34"/>
       <c r="D119" s="34"/>
       <c r="E119" s="34" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="F119" s="34"/>
       <c r="G119" s="34"/>
@@ -45810,7 +45779,7 @@
       <c r="C120" s="34"/>
       <c r="D120" s="34"/>
       <c r="E120" s="34" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="F120" s="34"/>
       <c r="G120" s="34"/>
@@ -45821,16 +45790,16 @@
         <v>5</v>
       </c>
       <c r="B121" s="89" t="s">
+        <v>618</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D121" s="34" t="s">
         <v>619</v>
       </c>
-      <c r="C121" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D121" s="34" t="s">
-        <v>620</v>
-      </c>
       <c r="E121" s="34" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="F121" s="34"/>
       <c r="G121" s="34"/>
@@ -45842,7 +45811,7 @@
       <c r="C122" s="34"/>
       <c r="D122" s="34"/>
       <c r="E122" s="34" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="F122" s="34"/>
       <c r="G122" s="34"/>
@@ -45854,7 +45823,7 @@
       <c r="C123" s="34"/>
       <c r="D123" s="34"/>
       <c r="E123" s="34" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="F123" s="34"/>
       <c r="G123" s="34"/>
@@ -45866,7 +45835,7 @@
       <c r="C124" s="34"/>
       <c r="D124" s="34"/>
       <c r="E124" s="34" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="F124" s="34"/>
       <c r="G124" s="34"/>
@@ -45878,7 +45847,7 @@
       <c r="C125" s="34"/>
       <c r="D125" s="34"/>
       <c r="E125" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F125" s="34"/>
       <c r="G125" s="34"/>
@@ -45890,7 +45859,7 @@
       <c r="C126" s="34"/>
       <c r="D126" s="34"/>
       <c r="E126" s="34" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F126" s="34"/>
       <c r="G126" s="34"/>
@@ -45902,7 +45871,7 @@
       <c r="C127" s="34"/>
       <c r="D127" s="34"/>
       <c r="E127" s="34" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="F127" s="34"/>
       <c r="G127" s="34"/>
@@ -45914,7 +45883,7 @@
       <c r="C128" s="34"/>
       <c r="D128" s="34"/>
       <c r="E128" s="34" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="F128" s="34"/>
       <c r="G128" s="34"/>
@@ -45926,7 +45895,7 @@
       <c r="C129" s="34"/>
       <c r="D129" s="34"/>
       <c r="E129" s="34" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="F129" s="34"/>
       <c r="G129" s="34"/>
@@ -45938,7 +45907,7 @@
       <c r="C130" s="34"/>
       <c r="D130" s="34"/>
       <c r="E130" s="34" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="F130" s="34"/>
       <c r="G130" s="34"/>
@@ -45950,7 +45919,7 @@
       <c r="C131" s="34"/>
       <c r="D131" s="34"/>
       <c r="E131" s="34" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="F131" s="34"/>
       <c r="G131" s="34"/>
@@ -45962,7 +45931,7 @@
       <c r="C132" s="34"/>
       <c r="D132" s="34"/>
       <c r="E132" s="34" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F132" s="34"/>
       <c r="G132" s="34"/>
@@ -45974,7 +45943,7 @@
       <c r="C133" s="34"/>
       <c r="D133" s="34"/>
       <c r="E133" s="34" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F133" s="34"/>
       <c r="G133" s="34"/>
@@ -45986,7 +45955,7 @@
       <c r="C134" s="34"/>
       <c r="D134" s="34"/>
       <c r="E134" s="34" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F134" s="34"/>
       <c r="G134" s="34"/>
@@ -45998,7 +45967,7 @@
       <c r="C135" s="34"/>
       <c r="D135" s="34"/>
       <c r="E135" s="34" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="F135" s="34"/>
       <c r="G135" s="34"/>
@@ -46010,7 +45979,7 @@
       <c r="C136" s="34"/>
       <c r="D136" s="34"/>
       <c r="E136" s="34" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F136" s="34"/>
       <c r="G136" s="34"/>
@@ -46022,7 +45991,7 @@
       <c r="C137" s="34"/>
       <c r="D137" s="34"/>
       <c r="E137" s="34" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F137" s="34"/>
       <c r="G137" s="34"/>
@@ -46034,7 +46003,7 @@
       <c r="C138" s="34"/>
       <c r="D138" s="34"/>
       <c r="E138" s="34" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F138" s="34"/>
       <c r="G138" s="34"/>
@@ -46046,7 +46015,7 @@
       <c r="C139" s="34"/>
       <c r="D139" s="34"/>
       <c r="E139" s="34" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="F139" s="34"/>
       <c r="G139" s="34"/>
@@ -46058,7 +46027,7 @@
       <c r="C140" s="34"/>
       <c r="D140" s="34"/>
       <c r="E140" s="34" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="F140" s="34"/>
       <c r="G140" s="34"/>
@@ -46070,7 +46039,7 @@
       <c r="C141" s="34"/>
       <c r="D141" s="34"/>
       <c r="E141" s="34" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F141" s="34"/>
       <c r="G141" s="34"/>
@@ -46082,7 +46051,7 @@
       <c r="C142" s="34"/>
       <c r="D142" s="34"/>
       <c r="E142" s="34" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F142" s="34"/>
       <c r="G142" s="34"/>
@@ -46094,7 +46063,7 @@
       <c r="C143" s="34"/>
       <c r="D143" s="34"/>
       <c r="E143" s="34" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="F143" s="34"/>
       <c r="G143" s="34"/>
@@ -46106,7 +46075,7 @@
       <c r="C144" s="34"/>
       <c r="D144" s="34"/>
       <c r="E144" s="34" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="F144" s="34"/>
       <c r="G144" s="34"/>
@@ -46118,7 +46087,7 @@
       <c r="C145" s="34"/>
       <c r="D145" s="34"/>
       <c r="E145" s="34" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F145" s="34"/>
       <c r="G145" s="34"/>
@@ -46130,7 +46099,7 @@
       <c r="C146" s="34"/>
       <c r="D146" s="34"/>
       <c r="E146" s="34" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="F146" s="34"/>
       <c r="G146" s="34"/>
@@ -46142,7 +46111,7 @@
       <c r="C147" s="34"/>
       <c r="D147" s="34"/>
       <c r="E147" s="34" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F147" s="34"/>
       <c r="G147" s="34"/>
@@ -46153,16 +46122,16 @@
         <v>5</v>
       </c>
       <c r="B148" s="34" t="s">
+        <v>685</v>
+      </c>
+      <c r="C148" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D148" s="34" t="s">
         <v>686</v>
       </c>
-      <c r="C148" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D148" s="34" t="s">
+      <c r="E148" s="34" t="s">
         <v>687</v>
-      </c>
-      <c r="E148" s="34" t="s">
-        <v>688</v>
       </c>
       <c r="F148" s="34"/>
       <c r="G148" s="34"/>
@@ -46173,16 +46142,16 @@
         <v>5</v>
       </c>
       <c r="B149" s="34" t="s">
+        <v>823</v>
+      </c>
+      <c r="C149" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D149" s="34" t="s">
         <v>824</v>
       </c>
-      <c r="C149" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D149" s="34" t="s">
+      <c r="E149" s="34" t="s">
         <v>825</v>
-      </c>
-      <c r="E149" s="34" t="s">
-        <v>826</v>
       </c>
       <c r="F149" s="34"/>
       <c r="G149" s="34"/>
@@ -46194,7 +46163,7 @@
       <c r="C150" s="34"/>
       <c r="D150" s="34"/>
       <c r="E150" s="34" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F150" s="34"/>
       <c r="G150" s="34"/>
@@ -46206,7 +46175,7 @@
       <c r="C151" s="34"/>
       <c r="D151" s="34"/>
       <c r="E151" s="34" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F151" s="34"/>
       <c r="G151" s="34"/>
@@ -46217,16 +46186,16 @@
         <v>5</v>
       </c>
       <c r="B152" s="89" t="s">
+        <v>620</v>
+      </c>
+      <c r="C152" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D152" s="34" t="s">
         <v>621</v>
       </c>
-      <c r="C152" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D152" s="34" t="s">
-        <v>622</v>
-      </c>
       <c r="E152" s="34" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F152" s="34"/>
       <c r="G152" s="34"/>
@@ -46238,7 +46207,7 @@
       <c r="C153" s="34"/>
       <c r="D153" s="34"/>
       <c r="E153" s="34" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F153" s="34"/>
       <c r="G153" s="34"/>
@@ -46250,7 +46219,7 @@
       <c r="C154" s="34"/>
       <c r="D154" s="34"/>
       <c r="E154" s="34" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F154" s="34"/>
       <c r="G154" s="34"/>
@@ -46262,7 +46231,7 @@
       <c r="C155" s="34"/>
       <c r="D155" s="34"/>
       <c r="E155" s="34" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F155" s="34"/>
       <c r="G155" s="34"/>
@@ -46274,7 +46243,7 @@
       <c r="C156" s="34"/>
       <c r="D156" s="34"/>
       <c r="E156" s="34" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F156" s="34"/>
       <c r="G156" s="34"/>
@@ -46286,7 +46255,7 @@
       <c r="C157" s="34"/>
       <c r="D157" s="34"/>
       <c r="E157" s="34" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F157" s="34"/>
       <c r="G157" s="34"/>
@@ -46298,7 +46267,7 @@
       <c r="C158" s="34"/>
       <c r="D158" s="34"/>
       <c r="E158" s="34" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F158" s="34"/>
       <c r="G158" s="34"/>
@@ -46310,7 +46279,7 @@
       <c r="C159" s="34"/>
       <c r="D159" s="34"/>
       <c r="E159" s="34" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F159" s="34"/>
       <c r="G159" s="34"/>
@@ -46322,7 +46291,7 @@
       <c r="C160" s="34"/>
       <c r="D160" s="34"/>
       <c r="E160" s="34" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F160" s="34"/>
       <c r="G160" s="34"/>
@@ -46334,7 +46303,7 @@
       <c r="C161" s="34"/>
       <c r="D161" s="34"/>
       <c r="E161" s="34" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F161" s="34"/>
       <c r="G161" s="34"/>
@@ -46346,7 +46315,7 @@
       <c r="C162" s="34"/>
       <c r="D162" s="34"/>
       <c r="E162" s="34" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F162" s="34"/>
       <c r="G162" s="34"/>
@@ -46358,7 +46327,7 @@
       <c r="C163" s="34"/>
       <c r="D163" s="34"/>
       <c r="E163" s="34" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F163" s="34"/>
       <c r="G163" s="34"/>
@@ -46370,7 +46339,7 @@
       <c r="C164" s="34"/>
       <c r="D164" s="34"/>
       <c r="E164" s="34" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F164" s="34"/>
       <c r="G164" s="34"/>
@@ -46382,7 +46351,7 @@
       <c r="C165" s="34"/>
       <c r="D165" s="34"/>
       <c r="E165" s="34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F165" s="34"/>
       <c r="G165" s="34"/>
@@ -46394,7 +46363,7 @@
       <c r="C166" s="34"/>
       <c r="D166" s="34"/>
       <c r="E166" s="34" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F166" s="34"/>
       <c r="G166" s="34"/>
@@ -46406,7 +46375,7 @@
       <c r="C167" s="34"/>
       <c r="D167" s="34"/>
       <c r="E167" s="34" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F167" s="34"/>
       <c r="G167" s="34"/>
@@ -46418,7 +46387,7 @@
       <c r="C168" s="34"/>
       <c r="D168" s="34"/>
       <c r="E168" s="34" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F168" s="34"/>
       <c r="G168" s="34"/>
@@ -46430,7 +46399,7 @@
       <c r="C169" s="34"/>
       <c r="D169" s="34"/>
       <c r="E169" s="34" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F169" s="34"/>
       <c r="G169" s="34"/>
@@ -46442,7 +46411,7 @@
       <c r="C170" s="34"/>
       <c r="D170" s="34"/>
       <c r="E170" s="34" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F170" s="34"/>
       <c r="G170" s="34"/>
@@ -46454,7 +46423,7 @@
       <c r="C171" s="34"/>
       <c r="D171" s="34"/>
       <c r="E171" s="34" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F171" s="34"/>
       <c r="G171" s="34"/>
@@ -46466,7 +46435,7 @@
       <c r="C172" s="34"/>
       <c r="D172" s="34"/>
       <c r="E172" s="34" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F172" s="34"/>
       <c r="G172" s="34"/>
@@ -46478,7 +46447,7 @@
       <c r="C173" s="34"/>
       <c r="D173" s="34"/>
       <c r="E173" s="34" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F173" s="34"/>
       <c r="G173" s="34"/>
@@ -46490,7 +46459,7 @@
       <c r="C174" s="34"/>
       <c r="D174" s="34"/>
       <c r="E174" s="34" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F174" s="34"/>
       <c r="G174" s="34"/>
@@ -46502,7 +46471,7 @@
       <c r="C175" s="34"/>
       <c r="D175" s="34"/>
       <c r="E175" s="34" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F175" s="34"/>
       <c r="G175" s="34"/>
@@ -46514,7 +46483,7 @@
       <c r="C176" s="34"/>
       <c r="D176" s="34"/>
       <c r="E176" s="34" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F176" s="34"/>
       <c r="G176" s="34"/>
@@ -46526,7 +46495,7 @@
       <c r="C177" s="34"/>
       <c r="D177" s="34"/>
       <c r="E177" s="34" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F177" s="34"/>
       <c r="G177" s="34"/>
@@ -46538,7 +46507,7 @@
       <c r="C178" s="34"/>
       <c r="D178" s="34"/>
       <c r="E178" s="34" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F178" s="34"/>
       <c r="G178" s="34"/>
@@ -46550,7 +46519,7 @@
       <c r="C179" s="34"/>
       <c r="D179" s="34"/>
       <c r="E179" s="34" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F179" s="34"/>
       <c r="G179" s="34"/>
@@ -46562,7 +46531,7 @@
       <c r="C180" s="34"/>
       <c r="D180" s="34"/>
       <c r="E180" s="34" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F180" s="34"/>
       <c r="G180" s="34"/>
@@ -46574,7 +46543,7 @@
       <c r="C181" s="34"/>
       <c r="D181" s="34"/>
       <c r="E181" s="34" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F181" s="34"/>
       <c r="G181" s="34"/>
@@ -46586,7 +46555,7 @@
       <c r="C182" s="34"/>
       <c r="D182" s="34"/>
       <c r="E182" s="34" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F182" s="34"/>
       <c r="G182" s="34"/>
@@ -46598,7 +46567,7 @@
       <c r="C183" s="34"/>
       <c r="D183" s="34"/>
       <c r="E183" s="34" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="F183" s="34"/>
       <c r="G183" s="34"/>
@@ -46610,7 +46579,7 @@
       <c r="C184" s="34"/>
       <c r="D184" s="34"/>
       <c r="E184" s="34" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F184" s="34"/>
       <c r="G184" s="34"/>
@@ -46622,7 +46591,7 @@
       <c r="C185" s="34"/>
       <c r="D185" s="34"/>
       <c r="E185" s="34" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F185" s="34"/>
       <c r="G185" s="34"/>
@@ -46634,7 +46603,7 @@
       <c r="C186" s="34"/>
       <c r="D186" s="34"/>
       <c r="E186" s="34" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F186" s="34"/>
       <c r="G186" s="34"/>
@@ -46646,7 +46615,7 @@
       <c r="C187" s="34"/>
       <c r="D187" s="34"/>
       <c r="E187" s="34" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F187" s="34"/>
       <c r="G187" s="34"/>
@@ -46658,7 +46627,7 @@
       <c r="C188" s="34"/>
       <c r="D188" s="34"/>
       <c r="E188" s="34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F188" s="34"/>
       <c r="G188" s="34"/>
@@ -46670,7 +46639,7 @@
       <c r="C189" s="34"/>
       <c r="D189" s="34"/>
       <c r="E189" s="34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F189" s="34"/>
       <c r="G189" s="34"/>
@@ -46682,7 +46651,7 @@
       <c r="C190" s="34"/>
       <c r="D190" s="34"/>
       <c r="E190" s="34" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F190" s="34"/>
       <c r="G190" s="34"/>
@@ -46694,7 +46663,7 @@
       <c r="C191" s="34"/>
       <c r="D191" s="34"/>
       <c r="E191" s="34" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F191" s="34"/>
       <c r="G191" s="34"/>
@@ -46706,7 +46675,7 @@
       <c r="C192" s="34"/>
       <c r="D192" s="34"/>
       <c r="E192" s="34" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F192" s="34"/>
       <c r="G192" s="34"/>
@@ -46718,7 +46687,7 @@
       <c r="C193" s="34"/>
       <c r="D193" s="34"/>
       <c r="E193" s="34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F193" s="34"/>
       <c r="G193" s="34"/>
@@ -46730,7 +46699,7 @@
       <c r="C194" s="34"/>
       <c r="D194" s="34"/>
       <c r="E194" s="34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F194" s="34"/>
       <c r="G194" s="34"/>
@@ -46742,7 +46711,7 @@
       <c r="C195" s="34"/>
       <c r="D195" s="34"/>
       <c r="E195" s="34" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F195" s="34"/>
       <c r="G195" s="34"/>
@@ -46754,7 +46723,7 @@
       <c r="C196" s="65"/>
       <c r="D196" s="65"/>
       <c r="E196" s="65" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F196" s="34"/>
       <c r="G196" s="34"/>
@@ -46766,7 +46735,7 @@
       <c r="C197" s="36"/>
       <c r="D197" s="36"/>
       <c r="E197" s="34" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F197" s="65"/>
       <c r="G197" s="65"/>
@@ -46777,16 +46746,16 @@
         <v>5</v>
       </c>
       <c r="B198" s="89" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C198" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D198" s="34" t="s">
         <v>1106</v>
       </c>
-      <c r="C198" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D198" s="34" t="s">
+      <c r="E198" s="34" t="s">
         <v>1107</v>
-      </c>
-      <c r="E198" s="34" t="s">
-        <v>1108</v>
       </c>
       <c r="I198" s="88"/>
     </row>
@@ -46796,7 +46765,7 @@
       <c r="C199" s="36"/>
       <c r="D199" s="36"/>
       <c r="E199" s="34" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="F199" s="36"/>
       <c r="G199" s="36"/>
@@ -46808,7 +46777,7 @@
       <c r="C200" s="36"/>
       <c r="D200" s="36"/>
       <c r="E200" s="34" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="F200" s="36"/>
       <c r="G200" s="36"/>
@@ -46820,7 +46789,7 @@
       <c r="C201" s="36"/>
       <c r="D201" s="36"/>
       <c r="E201" s="34" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="F201" s="36"/>
       <c r="G201" s="36"/>
@@ -46832,7 +46801,7 @@
       <c r="C202" s="36"/>
       <c r="D202" s="36"/>
       <c r="E202" s="34" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="F202" s="36"/>
       <c r="G202" s="36"/>
@@ -46844,7 +46813,7 @@
       <c r="C203" s="36"/>
       <c r="D203" s="36"/>
       <c r="E203" s="34" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F203" s="36"/>
       <c r="G203" s="36"/>
@@ -46856,7 +46825,7 @@
       <c r="C204" s="36"/>
       <c r="D204" s="36"/>
       <c r="E204" s="34" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F204" s="36"/>
       <c r="G204" s="36"/>
@@ -46868,7 +46837,7 @@
       <c r="C205" s="36"/>
       <c r="D205" s="36"/>
       <c r="E205" s="34" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="F205" s="36"/>
       <c r="G205" s="36"/>
@@ -46880,7 +46849,7 @@
       <c r="C206" s="36"/>
       <c r="D206" s="36"/>
       <c r="E206" s="34" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F206" s="36"/>
       <c r="G206" s="36"/>
@@ -46892,7 +46861,7 @@
       <c r="C207" s="36"/>
       <c r="D207" s="36"/>
       <c r="E207" s="34" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F207" s="36"/>
       <c r="G207" s="36"/>
@@ -46904,7 +46873,7 @@
       <c r="C208" s="36"/>
       <c r="D208" s="36"/>
       <c r="E208" s="34" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F208" s="36"/>
       <c r="G208" s="36"/>
@@ -46916,7 +46885,7 @@
       <c r="C209" s="36"/>
       <c r="D209" s="36"/>
       <c r="E209" s="34" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F209" s="36"/>
       <c r="G209" s="36"/>
@@ -46928,7 +46897,7 @@
       <c r="C210" s="36"/>
       <c r="D210" s="36"/>
       <c r="E210" s="34" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F210" s="36"/>
       <c r="G210" s="36"/>
@@ -46940,7 +46909,7 @@
       <c r="C211" s="36"/>
       <c r="D211" s="36"/>
       <c r="E211" s="34" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F211" s="36"/>
       <c r="G211" s="36"/>
@@ -46952,7 +46921,7 @@
       <c r="C212" s="36"/>
       <c r="D212" s="36"/>
       <c r="E212" s="34" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F212" s="36"/>
       <c r="G212" s="36"/>
@@ -46964,7 +46933,7 @@
       <c r="C213" s="36"/>
       <c r="D213" s="36"/>
       <c r="E213" s="34" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F213" s="36"/>
       <c r="G213" s="36"/>
@@ -46976,7 +46945,7 @@
       <c r="C214" s="36"/>
       <c r="D214" s="36"/>
       <c r="E214" s="34" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F214" s="36"/>
       <c r="G214" s="36"/>
@@ -46988,7 +46957,7 @@
       <c r="C215" s="36"/>
       <c r="D215" s="36"/>
       <c r="E215" s="34" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F215" s="36"/>
       <c r="G215" s="36"/>
@@ -47000,7 +46969,7 @@
       <c r="C216" s="36"/>
       <c r="D216" s="36"/>
       <c r="E216" s="34" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F216" s="36"/>
       <c r="G216" s="36"/>
@@ -47012,7 +46981,7 @@
       <c r="C217" s="36"/>
       <c r="D217" s="36"/>
       <c r="E217" s="34" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="F217" s="36"/>
       <c r="G217" s="36"/>
@@ -47024,7 +46993,7 @@
       <c r="C218" s="36"/>
       <c r="D218" s="36"/>
       <c r="E218" s="34" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F218" s="36"/>
       <c r="G218" s="36"/>
@@ -47036,7 +47005,7 @@
       <c r="C219" s="36"/>
       <c r="D219" s="36"/>
       <c r="E219" s="34" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F219" s="36"/>
       <c r="G219" s="36"/>
@@ -47048,7 +47017,7 @@
       <c r="C220" s="36"/>
       <c r="D220" s="36"/>
       <c r="E220" s="34" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F220" s="36"/>
       <c r="G220" s="36"/>
@@ -47060,7 +47029,7 @@
       <c r="C221" s="36"/>
       <c r="D221" s="36"/>
       <c r="E221" s="34" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F221" s="36"/>
       <c r="G221" s="36"/>
@@ -47072,7 +47041,7 @@
       <c r="C222" s="36"/>
       <c r="D222" s="36"/>
       <c r="E222" s="34" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F222" s="36"/>
       <c r="G222" s="36"/>
@@ -47084,7 +47053,7 @@
       <c r="C223" s="36"/>
       <c r="D223" s="36"/>
       <c r="E223" s="34" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F223" s="36"/>
       <c r="G223" s="36"/>
@@ -47096,7 +47065,7 @@
       <c r="C224" s="36"/>
       <c r="D224" s="36"/>
       <c r="E224" s="34" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F224" s="36"/>
       <c r="G224" s="36"/>
@@ -47108,7 +47077,7 @@
       <c r="C225" s="36"/>
       <c r="D225" s="36"/>
       <c r="E225" s="34" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F225" s="36"/>
       <c r="G225" s="36"/>
@@ -47131,16 +47100,16 @@
         <v>5</v>
       </c>
       <c r="B227" s="34" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C227" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D227" s="34" t="s">
         <v>1136</v>
       </c>
-      <c r="C227" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D227" s="34" t="s">
+      <c r="E227" s="34" t="s">
         <v>1137</v>
-      </c>
-      <c r="E227" s="34" t="s">
-        <v>1138</v>
       </c>
       <c r="F227" s="36"/>
       <c r="G227" s="36"/>
@@ -47152,7 +47121,7 @@
       <c r="C228" s="34"/>
       <c r="D228" s="34"/>
       <c r="E228" s="34" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F228" s="36"/>
       <c r="G228" s="36"/>
@@ -47164,7 +47133,7 @@
       <c r="C229" s="34"/>
       <c r="D229" s="34"/>
       <c r="E229" s="34" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F229" s="36"/>
       <c r="G229" s="36"/>
@@ -47175,16 +47144,16 @@
         <v>5</v>
       </c>
       <c r="B230" s="34" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C230" s="34" t="s">
+        <v>407</v>
+      </c>
+      <c r="D230" s="34" t="s">
         <v>1141</v>
       </c>
-      <c r="C230" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D230" s="34" t="s">
+      <c r="E230" s="34" t="s">
         <v>1142</v>
-      </c>
-      <c r="E230" s="34" t="s">
-        <v>1143</v>
       </c>
       <c r="F230" s="36"/>
       <c r="G230" s="36"/>
@@ -47196,7 +47165,7 @@
       <c r="C231" s="34"/>
       <c r="D231" s="34"/>
       <c r="E231" s="34" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F231" s="36"/>
       <c r="G231" s="36"/>
@@ -47264,19 +47233,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>783</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="101" t="s">
-        <v>939</v>
-      </c>
-      <c r="H1" s="102"/>
-      <c r="I1" s="102"/>
+      <c r="A1" s="114" t="s">
+        <v>782</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="117" t="s">
+        <v>938</v>
+      </c>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="40" t="s">
@@ -47304,7 +47273,7 @@
         <v>298</v>
       </c>
       <c r="I2" s="40" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="35" customFormat="1" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -47325,7 +47294,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C4" s="63" t="s">
         <v>299</v>
@@ -47344,7 +47313,7 @@
         <v>302</v>
       </c>
       <c r="I4" s="63" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -47352,7 +47321,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C5" s="63" t="s">
         <v>299</v>
@@ -47368,7 +47337,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="I5" s="63"/>
     </row>
@@ -47377,7 +47346,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C6" s="63" t="s">
         <v>304</v>
@@ -47398,13 +47367,13 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>306</v>
@@ -47421,13 +47390,13 @@
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C8" s="63" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E8" s="63" t="s">
         <v>307</v>
@@ -47444,7 +47413,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C9" s="63" t="s">
         <v>308</v>
@@ -47461,7 +47430,7 @@
       </c>
       <c r="H9" s="63"/>
       <c r="I9" s="63" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -47469,7 +47438,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C10" s="63" t="s">
         <v>308</v>
@@ -47490,7 +47459,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C11" s="63" t="s">
         <v>308</v>
@@ -47511,7 +47480,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" s="63" t="s">
         <v>308</v>
@@ -47526,7 +47495,7 @@
       </c>
       <c r="H12" s="63"/>
       <c r="I12" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -47534,26 +47503,26 @@
         <v>5</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C13" s="63" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D13" s="63" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E13" s="63" t="s">
+        <v>688</v>
+      </c>
+      <c r="F13" s="63" t="s">
         <v>689</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>690</v>
       </c>
       <c r="G13" s="63" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="63"/>
       <c r="I13" s="63" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -47561,26 +47530,26 @@
         <v>5</v>
       </c>
       <c r="B14" s="63" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C14" s="63" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D14" s="63" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E14" s="63" t="s">
+        <v>690</v>
+      </c>
+      <c r="F14" s="63" t="s">
         <v>691</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>692</v>
       </c>
       <c r="G14" s="63" t="b">
         <v>0</v>
       </c>
       <c r="H14" s="63"/>
       <c r="I14" s="63" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
   </sheetData>
@@ -47646,22 +47615,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="187.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
-        <v>881</v>
-      </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="98" t="s">
-        <v>458</v>
-      </c>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
-      <c r="J1" s="99"/>
-      <c r="K1" s="99"/>
-      <c r="L1" s="100"/>
+      <c r="A1" s="114" t="s">
+        <v>880</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="114" t="s">
+        <v>457</v>
+      </c>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="116"/>
     </row>
     <row r="2" spans="1:12" s="43" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -47674,7 +47643,7 @@
         <v>10</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>12</v>
@@ -47698,24 +47667,24 @@
         <v>18</v>
       </c>
       <c r="L2" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>21</v>
@@ -47727,23 +47696,23 @@
         <v>21</v>
       </c>
       <c r="I3" s="36" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K3" s="36"/>
       <c r="L3" s="34"/>
     </row>
     <row r="4" spans="1:12" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>22</v>
@@ -47761,23 +47730,23 @@
         <v>21</v>
       </c>
       <c r="I4" s="36" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="J4" s="36" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K4" s="36"/>
       <c r="L4" s="30"/>
     </row>
     <row r="5" spans="1:12" s="32" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>24</v>
@@ -47795,10 +47764,10 @@
         <v>21</v>
       </c>
       <c r="I5" s="36" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="K5" s="36"/>
       <c r="L5" s="30"/>
@@ -47824,7 +47793,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>19</v>
@@ -47833,7 +47802,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="63" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F7" s="63" t="s">
         <v>23</v>
@@ -47845,16 +47814,16 @@
         <v>21</v>
       </c>
       <c r="I7" s="63" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="J7" s="63" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K7" s="63" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="L7" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="32" customFormat="1" x14ac:dyDescent="0.2">
@@ -47862,10 +47831,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>22</v>
@@ -47883,10 +47852,10 @@
         <v>21</v>
       </c>
       <c r="I8" s="63" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="J8" s="63" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K8" s="63"/>
       <c r="L8" s="63"/>
@@ -47896,10 +47865,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" s="63" t="s">
         <v>24</v>
@@ -47917,10 +47886,10 @@
         <v>21</v>
       </c>
       <c r="I9" s="63" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J9" s="63" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K9" s="63"/>
       <c r="L9" s="63"/>
@@ -47958,18 +47927,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="113" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="119" t="s">
         <v>1146</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="117" t="s">
-        <v>1147</v>
-      </c>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -47979,45 +47948,45 @@
         <v>6</v>
       </c>
       <c r="C2" s="28" t="s">
+        <v>697</v>
+      </c>
+      <c r="D2" s="28" t="s">
         <v>698</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="E2" s="28" t="s">
         <v>699</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="F2" s="97" t="s">
         <v>700</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="G2" s="29" t="s">
         <v>701</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>702</v>
-      </c>
       <c r="H2" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D3" s="34" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E3" s="34" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H3" s="36"/>
     </row>
@@ -48060,10 +48029,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="43" customFormat="1" ht="95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>888</v>
-      </c>
-      <c r="B1" s="103"/>
+      <c r="A1" s="113" t="s">
+        <v>887</v>
+      </c>
+      <c r="B1" s="120"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -48078,7 +48047,7 @@
         <v>27</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -48126,16 +48095,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="103.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="97" t="s">
-        <v>445</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
+      <c r="A1" s="113" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
     </row>
     <row r="2" spans="1:8" s="43" customFormat="1" ht="43.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
@@ -48160,18 +48129,18 @@
         <v>34</v>
       </c>
       <c r="H2" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D3" s="36" t="s">
         <v>35</v>
@@ -48180,20 +48149,20 @@
         <v>38</v>
       </c>
       <c r="F3" s="36" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="G3" s="36"/>
       <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D4" s="36" t="s">
         <v>35</v>
@@ -48202,20 +48171,20 @@
         <v>38</v>
       </c>
       <c r="F4" s="36" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="34" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D5" s="36" t="s">
         <v>35</v>
@@ -48224,7 +48193,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="36" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
@@ -48246,7 +48215,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="63" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C7" s="63" t="s">
         <v>19</v>
@@ -48261,10 +48230,10 @@
         <v>37</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H7" s="64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="28.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -48272,10 +48241,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C8" s="63" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D8" s="63" t="s">
         <v>35</v>
@@ -48294,13 +48263,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="63" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C9" s="63" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E9" s="63" t="s">
         <v>38</v>
